--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5064,6 +5064,88 @@
       <c r="E227" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>369.505</v>
+      </c>
+      <c r="C228" t="n">
+        <v>343.5009090909091</v>
+      </c>
+      <c r="D228" t="n">
+        <v>356.6415384615385</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>381.645</v>
+      </c>
+      <c r="C229" t="n">
+        <v>341.42</v>
+      </c>
+      <c r="D229" t="n">
+        <v>352.0084615384616</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>364.275</v>
+      </c>
+      <c r="C230" t="n">
+        <v>349.1627272727272</v>
+      </c>
+      <c r="D230" t="n">
+        <v>348.1361538461539</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="n">
+        <v>361.930909090909</v>
+      </c>
+      <c r="D231" t="n">
+        <v>365.07</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B274"/>
+  <dimension ref="A1:B278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7826,6 +7908,46 @@
       </c>
       <c r="B274" t="n">
         <v>-0.44</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>-0.55</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -7994,28 +8116,28 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.224745105821077</v>
+        <v>-0.2434142107645311</v>
       </c>
       <c r="J2" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K2" t="n">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006362293603838776</v>
+        <v>0.007659491570039534</v>
       </c>
       <c r="M2" t="n">
-        <v>15.18446025409977</v>
+        <v>15.11277091190466</v>
       </c>
       <c r="N2" t="n">
-        <v>397.8050711993646</v>
+        <v>393.3056413739342</v>
       </c>
       <c r="O2" t="n">
-        <v>19.94505129598229</v>
+        <v>19.83193488729565</v>
       </c>
       <c r="P2" t="n">
-        <v>383.8494605835394</v>
+        <v>384.0354997838793</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -8071,28 +8193,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3602042904755412</v>
+        <v>0.4226230057150179</v>
       </c>
       <c r="J3" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K3" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04005928484338517</v>
+        <v>0.05452411010793556</v>
       </c>
       <c r="M3" t="n">
-        <v>9.689699437465903</v>
+        <v>9.804349780668655</v>
       </c>
       <c r="N3" t="n">
-        <v>153.9098514468743</v>
+        <v>156.7928806939361</v>
       </c>
       <c r="O3" t="n">
-        <v>12.40604092556825</v>
+        <v>12.52169639840929</v>
       </c>
       <c r="P3" t="n">
-        <v>323.9198629387672</v>
+        <v>323.2960736337581</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -8148,28 +8270,28 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04405690045077604</v>
+        <v>0.107521246717104</v>
       </c>
       <c r="J4" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K4" t="n">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0008365801448466659</v>
+        <v>0.004939581022818329</v>
       </c>
       <c r="M4" t="n">
-        <v>8.22970152942659</v>
+        <v>8.372018904180385</v>
       </c>
       <c r="N4" t="n">
-        <v>113.6531774842297</v>
+        <v>116.8348088145055</v>
       </c>
       <c r="O4" t="n">
-        <v>10.66082442798069</v>
+        <v>10.80901516395021</v>
       </c>
       <c r="P4" t="n">
-        <v>338.4739122880605</v>
+        <v>337.8362193258101</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -8206,7 +8328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14059,6 +14181,110 @@
         </is>
       </c>
     </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>-36.15200350947388,175.44675862146119</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>-36.15245226912934,175.44752749897833</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>-36.152563997872434,175.4484245939425</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>-36.15189898594028,175.44679838596264</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>-36.152470185455805,175.44752068303865</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>-36.15260388805282,175.4484094187593</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>-36.15204853896648,175.4467414905954</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>-36.15240352169164,175.4475460440369</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>-36.152637228109405,175.44839673538917</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>-36.15229358947967,175.44758786562625</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>-36.15249142992773,175.4484522004942</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -7961,7 +7961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8052,35 +8052,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -8139,27 +8144,28 @@
       <c r="P2" t="n">
         <v>384.0354997838793</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.44554826287484 -36.15518488553713, 175.44856844531418 -36.147245999027156)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.4455482628748</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.15518488553713</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.4485684453142</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.14724599902716</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.4470583540945</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.15121544228214</v>
       </c>
     </row>
@@ -8216,27 +8222,28 @@
       <c r="P3" t="n">
         <v>323.2960736337581</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.446402335505 -36.15540975799423, 175.44942246549763 -36.14747086791192)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.446402335505</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.15540975799423</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.4494224654976</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.14747086791192</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.4479124005013</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.15144031295307</v>
       </c>
     </row>
@@ -8293,27 +8300,28 @@
       <c r="P4" t="n">
         <v>337.8362193258101</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.44725640813553 -36.15563462980616, 175.45027648568035 -36.1476957361526)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.4472564081355</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.15563462980616</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.4502764856803</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.1476957361526</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.4487664469079</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.15166518297938</v>
       </c>
     </row>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5136,7 +5136,9 @@
           <t>2025-01-06 22:05:42+00:00</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" t="n">
+        <v>414.365</v>
+      </c>
       <c r="C231" t="n">
         <v>361.930909090909</v>
       </c>
@@ -5146,6 +5148,48 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>397.44</v>
+      </c>
+      <c r="C232" t="n">
+        <v>343.8172727272727</v>
+      </c>
+      <c r="D232" t="n">
+        <v>355.4061538461539</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>394.12</v>
+      </c>
+      <c r="C233" t="n">
+        <v>352.2490909090909</v>
+      </c>
+      <c r="D233" t="n">
+        <v>350.4607692307692</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5160,7 +5204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B278"/>
+  <dimension ref="A1:B280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7948,6 +7992,26 @@
       </c>
       <c r="B278" t="n">
         <v>0.39</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -8121,28 +8185,28 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2434142107645311</v>
+        <v>-0.174961878281695</v>
       </c>
       <c r="J2" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K2" t="n">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L2" t="n">
-        <v>0.007659491570039534</v>
+        <v>0.003997880552772171</v>
       </c>
       <c r="M2" t="n">
-        <v>15.11277091190466</v>
+        <v>15.14821193726018</v>
       </c>
       <c r="N2" t="n">
-        <v>393.3056413739342</v>
+        <v>396.8004724182996</v>
       </c>
       <c r="O2" t="n">
-        <v>19.83193488729565</v>
+        <v>19.91985121476312</v>
       </c>
       <c r="P2" t="n">
-        <v>384.0354997838793</v>
+        <v>383.3484326207678</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8199,28 +8263,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4226230057150179</v>
+        <v>0.4496463298716629</v>
       </c>
       <c r="J3" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K3" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05452411010793556</v>
+        <v>0.06173481813154791</v>
       </c>
       <c r="M3" t="n">
-        <v>9.804349780668655</v>
+        <v>9.841931656871802</v>
       </c>
       <c r="N3" t="n">
-        <v>156.7928806939361</v>
+        <v>157.2755211873792</v>
       </c>
       <c r="O3" t="n">
-        <v>12.52169639840929</v>
+        <v>12.54095375907986</v>
       </c>
       <c r="P3" t="n">
-        <v>323.2960736337581</v>
+        <v>323.0233397737188</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8277,28 +8341,28 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.107521246717104</v>
+        <v>0.131961749896081</v>
       </c>
       <c r="J4" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K4" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L4" t="n">
-        <v>0.004939581022818329</v>
+        <v>0.007482166428662396</v>
       </c>
       <c r="M4" t="n">
-        <v>8.372018904180385</v>
+        <v>8.413379570055914</v>
       </c>
       <c r="N4" t="n">
-        <v>116.8348088145055</v>
+        <v>117.1976850230238</v>
       </c>
       <c r="O4" t="n">
-        <v>10.80901516395021</v>
+        <v>10.82578796314725</v>
       </c>
       <c r="P4" t="n">
-        <v>337.8362193258101</v>
+        <v>337.5882986360025</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8336,7 +8400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E231"/>
+  <dimension ref="A1:E233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14276,7 +14340,11 @@
           <t>2025-01-06 22:05:42+00:00</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr"/>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>-36.151617271716766,175.44690555964823</t>
+        </is>
+      </c>
       <c r="C231" t="inlineStr">
         <is>
           <t>-36.15229358947967,175.44758786562625</t>
@@ -14290,6 +14358,60 @@
       <c r="E231" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>-36.15176299340241,175.44685012224875</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>-36.15244954528414,175.44752853521533</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>-36.15257463437096,175.4484205475643</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>-36.15179157809691,175.44683924765226</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>-36.15237694854502,175.4475561532883</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>-36.152617213478834,175.44840434944373</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5188,6 +5188,25 @@
         <v>350.4607692307692</v>
       </c>
       <c r="E233" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>379.62</v>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="n">
+        <v>329.1323076923077</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5204,7 +5223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B280"/>
+  <dimension ref="A1:B281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8012,6 +8031,16 @@
       </c>
       <c r="B280" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>-0.54</v>
       </c>
     </row>
   </sheetData>
@@ -8185,28 +8214,28 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.174961878281695</v>
+        <v>-0.1742479447058149</v>
       </c>
       <c r="J2" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K2" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003997880552772171</v>
+        <v>0.00400519999645621</v>
       </c>
       <c r="M2" t="n">
-        <v>15.14821193726018</v>
+        <v>15.0780022841982</v>
       </c>
       <c r="N2" t="n">
-        <v>396.8004724182996</v>
+        <v>394.8954247784393</v>
       </c>
       <c r="O2" t="n">
-        <v>19.91985121476312</v>
+        <v>19.87197586498231</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3484326207678</v>
+        <v>383.3411799610201</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8266,7 +8295,7 @@
         <v>0.4496463298716629</v>
       </c>
       <c r="J3" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K3" t="n">
         <v>211</v>
@@ -8341,28 +8370,28 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.131961749896081</v>
+        <v>0.1202557909557738</v>
       </c>
       <c r="J4" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K4" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007482166428662396</v>
+        <v>0.006251404217510914</v>
       </c>
       <c r="M4" t="n">
-        <v>8.413379570055914</v>
+        <v>8.427656402048347</v>
       </c>
       <c r="N4" t="n">
-        <v>117.1976850230238</v>
+        <v>117.2970543237658</v>
       </c>
       <c r="O4" t="n">
-        <v>10.82578796314725</v>
+        <v>10.83037646269814</v>
       </c>
       <c r="P4" t="n">
-        <v>337.5882986360025</v>
+        <v>337.7079685988166</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8400,7 +8429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E233"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14415,6 +14444,29 @@
         </is>
       </c>
     </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>-36.151916420879715,175.4467917530934</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>-36.15280084869296,175.44833448998014</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8830,7 +8830,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.15155807900239,175.4469280784782</t>
+          <t>-36.1515580790024,175.4469280784782</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5207,6 +5207,23 @@
         <v>329.1323076923077</v>
       </c>
       <c r="E234" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="n">
+        <v>437.5554545454546</v>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -5223,7 +5240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B281"/>
+  <dimension ref="A1:B282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8041,6 +8058,16 @@
       </c>
       <c r="B281" t="n">
         <v>-0.54</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>-0.85</v>
       </c>
     </row>
   </sheetData>
@@ -8217,7 +8244,7 @@
         <v>-0.1742479447058149</v>
       </c>
       <c r="J2" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K2" t="n">
         <v>208</v>
@@ -8292,28 +8319,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4496463298716629</v>
+        <v>0.5502410878801567</v>
       </c>
       <c r="J3" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K3" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06173481813154791</v>
+        <v>0.07040667888367369</v>
       </c>
       <c r="M3" t="n">
-        <v>9.841931656871802</v>
+        <v>10.31273813927272</v>
       </c>
       <c r="N3" t="n">
-        <v>157.2755211873792</v>
+        <v>205.7900650443705</v>
       </c>
       <c r="O3" t="n">
-        <v>12.54095375907986</v>
+        <v>14.34538479945277</v>
       </c>
       <c r="P3" t="n">
-        <v>323.0233397737188</v>
+        <v>321.9949084794254</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8373,7 +8400,7 @@
         <v>0.1202557909557738</v>
       </c>
       <c r="J4" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K4" t="n">
         <v>208</v>
@@ -8429,7 +8456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E234"/>
+  <dimension ref="A1:E235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14467,6 +14494,25 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr"/>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-36.15164247275737,175.4478355680995</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr"/>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -5215,17 +5215,21 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23 22:05:18+00:00</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>330.55</v>
+      </c>
       <c r="C235" t="n">
-        <v>437.5554545454546</v>
-      </c>
-      <c r="D235" t="inlineStr"/>
+        <v>312.6236363636364</v>
+      </c>
+      <c r="D235" t="n">
+        <v>333.1323076923077</v>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8068,6 +8072,36 @@
       </c>
       <c r="B282" t="n">
         <v>-0.85</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0.13</v>
       </c>
     </row>
   </sheetData>
@@ -8241,28 +8275,28 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1742479447058149</v>
+        <v>-0.2205521283839831</v>
       </c>
       <c r="J2" t="n">
         <v>234</v>
       </c>
       <c r="K2" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00400519999645621</v>
+        <v>0.006291581803834378</v>
       </c>
       <c r="M2" t="n">
-        <v>15.0780022841982</v>
+        <v>15.29649964553515</v>
       </c>
       <c r="N2" t="n">
-        <v>394.8954247784393</v>
+        <v>404.0015755569996</v>
       </c>
       <c r="O2" t="n">
-        <v>19.87197586498231</v>
+        <v>20.09979043564882</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3411799610201</v>
+        <v>383.8159118085022</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8319,7 +8353,7 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5502410878801567</v>
+        <v>0.4280332008583368</v>
       </c>
       <c r="J3" t="n">
         <v>234</v>
@@ -8328,19 +8362,19 @@
         <v>212</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07040667888367369</v>
+        <v>0.05607771336454148</v>
       </c>
       <c r="M3" t="n">
-        <v>10.31273813927272</v>
+        <v>9.899045820945227</v>
       </c>
       <c r="N3" t="n">
-        <v>205.7900650443705</v>
+        <v>158.7800799474292</v>
       </c>
       <c r="O3" t="n">
-        <v>14.34538479945277</v>
+        <v>12.60079679811675</v>
       </c>
       <c r="P3" t="n">
-        <v>321.9949084794254</v>
+        <v>323.2449313020327</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8397,28 +8431,28 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1202557909557738</v>
+        <v>0.1126378774427687</v>
       </c>
       <c r="J4" t="n">
         <v>234</v>
       </c>
       <c r="K4" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006251404217510914</v>
+        <v>0.005534160265065924</v>
       </c>
       <c r="M4" t="n">
-        <v>8.427656402048347</v>
+        <v>8.42214961783089</v>
       </c>
       <c r="N4" t="n">
-        <v>117.2970543237658</v>
+        <v>117.013401455646</v>
       </c>
       <c r="O4" t="n">
-        <v>10.83037646269814</v>
+        <v>10.81727329116011</v>
       </c>
       <c r="P4" t="n">
-        <v>337.7079685988166</v>
+        <v>337.7865286627113</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -14497,19 +14531,27 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2025-06-23 22:05:18+00:00</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-36.152338905961834,175.4466310239147</t>
+        </is>
+      </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-36.15164247275737,175.4478355680995</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr"/>
+          <t>-36.15271811795131,175.4474263613326</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>-36.15276640922808,175.44834759164465</t>
+        </is>
+      </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5218,9 +5218,7 @@
           <t>2025-07-17 22:05:28+00:00</t>
         </is>
       </c>
-      <c r="B235" t="n">
-        <v>330.55</v>
-      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
         <v>312.6236363636364</v>
       </c>
@@ -5228,6 +5226,27 @@
         <v>333.1323076923077</v>
       </c>
       <c r="E235" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>378.365</v>
+      </c>
+      <c r="C236" t="n">
+        <v>309.1581818181818</v>
+      </c>
+      <c r="D236" t="n">
+        <v>321.1923076923077</v>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -5244,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B285"/>
+  <dimension ref="A1:B286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8102,6 +8121,16 @@
       </c>
       <c r="B285" t="n">
         <v>0.13</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>-0.67</v>
       </c>
     </row>
   </sheetData>
@@ -8275,28 +8304,28 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.2205521283839831</v>
+        <v>-0.1747010928318895</v>
       </c>
       <c r="J2" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K2" t="n">
         <v>209</v>
       </c>
       <c r="L2" t="n">
-        <v>0.006291581803834378</v>
+        <v>0.004067760928069153</v>
       </c>
       <c r="M2" t="n">
-        <v>15.29649964553515</v>
+        <v>15.00867007118343</v>
       </c>
       <c r="N2" t="n">
-        <v>404.0015755569996</v>
+        <v>393.0070090189048</v>
       </c>
       <c r="O2" t="n">
-        <v>20.09979043564882</v>
+        <v>19.82440437992791</v>
       </c>
       <c r="P2" t="n">
-        <v>383.8159118085022</v>
+        <v>383.3458442180985</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8353,28 +8382,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4280332008583368</v>
+        <v>0.4034841087106462</v>
       </c>
       <c r="J3" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K3" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05607771336454148</v>
+        <v>0.04977564219902764</v>
       </c>
       <c r="M3" t="n">
-        <v>9.899045820945227</v>
+        <v>9.971214601495998</v>
       </c>
       <c r="N3" t="n">
-        <v>158.7800799474292</v>
+        <v>160.9611315290252</v>
       </c>
       <c r="O3" t="n">
-        <v>12.60079679811675</v>
+        <v>12.68704581567455</v>
       </c>
       <c r="P3" t="n">
-        <v>323.2449313020327</v>
+        <v>323.4975786688859</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8431,28 +8460,28 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1126378774427687</v>
+        <v>0.09341625146896292</v>
       </c>
       <c r="J4" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K4" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" t="n">
-        <v>0.005534160265065924</v>
+        <v>0.003795767109301185</v>
       </c>
       <c r="M4" t="n">
-        <v>8.42214961783089</v>
+        <v>8.471895992095778</v>
       </c>
       <c r="N4" t="n">
-        <v>117.013401455646</v>
+        <v>118.2406631445875</v>
       </c>
       <c r="O4" t="n">
-        <v>10.81727329116011</v>
+        <v>10.87385226792177</v>
       </c>
       <c r="P4" t="n">
-        <v>337.7865286627113</v>
+        <v>337.9855089046109</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8490,7 +8519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E235"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14534,11 +14563,7 @@
           <t>2025-07-17 22:05:28+00:00</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>-36.152338905961834,175.4466310239147</t>
-        </is>
-      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
           <t>-36.15271811795131,175.4474263613326</t>
@@ -14550,6 +14575,33 @@
         </is>
       </c>
       <c r="E235" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-36.15192722623707,175.44678764235084</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-36.15274795500594,175.44741501029316</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>-36.1528692110273,175.4483084831445</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5249,6 +5249,27 @@
       <c r="E236" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>378.18</v>
+      </c>
+      <c r="C237" t="n">
+        <v>324.199090909091</v>
+      </c>
+      <c r="D237" t="n">
+        <v>331.4207692307692</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -5263,7 +5284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:B288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8131,6 +8152,26 @@
       </c>
       <c r="B286" t="n">
         <v>-0.67</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -8304,28 +8345,28 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1747010928318895</v>
+        <v>-0.1753047645263983</v>
       </c>
       <c r="J2" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K2" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004067760928069153</v>
+        <v>0.004138329607879188</v>
       </c>
       <c r="M2" t="n">
-        <v>15.00867007118343</v>
+        <v>14.94089010462756</v>
       </c>
       <c r="N2" t="n">
-        <v>393.0070090189048</v>
+        <v>391.1373949774283</v>
       </c>
       <c r="O2" t="n">
-        <v>19.82440437992791</v>
+        <v>19.77719380947227</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3458442180985</v>
+        <v>383.3520883094933</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8382,28 +8423,28 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4034841087106462</v>
+        <v>0.393990656546193</v>
       </c>
       <c r="J3" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K3" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04977564219902764</v>
+        <v>0.04792876129953538</v>
       </c>
       <c r="M3" t="n">
-        <v>9.971214601495998</v>
+        <v>9.969874635363025</v>
       </c>
       <c r="N3" t="n">
-        <v>160.9611315290252</v>
+        <v>160.649119102603</v>
       </c>
       <c r="O3" t="n">
-        <v>12.68704581567455</v>
+        <v>12.67474335450636</v>
       </c>
       <c r="P3" t="n">
-        <v>323.4975786688859</v>
+        <v>323.5957407125633</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8460,28 +8501,28 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09341625146896292</v>
+        <v>0.08460261385703659</v>
       </c>
       <c r="J4" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K4" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003795767109301185</v>
+        <v>0.003138608763486705</v>
       </c>
       <c r="M4" t="n">
-        <v>8.471895992095778</v>
+        <v>8.473254803368542</v>
       </c>
       <c r="N4" t="n">
-        <v>118.2406631445875</v>
+        <v>118.0575828949598</v>
       </c>
       <c r="O4" t="n">
-        <v>10.87385226792177</v>
+        <v>10.8654306355045</v>
       </c>
       <c r="P4" t="n">
-        <v>337.9855089046109</v>
+        <v>338.077178987475</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8519,7 +8560,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14607,6 +14648,33 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-36.151928819058675,175.44678703638473</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-36.15261845498144,175.44746427648568</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-36.15278114534541,175.44834198564527</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -473,10 +473,10 @@
         <v>393.07</v>
       </c>
       <c r="C2" t="n">
-        <v>312.4990909090909</v>
+        <v>312.5</v>
       </c>
       <c r="D2" t="n">
-        <v>325.4130769230769</v>
+        <v>325.41</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
         <v>312.5</v>
       </c>
       <c r="D3" t="n">
-        <v>329.2261538461539</v>
+        <v>329.23</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401.825</v>
+        <v>401.82</v>
       </c>
       <c r="C4" t="n">
         <v>332.42</v>
       </c>
       <c r="D4" t="n">
-        <v>350.8053846153846</v>
+        <v>350.81</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.035</v>
+        <v>402.04</v>
       </c>
       <c r="C5" t="n">
-        <v>324.6663636363636</v>
+        <v>324.67</v>
       </c>
       <c r="D5" t="n">
         <v>336.93</v>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.915</v>
+        <v>397.92</v>
       </c>
       <c r="C6" t="n">
-        <v>320.4445454545454</v>
+        <v>320.44</v>
       </c>
       <c r="D6" t="n">
-        <v>332.5692307692308</v>
+        <v>332.57</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -576,10 +576,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>333.3963636363636</v>
+        <v>333.4</v>
       </c>
       <c r="D7" t="n">
-        <v>346.1276923076923</v>
+        <v>346.13</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -597,10 +597,10 @@
         <v>383.62</v>
       </c>
       <c r="C8" t="n">
-        <v>326.2281818181818</v>
+        <v>326.23</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1192307692308</v>
+        <v>332.12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>393.49</v>
       </c>
       <c r="C9" t="n">
-        <v>306.5236363636364</v>
+        <v>306.52</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>402.445</v>
+        <v>402.44</v>
       </c>
       <c r="C10" t="n">
-        <v>329.7945454545454</v>
+        <v>329.79</v>
       </c>
       <c r="D10" t="n">
-        <v>345.7023076923077</v>
+        <v>345.7</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -658,10 +658,10 @@
         <v>413.8</v>
       </c>
       <c r="C11" t="n">
-        <v>336.3172727272727</v>
+        <v>336.32</v>
       </c>
       <c r="D11" t="n">
-        <v>333.8961538461539</v>
+        <v>333.9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.315</v>
+        <v>406.31</v>
       </c>
       <c r="C12" t="n">
-        <v>335.6872727272727</v>
+        <v>335.69</v>
       </c>
       <c r="D12" t="n">
-        <v>340.7784615384616</v>
+        <v>340.78</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -700,10 +700,10 @@
         <v>389.51</v>
       </c>
       <c r="C13" t="n">
-        <v>329.1645454545454</v>
+        <v>329.16</v>
       </c>
       <c r="D13" t="n">
-        <v>348.8069230769231</v>
+        <v>348.81</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>418.195</v>
+        <v>418.19</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -736,10 +736,10 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>325.8518181818182</v>
+        <v>325.85</v>
       </c>
       <c r="D15" t="n">
-        <v>339.8223076923077</v>
+        <v>339.82</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>327.34</v>
       </c>
       <c r="D17" t="n">
-        <v>339.1646153846153</v>
+        <v>339.16</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -795,10 +795,10 @@
         <v>393.11</v>
       </c>
       <c r="C18" t="n">
-        <v>354.3272727272728</v>
+        <v>354.33</v>
       </c>
       <c r="D18" t="n">
-        <v>344.6546153846153</v>
+        <v>344.65</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -816,10 +816,10 @@
         <v>367.6</v>
       </c>
       <c r="C19" t="n">
-        <v>353.0445454545454</v>
+        <v>353.04</v>
       </c>
       <c r="D19" t="n">
-        <v>349.5792307692308</v>
+        <v>349.58</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>375.245</v>
+        <v>375.25</v>
       </c>
       <c r="C20" t="n">
-        <v>319.8090909090909</v>
+        <v>319.81</v>
       </c>
       <c r="D20" t="n">
         <v>332.29</v>
@@ -875,10 +875,10 @@
         <v>379.14</v>
       </c>
       <c r="C22" t="n">
-        <v>331.4036363636364</v>
+        <v>331.4</v>
       </c>
       <c r="D22" t="n">
-        <v>343.9115384615384</v>
+        <v>343.91</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -896,10 +896,10 @@
         <v>336.19</v>
       </c>
       <c r="C23" t="n">
-        <v>317.1663636363636</v>
+        <v>317.17</v>
       </c>
       <c r="D23" t="n">
-        <v>330.6423076923077</v>
+        <v>330.64</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>368.605</v>
+        <v>368.61</v>
       </c>
       <c r="C24" t="n">
-        <v>324.1081818181818</v>
+        <v>324.11</v>
       </c>
       <c r="D24" t="n">
-        <v>336.8653846153846</v>
+        <v>336.87</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>380.425</v>
+        <v>380.43</v>
       </c>
       <c r="C25" t="n">
-        <v>308.5745454545454</v>
+        <v>308.57</v>
       </c>
       <c r="D25" t="n">
-        <v>322.3092307692308</v>
+        <v>322.31</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -956,13 +956,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.175</v>
+        <v>406.18</v>
       </c>
       <c r="C26" t="n">
-        <v>325.9509090909091</v>
+        <v>325.95</v>
       </c>
       <c r="D26" t="n">
-        <v>337.6992307692308</v>
+        <v>337.7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>318.81</v>
       </c>
       <c r="D27" t="n">
-        <v>328.1792307692308</v>
+        <v>328.18</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1001,10 +1001,10 @@
         <v>392</v>
       </c>
       <c r="C28" t="n">
-        <v>325.3054545454545</v>
+        <v>325.31</v>
       </c>
       <c r="D28" t="n">
-        <v>342.4284615384615</v>
+        <v>342.43</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>370.8</v>
       </c>
       <c r="C29" t="n">
-        <v>328.1081818181818</v>
+        <v>328.11</v>
       </c>
       <c r="D29" t="n">
         <v>341.07</v>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>345.095</v>
+        <v>345.1</v>
       </c>
       <c r="C30" t="n">
-        <v>327.2972727272727</v>
+        <v>327.3</v>
       </c>
       <c r="D30" t="n">
-        <v>337.5576923076923</v>
+        <v>337.56</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
         <v>381.89</v>
       </c>
       <c r="C31" t="n">
-        <v>334.9754545454546</v>
+        <v>334.98</v>
       </c>
       <c r="D31" t="n">
         <v>343.7</v>
@@ -1085,10 +1085,10 @@
         <v>352.26</v>
       </c>
       <c r="C32" t="n">
-        <v>349.0536363636364</v>
+        <v>349.05</v>
       </c>
       <c r="D32" t="n">
-        <v>349.1415384615385</v>
+        <v>349.14</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1106,10 +1106,10 @@
         <v>331.81</v>
       </c>
       <c r="C33" t="n">
-        <v>317.9654545454546</v>
+        <v>317.97</v>
       </c>
       <c r="D33" t="n">
-        <v>333.2038461538461</v>
+        <v>333.2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1127,10 +1127,10 @@
         <v>330.12</v>
       </c>
       <c r="C34" t="n">
-        <v>322.2009090909091</v>
+        <v>322.2</v>
       </c>
       <c r="D34" t="n">
-        <v>328.9015384615385</v>
+        <v>328.9</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         <v>349.16</v>
       </c>
       <c r="C35" t="n">
-        <v>331.6063636363637</v>
+        <v>331.61</v>
       </c>
       <c r="D35" t="n">
-        <v>346.5561538461538</v>
+        <v>346.56</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1169,10 +1169,10 @@
         <v>405.08</v>
       </c>
       <c r="C36" t="n">
-        <v>353.4463636363636</v>
+        <v>353.45</v>
       </c>
       <c r="D36" t="n">
-        <v>358.3930769230769</v>
+        <v>358.39</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>400.375</v>
+        <v>400.38</v>
       </c>
       <c r="C37" t="n">
-        <v>343.7081818181818</v>
+        <v>343.71</v>
       </c>
       <c r="D37" t="n">
-        <v>349.1853846153846</v>
+        <v>349.19</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1211,10 +1211,10 @@
         <v>396.44</v>
       </c>
       <c r="C38" t="n">
-        <v>318.3654545454545</v>
+        <v>318.37</v>
       </c>
       <c r="D38" t="n">
-        <v>320.6176923076923</v>
+        <v>320.62</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
         <v>391.26</v>
       </c>
       <c r="C39" t="n">
-        <v>322.7972727272727</v>
+        <v>322.8</v>
       </c>
       <c r="D39" t="n">
-        <v>336.3961538461539</v>
+        <v>336.4</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         <v>394.57</v>
       </c>
       <c r="C40" t="n">
-        <v>302.7072727272728</v>
+        <v>302.71</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1269,13 +1269,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>385.045</v>
+        <v>385.05</v>
       </c>
       <c r="C41" t="n">
-        <v>340.3536363636364</v>
+        <v>340.35</v>
       </c>
       <c r="D41" t="n">
-        <v>352.9607692307692</v>
+        <v>352.96</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>366.215</v>
+        <v>366.21</v>
       </c>
       <c r="C42" t="n">
-        <v>345.0336363636364</v>
+        <v>345.03</v>
       </c>
       <c r="D42" t="n">
-        <v>356.5161538461539</v>
+        <v>356.52</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>371.025</v>
+        <v>371.02</v>
       </c>
       <c r="C43" t="n">
-        <v>329.9145454545454</v>
+        <v>329.91</v>
       </c>
       <c r="D43" t="n">
-        <v>342.3484615384615</v>
+        <v>342.35</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1338,7 +1338,7 @@
         <v>325.11</v>
       </c>
       <c r="D44" t="n">
-        <v>337.2792307692308</v>
+        <v>337.28</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>331.3754545454545</v>
+        <v>331.38</v>
       </c>
       <c r="D45" t="n">
         <v>338.41</v>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>320.5454545454546</v>
+        <v>320.55</v>
       </c>
       <c r="D46" t="n">
         <v>331.14</v>
@@ -1394,10 +1394,10 @@
         <v>331.41</v>
       </c>
       <c r="C47" t="n">
-        <v>315.3554545454546</v>
+        <v>315.36</v>
       </c>
       <c r="D47" t="n">
-        <v>329.5630769230769</v>
+        <v>329.56</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>319.99</v>
       </c>
       <c r="D48" t="n">
-        <v>332.6407692307693</v>
+        <v>332.64</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1431,13 +1431,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.515</v>
+        <v>369.51</v>
       </c>
       <c r="C49" t="n">
-        <v>325.3118181818182</v>
+        <v>325.31</v>
       </c>
       <c r="D49" t="n">
-        <v>339.2030769230769</v>
+        <v>339.2</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1452,13 +1452,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>411.855</v>
+        <v>411.86</v>
       </c>
       <c r="C50" t="n">
-        <v>330.6572727272728</v>
+        <v>330.66</v>
       </c>
       <c r="D50" t="n">
-        <v>336.5838461538461</v>
+        <v>336.58</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>396.795</v>
+        <v>396.8</v>
       </c>
       <c r="C51" t="n">
-        <v>324.6827272727273</v>
+        <v>324.68</v>
       </c>
       <c r="D51" t="n">
-        <v>350.4984615384615</v>
+        <v>350.5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1497,10 +1497,10 @@
         <v>407.29</v>
       </c>
       <c r="C52" t="n">
-        <v>339.2690909090909</v>
+        <v>339.27</v>
       </c>
       <c r="D52" t="n">
-        <v>342.7661538461539</v>
+        <v>342.77</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1515,13 +1515,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>395.765</v>
+        <v>395.76</v>
       </c>
       <c r="C53" t="n">
-        <v>328.0854545454546</v>
+        <v>328.09</v>
       </c>
       <c r="D53" t="n">
-        <v>342.2053846153846</v>
+        <v>342.21</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1539,10 +1539,10 @@
         <v>386.34</v>
       </c>
       <c r="C54" t="n">
-        <v>341.8327272727273</v>
+        <v>341.83</v>
       </c>
       <c r="D54" t="n">
-        <v>344.1146153846154</v>
+        <v>344.11</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         <v>383.6</v>
       </c>
       <c r="C55" t="n">
-        <v>322.0445454545454</v>
+        <v>322.04</v>
       </c>
       <c r="D55" t="n">
-        <v>337.2453846153846</v>
+        <v>337.25</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1581,10 +1581,10 @@
         <v>368.57</v>
       </c>
       <c r="C56" t="n">
-        <v>328.9918181818182</v>
+        <v>328.99</v>
       </c>
       <c r="D56" t="n">
-        <v>339.2946153846154</v>
+        <v>339.29</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1619,10 +1619,10 @@
         <v>393.28</v>
       </c>
       <c r="C58" t="n">
-        <v>323.1863636363636</v>
+        <v>323.19</v>
       </c>
       <c r="D58" t="n">
-        <v>334.9115384615384</v>
+        <v>334.91</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>398.435</v>
+        <v>398.44</v>
       </c>
       <c r="C59" t="n">
-        <v>315.3554545454546</v>
+        <v>315.36</v>
       </c>
       <c r="D59" t="n">
-        <v>335.5230769230769</v>
+        <v>335.52</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         <v>394.78</v>
       </c>
       <c r="C60" t="n">
-        <v>329.6281818181818</v>
+        <v>329.63</v>
       </c>
       <c r="D60" t="n">
-        <v>336.9838461538461</v>
+        <v>336.98</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
         <v>386.13</v>
       </c>
       <c r="C61" t="n">
-        <v>332.1127272727272</v>
+        <v>332.11</v>
       </c>
       <c r="D61" t="n">
-        <v>342.3346153846153</v>
+        <v>342.33</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>382.285</v>
+        <v>382.29</v>
       </c>
       <c r="C62" t="n">
-        <v>326.9481818181818</v>
+        <v>326.95</v>
       </c>
       <c r="D62" t="n">
-        <v>340.3469230769231</v>
+        <v>340.35</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1724,10 +1724,10 @@
         <v>375.88</v>
       </c>
       <c r="C63" t="n">
-        <v>316.1590909090909</v>
+        <v>316.16</v>
       </c>
       <c r="D63" t="n">
-        <v>321.4561538461539</v>
+        <v>321.46</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1745,10 +1745,10 @@
         <v>383.83</v>
       </c>
       <c r="C64" t="n">
-        <v>316.8536363636364</v>
+        <v>316.85</v>
       </c>
       <c r="D64" t="n">
-        <v>334.0230769230769</v>
+        <v>334.02</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1766,10 +1766,10 @@
         <v>387.06</v>
       </c>
       <c r="C65" t="n">
-        <v>332.7472727272728</v>
+        <v>332.75</v>
       </c>
       <c r="D65" t="n">
-        <v>347.1215384615385</v>
+        <v>347.12</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1787,10 +1787,10 @@
         <v>398.4</v>
       </c>
       <c r="C66" t="n">
-        <v>350.4372727272727</v>
+        <v>350.44</v>
       </c>
       <c r="D66" t="n">
-        <v>350.7738461538461</v>
+        <v>350.77</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1808,10 +1808,10 @@
         <v>363.34</v>
       </c>
       <c r="C67" t="n">
-        <v>322.3454545454546</v>
+        <v>322.35</v>
       </c>
       <c r="D67" t="n">
-        <v>326.7592307692308</v>
+        <v>326.76</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>328.3</v>
       </c>
       <c r="D68" t="n">
-        <v>337.1492307692308</v>
+        <v>337.15</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>387.305</v>
+        <v>387.31</v>
       </c>
       <c r="C69" t="n">
         <v>329.12</v>
       </c>
       <c r="D69" t="n">
-        <v>352.1738461538461</v>
+        <v>352.17</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1866,13 +1866,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>353.835</v>
+        <v>353.83</v>
       </c>
       <c r="C70" t="n">
-        <v>310.5127272727273</v>
+        <v>310.51</v>
       </c>
       <c r="D70" t="n">
-        <v>325.1123076923077</v>
+        <v>325.11</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1888,10 +1888,10 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>321.8981818181818</v>
+        <v>321.9</v>
       </c>
       <c r="D71" t="n">
-        <v>331.2253846153847</v>
+        <v>331.23</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>356.795</v>
+        <v>356.8</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -1926,10 +1926,10 @@
         <v>343.57</v>
       </c>
       <c r="C73" t="n">
-        <v>325.9745454545454</v>
+        <v>325.97</v>
       </c>
       <c r="D73" t="n">
-        <v>336.0146153846153</v>
+        <v>336.01</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1947,10 +1947,10 @@
         <v>386.33</v>
       </c>
       <c r="C74" t="n">
-        <v>337.3736363636364</v>
+        <v>337.37</v>
       </c>
       <c r="D74" t="n">
-        <v>358.1138461538461</v>
+        <v>358.11</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1965,13 +1965,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>377.595</v>
+        <v>377.6</v>
       </c>
       <c r="C75" t="n">
-        <v>325.2909090909091</v>
+        <v>325.29</v>
       </c>
       <c r="D75" t="n">
-        <v>337.1315384615385</v>
+        <v>337.13</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1989,10 +1989,10 @@
         <v>386.14</v>
       </c>
       <c r="C76" t="n">
-        <v>324.4318181818182</v>
+        <v>324.43</v>
       </c>
       <c r="D76" t="n">
-        <v>333.7715384615385</v>
+        <v>333.77</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2007,13 +2007,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>404.705</v>
+        <v>404.7</v>
       </c>
       <c r="C77" t="n">
-        <v>311.9881818181818</v>
+        <v>311.99</v>
       </c>
       <c r="D77" t="n">
-        <v>331.4769230769231</v>
+        <v>331.48</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2031,10 +2031,10 @@
         <v>393.2</v>
       </c>
       <c r="C78" t="n">
-        <v>319.1681818181818</v>
+        <v>319.17</v>
       </c>
       <c r="D78" t="n">
-        <v>336.4630769230769</v>
+        <v>336.46</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         <v>359.9</v>
       </c>
       <c r="C79" t="n">
-        <v>302.6263636363636</v>
+        <v>302.63</v>
       </c>
       <c r="D79" t="n">
-        <v>317.9476923076923</v>
+        <v>317.95</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2073,10 +2073,10 @@
         <v>384.75</v>
       </c>
       <c r="C80" t="n">
-        <v>327.0736363636364</v>
+        <v>327.07</v>
       </c>
       <c r="D80" t="n">
-        <v>341.1930769230769</v>
+        <v>341.19</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>319.16</v>
       </c>
       <c r="D81" t="n">
-        <v>328.0984615384615</v>
+        <v>328.1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>358.235</v>
+        <v>358.24</v>
       </c>
       <c r="C82" t="n">
-        <v>329.1854545454545</v>
+        <v>329.19</v>
       </c>
       <c r="D82" t="n">
         <v>351.79</v>
@@ -2133,13 +2133,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>378.155</v>
+        <v>378.15</v>
       </c>
       <c r="C83" t="n">
-        <v>322.7654545454546</v>
+        <v>322.77</v>
       </c>
       <c r="D83" t="n">
-        <v>348.5530769230769</v>
+        <v>348.55</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2156,7 +2156,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>336.7061538461539</v>
+        <v>336.71</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2174,10 +2174,10 @@
         <v>378.96</v>
       </c>
       <c r="C85" t="n">
-        <v>320.1427272727273</v>
+        <v>320.14</v>
       </c>
       <c r="D85" t="n">
-        <v>333.4407692307692</v>
+        <v>333.44</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2195,10 +2195,10 @@
         <v>383.47</v>
       </c>
       <c r="C86" t="n">
-        <v>324.1354545454545</v>
+        <v>324.14</v>
       </c>
       <c r="D86" t="n">
-        <v>334.4346153846154</v>
+        <v>334.43</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2216,10 +2216,10 @@
         <v>398.07</v>
       </c>
       <c r="C87" t="n">
-        <v>322.6309090909091</v>
+        <v>322.63</v>
       </c>
       <c r="D87" t="n">
-        <v>328.7015384615385</v>
+        <v>328.7</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2237,10 +2237,10 @@
         <v>392.95</v>
       </c>
       <c r="C88" t="n">
-        <v>344.3527272727272</v>
+        <v>344.35</v>
       </c>
       <c r="D88" t="n">
-        <v>347.2538461538461</v>
+        <v>347.25</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2256,10 +2256,10 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>315.3272727272728</v>
+        <v>315.33</v>
       </c>
       <c r="D89" t="n">
-        <v>326.3815384615385</v>
+        <v>326.38</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2277,10 +2277,10 @@
         <v>389.41</v>
       </c>
       <c r="C90" t="n">
-        <v>318.9181818181818</v>
+        <v>318.92</v>
       </c>
       <c r="D90" t="n">
-        <v>329.9284615384615</v>
+        <v>329.93</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2295,13 +2295,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>379.935</v>
+        <v>379.94</v>
       </c>
       <c r="C91" t="n">
-        <v>314.2390909090909</v>
+        <v>314.24</v>
       </c>
       <c r="D91" t="n">
-        <v>329.9253846153846</v>
+        <v>329.93</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2316,13 +2316,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>393.125</v>
+        <v>393.12</v>
       </c>
       <c r="C92" t="n">
         <v>328.64</v>
       </c>
       <c r="D92" t="n">
-        <v>331.2915384615384</v>
+        <v>331.29</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2338,10 +2338,10 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>325.0472727272727</v>
+        <v>325.05</v>
       </c>
       <c r="D93" t="n">
-        <v>334.3515384615384</v>
+        <v>334.35</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2357,10 +2357,10 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>324.5745454545454</v>
+        <v>324.57</v>
       </c>
       <c r="D94" t="n">
-        <v>335.3792307692308</v>
+        <v>335.38</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2375,13 +2375,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>389.405</v>
+        <v>389.4</v>
       </c>
       <c r="C95" t="n">
-        <v>343.4545454545454</v>
+        <v>343.45</v>
       </c>
       <c r="D95" t="n">
-        <v>354.2992307692307</v>
+        <v>354.3</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>398.695</v>
+        <v>398.69</v>
       </c>
       <c r="C96" t="n">
-        <v>318.9718181818182</v>
+        <v>318.97</v>
       </c>
       <c r="D96" t="n">
-        <v>335.6346153846154</v>
+        <v>335.63</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>388.905</v>
+        <v>388.9</v>
       </c>
       <c r="C97" t="n">
-        <v>319.0272727272728</v>
+        <v>319.03</v>
       </c>
       <c r="D97" t="n">
-        <v>336.6476923076923</v>
+        <v>336.65</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2438,13 +2438,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>392.215</v>
+        <v>392.21</v>
       </c>
       <c r="C98" t="n">
-        <v>324.1081818181818</v>
+        <v>324.11</v>
       </c>
       <c r="D98" t="n">
-        <v>342.7553846153846</v>
+        <v>342.76</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2460,10 +2460,10 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>321.8318181818182</v>
+        <v>321.83</v>
       </c>
       <c r="D99" t="n">
-        <v>344.4746153846153</v>
+        <v>344.47</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2481,10 +2481,10 @@
         <v>395.2</v>
       </c>
       <c r="C100" t="n">
-        <v>338.0718181818182</v>
+        <v>338.07</v>
       </c>
       <c r="D100" t="n">
-        <v>345.9453846153846</v>
+        <v>345.95</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2502,10 +2502,10 @@
         <v>358.44</v>
       </c>
       <c r="C101" t="n">
-        <v>323.1563636363636</v>
+        <v>323.16</v>
       </c>
       <c r="D101" t="n">
-        <v>353.0069230769231</v>
+        <v>353.01</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2520,13 +2520,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>378.085</v>
+        <v>378.08</v>
       </c>
       <c r="C102" t="n">
-        <v>301.7681818181818</v>
+        <v>301.77</v>
       </c>
       <c r="D102" t="n">
-        <v>325.6923076923077</v>
+        <v>325.69</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2541,13 +2541,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>412.155</v>
+        <v>412.15</v>
       </c>
       <c r="C103" t="n">
-        <v>322.170909090909</v>
+        <v>322.17</v>
       </c>
       <c r="D103" t="n">
-        <v>332.3815384615385</v>
+        <v>332.38</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>394.405</v>
+        <v>394.4</v>
       </c>
       <c r="C104" t="n">
-        <v>337.1081818181818</v>
+        <v>337.11</v>
       </c>
       <c r="D104" t="n">
         <v>348.11</v>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>381.665</v>
+        <v>381.67</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
@@ -2600,13 +2600,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>393.465</v>
+        <v>393.46</v>
       </c>
       <c r="C106" t="n">
         <v>342.78</v>
       </c>
       <c r="D106" t="n">
-        <v>348.6015384615384</v>
+        <v>348.6</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>375.045</v>
+        <v>375.05</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
@@ -2641,10 +2641,10 @@
         <v>381.24</v>
       </c>
       <c r="C108" t="n">
-        <v>336.3018181818182</v>
+        <v>336.3</v>
       </c>
       <c r="D108" t="n">
-        <v>347.2923076923077</v>
+        <v>347.29</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         <v>377.41</v>
       </c>
       <c r="C109" t="n">
-        <v>303.0890909090909</v>
+        <v>303.09</v>
       </c>
       <c r="D109" t="n">
-        <v>310.9630769230769</v>
+        <v>310.96</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2680,13 +2680,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>329.965</v>
+        <v>329.96</v>
       </c>
       <c r="C110" t="n">
-        <v>315.699090909091</v>
+        <v>315.7</v>
       </c>
       <c r="D110" t="n">
-        <v>326.2576923076923</v>
+        <v>326.26</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2701,13 +2701,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>328.255</v>
+        <v>328.25</v>
       </c>
       <c r="C111" t="n">
-        <v>315.0354545454546</v>
+        <v>315.04</v>
       </c>
       <c r="D111" t="n">
-        <v>339.0115384615385</v>
+        <v>339.01</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>361.065</v>
+        <v>361.06</v>
       </c>
       <c r="C112" t="n">
-        <v>319.0609090909091</v>
+        <v>319.06</v>
       </c>
       <c r="D112" t="n">
-        <v>329.9192307692308</v>
+        <v>329.92</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2746,10 +2746,10 @@
         <v>392.5</v>
       </c>
       <c r="C113" t="n">
-        <v>322.0318181818182</v>
+        <v>322.03</v>
       </c>
       <c r="D113" t="n">
-        <v>339.1507692307692</v>
+        <v>339.15</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2767,10 +2767,10 @@
         <v>374.51</v>
       </c>
       <c r="C114" t="n">
-        <v>311.0136363636364</v>
+        <v>311.01</v>
       </c>
       <c r="D114" t="n">
-        <v>323.3623076923077</v>
+        <v>323.36</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2788,10 +2788,10 @@
         <v>385.55</v>
       </c>
       <c r="C115" t="n">
-        <v>325.8145454545455</v>
+        <v>325.81</v>
       </c>
       <c r="D115" t="n">
-        <v>335.7861538461539</v>
+        <v>335.79</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2806,13 +2806,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>396.995</v>
+        <v>397</v>
       </c>
       <c r="C116" t="n">
-        <v>331.069090909091</v>
+        <v>331.07</v>
       </c>
       <c r="D116" t="n">
-        <v>340.2030769230769</v>
+        <v>340.2</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2827,13 +2827,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>380.215</v>
+        <v>380.21</v>
       </c>
       <c r="C117" t="n">
-        <v>328.4590909090909</v>
+        <v>328.46</v>
       </c>
       <c r="D117" t="n">
-        <v>340.5930769230769</v>
+        <v>340.59</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2851,10 +2851,10 @@
         <v>392.73</v>
       </c>
       <c r="C118" t="n">
-        <v>332.5254545454546</v>
+        <v>332.53</v>
       </c>
       <c r="D118" t="n">
-        <v>355.0953846153847</v>
+        <v>355.1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2872,10 +2872,10 @@
         <v>343.27</v>
       </c>
       <c r="C119" t="n">
-        <v>315.7654545454546</v>
+        <v>315.77</v>
       </c>
       <c r="D119" t="n">
-        <v>331.1946153846154</v>
+        <v>331.19</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>361.795</v>
+        <v>361.8</v>
       </c>
       <c r="C120" t="n">
-        <v>320.5954545454546</v>
+        <v>320.6</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
@@ -2909,13 +2909,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>380.805</v>
+        <v>380.81</v>
       </c>
       <c r="C121" t="n">
-        <v>329.4509090909091</v>
+        <v>329.45</v>
       </c>
       <c r="D121" t="n">
-        <v>333.3115384615385</v>
+        <v>333.31</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2930,13 +2930,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>393.175</v>
+        <v>393.18</v>
       </c>
       <c r="C122" t="n">
         <v>337.08</v>
       </c>
       <c r="D122" t="n">
-        <v>346.5515384615384</v>
+        <v>346.55</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2954,10 +2954,10 @@
         <v>387</v>
       </c>
       <c r="C123" t="n">
-        <v>335.5227272727273</v>
+        <v>335.52</v>
       </c>
       <c r="D123" t="n">
-        <v>338.6746153846154</v>
+        <v>338.67</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2973,10 +2973,10 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>302.379090909091</v>
+        <v>302.38</v>
       </c>
       <c r="D124" t="n">
-        <v>317.8284615384616</v>
+        <v>317.83</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2994,10 +2994,10 @@
         <v>390.4</v>
       </c>
       <c r="C125" t="n">
-        <v>312.7827272727272</v>
+        <v>312.78</v>
       </c>
       <c r="D125" t="n">
-        <v>326.2161538461539</v>
+        <v>326.22</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3015,10 +3015,10 @@
         <v>383.22</v>
       </c>
       <c r="C126" t="n">
-        <v>319.2609090909091</v>
+        <v>319.26</v>
       </c>
       <c r="D126" t="n">
-        <v>333.9738461538461</v>
+        <v>333.97</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3034,10 +3034,10 @@
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>317.2454545454545</v>
+        <v>317.25</v>
       </c>
       <c r="D127" t="n">
-        <v>341.1053846153847</v>
+        <v>341.11</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3055,10 +3055,10 @@
         <v>378.37</v>
       </c>
       <c r="C128" t="n">
-        <v>313.6054545454546</v>
+        <v>313.61</v>
       </c>
       <c r="D128" t="n">
-        <v>334.0353846153847</v>
+        <v>334.04</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3076,7 +3076,7 @@
         <v>396.33</v>
       </c>
       <c r="C129" t="n">
-        <v>320.6818181818182</v>
+        <v>320.68</v>
       </c>
       <c r="D129" t="n">
         <v>335.42</v>
@@ -3094,13 +3094,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>366.045</v>
+        <v>366.05</v>
       </c>
       <c r="C130" t="n">
-        <v>318.2609090909091</v>
+        <v>318.26</v>
       </c>
       <c r="D130" t="n">
-        <v>336.8015384615384</v>
+        <v>336.8</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         <v>389.41</v>
       </c>
       <c r="C131" t="n">
-        <v>335.7481818181818</v>
+        <v>335.75</v>
       </c>
       <c r="D131" t="n">
-        <v>352.9484615384616</v>
+        <v>352.95</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3139,10 +3139,10 @@
         <v>353.93</v>
       </c>
       <c r="C132" t="n">
-        <v>342.4254545454546</v>
+        <v>342.43</v>
       </c>
       <c r="D132" t="n">
-        <v>351.4823076923077</v>
+        <v>351.48</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3160,10 +3160,10 @@
         <v>384.1</v>
       </c>
       <c r="C133" t="n">
-        <v>352.6445454545454</v>
+        <v>352.64</v>
       </c>
       <c r="D133" t="n">
-        <v>356.2892307692308</v>
+        <v>356.29</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3178,13 +3178,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>375.415</v>
+        <v>375.42</v>
       </c>
       <c r="C134" t="n">
-        <v>354.9363636363636</v>
+        <v>354.94</v>
       </c>
       <c r="D134" t="n">
-        <v>362.6346153846154</v>
+        <v>362.63</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3199,13 +3199,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>379.295</v>
+        <v>379.3</v>
       </c>
       <c r="C135" t="n">
-        <v>336.5554545454545</v>
+        <v>336.56</v>
       </c>
       <c r="D135" t="n">
-        <v>339.0953846153847</v>
+        <v>339.1</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3223,10 +3223,10 @@
         <v>380.92</v>
       </c>
       <c r="C136" t="n">
-        <v>330.9136363636364</v>
+        <v>330.91</v>
       </c>
       <c r="D136" t="n">
-        <v>333.1938461538461</v>
+        <v>333.19</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3241,13 +3241,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>359.505</v>
+        <v>359.5</v>
       </c>
       <c r="C137" t="n">
-        <v>322.8363636363636</v>
+        <v>322.84</v>
       </c>
       <c r="D137" t="n">
-        <v>332.5192307692308</v>
+        <v>332.52</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>387.915</v>
+        <v>387.92</v>
       </c>
       <c r="C138" t="n">
         <v>330.72</v>
       </c>
       <c r="D138" t="n">
-        <v>338.6923076923077</v>
+        <v>338.69</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>328.5927272727272</v>
+        <v>328.59</v>
       </c>
       <c r="D139" t="n">
-        <v>329.4376923076923</v>
+        <v>329.44</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>393.225</v>
+        <v>393.23</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
@@ -3319,13 +3319,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>377.455</v>
+        <v>377.45</v>
       </c>
       <c r="C141" t="n">
-        <v>327.7372727272727</v>
+        <v>327.74</v>
       </c>
       <c r="D141" t="n">
-        <v>336.5492307692307</v>
+        <v>336.55</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>323.6054545454546</v>
+        <v>323.61</v>
       </c>
       <c r="D142" t="n">
         <v>336.62</v>
@@ -3362,10 +3362,10 @@
         <v>394.57</v>
       </c>
       <c r="C143" t="n">
-        <v>336.0718181818182</v>
+        <v>336.07</v>
       </c>
       <c r="D143" t="n">
-        <v>341.0961538461539</v>
+        <v>341.1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3380,13 +3380,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>382.815</v>
+        <v>382.81</v>
       </c>
       <c r="C144" t="n">
-        <v>334.0427272727272</v>
+        <v>334.04</v>
       </c>
       <c r="D144" t="n">
-        <v>337.9476923076923</v>
+        <v>337.95</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3401,13 +3401,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>397.955</v>
+        <v>397.95</v>
       </c>
       <c r="C145" t="n">
         <v>340.36</v>
       </c>
       <c r="D145" t="n">
-        <v>348.1638461538461</v>
+        <v>348.16</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3425,10 +3425,10 @@
         <v>393.1</v>
       </c>
       <c r="C146" t="n">
-        <v>340.8527272727272</v>
+        <v>340.85</v>
       </c>
       <c r="D146" t="n">
-        <v>343.7738461538461</v>
+        <v>343.77</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3446,10 +3446,10 @@
         <v>381.13</v>
       </c>
       <c r="C147" t="n">
-        <v>341.4790909090909</v>
+        <v>341.48</v>
       </c>
       <c r="D147" t="n">
-        <v>343.0553846153846</v>
+        <v>343.06</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3464,13 +3464,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>390.675</v>
+        <v>390.68</v>
       </c>
       <c r="C148" t="n">
-        <v>346.5390909090909</v>
+        <v>346.54</v>
       </c>
       <c r="D148" t="n">
-        <v>351.6453846153846</v>
+        <v>351.65</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3505,10 +3505,10 @@
         <v>360.28</v>
       </c>
       <c r="C150" t="n">
-        <v>353.0490909090909</v>
+        <v>353.05</v>
       </c>
       <c r="D150" t="n">
-        <v>350.3807692307692</v>
+        <v>350.38</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3523,13 +3523,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>379.985</v>
+        <v>379.99</v>
       </c>
       <c r="C151" t="n">
         <v>363.43</v>
       </c>
       <c r="D151" t="n">
-        <v>375.2015384615385</v>
+        <v>375.2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>338.2</v>
       </c>
       <c r="D152" t="n">
-        <v>345.4746153846153</v>
+        <v>345.47</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3565,10 +3565,10 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>393.685</v>
+        <v>393.69</v>
       </c>
       <c r="C153" t="n">
-        <v>330.8636363636364</v>
+        <v>330.86</v>
       </c>
       <c r="D153" t="n">
         <v>338.68</v>
@@ -3586,10 +3586,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>379.525</v>
+        <v>379.52</v>
       </c>
       <c r="C154" t="n">
-        <v>335.8681818181818</v>
+        <v>335.87</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
@@ -3608,10 +3608,10 @@
         <v>381.75</v>
       </c>
       <c r="C155" t="n">
-        <v>336.8154545454545</v>
+        <v>336.82</v>
       </c>
       <c r="D155" t="n">
-        <v>342.1853846153846</v>
+        <v>342.19</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3626,13 +3626,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>398.615</v>
+        <v>398.62</v>
       </c>
       <c r="C156" t="n">
-        <v>348.1927272727273</v>
+        <v>348.19</v>
       </c>
       <c r="D156" t="n">
-        <v>354.5253846153847</v>
+        <v>354.53</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3647,10 +3647,10 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>382.365</v>
+        <v>382.37</v>
       </c>
       <c r="C157" t="n">
-        <v>341.9190909090909</v>
+        <v>341.92</v>
       </c>
       <c r="D157" t="n">
         <v>352.12</v>
@@ -3668,10 +3668,10 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>381.015</v>
+        <v>381.01</v>
       </c>
       <c r="C158" t="n">
-        <v>360.4809090909091</v>
+        <v>360.48</v>
       </c>
       <c r="D158" t="n">
         <v>370.92</v>
@@ -3692,10 +3692,10 @@
         <v>394.16</v>
       </c>
       <c r="C159" t="n">
-        <v>362.5472727272728</v>
+        <v>362.55</v>
       </c>
       <c r="D159" t="n">
-        <v>365.8446153846153</v>
+        <v>365.84</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3710,13 +3710,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>395.895</v>
+        <v>395.89</v>
       </c>
       <c r="C160" t="n">
         <v>359.54</v>
       </c>
       <c r="D160" t="n">
-        <v>362.4961538461538</v>
+        <v>362.5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3734,10 +3734,10 @@
         <v>376.28</v>
       </c>
       <c r="C161" t="n">
-        <v>368.0763636363636</v>
+        <v>368.08</v>
       </c>
       <c r="D161" t="n">
-        <v>366.3476923076923</v>
+        <v>366.35</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>403.565</v>
+        <v>403.56</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -3770,10 +3770,10 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>350.1872727272727</v>
+        <v>350.19</v>
       </c>
       <c r="D163" t="n">
-        <v>346.7292307692308</v>
+        <v>346.73</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3805,13 +3805,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>400.295</v>
+        <v>400.3</v>
       </c>
       <c r="C165" t="n">
-        <v>334.2172727272728</v>
+        <v>334.22</v>
       </c>
       <c r="D165" t="n">
-        <v>342.5761538461539</v>
+        <v>342.58</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>404.525</v>
+        <v>404.52</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
@@ -3843,13 +3843,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>372.835</v>
+        <v>372.83</v>
       </c>
       <c r="C167" t="n">
-        <v>321.0772727272728</v>
+        <v>321.08</v>
       </c>
       <c r="D167" t="n">
-        <v>325.7576923076923</v>
+        <v>325.76</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3864,13 +3864,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>382.535</v>
+        <v>382.54</v>
       </c>
       <c r="C168" t="n">
-        <v>336.5881818181818</v>
+        <v>336.59</v>
       </c>
       <c r="D168" t="n">
-        <v>349.5369230769231</v>
+        <v>349.54</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3888,7 +3888,7 @@
         <v>402.56</v>
       </c>
       <c r="C169" t="n">
-        <v>353.8818181818182</v>
+        <v>353.88</v>
       </c>
       <c r="D169" t="n">
         <v>352.26</v>
@@ -3906,13 +3906,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>354.375</v>
+        <v>354.38</v>
       </c>
       <c r="C170" t="n">
-        <v>330.1754545454546</v>
+        <v>330.18</v>
       </c>
       <c r="D170" t="n">
-        <v>338.1023076923077</v>
+        <v>338.1</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3947,10 +3947,10 @@
         <v>368.32</v>
       </c>
       <c r="C172" t="n">
-        <v>337.0118181818182</v>
+        <v>337.01</v>
       </c>
       <c r="D172" t="n">
-        <v>341.6546153846153</v>
+        <v>341.65</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3965,10 +3965,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>359.365</v>
+        <v>359.37</v>
       </c>
       <c r="C173" t="n">
-        <v>304.1027272727272</v>
+        <v>304.1</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
@@ -3985,10 +3985,10 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>348.259090909091</v>
+        <v>348.26</v>
       </c>
       <c r="D174" t="n">
-        <v>354.9192307692308</v>
+        <v>354.92</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4003,13 +4003,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>388.425</v>
+        <v>388.43</v>
       </c>
       <c r="C175" t="n">
-        <v>347.9618181818182</v>
+        <v>347.96</v>
       </c>
       <c r="D175" t="n">
-        <v>359.9938461538461</v>
+        <v>359.99</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4024,13 +4024,13 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>381.755</v>
+        <v>381.75</v>
       </c>
       <c r="C176" t="n">
-        <v>330.7036363636363</v>
+        <v>330.7</v>
       </c>
       <c r="D176" t="n">
-        <v>344.1838461538461</v>
+        <v>344.18</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4048,10 +4048,10 @@
         <v>336.66</v>
       </c>
       <c r="C177" t="n">
-        <v>318.4027272727272</v>
+        <v>318.4</v>
       </c>
       <c r="D177" t="n">
-        <v>328.9846153846154</v>
+        <v>328.98</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4069,10 +4069,10 @@
         <v>342.86</v>
       </c>
       <c r="C178" t="n">
-        <v>333.7163636363636</v>
+        <v>333.72</v>
       </c>
       <c r="D178" t="n">
-        <v>343.3153846153846</v>
+        <v>343.32</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4090,10 +4090,10 @@
         <v>379.96</v>
       </c>
       <c r="C179" t="n">
-        <v>333.3145454545455</v>
+        <v>333.31</v>
       </c>
       <c r="D179" t="n">
-        <v>335.1769230769231</v>
+        <v>335.18</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4108,13 +4108,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>341.655</v>
+        <v>341.65</v>
       </c>
       <c r="C180" t="n">
-        <v>327.8336363636364</v>
+        <v>327.83</v>
       </c>
       <c r="D180" t="n">
-        <v>340.5392307692308</v>
+        <v>340.54</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>340.28</v>
       </c>
       <c r="D181" t="n">
-        <v>349.7053846153846</v>
+        <v>349.71</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4151,10 +4151,10 @@
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>333.5827272727273</v>
+        <v>333.58</v>
       </c>
       <c r="D182" t="n">
-        <v>335.8315384615385</v>
+        <v>335.83</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>382.44</v>
       </c>
       <c r="C183" t="n">
-        <v>321.1472727272728</v>
+        <v>321.15</v>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
@@ -4191,10 +4191,10 @@
         <v>384.19</v>
       </c>
       <c r="C184" t="n">
-        <v>330.1436363636363</v>
+        <v>330.14</v>
       </c>
       <c r="D184" t="n">
-        <v>334.4230769230769</v>
+        <v>334.42</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4209,13 +4209,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>349.875</v>
+        <v>349.88</v>
       </c>
       <c r="C185" t="n">
-        <v>336.9127272727272</v>
+        <v>336.91</v>
       </c>
       <c r="D185" t="n">
-        <v>332.6730769230769</v>
+        <v>332.67</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4233,10 +4233,10 @@
         <v>396.11</v>
       </c>
       <c r="C186" t="n">
-        <v>332.3072727272727</v>
+        <v>332.31</v>
       </c>
       <c r="D186" t="n">
-        <v>340.8515384615384</v>
+        <v>340.85</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4251,13 +4251,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>364.725</v>
+        <v>364.73</v>
       </c>
       <c r="C187" t="n">
-        <v>323.6536363636364</v>
+        <v>323.65</v>
       </c>
       <c r="D187" t="n">
-        <v>329.4761538461539</v>
+        <v>329.48</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4272,13 +4272,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>371.665</v>
+        <v>371.67</v>
       </c>
       <c r="C188" t="n">
-        <v>309.2618181818182</v>
+        <v>309.26</v>
       </c>
       <c r="D188" t="n">
-        <v>321.6338461538461</v>
+        <v>321.63</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4295,7 +4295,7 @@
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>323.8230769230769</v>
+        <v>323.82</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4310,13 +4310,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>406.225</v>
+        <v>406.23</v>
       </c>
       <c r="C190" t="n">
         <v>345.28</v>
       </c>
       <c r="D190" t="n">
-        <v>329.5569230769231</v>
+        <v>329.56</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4331,13 +4331,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>410.015</v>
+        <v>410.01</v>
       </c>
       <c r="C191" t="n">
-        <v>323.3345454545454</v>
+        <v>323.33</v>
       </c>
       <c r="D191" t="n">
-        <v>319.5646153846154</v>
+        <v>319.56</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4352,13 +4352,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>393.515</v>
+        <v>393.51</v>
       </c>
       <c r="C192" t="n">
-        <v>327.5018181818182</v>
+        <v>327.5</v>
       </c>
       <c r="D192" t="n">
-        <v>339.8330769230769</v>
+        <v>339.83</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4374,7 +4374,7 @@
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>310.9009090909091</v>
+        <v>310.9</v>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
@@ -4410,10 +4410,10 @@
         <v>376.99</v>
       </c>
       <c r="C195" t="n">
-        <v>322.670909090909</v>
+        <v>322.67</v>
       </c>
       <c r="D195" t="n">
-        <v>329.0323076923077</v>
+        <v>329.03</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -4431,10 +4431,10 @@
         <v>348.69</v>
       </c>
       <c r="C196" t="n">
-        <v>316.240909090909</v>
+        <v>316.24</v>
       </c>
       <c r="D196" t="n">
-        <v>320.0830769230769</v>
+        <v>320.08</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
       <c r="B197" t="inlineStr"/>
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="n">
-        <v>324.1223076923077</v>
+        <v>324.12</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4469,10 +4469,10 @@
         <v>329.08</v>
       </c>
       <c r="C198" t="n">
-        <v>322.5272727272728</v>
+        <v>322.53</v>
       </c>
       <c r="D198" t="n">
-        <v>328.7184615384616</v>
+        <v>328.72</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>329.585</v>
+        <v>329.58</v>
       </c>
       <c r="C199" t="n">
-        <v>318.3890909090909</v>
+        <v>318.39</v>
       </c>
       <c r="D199" t="n">
-        <v>322.8838461538461</v>
+        <v>322.88</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4509,10 +4509,10 @@
       </c>
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>322.4827272727272</v>
+        <v>322.48</v>
       </c>
       <c r="D200" t="n">
-        <v>333.7461538461538</v>
+        <v>333.75</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4528,10 +4528,10 @@
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>337.9336363636364</v>
+        <v>337.93</v>
       </c>
       <c r="D201" t="n">
-        <v>345.3107692307692</v>
+        <v>345.31</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>340.845</v>
+        <v>340.85</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
@@ -4566,10 +4566,10 @@
         <v>380.59</v>
       </c>
       <c r="C203" t="n">
-        <v>319.9081818181818</v>
+        <v>319.91</v>
       </c>
       <c r="D203" t="n">
-        <v>329.1523076923077</v>
+        <v>329.15</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4587,10 +4587,10 @@
         <v>391.38</v>
       </c>
       <c r="C204" t="n">
-        <v>318.9045454545454</v>
+        <v>318.9</v>
       </c>
       <c r="D204" t="n">
-        <v>331.0553846153846</v>
+        <v>331.06</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4608,10 +4608,10 @@
         <v>388.6</v>
       </c>
       <c r="C205" t="n">
-        <v>322.7209090909091</v>
+        <v>322.72</v>
       </c>
       <c r="D205" t="n">
-        <v>335.9830769230769</v>
+        <v>335.98</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4629,10 +4629,10 @@
         <v>387.93</v>
       </c>
       <c r="C206" t="n">
-        <v>316.3445454545454</v>
+        <v>316.34</v>
       </c>
       <c r="D206" t="n">
-        <v>326.0307692307692</v>
+        <v>326.03</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4647,11 +4647,11 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>378.175</v>
+        <v>378.18</v>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="n">
-        <v>300.8269230769231</v>
+        <v>300.83</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4666,13 +4666,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>398.845</v>
+        <v>398.85</v>
       </c>
       <c r="C208" t="n">
-        <v>328.9990909090909</v>
+        <v>329</v>
       </c>
       <c r="D208" t="n">
-        <v>339.9276923076923</v>
+        <v>339.93</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4690,10 +4690,10 @@
         <v>394.01</v>
       </c>
       <c r="C209" t="n">
-        <v>327.9890909090909</v>
+        <v>327.99</v>
       </c>
       <c r="D209" t="n">
-        <v>341.9407692307692</v>
+        <v>341.94</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4708,13 +4708,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>374.415</v>
+        <v>374.42</v>
       </c>
       <c r="C210" t="n">
-        <v>325.1154545454545</v>
+        <v>325.12</v>
       </c>
       <c r="D210" t="n">
-        <v>335.4761538461539</v>
+        <v>335.48</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4729,7 +4729,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>396.575</v>
+        <v>396.57</v>
       </c>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
         <v>321.8</v>
       </c>
       <c r="D212" t="n">
-        <v>335.7092307692308</v>
+        <v>335.71</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4767,13 +4767,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>379.655</v>
+        <v>379.65</v>
       </c>
       <c r="C213" t="n">
-        <v>310.1736363636364</v>
+        <v>310.17</v>
       </c>
       <c r="D213" t="n">
-        <v>329.5761538461539</v>
+        <v>329.58</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4791,10 +4791,10 @@
         <v>375.85</v>
       </c>
       <c r="C214" t="n">
-        <v>336.3345454545454</v>
+        <v>336.33</v>
       </c>
       <c r="D214" t="n">
-        <v>340.4453846153846</v>
+        <v>340.45</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4809,13 +4809,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>361.225</v>
+        <v>361.23</v>
       </c>
       <c r="C215" t="n">
-        <v>343.2554545454545</v>
+        <v>343.26</v>
       </c>
       <c r="D215" t="n">
-        <v>338.9215384615384</v>
+        <v>338.92</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4867,10 +4867,10 @@
         <v>381.3</v>
       </c>
       <c r="C218" t="n">
-        <v>324.8327272727273</v>
+        <v>324.83</v>
       </c>
       <c r="D218" t="n">
-        <v>334.2730769230769</v>
+        <v>334.27</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -4885,13 +4885,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>396.865</v>
+        <v>396.87</v>
       </c>
       <c r="C219" t="n">
-        <v>335.6554545454546</v>
+        <v>335.66</v>
       </c>
       <c r="D219" t="n">
-        <v>347.8323076923077</v>
+        <v>347.83</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4909,10 +4909,10 @@
         <v>340.64</v>
       </c>
       <c r="C220" t="n">
-        <v>333.8872727272728</v>
+        <v>333.89</v>
       </c>
       <c r="D220" t="n">
-        <v>340.3884615384616</v>
+        <v>340.39</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4927,13 +4927,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>379.935</v>
+        <v>379.94</v>
       </c>
       <c r="C221" t="n">
-        <v>339.7754545454546</v>
+        <v>339.78</v>
       </c>
       <c r="D221" t="n">
-        <v>345.8753846153846</v>
+        <v>345.88</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4948,13 +4948,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>381.735</v>
+        <v>381.74</v>
       </c>
       <c r="C222" t="n">
-        <v>336.2972727272727</v>
+        <v>336.3</v>
       </c>
       <c r="D222" t="n">
-        <v>347.9038461538461</v>
+        <v>347.9</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4969,13 +4969,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>390.975</v>
+        <v>390.98</v>
       </c>
       <c r="C223" t="n">
-        <v>347.1027272727272</v>
+        <v>347.1</v>
       </c>
       <c r="D223" t="n">
-        <v>346.5115384615385</v>
+        <v>346.51</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4993,10 +4993,10 @@
         <v>400.29</v>
       </c>
       <c r="C224" t="n">
-        <v>345.5981818181818</v>
+        <v>345.6</v>
       </c>
       <c r="D224" t="n">
-        <v>348.5423076923077</v>
+        <v>348.54</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5014,10 +5014,10 @@
         <v>394.95</v>
       </c>
       <c r="C225" t="n">
-        <v>346.1390909090909</v>
+        <v>346.14</v>
       </c>
       <c r="D225" t="n">
-        <v>346.3607692307692</v>
+        <v>346.36</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5032,13 +5032,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>417.305</v>
+        <v>417.31</v>
       </c>
       <c r="C226" t="n">
-        <v>345.9190909090909</v>
+        <v>345.92</v>
       </c>
       <c r="D226" t="n">
-        <v>346.8538461538461</v>
+        <v>346.85</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5059,7 +5059,7 @@
         <v>334.68</v>
       </c>
       <c r="D227" t="n">
-        <v>347.8007692307692</v>
+        <v>347.8</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5074,13 +5074,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>369.505</v>
+        <v>369.5</v>
       </c>
       <c r="C228" t="n">
-        <v>343.5009090909091</v>
+        <v>343.5</v>
       </c>
       <c r="D228" t="n">
-        <v>356.6415384615385</v>
+        <v>356.64</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5095,13 +5095,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>381.645</v>
+        <v>381.64</v>
       </c>
       <c r="C229" t="n">
         <v>341.42</v>
       </c>
       <c r="D229" t="n">
-        <v>352.0084615384616</v>
+        <v>352.01</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5116,13 +5116,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>364.275</v>
+        <v>364.27</v>
       </c>
       <c r="C230" t="n">
-        <v>349.1627272727272</v>
+        <v>349.16</v>
       </c>
       <c r="D230" t="n">
-        <v>348.1361538461539</v>
+        <v>348.14</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5137,10 +5137,10 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>414.365</v>
+        <v>414.37</v>
       </c>
       <c r="C231" t="n">
-        <v>361.930909090909</v>
+        <v>361.93</v>
       </c>
       <c r="D231" t="n">
         <v>365.07</v>
@@ -5161,10 +5161,10 @@
         <v>397.44</v>
       </c>
       <c r="C232" t="n">
-        <v>343.8172727272727</v>
+        <v>343.82</v>
       </c>
       <c r="D232" t="n">
-        <v>355.4061538461539</v>
+        <v>355.41</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5182,10 +5182,10 @@
         <v>394.12</v>
       </c>
       <c r="C233" t="n">
-        <v>352.2490909090909</v>
+        <v>352.25</v>
       </c>
       <c r="D233" t="n">
-        <v>350.4607692307692</v>
+        <v>350.46</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="n">
-        <v>329.1323076923077</v>
+        <v>329.13</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5220,10 +5220,10 @@
       </c>
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
-        <v>312.6236363636364</v>
+        <v>312.62</v>
       </c>
       <c r="D235" t="n">
-        <v>333.1323076923077</v>
+        <v>333.13</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5238,13 +5238,13 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>378.365</v>
+        <v>378.37</v>
       </c>
       <c r="C236" t="n">
-        <v>309.1581818181818</v>
+        <v>309.16</v>
       </c>
       <c r="D236" t="n">
-        <v>321.1923076923077</v>
+        <v>321.19</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5262,10 +5262,10 @@
         <v>378.18</v>
       </c>
       <c r="C237" t="n">
-        <v>324.199090909091</v>
+        <v>324.2</v>
       </c>
       <c r="D237" t="n">
-        <v>331.4207692307692</v>
+        <v>331.42</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
         <v>0.1029</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1753047645263983</v>
+        <v>-0.1752904202189686</v>
       </c>
       <c r="J2" t="n">
         <v>236</v>
@@ -8354,19 +8354,19 @@
         <v>210</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004138329607879188</v>
+        <v>0.004137632817761805</v>
       </c>
       <c r="M2" t="n">
-        <v>14.94089010462756</v>
+        <v>14.94085362864276</v>
       </c>
       <c r="N2" t="n">
-        <v>391.1373949774283</v>
+        <v>391.1395196217551</v>
       </c>
       <c r="O2" t="n">
-        <v>19.77719380947227</v>
+        <v>19.7772475239037</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3520883094933</v>
+        <v>383.3521308206422</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8423,7 +8423,7 @@
         <v>0.0629</v>
       </c>
       <c r="I3" t="n">
-        <v>0.393990656546193</v>
+        <v>0.3939584685232325</v>
       </c>
       <c r="J3" t="n">
         <v>236</v>
@@ -8432,19 +8432,19 @@
         <v>214</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04792876129953538</v>
+        <v>0.04792125485261201</v>
       </c>
       <c r="M3" t="n">
-        <v>9.969874635363025</v>
+        <v>9.969912665561335</v>
       </c>
       <c r="N3" t="n">
-        <v>160.649119102603</v>
+        <v>160.649297710905</v>
       </c>
       <c r="O3" t="n">
-        <v>12.67474335450636</v>
+        <v>12.67475040033945</v>
       </c>
       <c r="P3" t="n">
-        <v>323.5957407125633</v>
+        <v>323.5964493827659</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8501,7 +8501,7 @@
         <v>0.0733</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08460261385703659</v>
+        <v>0.08458932252087668</v>
       </c>
       <c r="J4" t="n">
         <v>236</v>
@@ -8510,19 +8510,19 @@
         <v>211</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003138608763486705</v>
+        <v>0.00313757424290062</v>
       </c>
       <c r="M4" t="n">
-        <v>8.473254803368542</v>
+        <v>8.473363483559782</v>
       </c>
       <c r="N4" t="n">
-        <v>118.0575828949598</v>
+        <v>118.0595275962463</v>
       </c>
       <c r="O4" t="n">
-        <v>10.8654306355045</v>
+        <v>10.86552012543561</v>
       </c>
       <c r="P4" t="n">
-        <v>338.077178987475</v>
+        <v>338.0772283753093</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8608,12 +8608,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-36.1527191902694,175.44742595338613</t>
+          <t>-36.15271918244225,175.44742595636384</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-36.152832870771284,175.44832230794216</t>
+          <t>-36.15283289726319,175.4483222978639</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-36.15280004069015,175.44833479736548</t>
+          <t>-36.152800007575294,175.44833480996323</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.15172523921881,175.4468644852211</t>
+          <t>-36.151725282268046,175.44686446884373</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8667,7 +8667,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-36.15261424638598,175.44840547819803</t>
+          <t>-36.15261420664812,175.44840549331525</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8684,12 +8684,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-36.15172343115069,175.44686517307122</t>
+          <t>-36.15172338810146,175.44686518944863</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-36.15261443183143,175.4474658070256</t>
+          <t>-36.15261440052288,175.4474658189364</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -8711,17 +8711,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.151758903724655,175.44685167810155</t>
+          <t>-36.15175886067542,175.44685169447897</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-36.15265078106949,175.44745197856236</t>
+          <t>-36.1526508202052,175.4474519636738</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-36.152771257245135,175.44834574733406</t>
+          <t>-36.15277125062216,175.44834574985362</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8739,12 +8739,12 @@
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.15253926780202,175.4474944018915</t>
+          <t>-36.15253923649347,175.4474944138023</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-36.15265452069693,175.4483901568633</t>
+          <t>-36.152654500828,175.44839016442194</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8766,12 +8766,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-36.15260098480461,175.44747092272024</t>
+          <t>-36.15260096915033,175.44747092867564</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-36.15277513168497,175.44834427339717</t>
+          <t>-36.152775125062,175.44834427591672</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-36.15277063805477,175.44740638087745</t>
+          <t>-36.15277066936333,175.44740636896657</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -8811,17 +8811,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.1517199011129,175.44686651601663</t>
+          <t>-36.15171994416215,175.44686649963924</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.15257027893303,175.44748260424498</t>
+          <t>-36.152570318068726,175.44748258935647</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-36.152658183202014,175.44838876355587</t>
+          <t>-36.15265820307095,175.44838875599723</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8843,12 +8843,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.152514119198635,175.44750396923453</t>
+          <t>-36.1525140957172,175.44750397816765</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-36.15275983261475,175.44835009355745</t>
+          <t>-36.15275979949988,175.4483501061552</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8865,17 +8865,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.151686580999694,175.4468791921054</t>
+          <t>-36.15168662404894,175.44687917572801</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-36.15251954340726,175.44750190569044</t>
+          <t>-36.15251951992583,175.44750191462353</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-36.152700576863076,175.44837263595056</t>
+          <t>-36.152700563617124,175.44837264098965</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8897,12 +8897,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.15257570314136,175.44748054069814</t>
+          <t>-36.15257574227705,175.44748052580965</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-36.15263145287521,175.44839893242977</t>
+          <t>-36.15263142638331,175.44839894250794</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8919,7 +8919,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.151584295994134,175.44691810468757</t>
+          <t>-36.15158433904339,175.44691808831027</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -8939,12 +8939,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.15260422524065,175.4474696899511</t>
+          <t>-36.15260424089494,175.4474696839957</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-36.15270880922044,175.44836950415467</t>
+          <t>-36.152708829089356,175.44836949659606</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8990,7 +8990,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-36.152714471863625,175.44836734994234</t>
+          <t>-36.15271451160145,175.44836733482506</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -9012,12 +9012,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-36.15235905569834,175.44756296027992</t>
+          <t>-36.15235903221692,175.44756296921298</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-36.152667203693724,175.4483853319374</t>
+          <t>-36.15266724343156,175.44838531682015</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9039,12 +9039,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-36.15237009979579,175.44755875876444</t>
+          <t>-36.1523701389315,175.447558743876</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-36.15262480340827,175.44840146204953</t>
+          <t>-36.1526247967853,175.4484014645691</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9061,12 +9061,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.151954088957694,175.44677742281104</t>
+          <t>-36.15195404590846,175.4467774391885</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-36.15265625224022,175.44744989714536</t>
+          <t>-36.152656244413095,175.44744990012308</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -9112,12 +9112,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-36.152556424894314,175.44748787477465</t>
+          <t>-36.15255645620286,175.44748786286385</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-36.15267360148733,175.4483828980578</t>
+          <t>-36.15267361473328,175.4483828930187</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9139,12 +9139,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.15267900573537,175.447441240949</t>
+          <t>-36.15267897442683,175.44744125285985</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-36.1527878477951,175.44833943585976</t>
+          <t>-36.15278786766404,175.4483394283011</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9161,17 +9161,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.15201125833508,175.44675567351234</t>
+          <t>-36.152011215285846,175.44675568988984</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.152619237695454,175.44746397871523</t>
+          <t>-36.15261922204117,175.44746398467063</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-36.152734267934115,175.44835981901537</t>
+          <t>-36.15273422819627,175.44835983413265</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9188,17 +9188,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.15190948995321,175.44679438986398</t>
+          <t>-36.15190944690398,175.44679440624142</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.15275298002923,175.44741309860103</t>
+          <t>-36.152753019164926,175.4474130837125</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-36.152859594469795,175.44831214153933</t>
+          <t>-36.15285958784683,175.4483121440589</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9215,17 +9215,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.151687786378496,175.44687873353905</t>
+          <t>-36.15168774332925,175.44687874991644</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.15260337208237,175.44747001452077</t>
+          <t>-36.15260337990951,175.44747001154306</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-36.152727088629895,175.44836255020508</t>
+          <t>-36.152727082006926,175.44836255272463</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9252,7 +9252,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-36.1528090545576,175.44833136825505</t>
+          <t>-36.152809047934625,175.4483313707746</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9274,12 +9274,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-36.152608929351906,175.44746790035134</t>
+          <t>-36.15260889021621,175.44746791523988</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-36.15268637058254,175.44837804037564</t>
+          <t>-36.15268635733659,175.44837804541473</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9301,7 +9301,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.15258479827849,175.44747708060893</t>
+          <t>-36.15258478262421,175.4474770865643</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -9323,17 +9323,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.15221367578831,175.4466786663464</t>
+          <t>-36.1522136327391,175.44667868272398</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.15259178008765,175.4474744244986</t>
+          <t>-36.152591756606235,175.4474744334317</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36.15272830725718,175.44836208660834</t>
+          <t>-36.15272828738827,175.448362094167</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9355,7 +9355,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-36.15252567205853,175.44749957415328</t>
+          <t>-36.15252563292282,175.44749958904177</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -9382,12 +9382,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.15240446094865,175.4475456867142</t>
+          <t>-36.15240449225722,175.44754567480345</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-36.152628571881074,175.4484000284304</t>
+          <t>-36.152628585127026,175.44840002339134</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9409,12 +9409,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-36.15267212567963,175.44744385835457</t>
+          <t>-36.15267208654392,175.44744387324312</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-36.152765793291486,175.44834782596277</t>
+          <t>-36.15276582640635,175.44834781336505</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9436,12 +9436,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.15263565903522,175.44745773149037</t>
+          <t>-36.15263566686236,175.44745772851266</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-36.152802835585135,175.44833373411456</t>
+          <t>-36.15280284883108,175.44833372907547</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9463,12 +9463,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.15255467944197,175.4474885388017</t>
+          <t>-36.1525546481334,175.44748855071254</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.152650831699916,175.44839156024878</t>
+          <t>-36.15265079858504,175.4483915728465</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9490,12 +9490,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.152366640199006,175.44756007490193</t>
+          <t>-36.15236660889043,175.44756008681267</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-36.152548917357194,175.44843033092894</t>
+          <t>-36.15254894384909,175.44843032085083</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9512,17 +9512,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-36.1517377234986,175.446859735779</t>
+          <t>-36.15173768044936,175.44685975215637</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-36.1524504845411,175.44752817789225</t>
+          <t>-36.15245046888682,175.44752818384762</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.1526281943715,175.44840017204427</t>
+          <t>-36.15262815463365,175.44840018716152</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9544,12 +9544,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.152668681738156,175.44744516854607</t>
+          <t>-36.15266864260246,175.4474451834346</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-36.15287415838846,175.44830660103608</t>
+          <t>-36.152874138519536,175.44830660859475</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9571,12 +9571,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.15263052443138,175.44745968486507</t>
+          <t>-36.15263050094997,175.44745969379815</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-36.152738307948454,175.44835828209108</t>
+          <t>-36.152738274833574,175.4483582946888</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9598,7 +9598,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.15280349638338,175.4473938804251</t>
+          <t>-36.152803472901965,175.44739388935824</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -9616,17 +9616,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-36.15186971246106,175.4468095226258</t>
+          <t>-36.151869669411816,175.44680953900323</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.15247936669244,175.4475171902034</t>
+          <t>-36.15247939800099,175.44751717829263</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.15259568880949,175.4484125379497</t>
+          <t>-36.152595695432474,175.44841253543018</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9643,17 +9643,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.15203183586622,175.44674784506782</t>
+          <t>-36.152031878915444,175.44674782869032</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.15243907256888,175.44753251936723</t>
+          <t>-36.152439103877455,175.44753250745646</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.15256507741742,175.44842418325783</t>
+          <t>-36.152565044302534,175.4484241958555</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9670,17 +9670,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-36.15199042250815,175.446763600218</t>
+          <t>-36.151990465557375,175.4467635838405</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.15256924575049,175.44748299730148</t>
+          <t>-36.15256928488618,175.447482982413</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-36.152687059371914,175.44837777834294</t>
+          <t>-36.152687046125955,175.44837778338203</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-36.152730704773916,175.4483611745321</t>
+          <t>-36.15273069815095,175.44836117705165</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9725,7 +9725,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.15255666753567,175.44748778246597</t>
+          <t>-36.15255662839997,175.44748779735446</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -9748,7 +9748,7 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-36.152649912256976,175.4474523090878</t>
+          <t>-36.15264987312127,175.4474523239763</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -9775,12 +9775,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-36.152694597397385,175.4474353093525</t>
+          <t>-36.15269455826168,175.44743532424104</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-36.15279713982757,175.44833590092915</t>
+          <t>-36.15279716631948,175.44833589085093</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-36.152770641308535,175.4483459816522</t>
+          <t>-36.15277064793151,175.44834597913268</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9820,17 +9820,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.15200342337542,175.44675865421615</t>
+          <t>-36.15200346642466,175.44675863783868</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.15260887456193,175.44746792119528</t>
+          <t>-36.15260889021621,175.44746791523988</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-36.15271414071489,175.4483674759197</t>
+          <t>-36.152714167206796,175.4483674658415</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9847,17 +9847,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.151638882437794,175.44689733822025</t>
+          <t>-36.15163883938855,175.4468973545976</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.15256285097669,175.44748543008285</t>
+          <t>-36.15256282749529,175.44748543901596</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-36.15273669194272,175.4483588968608</t>
+          <t>-36.1527367250576,175.4483588842631</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9874,17 +9874,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-36.151768546754255,175.44684800956418</t>
+          <t>-36.15176850370503,175.4468480259416</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-36.15261429094289,175.44746586062425</t>
+          <t>-36.152614314424326,175.44746585169116</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.15261688895304,175.44840447290125</t>
+          <t>-36.152616875707096,175.4484044779403</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9906,12 +9906,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.15248870447181,175.44751363781353</t>
+          <t>-36.15248869664467,175.44751364079121</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-36.152683463096665,175.44837914645586</t>
+          <t>-36.1526834299818,175.44837915905362</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9928,17 +9928,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-36.151777414897474,175.44684463581922</t>
+          <t>-36.15177745794672,175.4468446194418</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.15258499395699,175.44747700616637</t>
+          <t>-36.15258495482129,175.44747702105485</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.15268829124519,175.44837730970755</t>
+          <t>-36.152688251507335,175.4483773248248</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9960,12 +9960,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-36.15246663193367,175.44752203491157</t>
+          <t>-36.15246665541509,175.4475220259785</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-36.152671853022,175.44838356321748</t>
+          <t>-36.15267189275984,175.4483835481002</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9987,12 +9987,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-36.15263700530328,175.44745721932503</t>
+          <t>-36.15263704443898,175.4474572044365</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-36.1527309961848,175.448361063672</t>
+          <t>-36.15273095644694,175.4483610787893</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10014,12 +10014,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.15257719029803,175.4474799749349</t>
+          <t>-36.15257720595232,175.4474799689795</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-36.15271335258093,175.44836777574574</t>
+          <t>-36.15271339231879,175.44836776062846</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-36.15262717441547,175.44746095932277</t>
+          <t>-36.152627143106905,175.4474609712336</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-36.15275109028882,175.44835341936238</t>
+          <t>-36.15275110353475,175.4483534143233</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10082,17 +10082,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-36.151754426603745,175.4468533813508</t>
+          <t>-36.1517543835545,175.44685339772818</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-36.152694597397385,175.4474353093525</t>
+          <t>-36.15269455826168,175.44743532424104</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-36.15274582502428,175.44835542240367</t>
+          <t>-36.15274585151618,175.44835541232544</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10114,12 +10114,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.15257171129973,175.44748205932572</t>
+          <t>-36.15257169564545,175.44748206528112</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.152733247996075,175.44836020702576</t>
+          <t>-36.15273328111093,175.448360194428</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10141,12 +10141,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.15255031972464,175.4474901973804</t>
+          <t>-36.152550343206066,175.44749018844732</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.152687178585445,175.44837773299113</t>
+          <t>-36.1526872183233,175.44837771787385</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10163,17 +10163,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.15189347563837,175.44680048227627</t>
+          <t>-36.15189343258915,175.44680049865374</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-36.152594785709525,175.44747328106084</t>
+          <t>-36.15259477005526,175.44747328701627</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-36.15270429235181,175.44837122248524</t>
+          <t>-36.1527042658599,175.4483712325634</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10195,12 +10195,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.15268767820603,175.44743794164762</t>
+          <t>-36.152687670378896,175.4474379446253</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-36.152866939347405,175.44830934735216</t>
+          <t>-36.15286690623253,175.44830935994995</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10222,12 +10222,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.1526816982714,175.44744021661722</t>
+          <t>-36.15268172957997,175.4474402047064</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-36.15275873982401,175.4483505092831</t>
+          <t>-36.15275876631591,175.4483504992049</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10249,12 +10249,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.15254485638047,175.4474922758145</t>
+          <t>-36.15254483289906,175.4474922847476</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-36.15264596381337,175.44839341211275</t>
+          <t>-36.152645977059315,175.44839340707367</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10276,12 +10276,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-36.15239254803883,175.4475502187565</t>
+          <t>-36.15239252455741,175.44755022768956</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-36.15261451792796,175.44840537489685</t>
+          <t>-36.15261455104283,175.44840536229916</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -10303,12 +10303,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-36.15263441451996,175.44745820494552</t>
+          <t>-36.15263437538426,175.44745821983406</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-36.15282128056727,175.44832671716068</t>
+          <t>-36.15282127394429,175.44832671968024</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10331,7 +10331,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-36.15273182405659,175.44836074872853</t>
+          <t>-36.15273181743361,175.4483607512481</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10348,7 +10348,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.15185025420676,175.44681692522704</t>
+          <t>-36.15185021115751,175.44681694160448</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -10358,7 +10358,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.152602464113144,175.44840996046042</t>
+          <t>-36.15260249722803,175.44840994786273</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10375,17 +10375,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.15213842574875,175.4467072943193</t>
+          <t>-36.15213846879799,175.44670727794175</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.15273629256865,175.44741944708548</t>
+          <t>-36.15273631605006,175.44741943815234</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-36.152835460354005,175.44832132279657</t>
+          <t>-36.152835480222926,175.4483213152379</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10403,12 +10403,12 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.15263826547282,175.4474567399144</t>
+          <t>-36.15263824981853,175.44745674586983</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-36.152782827580815,175.44834134567938</t>
+          <t>-36.152782787842966,175.4483413607967</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.152112940608234,175.44671698982262</t>
+          <t>-36.15211289755902,175.44671700620015</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -10449,12 +10449,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.15260316857673,175.44747009194106</t>
+          <t>-36.152603207712424,175.44747007705251</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-36.15274159294371,175.44835703239514</t>
+          <t>-36.152741632681554,175.44835701727783</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10476,12 +10476,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.15250502406086,175.447507429318</t>
+          <t>-36.15250505536943,175.4475074174072</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-36.15255132149732,175.44842941633706</t>
+          <t>-36.1525513546122,175.44842940373937</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10498,17 +10498,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.15193385581883,175.44678512022145</t>
+          <t>-36.151933812769606,175.44678513659892</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-36.152609054586144,175.4474678527081</t>
+          <t>-36.15260906241328,175.44746784973037</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-36.152731976385006,175.44836069077894</t>
+          <t>-36.15273198963093,175.44836068573983</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10530,12 +10530,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-36.15261645123358,175.44746503877795</t>
+          <t>-36.15261646688784,175.44746503282255</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.15276090553656,175.44834968539044</t>
+          <t>-36.15276091878251,175.44834968035136</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10552,17 +10552,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.15170044285573,175.44687391859165</t>
+          <t>-36.15170048590497,175.44687390221426</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.15272358912168,175.44742427991227</t>
+          <t>-36.152723573467405,175.4474242858677</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-36.1527806618683,175.44834216957247</t>
+          <t>-36.15278063537641,175.4483421796507</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10584,12 +10584,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.15266177037377,175.44744779786183</t>
+          <t>-36.15266175471949,175.44744780381725</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-36.15273773174969,175.44835850129175</t>
+          <t>-36.152737758241585,175.44835849121355</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10611,12 +10611,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.15280419299872,175.44739361540826</t>
+          <t>-36.15280416169017,175.4473936273191</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-36.15289714672894,175.44829785565392</t>
+          <t>-36.15289712686003,175.44829786321262</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10638,12 +10638,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-36.15259370556418,175.4474736919838</t>
+          <t>-36.15259373687274,175.44747368007302</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-36.15269700707978,175.44837399398574</t>
+          <t>-36.152697033571684,175.44837398390754</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10670,7 +10670,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-36.15280974996986,175.44833110370206</t>
+          <t>-36.15280973672391,175.44833110874114</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10687,12 +10687,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.15210054243153,175.4467217065518</t>
+          <t>-36.152100499382314,175.44672172292937</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.15257552311713,175.44748060918528</t>
+          <t>-36.152575483981416,175.44748062407376</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -10714,17 +10714,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.151929034304835,175.4467869544974</t>
+          <t>-36.15192907735407,175.44678693811994</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.152630798381296,175.4474595806454</t>
+          <t>-36.15263075924559,175.44745959553387</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-36.152633638456955,175.44839810098097</t>
+          <t>-36.15263366494886,175.44839809090277</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10743,7 +10743,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-36.1527356388898,175.44835929746893</t>
+          <t>-36.152735605774936,175.44835931006668</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10765,12 +10765,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.152653379679926,175.44745098996376</t>
+          <t>-36.15265340316134,175.44745098103064</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-36.15276375341544,175.4483486019841</t>
+          <t>-36.15276376003843,175.44834859946457</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10792,12 +10792,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-36.152619002881245,175.44746406804637</t>
+          <t>-36.15261896374555,175.44746408293489</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.15275519653282,175.44835185724196</t>
+          <t>-36.152755236270664,175.44835184212468</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10819,12 +10819,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-36.15263195679801,175.447459139945</t>
+          <t>-36.152631964625144,175.4474591369673</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-36.15280455755835,175.44833307903104</t>
+          <t>-36.15280457080429,175.4483330739919</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10846,12 +10846,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.15244493509785,175.447530289076</t>
+          <t>-36.15244495857926,175.44753028014296</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.152644824661664,175.4483938454741</t>
+          <t>-36.152644857776565,175.44839383287638</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10869,12 +10869,12 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.15269484003869,175.4474352170435</t>
+          <t>-36.152694816557286,175.44743522597665</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-36.15282453244736,175.44832548006008</t>
+          <t>-36.15282454569332,175.44832547502094</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10896,12 +10896,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.152663922837206,175.4474469789923</t>
+          <t>-36.152663907182934,175.4474469849477</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-36.152793993914955,175.44833709771615</t>
+          <t>-36.152793980669,175.44833710275526</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10918,17 +10918,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.15191370877804,175.44679278487322</t>
+          <t>-36.15191366572881,175.4467928012507</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.15270420912464,175.44743165272467</t>
+          <t>-36.1527042012975,175.44743165570236</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-36.15279402040686,175.44833708763792</t>
+          <t>-36.152793980669,175.44833710275526</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10945,7 +10945,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.15180014489527,175.44683598854735</t>
+          <t>-36.1518001879445,175.44683597216994</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-36.152782258005054,175.44834156236075</t>
+          <t>-36.15278227125099,175.44834155732167</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10973,12 +10973,12 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.15261115225971,175.44746705468353</t>
+          <t>-36.15261112877829,175.4474670636166</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-36.15275591181403,175.44835158513067</t>
+          <t>-36.15275592505997,175.44835158009155</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10996,12 +10996,12 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-36.152615222372575,175.4474655062775</t>
+          <t>-36.15261526150829,175.44746549138895</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-36.15274706352046,175.44835495124806</t>
+          <t>-36.15274705689749,175.4483549537676</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11018,17 +11018,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.15183217352764,175.4468238037473</t>
+          <t>-36.15183221657687,175.44682378736988</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-36.15245266831355,175.44752734711602</t>
+          <t>-36.152452707449264,175.44752733222757</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-36.15258416483248,175.4484169219481</t>
+          <t>-36.152584158209514,175.44841692446767</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11045,17 +11045,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.151752188043275,175.44685423297534</t>
+          <t>-36.15175223109252,175.44685421659796</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-36.152663461035964,175.44744715467704</t>
+          <t>-36.15266347669024,175.44744714872164</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-36.152744864693005,175.4483557877382</t>
+          <t>-36.152744904430854,175.44835577262089</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -11072,17 +11072,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.151836478451266,175.44682216600467</t>
+          <t>-36.1518365215005,175.44682214962722</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-36.15266298358044,175.44744733631717</t>
+          <t>-36.152662960099015,175.4474473452503</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-36.15273614223587,175.4483591059833</t>
+          <t>-36.15273612236693,175.44835911354193</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -11099,17 +11099,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.151807979856486,175.4468330078579</t>
+          <t>-36.15180802290574,175.44683299148048</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.152619237695454,175.44746397871523</t>
+          <t>-36.15261922204117,175.44746398467063</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-36.15268355581831,175.44837911118225</t>
+          <t>-36.152683516080465,175.44837912629953</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11127,12 +11127,12 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-36.15263883685404,175.4474565225419</t>
+          <t>-36.15263885250832,175.4474565165865</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-36.15266875346981,175.4483847423641</t>
+          <t>-36.15266879320766,175.44838472724686</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11154,12 +11154,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.15249901281657,175.44750971618856</t>
+          <t>-36.152499028470864,175.44750971023316</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-36.152656090341964,175.44838955973157</t>
+          <t>-36.152656050604115,175.44838957484882</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11181,12 +11181,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.15262743271108,175.44746086105852</t>
+          <t>-36.152627401402526,175.44746087296934</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-36.152595291430984,175.44841268912208</t>
+          <t>-36.15259526493908,175.44841269920025</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -11203,17 +11203,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.15192963699408,175.44678672521292</t>
+          <t>-36.151929680043324,175.44678670883545</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.15281158181759,175.44739080444282</t>
+          <t>-36.152811566163315,175.44739081039825</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-36.15283046663184,175.44832322254015</t>
+          <t>-36.15283048650076,175.44832321498149</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -11230,17 +11230,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.15163629948311,175.44689832086127</t>
+          <t>-36.15163634253235,175.4468983044839</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.15263591733084,175.4474576332261</t>
+          <t>-36.15263592515797,175.44745763024838</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-36.152772873250804,175.44834513256382</t>
+          <t>-36.15277288649676,175.44834512752473</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.151789124290346,175.4468401811646</t>
+          <t>-36.15178916733958,175.44684016478718</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.15250730958603,175.44750655983063</t>
+          <t>-36.152507293931734,175.44750656578603</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -11284,7 +11284,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.151898813743344,175.44679845147246</t>
+          <t>-36.15189877069411,175.44679846784987</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -11303,7 +11303,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.15179721754709,175.44683710221142</t>
+          <t>-36.15179726059632,175.446837085834</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-36.15263322120954,175.4483982597121</t>
+          <t>-36.152633234455486,175.448398254673</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11330,7 +11330,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-36.15195581092693,175.4467767677121</t>
+          <t>-36.15195576787771,175.44677678408956</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -11354,12 +11354,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.15251425226001,175.44750391861368</t>
+          <t>-36.152514267914306,175.44750391265828</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-36.15264449351293,175.4483939714512</t>
+          <t>-36.15264451338186,175.44839396389258</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11381,12 +11381,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.15280020898514,175.4473951310663</t>
+          <t>-36.152800201158,175.447395134044</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-36.15295728332447,175.44827497805434</t>
+          <t>-36.15295730981636,175.44827496797612</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11403,17 +11403,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.15234394271996,175.44662910773283</t>
+          <t>-36.15234398576917,175.4466290913552</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.152691638738645,175.4474364349267</t>
+          <t>-36.152691630911505,175.4474364379044</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-36.15282559874615,175.44832507441197</t>
+          <t>-36.15282557887723,175.44832508197064</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11430,17 +11430,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.15235866555122,175.44662350658444</t>
+          <t>-36.15235870860044,175.44662349020683</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.152697352550476,175.44743426119868</t>
+          <t>-36.152697313414784,175.44743427608722</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-36.152715789835526,175.44836684855255</t>
+          <t>-36.152715803081485,175.44836684351347</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11457,17 +11457,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-36.152076176569935,175.4467309762309</t>
+          <t>-36.15207621961916,175.4467309598534</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-36.152662693976254,175.44744744649236</t>
+          <t>-36.152662701803415,175.44744744351468</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-36.15279407339065,175.44833706748153</t>
+          <t>-36.15279406676767,175.4483370700011</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11489,12 +11489,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.15263711488325,175.44745717763712</t>
+          <t>-36.152637130537535,175.44745717168175</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-36.152714591077164,175.4483673045905</t>
+          <t>-36.15271459770013,175.44836730207098</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11516,12 +11516,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-36.15273197981494,175.44742108780503</t>
+          <t>-36.152732011123504,175.44742107589417</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-36.15285052761901,175.4483155908103</t>
+          <t>-36.15285054748792,175.44831558325166</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11543,12 +11543,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.152604546153405,175.44746956786528</t>
+          <t>-36.15260458528911,175.44746955297677</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-36.15274355996707,175.44835628408924</t>
+          <t>-36.152743526852205,175.448356296687</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11565,17 +11565,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.1517668247847,175.4468486646602</t>
+          <t>-36.15176678173545,175.4468486810376</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.15255930528203,175.44748677898104</t>
+          <t>-36.15255929745489,175.44748678195876</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-36.152705530848046,175.4483707513301</t>
+          <t>-36.152705557339935,175.44837074125192</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11592,17 +11592,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-36.15191129802099,175.44679370201084</t>
+          <t>-36.151911341070225,175.44679368563337</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.152581777002304,175.44747823000182</t>
+          <t>-36.15258176917516,175.4474782329795</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-36.15270217299995,175.44837202873998</t>
+          <t>-36.15270219949185,175.4483720186618</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-36.152546766202796,175.4474915492559</t>
+          <t>-36.1525467270671,175.4474915641444</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-36.152577310053005,175.44841952967076</t>
+          <t>-36.152577270315156,175.44841954478798</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11651,12 +11651,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-36.15269106735746,175.4474366522995</t>
+          <t>-36.15269102822176,175.44743666718801</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-36.15278309249978,175.44834124489734</t>
+          <t>-36.152783132237616,175.44834122978006</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11673,12 +11673,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.152069891382915,175.44673336734868</t>
+          <t>-36.152069848333696,175.4467333837262</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.152649481764286,175.44745247286164</t>
+          <t>-36.15264944262859,175.44745248775018</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -11696,17 +11696,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.15190621821149,175.44679563455054</t>
+          <t>-36.15190617516226,175.446795650928</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.15257323759212,175.447481478674</t>
+          <t>-36.15257324541926,175.44748147569632</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-36.15276486607511,175.44834817869975</t>
+          <t>-36.15276487932105,175.44834817366066</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.151799714402884,175.44683615232148</t>
+          <t>-36.15179967135366,175.4468361686989</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-36.152650871437764,175.44839154513153</t>
+          <t>-36.15265088468372,175.44839154009244</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11755,12 +11755,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.152520960119745,175.4475013667272</t>
+          <t>-36.15252098360118,175.44750135779412</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-36.152718690698336,175.44836574499098</t>
+          <t>-36.15271873043619,175.4483657298737</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11778,12 +11778,12 @@
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-36.152806321980435,175.44739280546912</t>
+          <t>-36.152806314153295,175.4473928084468</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-36.1528981732898,175.44829746512247</t>
+          <t>-36.15289816004385,175.44829747016158</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -11805,12 +11805,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-36.152716748201925,175.44742688243204</t>
+          <t>-36.152716771683345,175.44742687349893</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-36.15282595638673,175.44832493835608</t>
+          <t>-36.15282592327186,175.44832495095386</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11832,12 +11832,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.15266097200552,175.44744810158798</t>
+          <t>-36.15266097983266,175.44744809861027</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-36.15275916369435,175.44835034803194</t>
+          <t>-36.15275919680923,175.44835033543418</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11855,12 +11855,12 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.15267832477423,175.44744150000963</t>
+          <t>-36.15267828563852,175.44744151489817</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-36.15269776209888,175.44837370675754</t>
+          <t>-36.15269772236104,175.44837372187482</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -11882,12 +11882,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.15270966464081,175.44742957726044</t>
+          <t>-36.15270962550511,175.447429592149</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-36.15275863385642,175.4483505495959</t>
+          <t>-36.152758594118566,175.4483505647132</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-36.152648738186,175.44745275574374</t>
+          <t>-36.15264875384029,175.44745274978834</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -11931,17 +11931,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.152033299539944,175.44674728823273</t>
+          <t>-36.152033256490725,175.44674730461023</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.15266958185923,175.44744482610966</t>
+          <t>-36.152669589686354,175.44744482313195</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-36.15273481764098,175.4483596098929</t>
+          <t>-36.15273483088694,175.4483596048538</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11963,12 +11963,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.152519018988826,175.44750210519615</t>
+          <t>-36.152519003334525,175.44750211115155</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-36.1525957947771,175.44841249763707</t>
+          <t>-36.152595781531154,175.44841250267615</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11990,12 +11990,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-36.15246152863755,175.44752397636765</t>
+          <t>-36.152461489501846,175.44752399125613</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-36.15260841816785,175.44840769539374</t>
+          <t>-36.15260843803678,175.44840768783513</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -12017,12 +12017,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-36.15237354373827,175.4475574485822</t>
+          <t>-36.15237358287398,175.44755743369376</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-36.15256703119517,175.44842343999414</t>
+          <t>-36.1525670245722,175.44842344251367</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -12039,17 +12039,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-36.15195262528384,175.4467779796451</t>
+          <t>-36.1519525822346,175.44677799602255</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-36.15235381151312,175.4475649553294</t>
+          <t>-36.15235378020455,175.44756496724014</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-36.15251239826931,175.44844422364932</t>
+          <t>-36.15251243800717,175.4484442085321</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -12066,17 +12066,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-36.151919219079836,175.44679068855856</t>
+          <t>-36.1519191760306,175.44679070493603</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-36.1525120684877,175.4475047493911</t>
+          <t>-36.15251202935201,175.44750476427959</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-36.15271506793131,175.44836712318315</t>
+          <t>-36.15271502819348,175.44836713830043</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -12098,12 +12098,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.15256064372306,175.44748626979433</t>
+          <t>-36.15256067503162,175.44748625788353</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-36.15276587939015,175.44834779320863</t>
+          <t>-36.15276591250502,175.4483477806109</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -12120,17 +12120,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-36.15208960792834,175.4467258664438</t>
+          <t>-36.15208965097757,175.44672585006626</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-36.152630187864375,175.44745981290637</t>
+          <t>-36.15263015655581,175.4474598248172</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-36.15277168773845,175.4483455835633</t>
+          <t>-36.15277168111547,175.44834558608287</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.15184500219999,175.44681892327372</t>
+          <t>-36.15184495915075,175.44681893965117</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -12157,7 +12157,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-36.15271853836993,175.44836580294057</t>
+          <t>-36.15271855823885,175.44836579538193</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12175,12 +12175,12 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.152580626412664,175.44747866772394</t>
+          <t>-36.15258064989409,175.44747865879083</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-36.152798219372336,175.44833549024224</t>
+          <t>-36.152798199503415,175.44833549780088</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-36.151799283910506,175.4468363160956</t>
+          <t>-36.15179924086127,175.44683633247303</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -12216,17 +12216,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.15193506119733,175.4467846616524</t>
+          <t>-36.151935104246554,175.44678464527493</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-36.15258799175174,175.4474758657065</t>
+          <t>-36.15258796827033,175.4474758746396</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-36.15273698997657,175.44835878348115</t>
+          <t>-36.1527369833536,175.4483587860007</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12244,7 +12244,7 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.1526235661039,175.4474623320447</t>
+          <t>-36.152623526968206,175.44746234693318</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -12271,12 +12271,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-36.152516232526665,175.44750316525636</t>
+          <t>-36.15251624818096,175.44750315930096</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-36.152697841574586,175.448373676523</t>
+          <t>-36.15269780845972,175.4483736891207</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12293,17 +12293,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.15188891241959,175.44680221828582</t>
+          <t>-36.15188895546882,175.44680220190838</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.15253370270497,175.44749651903513</t>
+          <t>-36.15253372618639,175.44749651010204</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-36.152724949409176,175.44836336401892</t>
+          <t>-36.15272492954025,175.44836337157756</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12320,7 +12320,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.151758559330744,175.44685180912074</t>
+          <t>-36.15175860237998,175.44685179274336</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -12330,7 +12330,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-36.15263698968231,175.44839682609268</t>
+          <t>-36.15263702279719,175.44839681349498</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12352,12 +12352,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.152475069591915,175.44751882495757</t>
+          <t>-36.15247509307334,175.44751881602448</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-36.15267478699981,175.44838244705934</t>
+          <t>-36.152674820114676,175.44838243446162</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12379,12 +12379,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.152469676691624,175.44752087658873</t>
+          <t>-36.15246966886446,175.4475208795664</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-36.15268097285819,175.44838009380476</t>
+          <t>-36.15268093312033,175.448380108922</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12401,17 +12401,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.151821239021544,175.4468279636129</t>
+          <t>-36.151821195972296,175.4468279799903</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.15242611082251,175.44753745042377</t>
+          <t>-36.152426102995356,175.44753745340148</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-36.152607014097114,175.4484082295363</t>
+          <t>-36.152606974359244,175.44840824465356</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12452,12 +12452,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.152370060660076,175.44755877365287</t>
+          <t>-36.15237005283293,175.44755877663056</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-36.15261790226825,175.44840408741146</t>
+          <t>-36.15261790889122,175.4484040848919</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.15191327828571,175.4467929486478</t>
+          <t>-36.15191323523648,175.44679296502525</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -12484,7 +12484,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-36.152404198707934,175.44848538523502</t>
+          <t>-36.15240421195388,175.44848538019593</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12511,7 +12511,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-36.152660143602574,175.448388017771</t>
+          <t>-36.152660183340416,175.44838800265373</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12528,12 +12528,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.15179532338062,175.4468378228175</t>
+          <t>-36.151795280331385,175.44683783919493</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.152561074215804,175.44748610602082</t>
+          <t>-36.15256110552436,175.44748609411002</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -12555,12 +12555,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-36.15191723881513,175.4467914419217</t>
+          <t>-36.15191728186436,175.44679142554423</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-36.15251798580621,175.4475024982522</t>
+          <t>-36.15251797015193,175.4475025042076</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -12583,12 +12583,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-36.1525098299254,175.44750560101235</t>
+          <t>-36.15250979078971,175.44750561590084</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-36.15268846344253,175.44837724419938</t>
+          <t>-36.152688423704696,175.44837725931666</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12605,17 +12605,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.15175287683111,175.446853970937</t>
+          <t>-36.15175283378188,175.4468539873144</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.15241187325186,175.4475428668423</t>
+          <t>-36.152411896733284,175.4475428579092</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-36.15258221767775,175.44841766269258</t>
+          <t>-36.15258217793989,175.4484176778098</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12632,12 +12632,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.15189278685064,175.44680074431548</t>
+          <t>-36.1518927438014,175.44680076069292</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-36.15246588835525,175.44752231779245</t>
+          <t>-36.152465880528105,175.44752232077013</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -12659,12 +12659,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.15190441014369,175.4467963224036</t>
+          <t>-36.15190445319293,175.44679630602616</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.15230607377205,175.44758311622374</t>
+          <t>-36.1523060815992,175.44758311324608</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -12691,12 +12691,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-36.15228828267696,175.4475898844941</t>
+          <t>-36.152288259195544,175.44758989342716</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-36.152484760590944,175.44845473766415</t>
+          <t>-36.15248480032879,175.44845472254696</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.15177629561727,175.4468450616317</t>
+          <t>-36.151776338666515,175.4468450452543</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -12723,7 +12723,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-36.15251359040496,175.44844377013305</t>
+          <t>-36.152513557290085,175.44844378273072</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12745,12 +12745,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.152240677994236,175.44760799473977</t>
+          <t>-36.15224064668566,175.4476080066505</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-36.15248042916464,175.4484563854387</t>
+          <t>-36.15248040929572,175.44845639299731</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12767,7 +12767,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.15171025808285,175.4468701845498</t>
+          <t>-36.1517103011321,175.44687016817244</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -12787,12 +12787,12 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.15239470050284,175.44754939989218</t>
+          <t>-36.15239467702142,175.44754940882524</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-36.15264934153056,175.44839212714592</t>
+          <t>-36.152649334907586,175.4483921296655</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12828,17 +12828,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.15173841228645,175.44685947374077</t>
+          <t>-36.15173836923721,175.44685949011816</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.15253219989395,175.4474970907532</t>
+          <t>-36.15253217641253,175.4474970996863</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-36.15268509897141,175.4483785241283</t>
+          <t>-36.15268506585654,175.448378536726</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12855,7 +12855,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.15170199262844,175.44687332900614</t>
+          <t>-36.15170203567767,175.44687331262875</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -12874,17 +12874,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.1519748386869,175.44676952886715</t>
+          <t>-36.15197488173614,175.4467695124897</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-36.152645333380164,175.44745405104598</t>
+          <t>-36.152645309898745,175.4474540599791</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-36.15282990367907,175.4483234367022</t>
+          <t>-36.15282988381014,175.44832344426086</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12901,17 +12901,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-36.15189132317669,175.44680130114872</t>
+          <t>-36.151891280127444,175.4468013175262</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-36.152511786710626,175.44750485658818</t>
+          <t>-36.15251177105636,175.44750486254358</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-36.15262516767191,175.44840132347477</t>
+          <t>-36.15262514118001,175.44840133355294</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-36.152362890997956,175.44756150121373</t>
+          <t>-36.15236290665226,175.44756149525836</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -12955,17 +12955,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.152133776432635,175.446709063094</t>
+          <t>-36.152133733383415,175.44670907947153</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-36.15256699936116,175.4474838519016</t>
+          <t>-36.15256696022546,175.4474838667901</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-36.15272361819132,175.4483638704479</t>
+          <t>-36.15272363806025,175.4483638628893</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -13006,12 +13006,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-36.152508139262956,175.4475062441948</t>
+          <t>-36.152508154917236,175.4475062382394</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-36.15269303329503,175.4483755057131</t>
+          <t>-36.15269307303287,175.44837549059582</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -13028,12 +13028,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.15209081330665,175.4467254078731</t>
+          <t>-36.15209077025743,175.44672542425062</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-36.152791481725465,175.44739845122047</t>
+          <t>-36.1527915052069,175.44739844228735</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -13052,12 +13052,12 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-36.15241130187052,175.44754308421363</t>
+          <t>-36.15241129404338,175.44754308719132</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-36.15257882671437,175.44841895269641</t>
+          <t>-36.15257882009139,175.44841895521594</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13074,17 +13074,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-36.15184061117794,175.44682059377155</t>
+          <t>-36.151840568128684,175.446820610149</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.152413861345856,175.4475421105091</t>
+          <t>-36.152413877000136,175.4475421045537</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-36.152535134944976,175.44843557408433</t>
+          <t>-36.152535168059835,175.44843556148666</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -13101,17 +13101,17 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.15189803885714,175.44679874626655</t>
+          <t>-36.151898081906374,175.4467987298891</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>-36.152562451792534,175.44748558194556</t>
+          <t>-36.15256248310109,175.44748557003476</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>-36.15267125695427,175.44838378997645</t>
+          <t>-36.152671290069144,175.44838377737872</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -13133,12 +13133,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-36.15266836082544,175.4474452906321</t>
+          <t>-36.15266838430685,175.44744528169895</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-36.15280212030395,175.4483340062262</t>
+          <t>-36.1528021600418,175.44833399110888</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13160,12 +13160,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.152536512648496,175.4474954500414</t>
+          <t>-36.152536481339936,175.4474954619522</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-36.15267873429274,175.44838094541083</t>
+          <t>-36.15267869455488,175.4483809605281</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13187,12 +13187,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.152539972244696,175.44749413389863</t>
+          <t>-36.152540011380395,175.44749411901012</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-36.1527488053627,175.4483542886067</t>
+          <t>-36.15274877887079,175.44835429868493</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -13209,17 +13209,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-36.15224329365132,175.44666739857192</t>
+          <t>-36.152243336700536,175.44666738219436</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.15258716207488,175.44747618134292</t>
+          <t>-36.15258719338342,175.44747616943212</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-36.15270263660817,175.44837185237176</t>
+          <t>-36.152702629985185,175.4483718548913</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13246,7 +13246,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-36.15262371724035,175.44840187525432</t>
+          <t>-36.15262367750252,175.44840189037157</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13264,12 +13264,12 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.152537663238185,175.4474950123197</t>
+          <t>-36.152537686719604,175.44749500338662</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-36.1527431692116,175.44835643274263</t>
+          <t>-36.15274318245755,175.44835642770352</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.15264473069038,175.44745428032934</t>
+          <t>-36.15264470720896,175.44745428926248</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -13314,12 +13314,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-36.152567273311085,175.44748374768207</t>
+          <t>-36.152567304619645,175.44748373577127</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>-36.15275529587742,175.44835181944873</t>
+          <t>-36.15275532236932,175.44835180937054</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -13336,17 +13336,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-36.152172520733046,175.446694323299</t>
+          <t>-36.152172477683834,175.44669433967655</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.15250899242132,175.44750591962588</t>
+          <t>-36.15250901590275,175.44750591069283</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-36.152770363143624,175.4483460874733</t>
+          <t>-36.15277038963553,175.44834607739514</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13368,12 +13368,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.15254864471655,175.4474908346081</t>
+          <t>-36.15254862123511,175.44749084354117</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-36.1526999476805,175.4483728753074</t>
+          <t>-36.152699960926455,175.44837287026832</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13390,17 +13390,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.152044664536035,175.4467429645712</t>
+          <t>-36.15204462148679,175.4467429809487</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.15262315126549,175.44746248986303</t>
+          <t>-36.15262318257404,175.4474624779522</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-36.15279788822363,175.4483356162198</t>
+          <t>-36.152797855108766,175.44833562881757</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13417,17 +13417,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.15198491220674,175.4467656965362</t>
+          <t>-36.15198486915752,175.44676571291365</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-36.15274706271209,175.44741534975248</t>
+          <t>-36.15274707836637,175.44741534379705</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-36.15286540944053,175.44830992936957</t>
+          <t>-36.15286544255539,175.44830991677176</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13446,7 +13446,7 @@
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-36.15284656045782,175.4483171000236</t>
+          <t>-36.15284658694972,175.4483170899454</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13463,7 +13463,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-36.15168735588607,175.44687889731273</t>
+          <t>-36.15168731283682,175.4468789136901</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-36.15279719281137,175.44833588077276</t>
+          <t>-36.15279716631948,175.44833589085093</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13490,17 +13490,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.151654724559684,175.44689131135405</t>
+          <t>-36.151654767608925,175.4468912949767</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.152625898591644,175.44746144468868</t>
+          <t>-36.15262593772734,175.44746142980014</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-36.15288322523903,175.44830315176318</t>
+          <t>-36.15288326497687,175.44830313664585</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13517,17 +13517,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-36.15179678705471,175.44683726598552</t>
+          <t>-36.151796830103955,175.4468372496081</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.15259001898109,175.44747509448163</t>
+          <t>-36.15259003463536,175.44747508852623</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-36.15270871649878,175.4483695394283</t>
+          <t>-36.15270874299068,175.44836952935015</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13545,7 +13545,7 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-36.152732950380205,175.4474207185687</t>
+          <t>-36.152732958207345,175.447420715591</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -13587,12 +13587,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>-36.152631612403844,175.44745927096403</t>
+          <t>-36.15263162023098,175.44745926798632</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>-36.15280170967957,175.4483341624384</t>
+          <t>-36.15280172954849,175.44833415487975</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -13614,12 +13614,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-36.15268697376347,175.44743820964143</t>
+          <t>-36.15268698159062,175.44743820666372</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-36.15287876135498,175.44830484994438</t>
+          <t>-36.152878787846866,175.44830483986615</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13638,7 +13638,7 @@
       <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-36.15284398412109,175.4483180801303</t>
+          <t>-36.152844003990005,175.44831807257165</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13660,12 +13660,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>-36.152632849091965,175.4474588004866</t>
+          <t>-36.15263282561055,175.44745880941971</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-36.15280441185293,175.4483331344612</t>
+          <t>-36.15280439860698,175.44833313950028</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13682,17 +13682,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-36.15234721446026,175.44662786303337</t>
+          <t>-36.15234725750946,175.44662784665573</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.15266847823253,175.44744524596646</t>
+          <t>-36.15266847040539,175.44744524894418</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-36.15285464710856,175.44831402364713</t>
+          <t>-36.15285468022344,175.44831401104932</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13710,12 +13710,12 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.15263323262182,175.44745865457904</t>
+          <t>-36.15263325610324,175.44745864564592</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-36.15276112409472,175.4483496022453</t>
+          <t>-36.152761090979844,175.44834961484304</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13733,12 +13733,12 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-36.15250020254201,175.44750926357878</t>
+          <t>-36.152500233850574,175.447509251668</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-36.15266155429621,175.44838748110826</t>
+          <t>-36.15266156091918,175.44838747858867</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13755,7 +13755,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-36.152250267624744,175.44666474540296</t>
+          <t>-36.152250224575525,175.44666476178054</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -13779,12 +13779,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>-36.15265539908199,175.4474502217154</t>
+          <t>-36.152655383427714,175.44745022767083</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>-36.152800676495644,175.44833455548851</t>
+          <t>-36.152800696364565,175.44833454792985</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13806,12 +13806,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.152664040244304,175.4474469343267</t>
+          <t>-36.15266407938001,175.44744691943816</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-36.15278429125808,175.44834078885864</t>
+          <t>-36.15278425152024,175.44834080397595</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13833,12 +13833,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.15263118191115,175.44745943473782</t>
+          <t>-36.1526311897383,175.4474594317601</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-36.152741864485655,175.44835692909365</t>
+          <t>-36.152741890977566,175.44835691901545</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13860,12 +13860,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.15268608146957,175.44743854910024</t>
+          <t>-36.15268612060527,175.44743853421173</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-36.15282755252339,175.4483243311437</t>
+          <t>-36.15282755914638,175.44832432862415</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13882,13 +13882,13 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.151928862107916,175.44678702000726</t>
+          <t>-36.151928819058675,175.44678703638473</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-36.15304455423432,175.44824177776195</t>
+          <t>-36.153044527742416,175.4482417878402</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13905,17 +13905,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.151750896566085,175.44685472429717</t>
+          <t>-36.15175085351684,175.44685474067455</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>-36.15257712768091,175.4474799987565</t>
+          <t>-36.152577119853774,175.4474800017342</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-36.152707901872915,175.44836984933255</t>
+          <t>-36.152707882004,175.44836985689116</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -13937,12 +13937,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-36.15258582363386,175.44747669052998</t>
+          <t>-36.152585815806724,175.44747669350767</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-36.15269056954847,175.44837644298397</t>
+          <t>-36.15269057617144,175.44837644046441</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13959,17 +13959,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-36.151961235130045,175.4467747041503</t>
+          <t>-36.15196119208082,175.4467747205278</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-36.152610565224194,175.44746727801132</t>
+          <t>-36.152610526088495,175.4474672928998</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-36.15274622902571,175.4483552687112</t>
+          <t>-36.15274619591083,175.44835528130892</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13986,7 +13986,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-36.15177044092078,175.4468472889585</t>
+          <t>-36.15177048397002,175.4468472725811</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -14015,7 +14015,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>-36.152744222264495,175.4483560321344</t>
+          <t>-36.152744215641526,175.44835603465393</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
@@ -14032,17 +14032,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.15191611953507,175.4467918677356</t>
+          <t>-36.151916162584314,175.44679185135814</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.15273921209155,175.44741833639867</t>
+          <t>-36.152739243400106,175.4474183244878</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-36.15279702723702,175.44833594376152</t>
+          <t>-36.15279699412214,175.4483359563593</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -14064,12 +14064,12 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.15251397048295,175.44750402581076</t>
+          <t>-36.15251400961865,175.44750401092227</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-36.15270344461106,175.44837154498714</t>
+          <t>-36.15270340487321,175.44837156010442</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -14086,17 +14086,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.1520747989947,175.44673150031153</t>
+          <t>-36.15207475594547,175.44673151668908</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-36.152454382457506,175.4475266950013</t>
+          <t>-36.1524543433218,175.4475267098898</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-36.15271656472355,175.44836655376557</t>
+          <t>-36.1527165779695,175.44836654872648</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -14156,12 +14156,12 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>-36.152612999464786,175.4474663519454</t>
+          <t>-36.1526130229462,175.4474663430123</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>-36.15275658735739,175.44835132813662</t>
+          <t>-36.1527566138493,175.44835131805843</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
@@ -14178,17 +14178,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.151767944064915,175.4468482388478</t>
+          <t>-36.151767901015674,175.44684825522518</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.15251981735718,175.44750180147102</t>
+          <t>-36.15251977822149,175.44750181635953</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-36.15263984418453,175.44839574017</t>
+          <t>-36.15263986405344,175.44839573261137</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14210,12 +14210,12 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.152535041146045,175.4474960098487</t>
+          <t>-36.15253501766461,175.4474960187818</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-36.15270393471118,175.44837135854073</t>
+          <t>-36.15270392146523,175.4483713635798</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14232,17 +14232,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-36.15191370877804,175.44679278487322</t>
+          <t>-36.15191366572881,175.4467928012507</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.15248434475421,175.4475152963896</t>
+          <t>-36.1524843056185,175.4475153112781</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-36.15265669303267,175.44838933045313</t>
+          <t>-36.15265665329483,175.44838934557038</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14259,17 +14259,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-36.15189821105408,175.44679868075676</t>
+          <t>-36.15189816800485,175.44679869713423</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-36.152514291395725,175.4475039037252</t>
+          <t>-36.152514267914306,175.44750391265828</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-36.15263922824784,175.44839597448743</t>
+          <t>-36.15263926136273,175.44839596188973</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14286,17 +14286,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.15181865606733,175.44682894625814</t>
+          <t>-36.15181861301809,175.44682896263555</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-36.15242125799471,175.44753929659194</t>
+          <t>-36.15242128147614,175.44753928765886</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-36.15265121583246,175.4483914141153</t>
+          <t>-36.15265122907841,175.4483914090762</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14318,12 +14318,12 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.15243421191401,175.4475343685136</t>
+          <t>-36.15243419625973,175.447534374469</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-36.15263373117861,175.44839806570735</t>
+          <t>-36.15263375104754,175.44839805814874</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14345,12 +14345,12 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.1524295547648,175.44753614023983</t>
+          <t>-36.152429546937654,175.44753614321752</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-36.15265251393553,175.44839092028488</t>
+          <t>-36.152652520558505,175.44839091776532</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14367,17 +14367,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.15159195876007,175.44691518952266</t>
+          <t>-36.15159191571083,175.44691520589998</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.152431448933044,175.4475354196386</t>
+          <t>-36.152431441105904,175.44753542261628</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-36.15264826860864,175.44839253531188</t>
+          <t>-36.15264830172351,175.44839252271416</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14404,7 +14404,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-36.15264011572649,175.44839563686875</t>
+          <t>-36.15264012234947,175.44839563434923</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14421,17 +14421,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.15200350947388,175.44675862146119</t>
+          <t>-36.1520035525231,175.4467586050837</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-36.15245226912934,175.44752749897833</t>
+          <t>-36.15245227695649,175.44752749600065</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-36.152563997872434,175.4484245939425</t>
+          <t>-36.15256401111837,175.44842458890338</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.15189898594028,175.44679838596264</t>
+          <t>-36.15189902898951,175.44679836958517</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -14458,7 +14458,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-36.15260388805282,175.4484094187593</t>
+          <t>-36.152603874806864,175.44840942379838</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14475,17 +14475,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-36.15204853896648,175.4467414905954</t>
+          <t>-36.152048582015716,175.4467414742179</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-36.15240352169164,175.4475460440369</t>
+          <t>-36.15240354517307,175.4475460351038</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-36.152637228109405,175.44839673538917</t>
+          <t>-36.15263719499455,175.4483967479869</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14502,12 +14502,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.151617271716766,175.44690555964823</t>
+          <t>-36.151617228667526,175.44690557602559</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.15229358947967,175.44758786562625</t>
+          <t>-36.15229359730682,175.44758786264856</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -14534,12 +14534,12 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-36.15244954528414,175.44752853521533</t>
+          <t>-36.1524495218027,175.4475285441484</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-36.15257463437096,175.4484205475643</t>
+          <t>-36.15257460125608,175.448420560162</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14561,12 +14561,12 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.15237694854502,175.4475561532883</t>
+          <t>-36.15237694071788,175.447556156266</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-36.152617213478834,175.44840434944373</t>
+          <t>-36.1526172201018,175.44840434692418</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -14589,7 +14589,7 @@
       <c r="C234" t="inlineStr"/>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-36.15280084869296,175.44833448998014</t>
+          <t>-36.1528008685619,175.4483344824215</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14607,12 +14607,12 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr">
         <is>
-          <t>-36.15271811795131,175.4474263613326</t>
+          <t>-36.15271814925987,175.44742634942173</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-36.15276640922808,175.44834759164465</t>
+          <t>-36.152766429097,175.448347584086</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14629,17 +14629,17 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-36.15192722623707,175.44678764235084</t>
+          <t>-36.15192718318785,175.4467876587283</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>-36.15274795500594,175.44741501029316</t>
+          <t>-36.15274793935167,175.44741501624858</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-36.1528692110273,175.4483084831445</t>
+          <t>-36.152869230896215,175.44830847558583</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14661,12 +14661,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>-36.15261845498144,175.44746427648568</t>
+          <t>-36.15261844715428,175.4474642794634</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-36.15278114534541,175.44834198564527</t>
+          <t>-36.15278115196838,175.44834198312574</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -8336,13 +8336,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0625</v>
+        <v>0.0376</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1029</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>-0.1752904202189686</v>
@@ -8414,13 +8414,13 @@
         <v>0.5000000000088544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0472</v>
+        <v>0.0425</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0629</v>
+        <v>0.0649</v>
       </c>
       <c r="I3" t="n">
         <v>0.3939584685232325</v>
@@ -8492,13 +8492,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0549</v>
+        <v>0.0494</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0733</v>
+        <v>0.073</v>
       </c>
       <c r="I4" t="n">
         <v>0.08458932252087668</v>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,13 +470,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393.07</v>
+        <v>387.67</v>
       </c>
       <c r="C2" t="n">
-        <v>312.5</v>
+        <v>311.19</v>
       </c>
       <c r="D2" t="n">
-        <v>325.41</v>
+        <v>324.49</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>384.55</v>
+        <v>379.6</v>
       </c>
       <c r="C3" t="n">
-        <v>312.5</v>
+        <v>311.3</v>
       </c>
       <c r="D3" t="n">
-        <v>329.23</v>
+        <v>328.38</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>401.82</v>
+        <v>410.9</v>
       </c>
       <c r="C4" t="n">
-        <v>332.42</v>
+        <v>334.62</v>
       </c>
       <c r="D4" t="n">
-        <v>350.81</v>
+        <v>352.36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>402.04</v>
+        <v>401.06</v>
       </c>
       <c r="C5" t="n">
-        <v>324.67</v>
+        <v>324.43</v>
       </c>
       <c r="D5" t="n">
-        <v>336.93</v>
+        <v>336.76</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>397.92</v>
+        <v>394.39</v>
       </c>
       <c r="C6" t="n">
-        <v>320.44</v>
+        <v>319.59</v>
       </c>
       <c r="D6" t="n">
-        <v>332.57</v>
+        <v>331.97</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -574,12 +574,14 @@
           <t>2002-01-31 21:54:26+00:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>352.18</v>
+      </c>
       <c r="C7" t="n">
-        <v>333.4</v>
+        <v>335.56</v>
       </c>
       <c r="D7" t="n">
-        <v>346.13</v>
+        <v>347.65</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -594,13 +596,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.62</v>
+        <v>381.07</v>
       </c>
       <c r="C8" t="n">
-        <v>326.23</v>
+        <v>325.61</v>
       </c>
       <c r="D8" t="n">
-        <v>332.12</v>
+        <v>331.68</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -615,10 +617,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>393.49</v>
+        <v>387.04</v>
       </c>
       <c r="C9" t="n">
-        <v>306.52</v>
+        <v>304.96</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -634,13 +636,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>402.44</v>
+        <v>407.17</v>
       </c>
       <c r="C10" t="n">
-        <v>329.79</v>
+        <v>330.94</v>
       </c>
       <c r="D10" t="n">
-        <v>345.7</v>
+        <v>346.51</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -655,13 +657,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>413.8</v>
+        <v>410.8</v>
       </c>
       <c r="C11" t="n">
-        <v>336.32</v>
+        <v>335.59</v>
       </c>
       <c r="D11" t="n">
-        <v>333.9</v>
+        <v>333.38</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -676,13 +678,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>406.31</v>
+        <v>404.14</v>
       </c>
       <c r="C12" t="n">
-        <v>335.69</v>
+        <v>335.16</v>
       </c>
       <c r="D12" t="n">
-        <v>340.78</v>
+        <v>340.41</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -697,13 +699,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.51</v>
+        <v>385.16</v>
       </c>
       <c r="C13" t="n">
-        <v>329.16</v>
+        <v>328.11</v>
       </c>
       <c r="D13" t="n">
-        <v>348.81</v>
+        <v>348.06</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -718,7 +720,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>418.19</v>
+        <v>413.77</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -736,10 +738,10 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>325.85</v>
+        <v>327.47</v>
       </c>
       <c r="D15" t="n">
-        <v>339.82</v>
+        <v>340.96</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -754,7 +756,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>421.24</v>
+        <v>422.89</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -771,13 +773,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>381.42</v>
+        <v>383.07</v>
       </c>
       <c r="C17" t="n">
-        <v>327.34</v>
+        <v>327.74</v>
       </c>
       <c r="D17" t="n">
-        <v>339.16</v>
+        <v>339.45</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -792,13 +794,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>393.11</v>
+        <v>396.71</v>
       </c>
       <c r="C18" t="n">
-        <v>354.33</v>
+        <v>355.2</v>
       </c>
       <c r="D18" t="n">
-        <v>344.65</v>
+        <v>345.27</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -813,13 +815,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>367.6</v>
+        <v>374.8</v>
       </c>
       <c r="C19" t="n">
-        <v>353.04</v>
+        <v>354.79</v>
       </c>
       <c r="D19" t="n">
-        <v>349.58</v>
+        <v>350.81</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -834,13 +836,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>375.25</v>
+        <v>372.32</v>
       </c>
       <c r="C20" t="n">
-        <v>319.81</v>
+        <v>319.1</v>
       </c>
       <c r="D20" t="n">
-        <v>332.29</v>
+        <v>331.79</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -855,7 +857,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>391.42</v>
+        <v>387.37</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -872,13 +874,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.14</v>
+        <v>384.24</v>
       </c>
       <c r="C22" t="n">
-        <v>331.4</v>
+        <v>332.64</v>
       </c>
       <c r="D22" t="n">
-        <v>343.91</v>
+        <v>344.78</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336.19</v>
+        <v>336.04</v>
       </c>
       <c r="C23" t="n">
-        <v>317.17</v>
+        <v>317.13</v>
       </c>
       <c r="D23" t="n">
-        <v>330.64</v>
+        <v>330.62</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -914,13 +916,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>368.61</v>
+        <v>371.83</v>
       </c>
       <c r="C24" t="n">
-        <v>324.11</v>
+        <v>324.89</v>
       </c>
       <c r="D24" t="n">
-        <v>336.87</v>
+        <v>337.42</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -935,13 +937,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>380.43</v>
+        <v>376.9</v>
       </c>
       <c r="C25" t="n">
-        <v>308.57</v>
+        <v>307.72</v>
       </c>
       <c r="D25" t="n">
-        <v>322.31</v>
+        <v>321.71</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -956,13 +958,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.18</v>
+        <v>412.4</v>
       </c>
       <c r="C26" t="n">
-        <v>325.95</v>
+        <v>327.46</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7</v>
+        <v>338.76</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -977,13 +979,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>400.54</v>
+        <v>403.84</v>
       </c>
       <c r="C27" t="n">
-        <v>318.81</v>
+        <v>319.61</v>
       </c>
       <c r="D27" t="n">
-        <v>328.18</v>
+        <v>328.74</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -998,13 +1000,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>392</v>
+        <v>394.7</v>
       </c>
       <c r="C28" t="n">
-        <v>325.31</v>
+        <v>325.96</v>
       </c>
       <c r="D28" t="n">
-        <v>342.43</v>
+        <v>342.89</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1019,13 +1021,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>370.8</v>
+        <v>364.95</v>
       </c>
       <c r="C29" t="n">
-        <v>328.11</v>
+        <v>326.69</v>
       </c>
       <c r="D29" t="n">
-        <v>341.07</v>
+        <v>340.07</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1040,13 +1042,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>345.1</v>
+        <v>346.22</v>
       </c>
       <c r="C30" t="n">
-        <v>327.3</v>
+        <v>327.57</v>
       </c>
       <c r="D30" t="n">
-        <v>337.56</v>
+        <v>337.75</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1061,13 +1063,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>381.89</v>
+        <v>377.99</v>
       </c>
       <c r="C31" t="n">
-        <v>334.98</v>
+        <v>334.03</v>
       </c>
       <c r="D31" t="n">
-        <v>343.7</v>
+        <v>343.03</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1082,13 +1084,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>352.26</v>
+        <v>357.36</v>
       </c>
       <c r="C32" t="n">
-        <v>349.05</v>
+        <v>350.29</v>
       </c>
       <c r="D32" t="n">
-        <v>349.14</v>
+        <v>350.01</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1103,13 +1105,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>331.81</v>
+        <v>332.86</v>
       </c>
       <c r="C33" t="n">
-        <v>317.97</v>
+        <v>318.22</v>
       </c>
       <c r="D33" t="n">
-        <v>333.2</v>
+        <v>333.38</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1124,13 +1126,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>330.12</v>
+        <v>337.17</v>
       </c>
       <c r="C34" t="n">
-        <v>322.2</v>
+        <v>323.91</v>
       </c>
       <c r="D34" t="n">
-        <v>328.9</v>
+        <v>330.11</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1145,13 +1147,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>349.16</v>
+        <v>353.96</v>
       </c>
       <c r="C35" t="n">
-        <v>331.61</v>
+        <v>332.77</v>
       </c>
       <c r="D35" t="n">
-        <v>346.56</v>
+        <v>347.38</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1166,13 +1168,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>405.08</v>
+        <v>401.63</v>
       </c>
       <c r="C36" t="n">
-        <v>353.45</v>
+        <v>352.61</v>
       </c>
       <c r="D36" t="n">
-        <v>358.39</v>
+        <v>357.8</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1187,13 +1189,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>400.38</v>
+        <v>403.6</v>
       </c>
       <c r="C37" t="n">
-        <v>343.71</v>
+        <v>344.49</v>
       </c>
       <c r="D37" t="n">
-        <v>349.19</v>
+        <v>349.74</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1208,13 +1210,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.44</v>
+        <v>402.44</v>
       </c>
       <c r="C38" t="n">
-        <v>318.37</v>
+        <v>319.82</v>
       </c>
       <c r="D38" t="n">
-        <v>320.62</v>
+        <v>321.64</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1229,13 +1231,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>391.26</v>
+        <v>388.26</v>
       </c>
       <c r="C39" t="n">
-        <v>322.8</v>
+        <v>322.07</v>
       </c>
       <c r="D39" t="n">
-        <v>336.4</v>
+        <v>335.88</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1250,10 +1252,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.57</v>
+        <v>394.87</v>
       </c>
       <c r="C40" t="n">
-        <v>302.71</v>
+        <v>302.78</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1269,13 +1271,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>385.05</v>
+        <v>382.72</v>
       </c>
       <c r="C41" t="n">
-        <v>340.35</v>
+        <v>339.79</v>
       </c>
       <c r="D41" t="n">
-        <v>352.96</v>
+        <v>352.56</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1290,13 +1292,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>366.21</v>
+        <v>362.24</v>
       </c>
       <c r="C42" t="n">
-        <v>345.03</v>
+        <v>344.07</v>
       </c>
       <c r="D42" t="n">
-        <v>356.52</v>
+        <v>355.84</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1311,13 +1313,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>371.02</v>
+        <v>370.8</v>
       </c>
       <c r="C43" t="n">
-        <v>329.91</v>
+        <v>329.86</v>
       </c>
       <c r="D43" t="n">
-        <v>342.35</v>
+        <v>342.31</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1332,13 +1334,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.9</v>
+        <v>337.2</v>
       </c>
       <c r="C44" t="n">
-        <v>325.11</v>
+        <v>325.91</v>
       </c>
       <c r="D44" t="n">
-        <v>337.28</v>
+        <v>337.84</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1354,10 +1356,10 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>331.38</v>
+        <v>333.03</v>
       </c>
       <c r="D45" t="n">
-        <v>338.41</v>
+        <v>339.58</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1371,12 +1373,14 @@
           <t>2006-04-08 21:57:12+00:00</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="n">
+        <v>377.03</v>
+      </c>
       <c r="C46" t="n">
-        <v>320.55</v>
+        <v>319.6</v>
       </c>
       <c r="D46" t="n">
-        <v>331.14</v>
+        <v>330.47</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1391,13 +1395,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>331.41</v>
+        <v>335.76</v>
       </c>
       <c r="C47" t="n">
-        <v>315.36</v>
+        <v>316.41</v>
       </c>
       <c r="D47" t="n">
-        <v>329.56</v>
+        <v>330.31</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1413,10 +1417,10 @@
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>319.99</v>
+        <v>319.19</v>
       </c>
       <c r="D48" t="n">
-        <v>332.64</v>
+        <v>332.08</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1431,13 +1435,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>369.51</v>
+        <v>372.89</v>
       </c>
       <c r="C49" t="n">
-        <v>325.31</v>
+        <v>326.13</v>
       </c>
       <c r="D49" t="n">
-        <v>339.2</v>
+        <v>339.78</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1452,13 +1456,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>411.86</v>
+        <v>408.03</v>
       </c>
       <c r="C50" t="n">
-        <v>330.66</v>
+        <v>329.73</v>
       </c>
       <c r="D50" t="n">
-        <v>336.58</v>
+        <v>335.93</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1473,13 +1477,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>396.8</v>
+        <v>390.72</v>
       </c>
       <c r="C51" t="n">
-        <v>324.68</v>
+        <v>323.21</v>
       </c>
       <c r="D51" t="n">
-        <v>350.5</v>
+        <v>349.46</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1494,13 +1498,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>407.29</v>
+        <v>410.14</v>
       </c>
       <c r="C52" t="n">
-        <v>339.27</v>
+        <v>339.96</v>
       </c>
       <c r="D52" t="n">
-        <v>342.77</v>
+        <v>343.25</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1515,13 +1519,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>395.76</v>
+        <v>400.94</v>
       </c>
       <c r="C53" t="n">
-        <v>328.09</v>
+        <v>329.34</v>
       </c>
       <c r="D53" t="n">
-        <v>342.21</v>
+        <v>343.09</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1536,13 +1540,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>386.34</v>
+        <v>386.04</v>
       </c>
       <c r="C54" t="n">
-        <v>341.83</v>
+        <v>341.76</v>
       </c>
       <c r="D54" t="n">
-        <v>344.11</v>
+        <v>344.06</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1557,13 +1561,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>383.6</v>
+        <v>385.85</v>
       </c>
       <c r="C55" t="n">
-        <v>322.04</v>
+        <v>322.59</v>
       </c>
       <c r="D55" t="n">
-        <v>337.25</v>
+        <v>337.63</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1578,13 +1582,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>368.57</v>
+        <v>376.07</v>
       </c>
       <c r="C56" t="n">
-        <v>328.99</v>
+        <v>330.81</v>
       </c>
       <c r="D56" t="n">
-        <v>339.29</v>
+        <v>340.58</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1599,7 +1603,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>366.38</v>
+        <v>363.08</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
@@ -1616,13 +1620,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>393.28</v>
+        <v>396.43</v>
       </c>
       <c r="C58" t="n">
-        <v>323.19</v>
+        <v>323.95</v>
       </c>
       <c r="D58" t="n">
-        <v>334.91</v>
+        <v>335.45</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1637,13 +1641,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>398.44</v>
+        <v>392.06</v>
       </c>
       <c r="C59" t="n">
-        <v>315.36</v>
+        <v>313.81</v>
       </c>
       <c r="D59" t="n">
-        <v>335.52</v>
+        <v>334.43</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1658,13 +1662,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>394.78</v>
+        <v>393.88</v>
       </c>
       <c r="C60" t="n">
-        <v>329.63</v>
+        <v>329.41</v>
       </c>
       <c r="D60" t="n">
-        <v>336.98</v>
+        <v>336.83</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1679,13 +1683,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>386.13</v>
+        <v>385.83</v>
       </c>
       <c r="C61" t="n">
-        <v>332.11</v>
+        <v>332.04</v>
       </c>
       <c r="D61" t="n">
-        <v>342.33</v>
+        <v>342.28</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1700,13 +1704,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>382.29</v>
+        <v>378.91</v>
       </c>
       <c r="C62" t="n">
-        <v>326.95</v>
+        <v>326.13</v>
       </c>
       <c r="D62" t="n">
-        <v>340.35</v>
+        <v>339.77</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1721,13 +1725,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>375.88</v>
+        <v>378.73</v>
       </c>
       <c r="C63" t="n">
-        <v>316.16</v>
+        <v>316.85</v>
       </c>
       <c r="D63" t="n">
-        <v>321.46</v>
+        <v>321.94</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1742,13 +1746,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>383.83</v>
+        <v>382.33</v>
       </c>
       <c r="C64" t="n">
-        <v>316.85</v>
+        <v>316.49</v>
       </c>
       <c r="D64" t="n">
-        <v>334.02</v>
+        <v>333.77</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1763,13 +1767,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>387.06</v>
+        <v>382.41</v>
       </c>
       <c r="C65" t="n">
-        <v>332.75</v>
+        <v>331.62</v>
       </c>
       <c r="D65" t="n">
-        <v>347.12</v>
+        <v>346.33</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1784,13 +1788,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>398.4</v>
+        <v>405.3</v>
       </c>
       <c r="C66" t="n">
-        <v>350.44</v>
+        <v>352.11</v>
       </c>
       <c r="D66" t="n">
-        <v>350.77</v>
+        <v>351.95</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1805,13 +1809,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>363.34</v>
+        <v>362.74</v>
       </c>
       <c r="C67" t="n">
-        <v>322.35</v>
+        <v>322.2</v>
       </c>
       <c r="D67" t="n">
-        <v>326.76</v>
+        <v>326.66</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1827,10 +1831,10 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>328.3</v>
+        <v>329.1</v>
       </c>
       <c r="D68" t="n">
-        <v>337.15</v>
+        <v>337.71</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1845,13 +1849,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>387.31</v>
+        <v>381.53</v>
       </c>
       <c r="C69" t="n">
-        <v>329.12</v>
+        <v>327.72</v>
       </c>
       <c r="D69" t="n">
-        <v>352.17</v>
+        <v>351.19</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1866,13 +1870,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>353.83</v>
+        <v>352.71</v>
       </c>
       <c r="C70" t="n">
-        <v>310.51</v>
+        <v>310.24</v>
       </c>
       <c r="D70" t="n">
-        <v>325.11</v>
+        <v>324.92</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1888,10 +1892,10 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>321.9</v>
+        <v>322.68</v>
       </c>
       <c r="D71" t="n">
-        <v>331.23</v>
+        <v>331.78</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1906,7 +1910,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>356.8</v>
+        <v>362.42</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
@@ -1923,13 +1927,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>343.57</v>
+        <v>349.12</v>
       </c>
       <c r="C73" t="n">
-        <v>325.97</v>
+        <v>327.32</v>
       </c>
       <c r="D73" t="n">
-        <v>336.01</v>
+        <v>336.96</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1944,13 +1948,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>386.33</v>
+        <v>381.53</v>
       </c>
       <c r="C74" t="n">
-        <v>337.37</v>
+        <v>336.21</v>
       </c>
       <c r="D74" t="n">
-        <v>358.11</v>
+        <v>357.29</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1965,13 +1969,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>377.6</v>
+        <v>373.92</v>
       </c>
       <c r="C75" t="n">
-        <v>325.29</v>
+        <v>324.4</v>
       </c>
       <c r="D75" t="n">
-        <v>337.13</v>
+        <v>336.5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1986,13 +1990,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>386.14</v>
+        <v>385.39</v>
       </c>
       <c r="C76" t="n">
-        <v>324.43</v>
+        <v>324.25</v>
       </c>
       <c r="D76" t="n">
-        <v>333.77</v>
+        <v>333.64</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2007,13 +2011,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>404.7</v>
+        <v>401.33</v>
       </c>
       <c r="C77" t="n">
-        <v>311.99</v>
+        <v>311.17</v>
       </c>
       <c r="D77" t="n">
-        <v>331.48</v>
+        <v>330.9</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2028,13 +2032,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>393.2</v>
+        <v>395.6</v>
       </c>
       <c r="C78" t="n">
-        <v>319.17</v>
+        <v>319.75</v>
       </c>
       <c r="D78" t="n">
-        <v>336.46</v>
+        <v>336.87</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2049,13 +2053,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>359.9</v>
+        <v>358.1</v>
       </c>
       <c r="C79" t="n">
-        <v>302.63</v>
+        <v>302.19</v>
       </c>
       <c r="D79" t="n">
-        <v>317.95</v>
+        <v>317.64</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2070,13 +2074,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>384.75</v>
+        <v>383.25</v>
       </c>
       <c r="C80" t="n">
-        <v>327.07</v>
+        <v>326.71</v>
       </c>
       <c r="D80" t="n">
-        <v>341.19</v>
+        <v>340.94</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2091,13 +2095,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>328.35</v>
+        <v>334.95</v>
       </c>
       <c r="C81" t="n">
-        <v>319.16</v>
+        <v>320.76</v>
       </c>
       <c r="D81" t="n">
-        <v>328.1</v>
+        <v>329.23</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2112,13 +2116,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>358.24</v>
+        <v>365.06</v>
       </c>
       <c r="C82" t="n">
-        <v>329.19</v>
+        <v>330.84</v>
       </c>
       <c r="D82" t="n">
-        <v>351.79</v>
+        <v>352.96</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2133,13 +2137,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>378.15</v>
+        <v>371.78</v>
       </c>
       <c r="C83" t="n">
-        <v>322.77</v>
+        <v>321.22</v>
       </c>
       <c r="D83" t="n">
-        <v>348.55</v>
+        <v>347.46</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2156,7 +2160,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>336.71</v>
+        <v>337.69</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2171,13 +2175,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>378.96</v>
+        <v>373.71</v>
       </c>
       <c r="C85" t="n">
-        <v>320.14</v>
+        <v>318.87</v>
       </c>
       <c r="D85" t="n">
-        <v>333.44</v>
+        <v>332.54</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2192,13 +2196,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>383.47</v>
+        <v>381.22</v>
       </c>
       <c r="C86" t="n">
-        <v>324.14</v>
+        <v>323.59</v>
       </c>
       <c r="D86" t="n">
-        <v>334.43</v>
+        <v>334.05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2213,13 +2217,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>398.07</v>
+        <v>405.12</v>
       </c>
       <c r="C87" t="n">
-        <v>322.63</v>
+        <v>324.34</v>
       </c>
       <c r="D87" t="n">
-        <v>328.7</v>
+        <v>329.91</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2234,13 +2238,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>392.95</v>
+        <v>395.95</v>
       </c>
       <c r="C88" t="n">
-        <v>344.35</v>
+        <v>345.08</v>
       </c>
       <c r="D88" t="n">
-        <v>347.25</v>
+        <v>347.77</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2256,10 +2260,10 @@
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>315.33</v>
+        <v>316.8</v>
       </c>
       <c r="D89" t="n">
-        <v>326.38</v>
+        <v>327.42</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2274,13 +2278,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>389.41</v>
+        <v>390.16</v>
       </c>
       <c r="C90" t="n">
-        <v>318.92</v>
+        <v>319.1</v>
       </c>
       <c r="D90" t="n">
-        <v>329.93</v>
+        <v>330.06</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2295,13 +2299,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>379.94</v>
+        <v>375.36</v>
       </c>
       <c r="C91" t="n">
-        <v>314.24</v>
+        <v>313.13</v>
       </c>
       <c r="D91" t="n">
-        <v>329.93</v>
+        <v>329.14</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2316,13 +2320,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>393.12</v>
+        <v>397.25</v>
       </c>
       <c r="C92" t="n">
-        <v>328.64</v>
+        <v>329.64</v>
       </c>
       <c r="D92" t="n">
-        <v>331.29</v>
+        <v>332</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2336,12 +2340,14 @@
           <t>2013-11-05 22:07:22+00:00</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="n">
+        <v>342.61</v>
+      </c>
       <c r="C93" t="n">
-        <v>325.05</v>
+        <v>326.52</v>
       </c>
       <c r="D93" t="n">
-        <v>334.35</v>
+        <v>335.39</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2355,12 +2361,14 @@
           <t>2014-02-01 22:02:30+00:00</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="n">
+        <v>347.57</v>
+      </c>
       <c r="C94" t="n">
-        <v>324.57</v>
+        <v>326.32</v>
       </c>
       <c r="D94" t="n">
-        <v>335.38</v>
+        <v>336.61</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2375,13 +2383,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>389.4</v>
+        <v>385.88</v>
       </c>
       <c r="C95" t="n">
-        <v>343.45</v>
+        <v>342.6</v>
       </c>
       <c r="D95" t="n">
-        <v>354.3</v>
+        <v>353.7</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2396,13 +2404,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>398.69</v>
+        <v>395.47</v>
       </c>
       <c r="C96" t="n">
-        <v>318.97</v>
+        <v>318.19</v>
       </c>
       <c r="D96" t="n">
-        <v>335.63</v>
+        <v>335.08</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2417,13 +2425,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>388.9</v>
+        <v>390.03</v>
       </c>
       <c r="C97" t="n">
-        <v>319.03</v>
+        <v>319.3</v>
       </c>
       <c r="D97" t="n">
-        <v>336.65</v>
+        <v>336.84</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2438,13 +2446,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>392.21</v>
+        <v>395.44</v>
       </c>
       <c r="C98" t="n">
-        <v>324.11</v>
+        <v>324.89</v>
       </c>
       <c r="D98" t="n">
-        <v>342.76</v>
+        <v>343.31</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2460,10 +2468,10 @@
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>321.83</v>
+        <v>321.05</v>
       </c>
       <c r="D99" t="n">
-        <v>344.47</v>
+        <v>343.92</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2478,13 +2486,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>395.2</v>
+        <v>399.4</v>
       </c>
       <c r="C100" t="n">
-        <v>338.07</v>
+        <v>339.09</v>
       </c>
       <c r="D100" t="n">
-        <v>345.95</v>
+        <v>346.66</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2499,13 +2507,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>358.44</v>
+        <v>359.94</v>
       </c>
       <c r="C101" t="n">
-        <v>323.16</v>
+        <v>323.52</v>
       </c>
       <c r="D101" t="n">
-        <v>353.01</v>
+        <v>353.26</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2520,13 +2528,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>378.08</v>
+        <v>373.06</v>
       </c>
       <c r="C102" t="n">
-        <v>301.77</v>
+        <v>300.55</v>
       </c>
       <c r="D102" t="n">
-        <v>325.69</v>
+        <v>324.83</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2541,13 +2549,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>412.15</v>
+        <v>408.48</v>
       </c>
       <c r="C103" t="n">
-        <v>322.17</v>
+        <v>321.28</v>
       </c>
       <c r="D103" t="n">
-        <v>332.38</v>
+        <v>331.75</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2562,13 +2570,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>394.4</v>
+        <v>399.28</v>
       </c>
       <c r="C104" t="n">
-        <v>337.11</v>
+        <v>338.29</v>
       </c>
       <c r="D104" t="n">
-        <v>348.11</v>
+        <v>348.94</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2583,7 +2591,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>381.67</v>
+        <v>377.54</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
@@ -2600,13 +2608,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>393.46</v>
+        <v>397.59</v>
       </c>
       <c r="C106" t="n">
-        <v>342.78</v>
+        <v>343.78</v>
       </c>
       <c r="D106" t="n">
-        <v>348.6</v>
+        <v>349.31</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2621,7 +2629,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>375.05</v>
+        <v>373.62</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
@@ -2638,13 +2646,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>381.24</v>
+        <v>377.19</v>
       </c>
       <c r="C108" t="n">
-        <v>336.3</v>
+        <v>335.32</v>
       </c>
       <c r="D108" t="n">
-        <v>347.29</v>
+        <v>346.6</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2659,13 +2667,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>377.41</v>
+        <v>372.01</v>
       </c>
       <c r="C109" t="n">
-        <v>303.09</v>
+        <v>301.78</v>
       </c>
       <c r="D109" t="n">
-        <v>310.96</v>
+        <v>310.04</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2680,13 +2688,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>329.96</v>
+        <v>336.94</v>
       </c>
       <c r="C110" t="n">
-        <v>315.7</v>
+        <v>317.39</v>
       </c>
       <c r="D110" t="n">
-        <v>326.26</v>
+        <v>327.45</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2701,13 +2709,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>328.25</v>
+        <v>328.48</v>
       </c>
       <c r="C111" t="n">
-        <v>315.04</v>
+        <v>315.09</v>
       </c>
       <c r="D111" t="n">
-        <v>339.01</v>
+        <v>339.05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2722,13 +2730,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>361.06</v>
+        <v>367.29</v>
       </c>
       <c r="C112" t="n">
-        <v>319.06</v>
+        <v>320.57</v>
       </c>
       <c r="D112" t="n">
-        <v>329.92</v>
+        <v>330.98</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2743,13 +2751,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>392.5</v>
+        <v>395.05</v>
       </c>
       <c r="C113" t="n">
-        <v>322.03</v>
+        <v>322.65</v>
       </c>
       <c r="D113" t="n">
-        <v>339.15</v>
+        <v>339.59</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2764,13 +2772,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>374.51</v>
+        <v>376.31</v>
       </c>
       <c r="C114" t="n">
-        <v>311.01</v>
+        <v>311.45</v>
       </c>
       <c r="D114" t="n">
-        <v>323.36</v>
+        <v>323.67</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2785,13 +2793,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>385.55</v>
+        <v>384.5</v>
       </c>
       <c r="C115" t="n">
-        <v>325.81</v>
+        <v>325.56</v>
       </c>
       <c r="D115" t="n">
-        <v>335.79</v>
+        <v>335.61</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2806,13 +2814,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>397</v>
+        <v>402.32</v>
       </c>
       <c r="C116" t="n">
-        <v>331.07</v>
+        <v>332.36</v>
       </c>
       <c r="D116" t="n">
-        <v>340.2</v>
+        <v>341.11</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2827,13 +2835,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>380.21</v>
+        <v>385.54</v>
       </c>
       <c r="C117" t="n">
-        <v>328.46</v>
+        <v>329.75</v>
       </c>
       <c r="D117" t="n">
-        <v>340.59</v>
+        <v>341.5</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2848,13 +2856,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>392.73</v>
+        <v>387.18</v>
       </c>
       <c r="C118" t="n">
-        <v>332.53</v>
+        <v>331.18</v>
       </c>
       <c r="D118" t="n">
-        <v>355.1</v>
+        <v>354.15</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2869,13 +2877,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>343.27</v>
+        <v>341.02</v>
       </c>
       <c r="C119" t="n">
-        <v>315.77</v>
+        <v>315.22</v>
       </c>
       <c r="D119" t="n">
-        <v>331.19</v>
+        <v>330.81</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2890,10 +2898,10 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>361.8</v>
+        <v>365.32</v>
       </c>
       <c r="C120" t="n">
-        <v>320.6</v>
+        <v>321.45</v>
       </c>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
@@ -2909,13 +2917,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>380.81</v>
+        <v>377.13</v>
       </c>
       <c r="C121" t="n">
-        <v>329.45</v>
+        <v>328.56</v>
       </c>
       <c r="D121" t="n">
-        <v>333.31</v>
+        <v>332.68</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2930,13 +2938,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>393.18</v>
+        <v>397.3</v>
       </c>
       <c r="C122" t="n">
-        <v>337.08</v>
+        <v>338.08</v>
       </c>
       <c r="D122" t="n">
-        <v>346.55</v>
+        <v>347.26</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2951,13 +2959,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>387</v>
+        <v>386.7</v>
       </c>
       <c r="C123" t="n">
-        <v>335.52</v>
+        <v>335.45</v>
       </c>
       <c r="D123" t="n">
-        <v>338.67</v>
+        <v>338.62</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2971,12 +2979,14 @@
           <t>2016-06-22 22:05:24+00:00</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>349.6</v>
+      </c>
       <c r="C124" t="n">
-        <v>302.38</v>
+        <v>303.27</v>
       </c>
       <c r="D124" t="n">
-        <v>317.83</v>
+        <v>318.46</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -2991,13 +3001,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>390.4</v>
+        <v>383.5</v>
       </c>
       <c r="C125" t="n">
-        <v>312.78</v>
+        <v>311.11</v>
       </c>
       <c r="D125" t="n">
-        <v>326.22</v>
+        <v>325.04</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3012,13 +3022,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>383.22</v>
+        <v>380.37</v>
       </c>
       <c r="C126" t="n">
-        <v>319.26</v>
+        <v>318.57</v>
       </c>
       <c r="D126" t="n">
-        <v>333.97</v>
+        <v>333.49</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3032,12 +3042,14 @@
           <t>2016-09-18 22:08:21+00:00</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="n">
+        <v>340.75</v>
+      </c>
       <c r="C127" t="n">
-        <v>317.25</v>
+        <v>318.5</v>
       </c>
       <c r="D127" t="n">
-        <v>341.11</v>
+        <v>341.99</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3052,13 +3064,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>378.37</v>
+        <v>372.82</v>
       </c>
       <c r="C128" t="n">
-        <v>313.61</v>
+        <v>312.26</v>
       </c>
       <c r="D128" t="n">
-        <v>334.04</v>
+        <v>333.09</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3073,13 +3085,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>396.33</v>
+        <v>402.18</v>
       </c>
       <c r="C129" t="n">
-        <v>320.68</v>
+        <v>322.1</v>
       </c>
       <c r="D129" t="n">
-        <v>335.42</v>
+        <v>336.42</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3094,13 +3106,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>366.05</v>
+        <v>362.37</v>
       </c>
       <c r="C130" t="n">
-        <v>318.26</v>
+        <v>317.37</v>
       </c>
       <c r="D130" t="n">
-        <v>336.8</v>
+        <v>336.17</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3115,13 +3127,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>389.41</v>
+        <v>390.16</v>
       </c>
       <c r="C131" t="n">
-        <v>335.75</v>
+        <v>335.93</v>
       </c>
       <c r="D131" t="n">
-        <v>352.95</v>
+        <v>353.08</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3136,13 +3148,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>353.93</v>
+        <v>361.58</v>
       </c>
       <c r="C132" t="n">
-        <v>342.43</v>
+        <v>344.28</v>
       </c>
       <c r="D132" t="n">
-        <v>351.48</v>
+        <v>352.79</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3157,13 +3169,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>384.1</v>
+        <v>391.3</v>
       </c>
       <c r="C133" t="n">
-        <v>352.64</v>
+        <v>354.39</v>
       </c>
       <c r="D133" t="n">
-        <v>356.29</v>
+        <v>357.52</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3178,13 +3190,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>375.42</v>
+        <v>376.09</v>
       </c>
       <c r="C134" t="n">
-        <v>354.94</v>
+        <v>355.1</v>
       </c>
       <c r="D134" t="n">
-        <v>362.63</v>
+        <v>362.75</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3199,13 +3211,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>379.3</v>
+        <v>384.47</v>
       </c>
       <c r="C135" t="n">
-        <v>336.56</v>
+        <v>337.81</v>
       </c>
       <c r="D135" t="n">
-        <v>339.1</v>
+        <v>339.98</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3220,13 +3232,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>380.92</v>
+        <v>376.12</v>
       </c>
       <c r="C136" t="n">
-        <v>330.91</v>
+        <v>329.75</v>
       </c>
       <c r="D136" t="n">
-        <v>333.19</v>
+        <v>332.37</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3241,13 +3253,13 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>359.5</v>
+        <v>361.83</v>
       </c>
       <c r="C137" t="n">
-        <v>322.84</v>
+        <v>323.4</v>
       </c>
       <c r="D137" t="n">
-        <v>332.52</v>
+        <v>332.92</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3262,13 +3274,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>387.92</v>
+        <v>388.74</v>
       </c>
       <c r="C138" t="n">
-        <v>330.72</v>
+        <v>330.92</v>
       </c>
       <c r="D138" t="n">
-        <v>338.69</v>
+        <v>338.83</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3284,10 +3296,10 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>328.59</v>
+        <v>330.52</v>
       </c>
       <c r="D139" t="n">
-        <v>329.44</v>
+        <v>330.8</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3302,7 +3314,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>393.23</v>
+        <v>397.2</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr"/>
@@ -3319,13 +3331,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>377.45</v>
+        <v>371.98</v>
       </c>
       <c r="C141" t="n">
-        <v>327.74</v>
+        <v>326.41</v>
       </c>
       <c r="D141" t="n">
-        <v>336.55</v>
+        <v>335.61</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3341,10 +3353,10 @@
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>323.61</v>
+        <v>325.26</v>
       </c>
       <c r="D142" t="n">
-        <v>336.62</v>
+        <v>337.79</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3359,13 +3371,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>394.57</v>
+        <v>395.47</v>
       </c>
       <c r="C143" t="n">
-        <v>336.07</v>
+        <v>336.29</v>
       </c>
       <c r="D143" t="n">
-        <v>341.1</v>
+        <v>341.25</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3380,13 +3392,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>382.81</v>
+        <v>380.04</v>
       </c>
       <c r="C144" t="n">
-        <v>334.04</v>
+        <v>333.37</v>
       </c>
       <c r="D144" t="n">
-        <v>337.95</v>
+        <v>337.47</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3401,13 +3413,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>397.95</v>
+        <v>392.18</v>
       </c>
       <c r="C145" t="n">
-        <v>340.36</v>
+        <v>338.96</v>
       </c>
       <c r="D145" t="n">
-        <v>348.16</v>
+        <v>347.18</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3422,13 +3434,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>393.1</v>
+        <v>396.1</v>
       </c>
       <c r="C146" t="n">
-        <v>340.85</v>
+        <v>341.58</v>
       </c>
       <c r="D146" t="n">
-        <v>343.77</v>
+        <v>344.29</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3443,13 +3455,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>381.13</v>
+        <v>387.28</v>
       </c>
       <c r="C147" t="n">
-        <v>341.48</v>
+        <v>342.97</v>
       </c>
       <c r="D147" t="n">
-        <v>343.06</v>
+        <v>344.11</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3464,13 +3476,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>390.68</v>
+        <v>386.1</v>
       </c>
       <c r="C148" t="n">
-        <v>346.54</v>
+        <v>345.43</v>
       </c>
       <c r="D148" t="n">
-        <v>351.65</v>
+        <v>350.86</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3485,7 +3497,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>372.96</v>
+        <v>373.56</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr"/>
@@ -3502,13 +3514,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>360.28</v>
+        <v>364.78</v>
       </c>
       <c r="C150" t="n">
-        <v>353.05</v>
+        <v>354.14</v>
       </c>
       <c r="D150" t="n">
-        <v>350.38</v>
+        <v>351.15</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3523,13 +3535,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>379.99</v>
+        <v>384.11</v>
       </c>
       <c r="C151" t="n">
-        <v>363.43</v>
+        <v>364.43</v>
       </c>
       <c r="D151" t="n">
-        <v>375.2</v>
+        <v>375.91</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3544,13 +3556,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>391.04</v>
+        <v>392.69</v>
       </c>
       <c r="C152" t="n">
-        <v>338.2</v>
+        <v>338.6</v>
       </c>
       <c r="D152" t="n">
-        <v>345.47</v>
+        <v>345.76</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3565,13 +3577,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>393.69</v>
+        <v>394.66</v>
       </c>
       <c r="C153" t="n">
-        <v>330.86</v>
+        <v>331.1</v>
       </c>
       <c r="D153" t="n">
-        <v>338.68</v>
+        <v>338.85</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3586,10 +3598,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>379.52</v>
+        <v>384.4</v>
       </c>
       <c r="C154" t="n">
-        <v>335.87</v>
+        <v>337.05</v>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
@@ -3605,13 +3617,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>381.75</v>
+        <v>376.2</v>
       </c>
       <c r="C155" t="n">
-        <v>336.82</v>
+        <v>335.47</v>
       </c>
       <c r="D155" t="n">
-        <v>342.19</v>
+        <v>341.24</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3626,13 +3638,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>398.62</v>
+        <v>405.74</v>
       </c>
       <c r="C156" t="n">
-        <v>348.19</v>
+        <v>349.92</v>
       </c>
       <c r="D156" t="n">
-        <v>354.53</v>
+        <v>355.74</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3647,13 +3659,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>382.37</v>
+        <v>379.44</v>
       </c>
       <c r="C157" t="n">
-        <v>341.92</v>
+        <v>341.21</v>
       </c>
       <c r="D157" t="n">
-        <v>352.12</v>
+        <v>351.62</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3668,13 +3680,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>381.01</v>
+        <v>383.94</v>
       </c>
       <c r="C158" t="n">
-        <v>360.48</v>
+        <v>361.19</v>
       </c>
       <c r="D158" t="n">
-        <v>370.92</v>
+        <v>371.42</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3689,13 +3701,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>394.16</v>
+        <v>397.76</v>
       </c>
       <c r="C159" t="n">
-        <v>362.55</v>
+        <v>363.42</v>
       </c>
       <c r="D159" t="n">
-        <v>365.84</v>
+        <v>366.46</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3710,13 +3722,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>395.89</v>
+        <v>401.67</v>
       </c>
       <c r="C160" t="n">
-        <v>359.54</v>
+        <v>360.94</v>
       </c>
       <c r="D160" t="n">
-        <v>362.5</v>
+        <v>363.48</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3731,13 +3743,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>376.28</v>
+        <v>374.48</v>
       </c>
       <c r="C161" t="n">
-        <v>368.08</v>
+        <v>367.64</v>
       </c>
       <c r="D161" t="n">
-        <v>366.35</v>
+        <v>366.04</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3752,7 +3764,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>403.56</v>
+        <v>408.74</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr"/>
@@ -3770,10 +3782,10 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>350.19</v>
+        <v>351.46</v>
       </c>
       <c r="D163" t="n">
-        <v>346.73</v>
+        <v>347.63</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3788,7 +3800,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>408.9</v>
+        <v>402.9</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="inlineStr"/>
@@ -3805,13 +3817,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>400.3</v>
+        <v>408.02</v>
       </c>
       <c r="C165" t="n">
-        <v>334.22</v>
+        <v>336.09</v>
       </c>
       <c r="D165" t="n">
-        <v>342.58</v>
+        <v>343.9</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3826,7 +3838,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>404.52</v>
+        <v>402.05</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="inlineStr"/>
@@ -3843,13 +3855,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>372.83</v>
+        <v>373.96</v>
       </c>
       <c r="C167" t="n">
-        <v>321.08</v>
+        <v>321.35</v>
       </c>
       <c r="D167" t="n">
-        <v>325.76</v>
+        <v>325.95</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3864,13 +3876,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>382.54</v>
+        <v>379.16</v>
       </c>
       <c r="C168" t="n">
-        <v>336.59</v>
+        <v>335.77</v>
       </c>
       <c r="D168" t="n">
-        <v>349.54</v>
+        <v>348.96</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3885,13 +3897,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>402.56</v>
+        <v>408.41</v>
       </c>
       <c r="C169" t="n">
-        <v>353.88</v>
+        <v>355.3</v>
       </c>
       <c r="D169" t="n">
-        <v>352.26</v>
+        <v>353.26</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3906,13 +3918,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>354.38</v>
+        <v>351.3</v>
       </c>
       <c r="C170" t="n">
-        <v>330.18</v>
+        <v>329.43</v>
       </c>
       <c r="D170" t="n">
-        <v>338.1</v>
+        <v>337.58</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3927,7 +3939,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>382.73</v>
+        <v>378.98</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr"/>
@@ -3944,13 +3956,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>368.32</v>
+        <v>375.82</v>
       </c>
       <c r="C172" t="n">
-        <v>337.01</v>
+        <v>338.83</v>
       </c>
       <c r="D172" t="n">
-        <v>341.65</v>
+        <v>342.94</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3965,10 +3977,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>359.37</v>
+        <v>363.19</v>
       </c>
       <c r="C173" t="n">
-        <v>304.1</v>
+        <v>305.03</v>
       </c>
       <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
@@ -3985,10 +3997,10 @@
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>348.26</v>
+        <v>348.35</v>
       </c>
       <c r="D174" t="n">
-        <v>354.92</v>
+        <v>354.98</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4003,13 +4015,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>388.43</v>
+        <v>388.5</v>
       </c>
       <c r="C175" t="n">
-        <v>347.96</v>
+        <v>347.98</v>
       </c>
       <c r="D175" t="n">
-        <v>359.99</v>
+        <v>360.01</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4020,59 +4032,55 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2021-09-24 22:05:56+00:00</t>
+          <t>2021-09-16 21:02:56+00:00</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>381.75</v>
-      </c>
-      <c r="C176" t="n">
-        <v>330.7</v>
-      </c>
-      <c r="D176" t="n">
-        <v>344.18</v>
-      </c>
+        <v>422.7</v>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2021-11-03 20:58:37+00:00</t>
+          <t>2021-09-24 22:05:56+00:00</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>336.66</v>
+        <v>387.68</v>
       </c>
       <c r="C177" t="n">
-        <v>318.4</v>
+        <v>332.14</v>
       </c>
       <c r="D177" t="n">
-        <v>328.98</v>
+        <v>345.2</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2021-12-05 20:55:33+00:00</t>
+          <t>2021-11-03 20:58:37+00:00</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>342.86</v>
+        <v>336.36</v>
       </c>
       <c r="C178" t="n">
-        <v>333.72</v>
+        <v>318.33</v>
       </c>
       <c r="D178" t="n">
-        <v>343.32</v>
+        <v>328.93</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4083,59 +4091,59 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2021-12-29 22:05:53+00:00</t>
+          <t>2021-12-05 20:55:33+00:00</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>379.96</v>
+        <v>350.96</v>
       </c>
       <c r="C179" t="n">
-        <v>333.31</v>
+        <v>335.68</v>
       </c>
       <c r="D179" t="n">
-        <v>335.18</v>
+        <v>344.7</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2022-01-22 20:50:54+00:00</t>
+          <t>2021-12-29 22:05:53+00:00</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>341.65</v>
+        <v>375.61</v>
       </c>
       <c r="C180" t="n">
-        <v>327.83</v>
+        <v>332.26</v>
       </c>
       <c r="D180" t="n">
-        <v>340.54</v>
+        <v>334.43</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2022-02-23 20:47:43+00:00</t>
+          <t>2022-01-22 20:50:54+00:00</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>356.57</v>
+        <v>345.93</v>
       </c>
       <c r="C181" t="n">
-        <v>340.28</v>
+        <v>328.87</v>
       </c>
       <c r="D181" t="n">
-        <v>349.71</v>
+        <v>341.27</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4146,118 +4154,118 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2022-02-23 22:05:44+00:00</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
+          <t>2022-02-23 20:47:43+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>354.92</v>
+      </c>
       <c r="C182" t="n">
-        <v>333.58</v>
+        <v>339.88</v>
       </c>
       <c r="D182" t="n">
-        <v>335.83</v>
+        <v>349.42</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2022-03-11 20:46:09+00:00</t>
-        </is>
-      </c>
-      <c r="B183" t="n">
-        <v>382.44</v>
-      </c>
+          <t>2022-02-23 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>321.15</v>
-      </c>
-      <c r="D183" t="inlineStr"/>
+        <v>334.11</v>
+      </c>
+      <c r="D183" t="n">
+        <v>336.2</v>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2022-03-11 22:05:39+00:00</t>
+          <t>2022-03-11 20:46:09+00:00</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>384.19</v>
+        <v>379.44</v>
       </c>
       <c r="C184" t="n">
-        <v>330.14</v>
-      </c>
-      <c r="D184" t="n">
-        <v>334.42</v>
-      </c>
+        <v>320.42</v>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2022-03-27 20:44:36+00:00</t>
+          <t>2022-03-11 22:05:39+00:00</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>349.88</v>
+        <v>382.69</v>
       </c>
       <c r="C185" t="n">
-        <v>336.91</v>
+        <v>329.78</v>
       </c>
       <c r="D185" t="n">
-        <v>332.67</v>
+        <v>334.17</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2022-03-27 22:05:34+00:00</t>
+          <t>2022-03-27 20:44:36+00:00</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>396.11</v>
+        <v>345.45</v>
       </c>
       <c r="C186" t="n">
-        <v>332.31</v>
+        <v>335.84</v>
       </c>
       <c r="D186" t="n">
-        <v>340.85</v>
+        <v>331.92</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2022-04-28 22:05:23+00:00</t>
+          <t>2022-03-27 22:05:34+00:00</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>364.73</v>
+        <v>391.46</v>
       </c>
       <c r="C187" t="n">
-        <v>323.65</v>
+        <v>331.18</v>
       </c>
       <c r="D187" t="n">
-        <v>329.48</v>
+        <v>340.06</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4268,17 +4276,17 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2022-05-30 22:05:09+00:00</t>
+          <t>2022-04-28 22:05:23+00:00</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>371.67</v>
+        <v>360.75</v>
       </c>
       <c r="C188" t="n">
-        <v>309.26</v>
+        <v>322.69</v>
       </c>
       <c r="D188" t="n">
-        <v>321.63</v>
+        <v>328.8</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4289,110 +4297,114 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2022-06-07 22:05:43+00:00</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
+          <t>2022-05-30 22:05:09+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>371.74</v>
+      </c>
+      <c r="C189" t="n">
+        <v>309.28</v>
+      </c>
       <c r="D189" t="n">
-        <v>323.82</v>
+        <v>321.65</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2022-06-15 22:05:16+00:00</t>
-        </is>
-      </c>
-      <c r="B190" t="n">
-        <v>406.23</v>
-      </c>
-      <c r="C190" t="n">
-        <v>345.28</v>
-      </c>
+          <t>2022-06-07 22:05:43+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>329.56</v>
+        <v>323.73</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2022-06-23 22:05:51+00:00</t>
+          <t>2022-06-15 22:05:16+00:00</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>410.01</v>
+        <v>408.7</v>
       </c>
       <c r="C191" t="n">
-        <v>323.33</v>
+        <v>345.88</v>
       </c>
       <c r="D191" t="n">
-        <v>319.56</v>
+        <v>329.98</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2022-07-01 22:05:30+00:00</t>
+          <t>2022-06-23 22:05:51+00:00</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>393.51</v>
+        <v>404.84</v>
       </c>
       <c r="C192" t="n">
-        <v>327.5</v>
+        <v>322.08</v>
       </c>
       <c r="D192" t="n">
-        <v>339.83</v>
+        <v>318.68</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2022-08-11 20:32:43+00:00</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
+          <t>2022-07-01 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>396.89</v>
+      </c>
       <c r="C193" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="D193" t="inlineStr"/>
+        <v>328.32</v>
+      </c>
+      <c r="D193" t="n">
+        <v>340.41</v>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2022-08-28 20:31:10+00:00</t>
-        </is>
-      </c>
-      <c r="B194" t="n">
-        <v>380.15</v>
-      </c>
-      <c r="C194" t="inlineStr"/>
+          <t>2022-08-11 20:32:43+00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="n">
+        <v>311.61</v>
+      </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
@@ -4403,76 +4415,72 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2022-09-27 22:06:16+00:00</t>
+          <t>2022-08-28 20:31:10+00:00</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>376.99</v>
-      </c>
-      <c r="C195" t="n">
-        <v>322.67</v>
-      </c>
-      <c r="D195" t="n">
-        <v>329.03</v>
-      </c>
+        <v>385.1</v>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2022-10-01 20:27:39+00:00</t>
+          <t>2022-09-27 22:06:16+00:00</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>348.69</v>
+        <v>380.74</v>
       </c>
       <c r="C196" t="n">
-        <v>316.24</v>
+        <v>323.58</v>
       </c>
       <c r="D196" t="n">
-        <v>320.08</v>
+        <v>329.67</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2022-11-22 22:06:05+00:00</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+          <t>2022-10-01 20:27:39+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>349.14</v>
+      </c>
+      <c r="C197" t="n">
+        <v>316.35</v>
+      </c>
       <c r="D197" t="n">
-        <v>324.12</v>
+        <v>320.16</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2023-01-25 22:06:01+00:00</t>
-        </is>
-      </c>
-      <c r="B198" t="n">
-        <v>329.08</v>
-      </c>
-      <c r="C198" t="n">
-        <v>322.53</v>
-      </c>
+          <t>2022-11-22 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>328.72</v>
+        <v>323.6</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4483,114 +4491,112 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2023-02-24 20:14:58+00:00</t>
+          <t>2023-01-25 22:06:01+00:00</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>329.58</v>
+        <v>337.63</v>
       </c>
       <c r="C199" t="n">
-        <v>318.39</v>
+        <v>324.6</v>
       </c>
       <c r="D199" t="n">
-        <v>322.88</v>
+        <v>330.18</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2023-03-22 22:05:28+00:00</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr"/>
+          <t>2023-02-24 20:14:58+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>331.61</v>
+      </c>
       <c r="C200" t="n">
-        <v>322.48</v>
+        <v>318.88</v>
       </c>
       <c r="D200" t="n">
-        <v>333.75</v>
+        <v>323.23</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2023-03-30 22:05:35+00:00</t>
+          <t>2023-03-22 22:05:28+00:00</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>337.93</v>
+        <v>323.41</v>
       </c>
       <c r="D201" t="n">
-        <v>345.31</v>
+        <v>334.4</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2023-04-04 20:09:37+00:00</t>
-        </is>
-      </c>
-      <c r="B202" t="n">
-        <v>340.85</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+          <t>2023-03-30 22:05:35+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="n">
+        <v>337.37</v>
+      </c>
+      <c r="D202" t="n">
+        <v>344.91</v>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2023-04-23 22:05:09+00:00</t>
+          <t>2023-04-04 20:09:37+00:00</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>380.59</v>
-      </c>
-      <c r="C203" t="n">
-        <v>319.91</v>
-      </c>
-      <c r="D203" t="n">
-        <v>329.15</v>
-      </c>
+        <v>344.52</v>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2023-05-25 22:04:56+00:00</t>
-        </is>
-      </c>
-      <c r="B204" t="n">
-        <v>391.38</v>
-      </c>
+          <t>2023-04-23 22:05:09+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
-        <v>318.9</v>
+        <v>321.29</v>
       </c>
       <c r="D204" t="n">
-        <v>331.06</v>
+        <v>330.13</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4601,17 +4607,15 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2023-06-10 22:05:03+00:00</t>
-        </is>
-      </c>
-      <c r="B205" t="n">
-        <v>388.6</v>
-      </c>
+          <t>2023-05-25 22:04:56+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
-        <v>322.72</v>
+        <v>319.45</v>
       </c>
       <c r="D205" t="n">
-        <v>335.98</v>
+        <v>331.44</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4622,78 +4626,78 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2023-06-18 22:04:57+00:00</t>
+          <t>2023-06-10 22:05:03+00:00</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>387.93</v>
+        <v>389.05</v>
       </c>
       <c r="C206" t="n">
-        <v>316.34</v>
+        <v>322.83</v>
       </c>
       <c r="D206" t="n">
-        <v>326.03</v>
+        <v>336.06</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2023-07-12 22:05:20+00:00</t>
+          <t>2023-06-18 22:04:57+00:00</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>378.18</v>
-      </c>
-      <c r="C207" t="inlineStr"/>
+        <v>388.53</v>
+      </c>
+      <c r="C207" t="n">
+        <v>316.49</v>
+      </c>
       <c r="D207" t="n">
-        <v>300.83</v>
+        <v>326.13</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2023-08-05 22:05:23+00:00</t>
+          <t>2023-07-12 22:05:20+00:00</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>398.85</v>
-      </c>
-      <c r="C208" t="n">
-        <v>329</v>
-      </c>
+        <v>372.85</v>
+      </c>
+      <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>339.93</v>
+        <v>299.92</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2023-08-21 22:05:28+00:00</t>
+          <t>2023-08-05 22:05:23+00:00</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>394.01</v>
+        <v>405.82</v>
       </c>
       <c r="C209" t="n">
-        <v>327.99</v>
+        <v>330.69</v>
       </c>
       <c r="D209" t="n">
-        <v>341.94</v>
+        <v>341.12</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4704,17 +4708,17 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2023-09-06 22:05:38+00:00</t>
+          <t>2023-08-21 22:05:28+00:00</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>374.42</v>
+        <v>398.51</v>
       </c>
       <c r="C210" t="n">
-        <v>325.12</v>
+        <v>329.08</v>
       </c>
       <c r="D210" t="n">
-        <v>335.48</v>
+        <v>342.71</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4725,97 +4729,97 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2023-09-15 19:51:48+00:00</t>
+          <t>2023-09-06 22:05:38+00:00</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>396.57</v>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+        <v>376.29</v>
+      </c>
+      <c r="C211" t="n">
+        <v>325.57</v>
+      </c>
+      <c r="D211" t="n">
+        <v>335.8</v>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2023-09-30 22:05:45+00:00</t>
+          <t>2023-09-15 19:51:48+00:00</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>391.78</v>
-      </c>
-      <c r="C212" t="n">
-        <v>321.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>335.71</v>
-      </c>
+        <v>401.6</v>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2023-11-25 22:05:56+00:00</t>
+          <t>2023-09-30 22:05:45+00:00</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>379.65</v>
+        <v>395.08</v>
       </c>
       <c r="C213" t="n">
-        <v>310.17</v>
+        <v>322.6</v>
       </c>
       <c r="D213" t="n">
-        <v>329.58</v>
+        <v>336.27</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2023-12-19 22:05:51+00:00</t>
+          <t>2023-11-25 22:05:56+00:00</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>375.85</v>
+        <v>375.68</v>
       </c>
       <c r="C214" t="n">
-        <v>336.33</v>
+        <v>309.21</v>
       </c>
       <c r="D214" t="n">
-        <v>340.45</v>
+        <v>328.9</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2024-01-04 22:05:41+00:00</t>
+          <t>2023-12-19 22:05:51+00:00</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>361.23</v>
+        <v>378.1</v>
       </c>
       <c r="C215" t="n">
-        <v>343.26</v>
+        <v>336.88</v>
       </c>
       <c r="D215" t="n">
-        <v>338.92</v>
+        <v>340.83</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4826,30 +4830,34 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2024-01-06 19:34:42+00:00</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
+          <t>2024-01-04 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>361.45</v>
+      </c>
       <c r="C216" t="n">
-        <v>354.69</v>
-      </c>
-      <c r="D216" t="inlineStr"/>
+        <v>343.31</v>
+      </c>
+      <c r="D216" t="n">
+        <v>338.96</v>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2024-01-11 19:37:01+00:00</t>
-        </is>
-      </c>
-      <c r="B217" t="n">
-        <v>342.92</v>
-      </c>
-      <c r="C217" t="inlineStr"/>
+          <t>2024-01-06 19:34:42+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="n">
+        <v>354.09</v>
+      </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
@@ -4860,80 +4868,76 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2024-01-28 22:05:54+00:00</t>
+          <t>2024-01-11 19:37:01+00:00</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>381.3</v>
-      </c>
-      <c r="C218" t="n">
-        <v>324.83</v>
-      </c>
-      <c r="D218" t="n">
-        <v>334.27</v>
-      </c>
+        <v>350.42</v>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2024-02-05 22:05:44+00:00</t>
+          <t>2024-01-28 22:05:54+00:00</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>396.87</v>
+        <v>387.6</v>
       </c>
       <c r="C219" t="n">
-        <v>335.66</v>
+        <v>326.36</v>
       </c>
       <c r="D219" t="n">
-        <v>347.83</v>
+        <v>335.35</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2024-02-13 22:05:53+00:00</t>
+          <t>2024-02-05 22:05:44+00:00</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>340.64</v>
+        <v>393.79</v>
       </c>
       <c r="C220" t="n">
-        <v>333.89</v>
+        <v>334.91</v>
       </c>
       <c r="D220" t="n">
-        <v>340.39</v>
+        <v>347.31</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2024-02-29 22:05:47+00:00</t>
+          <t>2024-02-13 22:05:53+00:00</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>379.94</v>
+        <v>349.19</v>
       </c>
       <c r="C221" t="n">
-        <v>339.78</v>
+        <v>335.96</v>
       </c>
       <c r="D221" t="n">
-        <v>345.88</v>
+        <v>341.85</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4944,101 +4948,101 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2024-03-08 22:05:29+00:00</t>
+          <t>2024-02-29 22:05:47+00:00</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>381.74</v>
+        <v>385.11</v>
       </c>
       <c r="C222" t="n">
-        <v>336.3</v>
+        <v>341.03</v>
       </c>
       <c r="D222" t="n">
-        <v>347.9</v>
+        <v>346.76</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2024-03-16 22:05:47+00:00</t>
+          <t>2024-03-08 22:05:29+00:00</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>390.98</v>
+        <v>377.91</v>
       </c>
       <c r="C223" t="n">
-        <v>347.1</v>
+        <v>335.37</v>
       </c>
       <c r="D223" t="n">
-        <v>346.51</v>
+        <v>347.25</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2024-05-11 22:04:51+00:00</t>
+          <t>2024-03-16 22:05:47+00:00</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>400.29</v>
+        <v>393.15</v>
       </c>
       <c r="C224" t="n">
-        <v>345.6</v>
+        <v>347.63</v>
       </c>
       <c r="D224" t="n">
-        <v>348.54</v>
+        <v>346.88</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2024-09-08 22:05:24+00:00</t>
+          <t>2024-05-11 22:04:51+00:00</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>394.95</v>
+        <v>405.99</v>
       </c>
       <c r="C225" t="n">
-        <v>346.14</v>
+        <v>346.98</v>
       </c>
       <c r="D225" t="n">
-        <v>346.36</v>
+        <v>349.52</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2024-09-24 22:05:25+00:00</t>
+          <t>2024-09-08 22:05:24+00:00</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>417.31</v>
+        <v>399.45</v>
       </c>
       <c r="C226" t="n">
-        <v>345.92</v>
+        <v>347.23</v>
       </c>
       <c r="D226" t="n">
-        <v>346.85</v>
+        <v>347.13</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5049,17 +5053,17 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2024-10-26 22:05:48+00:00</t>
+          <t>2024-09-24 22:05:25+00:00</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>397.28</v>
+        <v>419.33</v>
       </c>
       <c r="C227" t="n">
-        <v>334.68</v>
+        <v>346.41</v>
       </c>
       <c r="D227" t="n">
-        <v>347.8</v>
+        <v>347.2</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5070,17 +5074,17 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2024-11-27 22:05:54+00:00</t>
+          <t>2024-10-26 22:05:48+00:00</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>369.5</v>
+        <v>393.98</v>
       </c>
       <c r="C228" t="n">
-        <v>343.5</v>
+        <v>333.88</v>
       </c>
       <c r="D228" t="n">
-        <v>356.64</v>
+        <v>347.24</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5091,17 +5095,17 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13 22:05:46+00:00</t>
+          <t>2024-11-27 22:05:54+00:00</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>381.64</v>
+        <v>365.83</v>
       </c>
       <c r="C229" t="n">
-        <v>341.42</v>
+        <v>342.61</v>
       </c>
       <c r="D229" t="n">
-        <v>352.01</v>
+        <v>356.01</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5112,38 +5116,38 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2024-12-21 22:05:40+00:00</t>
+          <t>2024-12-13 22:05:46+00:00</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>364.27</v>
+        <v>377.52</v>
       </c>
       <c r="C230" t="n">
-        <v>349.16</v>
+        <v>340.42</v>
       </c>
       <c r="D230" t="n">
-        <v>348.14</v>
+        <v>351.3</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2025-01-06 22:05:42+00:00</t>
+          <t>2024-12-21 22:05:40+00:00</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>414.37</v>
+        <v>368.1</v>
       </c>
       <c r="C231" t="n">
-        <v>361.93</v>
+        <v>350.09</v>
       </c>
       <c r="D231" t="n">
-        <v>365.07</v>
+        <v>348.79</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5154,17 +5158,17 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2025-02-23 22:05:31+00:00</t>
+          <t>2025-01-06 22:05:42+00:00</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>397.44</v>
+        <v>417.29</v>
       </c>
       <c r="C232" t="n">
-        <v>343.82</v>
+        <v>362.64</v>
       </c>
       <c r="D232" t="n">
-        <v>355.41</v>
+        <v>365.57</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5175,36 +5179,38 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2025-03-19 22:05:30+00:00</t>
+          <t>2025-02-23 22:05:31+00:00</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>394.12</v>
+        <v>394.44</v>
       </c>
       <c r="C233" t="n">
-        <v>352.25</v>
+        <v>343.09</v>
       </c>
       <c r="D233" t="n">
-        <v>350.46</v>
+        <v>354.89</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06 22:05:18+00:00</t>
+          <t>2025-03-19 22:05:30+00:00</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>379.62</v>
-      </c>
-      <c r="C234" t="inlineStr"/>
+        <v>398.62</v>
+      </c>
+      <c r="C234" t="n">
+        <v>353.34</v>
+      </c>
       <c r="D234" t="n">
-        <v>329.13</v>
+        <v>351.23</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5215,36 +5221,32 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2025-07-17 22:05:28+00:00</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="n">
-        <v>312.62</v>
-      </c>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>375.57</v>
+      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
-        <v>333.13</v>
+        <v>328.44</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2025-08-18 22:05:41+00:00</t>
-        </is>
-      </c>
-      <c r="B236" t="n">
-        <v>378.37</v>
-      </c>
-      <c r="C236" t="n">
-        <v>309.16</v>
-      </c>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="n">
-        <v>321.19</v>
+        <v>333.44</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5255,21 +5257,59 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>373.34</v>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="n">
+        <v>320.33</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
           <t>2025-09-27 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B237" t="n">
-        <v>378.18</v>
-      </c>
-      <c r="C237" t="n">
-        <v>324.2</v>
-      </c>
-      <c r="D237" t="n">
-        <v>331.42</v>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="B238" t="n">
+        <v>382.68</v>
+      </c>
+      <c r="C238" t="n">
+        <v>325.29</v>
+      </c>
+      <c r="D238" t="n">
+        <v>332.19</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="n">
+        <v>312.82</v>
+      </c>
+      <c r="D239" t="n">
+        <v>319.49</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -5284,7 +5324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B288"/>
+  <dimension ref="A1:B290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8172,6 +8212,26 @@
       </c>
       <c r="B288" t="n">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-10-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
@@ -8345,28 +8405,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.1752904202189686</v>
+        <v>-0.06573833501365055</v>
       </c>
       <c r="J2" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K2" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004137632817761805</v>
+        <v>0.0005577167449813958</v>
       </c>
       <c r="M2" t="n">
-        <v>14.94085362864276</v>
+        <v>15.85403343808202</v>
       </c>
       <c r="N2" t="n">
-        <v>391.1395196217551</v>
+        <v>405.6491359421456</v>
       </c>
       <c r="O2" t="n">
-        <v>19.7772475239037</v>
+        <v>20.14073325234575</v>
       </c>
       <c r="P2" t="n">
-        <v>383.3521308206422</v>
+        <v>381.614499201536</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8417,34 +8477,34 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0425</v>
+        <v>0.0431</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0649</v>
+        <v>0.0653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3939584685232325</v>
+        <v>0.4295292249106263</v>
       </c>
       <c r="J3" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K3" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04792125485261201</v>
+        <v>0.05515134996552984</v>
       </c>
       <c r="M3" t="n">
-        <v>9.969912665561335</v>
+        <v>10.01985023960198</v>
       </c>
       <c r="N3" t="n">
-        <v>160.649297710905</v>
+        <v>163.8343584507773</v>
       </c>
       <c r="O3" t="n">
-        <v>12.67475040033945</v>
+        <v>12.79977962508641</v>
       </c>
       <c r="P3" t="n">
-        <v>323.5964493827659</v>
+        <v>323.4214394512042</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8495,34 +8555,34 @@
         <v>0.06</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0494</v>
+        <v>0.05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.073</v>
+        <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08458932252087668</v>
+        <v>0.06802843249346396</v>
       </c>
       <c r="J4" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K4" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00313757424290062</v>
+        <v>0.001980226864377044</v>
       </c>
       <c r="M4" t="n">
-        <v>8.473363483559782</v>
+        <v>8.651508729152912</v>
       </c>
       <c r="N4" t="n">
-        <v>118.0595275962463</v>
+        <v>121.8428333260311</v>
       </c>
       <c r="O4" t="n">
-        <v>10.86552012543561</v>
+        <v>11.03824412332102</v>
       </c>
       <c r="P4" t="n">
-        <v>338.0772283753093</v>
+        <v>338.3958488417135</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8560,7 +8620,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E237"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8603,17 +8663,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-36.15180061843687,175.4468358083958</t>
+          <t>-36.15184711161254,175.4468181207796</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-36.15271918244225,175.44742595636384</t>
+          <t>-36.15273046134994,175.44742166548122</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-36.15283289726319,175.4483222978639</t>
+          <t>-36.15284081833969,175.4483192844773</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -8630,17 +8690,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-36.151873974335295,175.44680790125915</t>
+          <t>-36.15191659307665,175.44679168758356</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-36.15271918244225,175.44742595636384</t>
+          <t>-36.152729514266085,175.44742202578436</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-36.152800007575294,175.44833480996323</t>
+          <t>-36.152807325961426,175.4483320258582</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8657,17 +8717,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.151725282268046,175.44686446884373</t>
+          <t>-36.151647104843484,175.44689421014596</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-36.15254767415111,175.4474912038428</t>
+          <t>-36.15252873247059,175.44749840987345</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-36.15261420664812,175.44840549331525</t>
+          <t>-36.15260086135314,175.4484105701891</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -8684,17 +8744,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-36.15172338810146,175.44686518944863</t>
+          <t>-36.15173182575264,175.44686197948113</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-36.15261440052288,175.4474658189364</t>
+          <t>-36.15261646688784,175.44746503282255</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-36.15273371160427,175.4483600306574</t>
+          <t>-36.1527351752816,175.44835947383731</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8711,17 +8771,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.15175886067542,175.44685169447897</t>
+          <t>-36.151789253438054,175.44684013203235</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-36.1526508202052,175.4474519636738</t>
+          <t>-36.152658138580925,175.44744917951797</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-36.15277125062216,175.44834574985362</t>
+          <t>-36.15277641654194,175.44834378460442</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8736,15 +8796,19 @@
           <t>2002-01-31 21:54:26+00:00</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-36.15215267504159,175.44670187335123</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.15253923649347,175.4474944138023</t>
+          <t>-36.15252063920697,175.4475014888128</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-36.152654500828,175.44839016442194</t>
+          <t>-36.15264141382958,175.44839514303845</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8761,17 +8825,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-36.15188198149289,175.4468048550547</t>
+          <t>-36.15190393660214,175.4467965025556</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-36.15260096915033,175.44747092867564</t>
+          <t>-36.15260630725995,175.44746889788203</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-36.152775125062,175.44834427591672</t>
+          <t>-36.15277891340317,175.44834283473386</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8788,12 +8852,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-36.151797002300896,175.44683718409848</t>
+          <t>-36.15185253581623,175.44681605722312</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-36.15277066936333,175.44740636896657</t>
+          <t>-36.152784100733605,175.44740125920686</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -8811,17 +8875,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.15171994416215,175.44686649963924</t>
+          <t>-36.15167921957921,175.4468819926353</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.152570318068726,175.44748258935647</t>
+          <t>-36.15256041673599,175.44748635614764</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-36.15265820307095,175.44838875599723</t>
+          <t>-36.15265122907841,175.4483914090762</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8838,17 +8902,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.151622136281496,175.44690370900844</t>
+          <t>-36.15164796582836,175.44689388259886</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.1525140957172,175.44750397816765</t>
+          <t>-36.15252038091133,175.44750158707683</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-36.15275979949988,175.4483501061552</t>
+          <t>-36.1527642766304,175.44834840293967</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8865,17 +8929,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.15168662404894,175.44687917572801</t>
+          <t>-36.15170530742006,175.4468720679482</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-36.15251951992583,175.44750191462353</t>
+          <t>-36.15252408314895,175.44750017862592</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-36.152700563617124,175.44837264098965</t>
+          <t>-36.152703749267886,175.448371429088</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -8892,17 +8956,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-36.15183126949367,175.44682414767325</t>
+          <t>-36.151868722328665,175.44680989930694</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.15257574227705,175.44748052580965</t>
+          <t>-36.15258478262421,175.4474770865643</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-36.15263142638331,175.44839894250794</t>
+          <t>-36.15263788378392,175.4483964859545</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8919,7 +8983,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.15158433904339,175.44691808831027</t>
+          <t>-36.151622394576975,175.44690361074439</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -8939,12 +9003,12 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.15260424089494,175.4474696839957</t>
+          <t>-36.15259029293099,175.44747499026204</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-36.152708829089356,175.44836949659606</t>
+          <t>-36.15269901384108,175.4483732305634</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -8961,7 +9025,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.1515580790024,175.4469280784782</t>
+          <t>-36.151543872750445,175.44693348299273</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
@@ -8980,17 +9044,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-36.15190092315579,175.4467976489773</t>
+          <t>-36.15188671690865,175.44680305353563</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-36.15259141221206,175.4474745644506</t>
+          <t>-36.15258796827033,175.4474758746396</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-36.15271451160145,175.44836733482506</t>
+          <t>-36.15271201474009,175.44836828469417</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -9007,17 +9071,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.15180027404298,175.44683593941514</t>
+          <t>-36.151769278591324,175.44684773114835</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-36.15235903221692,175.44756296921298</t>
+          <t>-36.152351541641906,175.4475658188582</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-36.15266724343156,175.44838531682015</t>
+          <t>-36.15266190531386,175.44838734757244</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9034,17 +9098,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-36.15201991123001,175.44675238163552</t>
+          <t>-36.151957920339264,175.4467759652159</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-36.1523701389315,175.447558743876</t>
+          <t>-36.152355071683,175.447564475922</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-36.1526247967853,175.4484014645691</t>
+          <t>-36.15261420664812,175.44840549331525</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9061,17 +9125,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.15195404590846,175.4467774391885</t>
+          <t>-36.151979272757615,175.44676784198654</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-36.152656244413095,175.44744990012308</t>
+          <t>-36.15266235740927,175.44744757453378</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-36.152773661384735,175.44834483273735</t>
+          <t>-36.15277796631787,175.4483431950296</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9088,7 +9152,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-36.15181482468522,175.44683040384848</t>
+          <t>-36.1518496945667,175.4468171381337</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -9107,17 +9171,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-36.15192055360605,175.44679018085733</t>
+          <t>-36.15187664338783,175.44680688585774</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-36.15255645620286,175.44748786286385</t>
+          <t>-36.15254577998307,175.447491924446</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-36.15267361473328,175.4483828930187</t>
+          <t>-36.15266612414883,175.44838574262306</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9134,17 +9198,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-36.152290346446414,175.44664949786164</t>
+          <t>-36.152291637922914,175.44664900653356</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.15267897442683,175.44744125285985</t>
+          <t>-36.15267931882095,175.44744112184065</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-36.15278786766404,175.4483394283011</t>
+          <t>-36.152788039861356,175.44833936279278</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9161,17 +9225,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.152011215285846,175.44675568988984</t>
+          <t>-36.15198349158217,175.44676623699317</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.15261922204117,175.44746398467063</t>
+          <t>-36.152612506354956,175.44746653954076</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-36.15273422819627,175.44835983413265</t>
+          <t>-36.152729492769616,175.44836163560933</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9188,17 +9252,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.15190944690398,175.44679440624142</t>
+          <t>-36.15193983966207,175.44678284375362</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.152753019164926,175.4474130837125</t>
+          <t>-36.15276033753991,175.4474102995499</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-36.15285958784683,175.4483121440589</t>
+          <t>-36.152864753766146,175.44831017880557</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9215,17 +9279,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.15168774332925,175.44687874991644</t>
+          <t>-36.15163419007011,175.4468991233514</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.15260337990951,175.44747001154306</t>
+          <t>-36.15259037902954,175.44747495750732</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-36.152727082006926,175.44836255272463</t>
+          <t>-36.15271795554819,175.44836602466071</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9242,17 +9306,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-36.15173630287366,175.4468602762328</t>
+          <t>-36.15170789037455,175.4468710853056</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-36.15266485426683,175.44744662464512</t>
+          <t>-36.15265796638384,175.44744924502754</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-36.152809047934625,175.4483313707746</t>
+          <t>-36.15280422640965,175.44833320500862</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9269,17 +9333,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.151809830973704,175.44683230362895</t>
+          <t>-36.151786584385285,175.44684114743168</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-36.15260889021621,175.44746791523988</t>
+          <t>-36.15260329381097,175.4474700442978</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-36.15268635733659,175.44837804541473</t>
+          <t>-36.15268239679774,175.4483795521026</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9296,17 +9360,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-36.15199235972349,175.44676286323107</t>
+          <t>-36.15204272732079,175.44674370155903</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.15258478262421,175.4474770865643</t>
+          <t>-36.15259700861736,175.44747243539328</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-36.15269806675572,175.4483735908584</t>
+          <t>-36.15270667662263,175.4483703154486</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9323,17 +9387,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.1522136327391,175.44667868272398</t>
+          <t>-36.15220398971375,175.4466823513</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.152591756606235,175.4474744334317</t>
+          <t>-36.15258943194555,175.44747531780928</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36.15272828738827,175.448362094167</t>
+          <t>-36.1527266515136,175.4483627164952</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9350,17 +9414,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-36.15189687652784,175.44679918845773</t>
+          <t>-36.1519304549295,175.4467864140411</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-36.15252563292282,175.44749958904177</t>
+          <t>-36.152533812284936,175.44749647734733</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-36.15267542280538,175.4483822051831</t>
+          <t>-36.152681191416356,175.44838001065975</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9377,17 +9441,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-36.15215198625401,175.44670213539203</t>
+          <t>-36.15210807604587,175.4467188404839</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.15240449225722,175.44754567480345</t>
+          <t>-36.15239381603582,175.44754973637097</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-36.152628585127026,175.44840002339134</t>
+          <t>-36.15262109454223,175.44840287299266</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9404,17 +9468,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-36.15232805755965,175.4466351510749</t>
+          <t>-36.15231901722442,175.44663859037428</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-36.15267208654392,175.44744387324312</t>
+          <t>-36.152669934080514,175.44744469211278</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-36.15276582640635,175.44834781336505</t>
+          <t>-36.1527642766304,175.44834840293967</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9431,17 +9495,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-36.1523426081943,175.44662961543915</t>
+          <t>-36.152281908799885,175.44665270787155</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.15263566686236,175.44745772851266</t>
+          <t>-36.15262094401199,175.4474633295757</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-36.15280284883108,175.44833372907547</t>
+          <t>-36.1527924308931,175.44833769233028</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9458,17 +9522,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.152178676771754,175.4466919813081</t>
+          <t>-36.152137349518185,175.4467077037579</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.1525546481334,175.44748855071254</t>
+          <t>-36.152544660701956,175.44749235025697</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.15265079858504,175.4483915728465</t>
+          <t>-36.15264373849379,175.44839425867906</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9485,17 +9549,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-36.15169721416257,175.44687514689468</t>
+          <t>-36.151726918139204,175.4468638465031</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.15236660889043,175.44756008681267</t>
+          <t>-36.152373841169656,175.44755733543008</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-36.15254894384909,175.44843032085083</t>
+          <t>-36.15255402367134,175.44842838836593</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9512,17 +9576,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-36.15173768044936,175.44685975215637</t>
+          <t>-36.15170995673815,175.44687029919143</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-36.15245046888682,175.44752818384762</t>
+          <t>-36.152443753199485,175.4475307387075</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.15262815463365,175.44840018716152</t>
+          <t>-36.152623419206485,175.4484019886337</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9539,17 +9603,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-36.15177160325023,175.44684684676864</t>
+          <t>-36.15171994416215,175.44686649963924</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.15266864260246,175.4474451834346</t>
+          <t>-36.15265615831455,175.44744993287784</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-36.152874138519536,175.44830660859475</t>
+          <t>-36.15286535645674,175.44830994952602</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9566,17 +9630,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-36.151816202260804,175.44682987977106</t>
+          <t>-36.15184203180272,175.4468200533164</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.15263050094997,175.44745969379815</t>
+          <t>-36.15263678614337,175.44745730270077</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-36.152738274833574,175.4483582946888</t>
+          <t>-36.15274275196421,175.44835659147415</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9593,12 +9657,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.151787703665484,175.44684072161908</t>
+          <t>-36.15178512071118,175.44684170426356</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.152803472901965,175.44739388935824</t>
+          <t>-36.15280287021229,175.44739411864245</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -9616,17 +9680,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-36.151869669411816,175.44680953900323</t>
+          <t>-36.15188973035503,175.44680190711432</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.15247939800099,175.44751717829263</t>
+          <t>-36.15248421951994,175.44751534403272</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.152595695432474,175.44841253543018</t>
+          <t>-36.1525991393796,175.4484112252695</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9643,17 +9707,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.152031878915444,175.44674782869032</t>
+          <t>-36.152066060001786,175.4467348249477</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.152439103877455,175.44753250745646</t>
+          <t>-36.152447369338816,175.44752936301379</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.152565044302534,175.4484241958555</t>
+          <t>-36.15257089901282,175.44842196858392</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9670,17 +9734,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-36.151990465557375,175.4467635838405</t>
+          <t>-36.15199235972349,175.44676286323107</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.15256928488618,175.447482982413</t>
+          <t>-36.15256971537892,175.44748281863946</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-36.152687046125955,175.44837778338203</t>
+          <t>-36.15268739052065,175.44837765236568</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9697,17 +9761,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-36.15231006298754,175.44664199691766</t>
+          <t>-36.15228165050458,175.44665280613714</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-36.15261061218705,175.44746726014506</t>
+          <t>-36.152603724303674,175.44746988052412</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-36.15273069815095,175.44836117705165</t>
+          <t>-36.15272587662559,175.44836301128228</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9725,12 +9789,12 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.15255662839997,175.44748779735446</t>
+          <t>-36.152542422139724,175.44749320187887</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-36.15272096900155,175.4483648782668</t>
+          <t>-36.152710895457396,175.44836871049753</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9745,15 +9809,19 @@
           <t>2006-04-08 21:57:12+00:00</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>-36.15193872038204,175.4467832695678</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-36.15264987312127,175.4474523239763</t>
+          <t>-36.15265805248239,175.44744921227274</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-36.15278356273093,175.44834106600925</t>
+          <t>-36.15278933134128,175.4483388714803</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9770,17 +9838,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-36.15233150149687,175.44663384086542</t>
+          <t>-36.15229404867906,175.44664808938774</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-36.15269455826168,175.44743532424104</t>
+          <t>-36.152685517915515,175.4474387634953</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-36.15279716631948,175.44833589085093</t>
+          <t>-36.152790708919866,175.44833834741362</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9798,12 +9866,12 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-36.15265469463941,175.447450489709</t>
+          <t>-36.15266158252242,175.4474478693268</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-36.15277064793151,175.44834597913268</t>
+          <t>-36.15277546945665,175.44834414490012</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9820,17 +9888,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.15200346642466,175.44675863783868</t>
+          <t>-36.15197436514537,175.44676970901946</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.15260889021621,175.44746791523988</t>
+          <t>-36.152601830135744,175.4474706011283</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-36.152714167206796,175.4483674658415</t>
+          <t>-36.15270917348401,175.44836936557962</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9847,17 +9915,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.15163883938855,175.4468973545976</t>
+          <t>-36.151671815109395,175.44688480954204</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.15256282749529,175.44748543901596</t>
+          <t>-36.15257083466,175.44748239282822</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-36.1527367250576,175.4483588842631</t>
+          <t>-36.15274232147088,175.44835675524482</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9874,17 +9942,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-36.15176850370503,175.4468480259416</t>
+          <t>-36.15182085157841,175.44682811100967</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-36.152614314424326,175.44746585169116</t>
+          <t>-36.15262697090982,175.4474610367431</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.152616875707096,175.4484044779403</t>
+          <t>-36.1526258299694,175.4484010715206</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9901,17 +9969,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-36.15167818639737,175.44688238569208</t>
+          <t>-36.15165364832859,175.44689172078796</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.15248869664467,175.44751364079121</t>
+          <t>-36.15248275584455,175.44751590086165</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-36.1526834299818,175.44837915905362</t>
+          <t>-36.152679297245584,175.44838073124953</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9928,17 +9996,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-36.15177745794672,175.4468446194418</t>
+          <t>-36.15173285893443,175.44686158642384</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.15258495482129,175.44747702105485</t>
+          <t>-36.152574192503245,175.44748111539448</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.152688251507335,175.4483773248248</t>
+          <t>-36.15268067482432,175.44838020718424</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -9955,17 +10023,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-36.15185856270918,175.44681376438226</t>
+          <t>-36.151861145663304,175.44681278173607</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-36.15246665541509,175.4475220259785</t>
+          <t>-36.15246725810497,175.44752179669607</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-36.15267189275984,175.4483835481002</t>
+          <t>-36.152672323253206,175.44838338432982</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -9982,17 +10050,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>-36.151882153689826,175.4468047895449</t>
+          <t>-36.15186278153424,175.44681215939346</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>-36.15263704443898,175.4474572044365</t>
+          <t>-36.152632309019296,175.44745900594825</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>-36.15273095644694,175.4483610787893</t>
+          <t>-36.1527276846976,175.44836232344582</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -10009,17 +10077,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-36.15201155967967,175.44675555886988</t>
+          <t>-36.15194698583452,175.44678012509382</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.15257720595232,175.4474799689795</t>
+          <t>-36.152561536017096,175.4474859303365</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-36.15271339231879,175.44836776062846</t>
+          <t>-36.152702285590514,175.4483719859077</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10036,7 +10104,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-36.15203041524169,175.4467483855254</t>
+          <t>-36.15205882773171,175.44673757637017</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -10055,17 +10123,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-36.151798810368895,175.44683649624716</t>
+          <t>-36.151771689348706,175.44684681401384</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>-36.152627143106905,175.4474609712336</t>
+          <t>-36.15262059961782,175.4474634605947</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>-36.15275110353475,175.4483534143233</t>
+          <t>-36.15274645420683,175.44835518304654</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10082,17 +10150,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-36.1517543835545,175.44685339772818</t>
+          <t>-36.15180931438286,175.44683250015797</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-36.15269455826168,175.44743532424104</t>
+          <t>-36.152707903534434,175.44743024724534</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-36.15274585151618,175.44835541232544</t>
+          <t>-36.152755236270664,175.44835184212468</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10109,17 +10177,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-36.15178589559747,175.4468414094702</t>
+          <t>-36.15179364446034,175.44683846153657</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.15257169564545,175.44748206528112</t>
+          <t>-36.152573589813436,175.44748134467747</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.15273328111093,175.448360194428</t>
+          <t>-36.15273457259093,175.44835970311615</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10136,17 +10204,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-36.15186037077707,175.44681307652993</t>
+          <t>-36.15186295373118,175.4468120938837</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.152550343206066,175.44749018844732</t>
+          <t>-36.15255094589588,175.44748995916444</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.1526872183233,175.44837771787385</t>
+          <t>-36.15268764881665,175.44837755410344</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10163,17 +10231,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.15189343258915,175.44680049865374</t>
+          <t>-36.15192253387075,175.44678942749417</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-36.15259477005526,175.44747328701627</t>
+          <t>-36.152601830135744,175.4474706011283</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-36.1527042658599,175.4483712325634</t>
+          <t>-36.1527092595827,175.44836933282554</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10190,17 +10258,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-36.151948621705316,175.44677950274993</t>
+          <t>-36.15192408364311,175.4467888379056</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.152687670378896,175.4474379446253</t>
+          <t>-36.15268172957997,175.4474402047064</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-36.15286690623253,175.44830935994995</t>
+          <t>-36.15286277349707,175.4483109321527</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10217,17 +10285,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-36.151880173425056,175.44680554290736</t>
+          <t>-36.15189308819527,175.44680062967333</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.15268172957997,175.4474402047064</t>
+          <t>-36.15268482912724,175.4474390255337</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-36.15275876631591,175.4483504992049</t>
+          <t>-36.15276091878251,175.44834968035136</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10244,17 +10312,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-36.15185236361929,175.44681612273286</t>
+          <t>-36.15189239940752,175.4468008917125</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.15254483289906,175.4474922847476</t>
+          <t>-36.15255456203485,175.44748858346722</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-36.152645977059315,175.44839340707367</t>
+          <t>-36.15265277885454,175.44839081950315</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10271,17 +10339,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-36.15175472794842,175.44685326670904</t>
+          <t>-36.151695319995916,175.4468758674991</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-36.15239252455741,175.44755022768956</t>
+          <t>-36.15237814609774,175.44755569770211</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-36.15261455104283,175.44840536229916</t>
+          <t>-36.15260439139893,175.44840922727425</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -10298,17 +10366,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-36.152056589171934,175.44673842800086</t>
+          <t>-36.15206175507913,175.44673646269922</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-36.15263437538426,175.44745821983406</t>
+          <t>-36.15263566686236,175.44745772851266</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-36.15282127394429,175.44832671968024</t>
+          <t>-36.15282213493088,175.44832639213834</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10326,12 +10394,12 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-36.152583146751866,175.44747770890402</t>
+          <t>-36.15257625886833,175.44748032928138</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-36.15273181743361,175.4483607512481</t>
+          <t>-36.15272699590826,175.44836258547875</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10348,17 +10416,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.15185021115751,175.44681694160448</t>
+          <t>-36.151899976072656,175.44679800928125</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-36.152576086671225,175.4474803947908</t>
+          <t>-36.15258814046741,175.44747580913014</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.15260249722803,175.44840994786273</t>
+          <t>-36.152610934898405,175.44840673796836</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10375,17 +10443,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.15213846879799,175.44670727794175</t>
+          <t>-36.15214811182397,175.4467036093714</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.15273631605006,175.44741943815234</t>
+          <t>-36.1527386407104,175.44741855377168</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-36.152835480222926,175.4483213152379</t>
+          <t>-36.152837116097416,175.44832069290808</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10403,12 +10471,12 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.15263824981853,175.44745674586983</t>
+          <t>-36.152631534132446,175.44745930074106</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-36.152782787842966,175.4483413607967</t>
+          <t>-36.15277805241654,175.44834316227542</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10425,7 +10493,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.15211289755902,175.44671700620015</t>
+          <t>-36.152064510229614,175.44673541453824</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -10444,17 +10512,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-36.15222680580036,175.44667367118575</t>
+          <t>-36.15217902116554,175.44669185028764</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.152603207712424,175.44747007705251</t>
+          <t>-36.152591584409144,175.44747449894115</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-36.152741632681554,175.44835701727783</t>
+          <t>-36.15273345330828,175.44836012891977</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10471,17 +10539,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-36.151858648807654,175.4468137316274</t>
+          <t>-36.151899976072656,175.44679800928125</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.15250505536943,175.4475074174072</t>
+          <t>-36.15251504280125,175.4475036178663</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-36.1525513546122,175.44842940373937</t>
+          <t>-36.1525584147041,175.44842671791267</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10498,17 +10566,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.151933812769606,175.44678513659892</t>
+          <t>-36.151965497003886,175.44677308278014</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-36.15260906241328,175.44746784973037</t>
+          <t>-36.15261672518348,175.4474649345583</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-36.15273198963093,175.44836068573983</t>
+          <t>-36.15273741384692,175.44835862223007</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10525,17 +10593,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.1518602846786,175.4468131092848</t>
+          <t>-36.151866742063845,175.44681065266914</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-36.15261646688784,175.44746503282255</t>
+          <t>-36.15261801666159,175.44746444323712</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.15276091878251,175.44834968035136</t>
+          <t>-36.15276203806515,175.44834925454745</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10552,17 +10620,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.15170048590497,175.44687390221426</t>
+          <t>-36.15172950109365,175.44686286386</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.152723573467405,175.4474242858677</t>
+          <t>-36.152730633546994,175.44742159997153</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-36.15278063537641,175.4483421796507</t>
+          <t>-36.15278562909883,175.44834027990936</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10579,17 +10647,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.15179949915669,175.44683623420855</t>
+          <t>-36.15177883552236,175.44684409536484</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.15266175471949,175.44744780381725</t>
+          <t>-36.152656761004316,175.4474497035944</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-36.152737758241585,175.44835849121355</t>
+          <t>-36.15273422819627,175.44835983413265</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10606,17 +10674,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-36.15208620703953,175.44672716026827</t>
+          <t>-36.15210170476062,175.4467212643585</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.15280416169017,175.4473936273191</t>
+          <t>-36.15280795002526,175.44739218610385</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-36.15289712686003,175.44829786321262</t>
+          <t>-36.15289979591825,175.44829684783082</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10633,17 +10701,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.15187225236591,175.44680855635679</t>
+          <t>-36.15188516713622,175.4468036431237</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-36.15259373687274,175.44747368007302</t>
+          <t>-36.15259683642027,175.44747250090273</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-36.152697033571684,175.44837398390754</t>
+          <t>-36.152699186038426,175.4483731650552</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10660,17 +10728,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-36.152357847616166,175.44662381775942</t>
+          <t>-36.15230102265213,175.44664543621556</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-36.15266184081803,175.44744777106246</t>
+          <t>-36.15264806505197,175.4474530118265</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-36.15280973672391,175.44833110874114</t>
+          <t>-36.152800007575294,175.44833480996323</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10687,17 +10755,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.152100499382314,175.44672172292937</t>
+          <t>-36.152041780237795,175.44674406186422</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.152575483981416,175.44748062407376</t>
+          <t>-36.15256127772145,175.44748602860062</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-36.15260576897777,175.4484087032099</t>
+          <t>-36.152595695432474,175.44841253543018</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10714,17 +10782,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.15192907735407,175.44678693811994</t>
+          <t>-36.151983922074464,175.44676607321833</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.15263075924559,175.44745959553387</t>
+          <t>-36.15264410451919,175.44745451854584</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-36.15263366494886,175.44839809090277</t>
+          <t>-36.152643049704395,175.44839452071147</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10743,7 +10811,7 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-36.152735605774936,175.44835931006668</t>
+          <t>-36.152727168105606,175.44836251997052</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10760,17 +10828,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-36.151922103378425,175.44678959126875</t>
+          <t>-36.15196730507157,175.44677239492609</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.15265340316134,175.44745098103064</t>
+          <t>-36.15266433767561,175.4474468211738</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-36.15276376003843,175.44834859946457</t>
+          <t>-36.15277150891815,175.44834565159115</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10787,17 +10855,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-36.151883272969926,175.44680436373133</t>
+          <t>-36.151902645125126,175.4467969938792</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-36.15261896374555,175.44746408293489</t>
+          <t>-36.15262369916528,175.4474622814237</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.152755236270664,175.44835184212468</t>
+          <t>-36.152758508019915,175.44835059746734</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10814,17 +10882,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-36.15175756919823,175.44685218580088</t>
+          <t>-36.15169686976862,175.44687527791368</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-36.152631964625144,175.4474591369673</t>
+          <t>-36.15261724177472,175.44746473802982</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-36.15280457080429,175.4483330739919</t>
+          <t>-36.15279415286633,175.44833703724692</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10841,17 +10909,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-36.151801651618584,175.4468354153379</t>
+          <t>-36.15177582207564,175.44684524178317</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.15244495857926,175.44753028014296</t>
+          <t>-36.15243867338467,175.44753267122948</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.152644857776565,175.44839383287638</t>
+          <t>-36.15264038064548,175.44839553608708</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10869,12 +10937,12 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.152694816557286,175.44743522597665</t>
+          <t>-36.152682160072644,175.4474400409324</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-36.15282454569332,175.44832547502094</t>
+          <t>-36.152815591432784,175.44832888145666</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10891,17 +10959,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-36.151832130478404,175.44682382012473</t>
+          <t>-36.151825673092915,175.4468262767384</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.152663907182934,175.4474469849477</t>
+          <t>-36.15266235740927,175.44744757453378</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-36.152793980669,175.44833710275526</t>
+          <t>-36.15279286138641,175.44833752855945</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10918,17 +10986,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.15191366572881,175.4467928012507</t>
+          <t>-36.15195309882538,175.4467777994929</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.1527042012975,175.44743165570236</t>
+          <t>-36.1527137582347,175.44742801991768</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-36.152793980669,175.44833710275526</t>
+          <t>-36.152800782463224,175.44833451517567</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -10945,17 +11013,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.1518001879445,175.44683597216994</t>
+          <t>-36.1517646292735,175.4468494999076</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-36.15258021940138,175.44747882256442</t>
+          <t>-36.15257160954691,175.4474820980358</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-36.15278227125099,175.44834155732167</t>
+          <t>-36.15277615824596,175.44834388286685</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -10970,15 +11038,19 @@
           <t>2013-11-05 22:07:22+00:00</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>-36.15223507125048,175.44667052669035</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.15261112877829,175.4474670636166</t>
+          <t>-36.15259847229258,175.44747187856288</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-36.15275592505997,175.44835158009155</t>
+          <t>-36.152746970798816,175.44835498652174</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -10993,15 +11065,19 @@
           <t>2014-02-01 22:02:30+00:00</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>-36.15219236642414,175.44668677324321</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-36.15261526150829,175.44746549138895</t>
+          <t>-36.152600194263435,175.44747122346823</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-36.15274705689749,175.4483549537676</t>
+          <t>-36.1527364667616,175.44835898252546</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11018,17 +11094,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.15183221657687,175.44682378736988</t>
+          <t>-36.151862523238826,175.44681225765808</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-36.152452707449264,175.44752733222757</t>
+          <t>-36.15246002582643,175.44752454808474</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-36.152584158209514,175.44841692446767</t>
+          <t>-36.15258932413027,175.44841495922714</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11045,17 +11121,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.15175223109252,175.44685421659796</t>
+          <t>-36.151779954802564,175.44684366955232</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-36.15266347669024,175.44744714872164</t>
+          <t>-36.15267019237612,175.44744459384845</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-36.152744904430854,175.44835577262089</t>
+          <t>-36.15274963985743,175.44835397114358</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -11072,17 +11148,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.1518365215005,175.44682214962722</t>
+          <t>-36.15182679237307,175.44682585092536</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-36.152662960099015,175.4474473452503</t>
+          <t>-36.152660635438515,175.4474482296294</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-36.15273612236693,175.44835911354193</t>
+          <t>-36.15273448649228,175.44835973587027</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -11099,17 +11175,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.15180802290574,175.44683299148048</t>
+          <t>-36.15178021309799,175.4468435712879</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.15261922204117,175.44746398467063</t>
+          <t>-36.152612506354956,175.44746653954076</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-36.152683516080465,175.44837912629953</t>
+          <t>-36.15267878065357,175.44838092777402</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11127,12 +11203,12 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-36.15263885250832,175.4474565165865</t>
+          <t>-36.15264556819435,175.44745396171479</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-36.15266879320766,175.44838472724686</t>
+          <t>-36.15267352863461,175.44838292577276</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11149,17 +11225,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-36.15178227946144,175.4468427851724</t>
+          <t>-36.15174611810045,175.44685654218782</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.152499028470864,175.44750971023316</t>
+          <t>-36.1524902464186,175.44751305120755</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-36.152656050604115,175.44838957484882</t>
+          <t>-36.15264993759831,175.4483919003871</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11176,17 +11252,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-36.152098777413315,175.44672237803053</t>
+          <t>-36.152085862645734,175.44672729128845</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.152627401402526,175.44746087296934</t>
+          <t>-36.152624301855084,175.44746205214042</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-36.15259526493908,175.44841269920025</t>
+          <t>-36.15259311247212,175.44841351805061</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -11203,17 +11279,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.151929680043324,175.44678670883545</t>
+          <t>-36.151972901471545,175.4467702658538</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.152811566163315,175.44739081039825</t>
+          <t>-36.15282207018324,175.44738681430036</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-36.15283048650076,175.44832321498149</t>
+          <t>-36.15283789098534,175.44832039812025</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -11230,17 +11306,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.15163634253235,175.4468983044839</t>
+          <t>-36.1516679406775,175.4468862835047</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.15263592515797,175.44745763024838</t>
+          <t>-36.152643587927955,175.44745471507446</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-36.15277288649676,175.44834512752473</t>
+          <t>-36.15277831071252,175.44834306401296</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11257,17 +11333,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.15178916733958,175.44684016478718</t>
+          <t>-36.15174715128221,175.44685614913038</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.152507293931734,175.44750656578603</t>
+          <t>-36.152497134302735,175.44751043083554</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-36.152637453290566,175.44839664972474</t>
+          <t>-36.15263030710052,175.4483993683105</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11284,7 +11360,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.15189877069411,175.44679846784987</t>
+          <t>-36.151934329360394,175.4467849400693</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -11303,17 +11379,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.15179726059632,175.446837085834</t>
+          <t>-36.15176170192522,175.44685061357072</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-36.15245847605244,175.44752513766795</t>
+          <t>-36.15244986619693,175.44752841312993</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-36.152633234455486,175.448398254673</t>
+          <t>-36.15262712144954,175.44840058021003</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11330,7 +11406,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-36.15195576787771,175.44677678408956</t>
+          <t>-36.151968079957726,175.44677210013145</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -11349,17 +11425,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-36.151902472928185,175.446797059389</t>
+          <t>-36.151937342806626,175.44678379364672</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.152514267914306,175.44750391265828</t>
+          <t>-36.15252270557216,175.44750070270067</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-36.15264451338186,175.44839396389258</t>
+          <t>-36.15265045419036,175.44839170386274</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11376,17 +11452,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-36.151935448640415,175.44678451425523</t>
+          <t>-36.15198194180988,175.44676682658258</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.152800201158,175.447395134044</t>
+          <t>-36.15281148006479,175.44739084315316</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-36.15295730981636,175.44827496797612</t>
+          <t>-36.1529652308919,175.4482719545806</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11403,17 +11479,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.15234398576917,175.4466290913552</t>
+          <t>-36.15228388906387,175.44665195450196</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.152691630911505,175.4474364379044</t>
+          <t>-36.15267708025903,175.44744197346526</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-36.15282557887723,175.44832508197064</t>
+          <t>-36.15281533313679,175.4483289797192</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11430,17 +11506,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.15235870860044,175.44662349020683</t>
+          <t>-36.15235672833659,175.4466242435778</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.152697313414784,175.44743427608722</t>
+          <t>-36.15269688292212,175.44743443986127</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-36.152715803081485,175.44836684351347</t>
+          <t>-36.15271545868681,175.4483669745299</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11457,17 +11533,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-36.15207621961916,175.4467309598534</t>
+          <t>-36.15202258028217,175.4467513662306</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-36.152662701803415,175.44744744351468</t>
+          <t>-36.1526497009242,175.44745238948587</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-36.15279406676767,175.4483370700011</t>
+          <t>-36.15278494030952,175.44834054194266</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11484,17 +11560,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-36.15180552604996,175.44683394137058</t>
+          <t>-36.15178357093859,175.4468422938502</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.152637130537535,175.44745717168175</t>
+          <t>-36.15263179242807,175.4474592024768</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-36.15271459770013,175.44836730207098</t>
+          <t>-36.15271080935872,175.44836874325165</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11511,17 +11587,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-36.15196041719465,175.44677501532234</t>
+          <t>-36.15194491947142,175.44678091121236</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-36.152732011123504,175.44742107589417</t>
+          <t>-36.15272822278812,175.44742251710684</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-36.15285054748792,175.44831558325166</t>
+          <t>-36.15284787842957,175.4483165986322</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11538,17 +11614,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-36.15186536448833,175.4468111767472</t>
+          <t>-36.15187440482764,175.44680773748473</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.15260458528911,175.44746955297677</t>
+          <t>-36.152606737752656,175.44746873410836</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-36.152743526852205,175.448356296687</t>
+          <t>-36.15274507662817,175.44835570711263</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11565,17 +11641,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.15176678173545,175.4468486810376</t>
+          <t>-36.151720977343935,175.44686610658206</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.15255929745489,175.44748678195876</t>
+          <t>-36.152548190742394,175.44749100731465</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-36.152705557339935,175.44837074125192</t>
+          <t>-36.15269772236104,175.44837372187482</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11592,17 +11668,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-36.151911341070225,175.44679368563337</t>
+          <t>-36.151865450586804,175.4468111439923</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.15258176917516,175.4474782329795</t>
+          <t>-36.15257066246291,175.44748245833765</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-36.15270219949185,175.4483720186618</t>
+          <t>-36.15269436451292,175.44837499928445</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11619,17 +11695,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-36.151803545785036,175.44683469473168</t>
+          <t>-36.151851330437644,175.44681651579126</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-36.1525467270671,175.4474915641444</t>
+          <t>-36.15255835037089,175.44748714226048</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-36.152577270315156,175.44841954478798</t>
+          <t>-36.15258544968971,175.44841643315755</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11646,17 +11722,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-36.15222938875353,175.446672688531</t>
+          <t>-36.15224876090209,175.44666531861853</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-36.15269102822176,175.44743666718801</t>
+          <t>-36.152695763641155,175.44743486567376</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-36.152783132237616,175.44834122978006</t>
+          <t>-36.15278640398679,175.4483399851219</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11673,12 +11749,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.152069848333696,175.4467333837262</t>
+          <t>-36.152039541677965,175.44674491349454</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.15264944262859,175.44745248775018</t>
+          <t>-36.15264212425279,175.44745527190545</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -11696,17 +11772,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.15190617516226,175.446795650928</t>
+          <t>-36.15193785939741,175.4467835971171</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.15257324541926,175.44748147569632</t>
+          <t>-36.15258090818973,175.4474785605267</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-36.15276487932105,175.44834817366066</t>
+          <t>-36.15277030353686,175.4483461101493</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11723,17 +11799,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.15179967135366,175.4468361686989</t>
+          <t>-36.15176419878111,175.44684966368158</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-36.152507552227384,175.44750646752206</t>
+          <t>-36.152498942372304,175.44750974298782</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-36.15265088468372,175.44839154009244</t>
+          <t>-36.152644771677885,175.44839386563044</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11750,17 +11826,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-36.15185288021012,175.44681592620364</t>
+          <t>-36.15185546316425,175.4468149435576</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.15252098360118,175.44750135779412</t>
+          <t>-36.152521586291016,175.44750112851142</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-36.15271873043619,175.4483657298737</t>
+          <t>-36.15271916092953,175.44836556610315</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11775,15 +11851,19 @@
           <t>2016-06-22 22:05:24+00:00</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>-36.15217488844024,175.44669342253331</t>
+        </is>
+      </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-36.152806314153295,175.4473928084468</t>
+          <t>-36.152798651384536,175.44739572363198</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-36.15289816004385,175.44829747016158</t>
+          <t>-36.15289273582874,175.4482995336792</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -11800,17 +11880,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-36.15182360672956,175.44682706285465</t>
+          <t>-36.15188301467451,175.44680446199598</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-36.152716771683345,175.44742687349893</t>
+          <t>-36.15273115013819,175.44742140344252</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-36.15282592327186,175.44832495095386</t>
+          <t>-36.152836082913524,175.44832108595853</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11827,17 +11907,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-36.15188542543163,175.44680354485902</t>
+          <t>-36.15190996349476,175.44679420971195</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.15266097983266,175.44744809861027</t>
+          <t>-36.15266692063172,175.44744583853029</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-36.15275919680923,175.44835033543418</t>
+          <t>-36.15276332954512,175.4483487632353</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11852,15 +11932,19 @@
           <t>2016-09-18 22:08:21+00:00</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr"/>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>-36.15225108555991,175.44666443422878</t>
+        </is>
+      </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.15267828563852,175.44744151489817</t>
+          <t>-36.15266752332148,175.4474456092468</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-36.15269772236104,175.44837372187482</t>
+          <t>-36.152690145678086,175.44837660423488</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -11877,17 +11961,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-36.15192718318785,175.4467876587283</t>
+          <t>-36.1519749678346,175.4467694797347</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.15270962550511,175.447429592149</t>
+          <t>-36.15272124880703,175.447425170248</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-36.152758594118566,175.4483505647132</t>
+          <t>-36.15276677349166,175.4483474530694</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11904,17 +11988,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-36.15177255033348,175.4468464864658</t>
+          <t>-36.151722182722686,175.44686564801535</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-36.15264875384029,175.44745274978834</t>
+          <t>-36.15263652784774,175.44745740096508</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-36.15274671250283,175.44835508478414</t>
+          <t>-36.15273810263625,175.44835836019706</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11931,17 +12015,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.152033256490725,175.44674730461023</t>
+          <t>-36.152064940721885,175.44673525076308</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.152669589686354,175.44744482313195</t>
+          <t>-36.1526772524561,175.4474419079557</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-36.15273483088694,175.4483596048538</t>
+          <t>-36.152740255102906,175.44835754134388</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -11958,17 +12042,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-36.151832130478404,175.44682382012473</t>
+          <t>-36.151825673092915,175.4468262767384</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.152519003334525,175.44750211115155</t>
+          <t>-36.15251745356065,175.4475027007356</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-36.152595781531154,175.44841250267615</t>
+          <t>-36.15259466224833,175.44841292847835</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11985,17 +12069,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-36.15213760781353,175.44670760549263</t>
+          <t>-36.15207174249965,175.4467326631154</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-36.152461489501846,175.44752399125613</t>
+          <t>-36.152445561269154,175.44753005086065</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-36.15260843803678,175.44840768783513</t>
+          <t>-36.152597159109995,175.4484119786119</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -12012,17 +12096,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-36.15187784876639,175.44680642728932</t>
+          <t>-36.15181585786691,175.44683001079042</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-36.15237358287398,175.44755743369376</t>
+          <t>-36.152358515625544,175.44756316574023</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-36.1525670245722,175.44842344251367</t>
+          <t>-36.15255643443442,175.44842747125435</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -12039,17 +12123,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-36.1519525822346,175.44677799602255</t>
+          <t>-36.15194681363761,175.4467801906037</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-36.15235378020455,175.44756496724014</t>
+          <t>-36.15235240262753,175.4475654913128</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-36.15251243800717,175.4484442085321</t>
+          <t>-36.15251140482295,175.4484446015795</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -12066,17 +12150,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-36.1519191760306,175.44679070493603</t>
+          <t>-36.15187466312305,175.44680763922005</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-36.15251202935201,175.44750476427959</t>
+          <t>-36.15250126703319,175.44750885861214</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-36.15271502819348,175.44836713830043</t>
+          <t>-36.15270745151065,175.44837002066168</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -12093,17 +12177,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-36.15190522807912,175.44679601123198</t>
+          <t>-36.15194655534221,175.44678028886852</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.15256067503162,175.44748625788353</t>
+          <t>-36.15257066246291,175.44748245833765</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-36.15276591250502,175.4483477806109</t>
+          <t>-36.152772972595415,175.4483450947706</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -12120,17 +12204,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-36.15208965097757,175.44672585006626</t>
+          <t>-36.15206959003834,175.4467334819913</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>-36.15263015655581,175.4474598248172</t>
+          <t>-36.152625335037555,175.44746165908342</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>-36.15277168111547,175.44834558608287</t>
+          <t>-36.15276823716893,175.4483468962489</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -12147,17 +12231,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.15184495915075,175.44681893965117</t>
+          <t>-36.15183789907607,175.44682162554955</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-36.152562310903996,175.44748563554415</t>
+          <t>-36.152560588933085,175.44748629063824</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-36.15271855823885,175.44836579538193</t>
+          <t>-36.1527173528575,175.4483662539395</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12175,12 +12259,12 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.15258064989409,175.44747865879083</t>
+          <t>-36.15256403287492,175.4474849804501</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-36.152798199503415,175.44833549780088</t>
+          <t>-36.15278649008545,175.44833995236775</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -12197,7 +12281,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-36.15179924086127,175.44683633247303</t>
+          <t>-36.15176505976589,175.4468493361336</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -12216,17 +12300,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.151935104246554,175.44678464527493</t>
+          <t>-36.151982200105266,175.4467667283177</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-36.15258796827033,175.4474758746396</t>
+          <t>-36.15259941937656,175.4474715182608</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-36.1527369833536,175.4483587860007</t>
+          <t>-36.15274507662817,175.44835570711263</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12244,12 +12328,12 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.152623526968206,175.44746234693318</t>
+          <t>-36.15260932070892,175.44746775146618</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-36.15273638066292,175.44835901527958</t>
+          <t>-36.15272630711892,175.44836284751167</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12266,17 +12350,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.151787703665484,175.44684072161908</t>
+          <t>-36.151779954802564,175.44684366955232</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-36.15251624818096,175.44750315930096</t>
+          <t>-36.15251435401285,175.44750387990362</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-36.15269780845972,175.4483736891207</t>
+          <t>-36.15269651697967,175.44837418043213</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12293,17 +12377,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.15188895546882,175.44680220190838</t>
+          <t>-36.15191280474414,175.44679312879984</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.15253372618639,175.44749651010204</t>
+          <t>-36.15253949478911,175.44749431553825</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-36.15272492954025,175.44836337157756</t>
+          <t>-36.15272906227628,175.4483617993799</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12320,17 +12404,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.15175860237998,175.44685179274336</t>
+          <t>-36.151808281201156,175.44683289321594</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-36.15247931190243,175.44751721104726</t>
+          <t>-36.15249136569977,175.44751262539714</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-36.15263702279719,175.44839681349498</t>
+          <t>-36.15264546046728,175.448393603598</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12347,17 +12431,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-36.15180036014146,175.4468359066603</t>
+          <t>-36.151774530598466,175.44684573310525</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.15247509307334,175.44751881602448</t>
+          <t>-36.15246880787894,175.44752120711274</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-36.152674820114676,175.44838243446162</t>
+          <t>-36.152670342983754,175.44838413767354</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12374,17 +12458,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.151903420011315,175.44679669908504</t>
+          <t>-36.151850469452924,175.44681684333992</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.15246966886446,175.4475208795664</t>
+          <t>-36.152456840179894,175.4475257600058</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-36.15268093312033,175.448380108922</t>
+          <t>-36.15267189275984,175.4483835481002</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12401,17 +12485,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.151821195972296,175.4468279799903</t>
+          <t>-36.15186062907247,175.4468129782653</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.152426102995356,175.44753745340148</t>
+          <t>-36.1524356599352,175.4475338176407</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-36.152606974359244,175.44840824465356</t>
+          <t>-36.15261377615472,175.4484056570854</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12428,7 +12512,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.151973762456144,175.4467699383042</t>
+          <t>-36.151968596548485,175.44677190360173</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -12447,17 +12531,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-36.15208293529839,175.44672840496006</t>
+          <t>-36.15204419099454,175.4467431447238</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.15237005283293,175.44755877663056</t>
+          <t>-36.15236066808961,175.4475623468766</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-36.15261790889122,175.4484040848919</t>
+          <t>-36.15261127929311,175.44840660695226</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12474,17 +12558,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.15191323523648,175.44679296502525</t>
+          <t>-36.15187776266793,175.4468064600442</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-36.15228068252142,175.4475927758221</t>
+          <t>-36.1522720726644,175.44759605127027</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-36.15240421195388,175.44848538019593</t>
+          <t>-36.152398098946556,175.44848770572034</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12501,17 +12585,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-36.15181809642724,175.4468291591646</t>
+          <t>-36.15180389017893,175.44683456371232</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.15249790918969,175.44751013604366</t>
+          <t>-36.15249446524763,175.44751144622975</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-36.152660183340416,175.44838800265373</t>
+          <t>-36.15265768647891,175.4483889525216</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12528,17 +12612,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.151795280331385,175.44683783919493</t>
+          <t>-36.151786928779195,175.44684101641244</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.15256110552436,175.44748609411002</t>
+          <t>-36.15255903915925,175.44748688022287</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-36.152718644337526,175.44836576262782</t>
+          <t>-36.15271718066017,175.4483663194477</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12555,12 +12639,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-36.15191728186436,175.44679142554423</t>
+          <t>-36.15187526581233,175.4468074099359</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-36.15251797015193,175.4475025042076</t>
+          <t>-36.15250781052304,175.44750636925806</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
@@ -12578,17 +12662,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-36.151898081906374,175.4467987298891</t>
+          <t>-36.1519458665545,175.44678055090804</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-36.15250979078971,175.44750561590084</t>
+          <t>-36.152521414093926,175.4475011940208</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-36.152688423704696,175.44837725931666</t>
+          <t>-36.15269660307833,175.44837414767804</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12605,17 +12689,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.15175283378188,175.4468539873144</t>
+          <t>-36.15169153166259,175.44687730870783</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.152411896733284,175.4475428579092</t>
+          <t>-36.152397001682544,175.44754852445175</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-36.15258217793989,175.4484176778098</t>
+          <t>-36.152571759999624,175.44842164104395</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12632,17 +12716,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.1518927438014,175.44680076069292</t>
+          <t>-36.15191797065209,175.44679116350488</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-36.152465880528105,175.44752232077013</t>
+          <t>-36.152471993525424,175.44751999519136</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-36.15260292772142,175.44840978409263</t>
+          <t>-36.152607232655285,175.44840814639147</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12659,17 +12743,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.15190445319293,175.44679630602616</t>
+          <t>-36.15187922634189,175.4468059032111</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.1523060815992,175.44758311324608</t>
+          <t>-36.15229996860087,175.44758543881576</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-36.152441062194484,175.44847136153464</t>
+          <t>-36.15243675725991,175.44847299922935</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -12686,17 +12770,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-36.151791233703015,175.44683937867154</t>
+          <t>-36.15176023825107,175.44685117040223</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-36.152288259195544,175.44758989342716</t>
+          <t>-36.152280768619995,175.44759274306762</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-36.15248480032879,175.44845472254696</t>
+          <t>-36.15247946221013,175.4484567532905</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12713,17 +12797,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.151776338666515,175.4468450452543</t>
+          <t>-36.15172657374528,175.4468639775222</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-36.15231417486452,175.4475800343223</t>
+          <t>-36.152302121065084,175.44758461995323</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-36.152513557290085,175.44844378273072</t>
+          <t>-36.152505119618894,175.4484469926177</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12740,17 +12824,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-36.151945177766805,175.44678081294757</t>
+          <t>-36.151960675490045,175.4467749170575</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.15224064668566,175.4476080066505</t>
+          <t>-36.152244435022865,175.44760656545446</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-36.15248040929572,175.44845639299731</t>
+          <t>-36.15248307835505,175.44845537762555</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12767,7 +12851,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.1517103011321,175.44687016817244</t>
+          <t>-36.15166570211683,175.4468871351275</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -12787,12 +12871,12 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.15239467702142,175.44754940882524</t>
+          <t>-36.15238374250423,175.44755356865554</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-36.152649334907586,175.4483921296655</t>
+          <t>-36.152641586026924,175.44839507753036</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12809,7 +12893,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-36.15166432454104,175.44688765920304</t>
+          <t>-36.151715983631966,175.44686800635833</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -12828,17 +12912,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.15173836923721,175.44685949011816</t>
+          <t>-36.15167190120788,175.44688477678733</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.15253217641253,175.4474970996863</t>
+          <t>-36.15251607598384,175.44750322481028</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-36.15268506585654,175.448378536726</t>
+          <t>-36.15267370083196,175.44838286026464</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12855,7 +12939,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.15170203567767,175.44687331262875</t>
+          <t>-36.151723302002964,175.44686522220337</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -12874,17 +12958,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.15197488173614,175.4467695124897</t>
+          <t>-36.151965152610046,175.44677321379996</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-36.152645309898745,175.4474540599791</t>
+          <t>-36.15264298523818,175.44745494435782</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-36.15282988381014,175.44832344426086</t>
+          <t>-36.15282824793564,175.4483240665906</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12901,17 +12985,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-36.151891280127444,175.4468013175262</t>
+          <t>-36.15192038140911,175.44679024636716</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-36.15251177105636,175.44750486254358</t>
+          <t>-36.152518831137435,175.4475021766609</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-36.15262514118001,175.44840133355294</t>
+          <t>-36.15263013490319,175.4483994338186</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -12928,17 +13012,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.151718910980364,175.44686689269642</t>
+          <t>-36.151668543366895,175.44688605422164</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-36.15236290665226,175.44756149525836</t>
+          <t>-36.152350680656255,175.4475661464036</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-36.15260172233993,175.44841024264892</t>
+          <t>-36.15259311247212,175.44841351805061</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -12955,17 +13039,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.152133733383415,175.44670907947153</t>
+          <t>-36.15216025170476,175.4466989909022</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-36.15256696022546,175.4474838667901</t>
+          <t>-36.152573417616345,175.4474814101869</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-36.15272363806025,175.4483638628893</t>
+          <t>-36.15272811519094,175.44836215967524</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -12982,7 +13066,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.151889644256556,175.44680193986923</t>
+          <t>-36.15192193118149,175.4467896567786</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -13001,17 +13085,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.15201371214111,175.44675473999513</t>
+          <t>-36.15194913829609,175.44677930622032</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-36.152508154917236,175.4475062382394</t>
+          <t>-36.15249248498095,175.4475121995867</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-36.15269307303287,175.44837549059582</t>
+          <t>-36.152681966304385,175.44837971587302</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -13028,12 +13112,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.15209077025743,175.44672542425062</t>
+          <t>-36.15205788064873,175.44673793667548</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-36.1527915052069,175.44739844228735</t>
+          <t>-36.15278349804392,175.44740148849098</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -13052,12 +13136,12 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-36.15241129404338,175.44754308719132</t>
+          <t>-36.15241051915636,175.4475433819826</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-36.15257882009139,175.44841895521594</t>
+          <t>-36.15257830349932,175.44841915173998</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13074,17 +13158,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-36.151840568128684,175.446820610149</t>
+          <t>-36.15183996543938,175.44682083943297</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.152413877000136,175.4475421045537</t>
+          <t>-36.15241370480302,175.4475421700629</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-36.152535168059835,175.44843556148666</t>
+          <t>-36.15253499586249,175.4484356269946</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -13096,76 +13180,68 @@
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2021-09-24 22:05:56+00:00</t>
+          <t>2021-09-16 21:02:56+00:00</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.151898081906374,175.4467987298891</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>-36.15256248310109,175.44748557003476</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>-36.152671290069144,175.44838377737872</t>
-        </is>
-      </c>
+          <t>-36.151545508621886,175.44693286065478</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2021-11-03 20:58:37+00:00</t>
+          <t>2021-09-24 22:05:56+00:00</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-36.15228629982001,175.44665103735628</t>
+          <t>-36.15184702551407,175.44681815353448</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-36.15266838430685,175.44744528169895</t>
+          <t>-36.15255008491042,175.44749028671137</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-36.1528021600418,175.44833399110888</t>
+          <t>-36.15266250800459,175.44838711829394</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2021-12-05 20:55:33+00:00</t>
+          <t>2021-11-03 20:58:37+00:00</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-36.15223291878952,175.44667134556943</t>
+          <t>-36.152288882773036,175.44665005470017</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.152536481339936,175.4474954619522</t>
+          <t>-36.15266898699661,175.44744505241545</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-36.15267869455488,175.4483809605281</t>
+          <t>-36.15280259053511,175.448333827338</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13177,76 +13253,76 @@
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2021-12-29 22:05:53+00:00</t>
+          <t>2021-12-05 20:55:33+00:00</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-36.15191349353188,175.44679286676052</t>
+          <t>-36.152163179051875,175.4466978772286</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.152540011380395,175.44749411901012</t>
+          <t>-36.15251960602438,175.44750188186885</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-36.15274877887079,175.44835429868493</t>
+          <t>-36.1526668129382,175.4483854805905</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2022-01-22 20:50:54+00:00</t>
+          <t>2021-12-29 22:05:53+00:00</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-36.152243336700536,175.44666738219436</t>
+          <t>-36.15195094636381,175.4467786183665</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.15258719338342,175.44747616943212</t>
+          <t>-36.15254905172786,175.44749067976772</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-36.152702629985185,175.4483718548913</t>
+          <t>-36.152755236270664,175.44835184212468</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2022-02-23 20:47:43+00:00</t>
+          <t>2022-01-22 20:50:54+00:00</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-36.15211487782334,175.44671625283354</t>
+          <t>-36.15220648656854,175.44668140140095</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-36.152480000690865,175.44751694901015</t>
+          <t>-36.152578239134854,175.44747957592293</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-36.15262367750252,175.44840189037157</t>
+          <t>-36.152696344782335,175.44837424594033</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13258,149 +13334,149 @@
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2022-02-23 22:05:44+00:00</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr"/>
+          <t>2022-02-23 20:47:43+00:00</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>-36.152129084067255,175.44671084824603</t>
+        </is>
+      </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.152537686719604,175.44749500338662</t>
+          <t>-36.15248344463298,175.4475156388245</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-36.15274318245755,175.44835642770352</t>
+          <t>-36.15262617436412,175.44840094050446</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2022-03-11 20:46:09+00:00</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>-36.15189214111212,175.44680098997722</t>
-        </is>
-      </c>
+          <t>2022-02-23 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.15264470720896,175.44745428926248</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
+          <t>-36.15253312349655,175.4474967393848</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>-36.152739996806915,175.4483576396063</t>
+        </is>
+      </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2022-03-11 22:05:39+00:00</t>
+          <t>2022-03-11 20:46:09+00:00</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.15187707388018,175.4468067220833</t>
+          <t>-36.15191797065209,175.44679116350488</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-36.152567304619645,175.44748373577127</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>-36.15275532236932,175.44835180937054</t>
-        </is>
-      </c>
+          <t>-36.15265099240228,175.4474518981643</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2022-03-27 20:44:36+00:00</t>
+          <t>2022-03-11 22:05:39+00:00</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-36.152172477683834,175.44669433967655</t>
+          <t>-36.15188998865043,175.44680180884964</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.15250901590275,175.44750591069283</t>
+          <t>-36.15257040416727,175.44748255660178</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-36.15277038963553,175.44834607739514</t>
+          <t>-36.15275747483594,175.44835099051704</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2022-03-27 22:05:34+00:00</t>
+          <t>2022-03-27 20:44:36+00:00</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-36.15177444450001,175.44684576586008</t>
+          <t>-36.15221061929368,175.44667982915408</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.15254862123511,175.44749084354117</t>
+          <t>-36.1525182284476,175.44750240594357</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-36.152699960926455,175.44837287026832</t>
+          <t>-36.15277684703526,175.44834362083364</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2022-04-28 22:05:23+00:00</t>
+          <t>2022-03-27 22:05:34+00:00</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.15204462148679,175.4467429809487</t>
+          <t>-36.151814480291335,175.44683053486784</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.15262318257404,175.4474624779522</t>
+          <t>-36.15255835037089,175.44748714226048</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-36.152797855108766,175.44833562881757</t>
+          <t>-36.1527067627213,175.4483702826945</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13412,22 +13488,22 @@
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2022-05-30 22:05:09+00:00</t>
+          <t>2022-04-28 22:05:23+00:00</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.15198486915752,175.44676571291365</t>
+          <t>-36.15207888867116,175.4467299444471</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-36.15274707836637,175.44741534379705</t>
+          <t>-36.1526314480339,175.44745933349586</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-36.15286544255539,175.44830991677176</t>
+          <t>-36.15280370981769,175.44833340153372</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13439,134 +13515,142 @@
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2022-06-07 22:05:43+00:00</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="inlineStr"/>
+          <t>2022-05-30 22:05:09+00:00</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>-36.151984266468304,175.44676594219845</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>-36.15274690616932,175.44741540930673</t>
+        </is>
+      </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-36.15284658694972,175.4483170899454</t>
+          <t>-36.152865270358085,175.44830998228022</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2022-06-15 22:05:16+00:00</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>-36.15168731283682,175.4468789136901</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>-36.15243695141354,175.44753332632163</t>
-        </is>
-      </c>
+          <t>2022-06-07 22:05:43+00:00</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr"/>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-36.15279716631948,175.44833589085093</t>
+          <t>-36.15284736183763,175.4483167951575</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2022-06-23 22:05:51+00:00</t>
+          <t>2022-06-15 22:05:16+00:00</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.151654767608925,175.4468912949767</t>
+          <t>-36.151666046510776,175.44688700410862</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.15262593772734,175.44746142980014</t>
+          <t>-36.15243178550014,175.4475352915979</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-36.15288326497687,175.44830313664585</t>
+          <t>-36.15279355017571,175.4483372665261</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2022-07-01 22:05:30+00:00</t>
+          <t>2022-06-23 22:05:51+00:00</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-36.151796830103955,175.4468372496081</t>
+          <t>-36.15169928052618,175.44687436078075</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.15259003463536,175.44747508852623</t>
+          <t>-36.152636700044816,175.44745733545554</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-36.15270874299068,175.44836952935015</t>
+          <t>-36.15289084165837,175.4483002542726</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2022-08-11 20:32:43+00:00</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr"/>
+          <t>2022-07-01 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>-36.151767728818726,175.44684832073477</t>
+        </is>
+      </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-36.152732958207345,175.447420715591</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
+          <t>-36.15258297455479,175.44747777441344</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>-36.152703749267886,175.448371429088</t>
+        </is>
+      </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2022-08-28 20:31:10+00:00</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>-36.15191185766103,175.4467934891039</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
+          <t>2022-08-11 20:32:43+00:00</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr"/>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>-36.15272684521162,175.44742304118415</t>
+        </is>
+      </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
@@ -13577,95 +13661,87 @@
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2022-09-27 22:06:16+00:00</t>
+          <t>2022-08-28 20:31:10+00:00</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-36.15193906477591,175.44678313854806</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>-36.15263162023098,175.44745926798632</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>-36.15280172954849,175.44833415487975</t>
-        </is>
-      </c>
+          <t>-36.151869238919474,175.44680970277767</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2022-10-01 20:27:39+00:00</t>
+          <t>2022-09-27 22:06:16+00:00</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-36.15218272339859,175.4466904418174</t>
+          <t>-36.15190677785152,175.44679542164363</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-36.15268698159062,175.44743820666372</t>
+          <t>-36.15262378526383,175.44746224866893</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-36.152878787846866,175.44830483986615</t>
+          <t>-36.152796219234205,175.44833625114683</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2022-11-22 22:06:05+00:00</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr"/>
-      <c r="C197" t="inlineStr"/>
+          <t>2022-10-01 20:27:39+00:00</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>-36.15217884896865,175.44669191579786</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>-36.15268603450672,175.44743856696653</t>
+        </is>
+      </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-36.152844003990005,175.44831807257165</t>
+          <t>-36.15287809905763,175.44830510190002</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2023-01-25 22:06:01+00:00</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>-36.15235156243091,175.44662620889312</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>-36.15263282561055,175.44745880941971</t>
-        </is>
-      </c>
+          <t>2022-11-22 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
+      <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-36.15280439860698,175.44833313950028</t>
+          <t>-36.15284848112017,175.44831636935274</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13677,141 +13753,137 @@
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2023-02-24 20:14:58+00:00</t>
+          <t>2023-01-25 22:06:01+00:00</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-36.15234725750946,175.44662784665573</t>
+          <t>-36.15227794827189,175.44665421461067</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.15266847040539,175.44744524894418</t>
+          <t>-36.152615003212645,175.4474655896532</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-36.15285468022344,175.44831401104932</t>
+          <t>-36.152791828202474,175.44833792160946</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2023-03-22 22:05:28+00:00</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr"/>
+          <t>2023-02-24 20:14:58+00:00</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>-36.15232977952827,175.4466344959702</t>
+        </is>
+      </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.15263325610324,175.44745864564592</t>
+          <t>-36.15266425157708,175.4474468539286</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-36.152761090979844,175.44834961484304</t>
+          <t>-36.15285166677047,175.44831515744687</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2023-03-30 22:05:35+00:00</t>
+          <t>2023-03-22 22:05:28+00:00</t>
         </is>
       </c>
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-36.152500233850574,175.447509251668</t>
+          <t>-36.15262524893902,175.44746169183816</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-36.15266156091918,175.44838747858867</t>
+          <t>-36.152755494566655,175.44835174386225</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2023-04-04 20:09:37+00:00</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>-36.152250224575525,175.44666476178054</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr"/>
+          <t>2023-03-30 22:05:35+00:00</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr"/>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>-36.15250505536943,175.4475074174072</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>-36.15266500486609,175.44838616842597</t>
+        </is>
+      </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2023-04-23 22:05:09+00:00</t>
+          <t>2023-04-04 20:09:37+00:00</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-36.151908069328506,175.44679493032</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>-36.152655383427714,175.44745022767083</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>-36.152800696364565,175.44833454792985</t>
-        </is>
-      </c>
+          <t>-36.152218626448615,175.44667678292535</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2023-05-25 22:04:56+00:00</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>-36.15181516907912,175.44683027282912</t>
-        </is>
-      </c>
+          <t>2023-04-23 22:05:09+00:00</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.15266407938001,175.44744691943816</t>
+          <t>-36.152643501829424,175.4474547478292</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-36.15278425152024,175.44834080397595</t>
+          <t>-36.15279225869578,175.44833775783863</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13823,22 +13895,18 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2023-06-10 22:05:03+00:00</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>-36.15183910445467,175.44682116698158</t>
-        </is>
-      </c>
+          <t>2023-05-25 22:04:56+00:00</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.1526311897383,175.4474594317601</t>
+          <t>-36.15265934396046,175.4474487209511</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-36.152741890977566,175.44835691901545</t>
+          <t>-36.152780979771066,175.44834204863406</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13850,99 +13918,99 @@
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2023-06-18 22:04:57+00:00</t>
+          <t>2023-06-10 22:05:03+00:00</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.15184487305228,175.44681897240602</t>
+          <t>-36.151835230023416,175.44682264095005</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.15268612060527,175.44743853421173</t>
+          <t>-36.15263024265435,175.44745979206243</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-36.15282755914638,175.44832432862415</t>
+          <t>-36.152741202188224,175.4483571810485</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2023-07-12 22:05:20+00:00</t>
+          <t>2023-06-18 22:04:57+00:00</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.151928819058675,175.44678703638473</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
+          <t>-36.15183970714398,175.44682093769757</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>-36.15268482912724,175.4474390255337</t>
+        </is>
+      </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-36.153044527742416,175.4482417878402</t>
+          <t>-36.15282669815979,175.4483246561661</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2023-08-05 22:05:23+00:00</t>
+          <t>2023-07-12 22:05:20+00:00</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.15175085351684,175.44685474067455</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>-36.152577119853774,175.4474800017342</t>
-        </is>
-      </c>
+          <t>-36.15197470953922,175.44676957799962</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-36.152707882004,175.44836985689116</t>
+          <t>-36.153052362718626,175.44823880719287</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2023-08-21 22:05:28+00:00</t>
+          <t>2023-08-05 22:05:23+00:00</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-36.15179252518014,175.44683888734923</t>
+          <t>-36.15169084287472,175.44687757074578</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-36.152585815806724,175.44747669350767</t>
+          <t>-36.152562569199645,175.44748553728007</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-36.15269057617144,175.44837644046441</t>
+          <t>-36.15269763626237,175.4483737546289</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -13954,22 +14022,22 @@
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2023-09-06 22:05:38+00:00</t>
+          <t>2023-08-21 22:05:28+00:00</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-36.15196119208082,175.4467747205278</t>
+          <t>-36.15175378086515,175.44685362701173</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-36.152610526088495,175.4474672928998</t>
+          <t>-36.15257643106541,175.44748026377192</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-36.15274619591083,175.44835528130892</t>
+          <t>-36.15268394657383,175.4483789625291</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -13981,122 +14049,122 @@
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2023-09-15 19:51:48+00:00</t>
+          <t>2023-09-06 22:05:38+00:00</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-36.15177048397002,175.4468472725811</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
+          <t>-36.15194509166834,175.44678084570248</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>-36.152606651654104,175.44746876686307</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>-36.15274344075353,175.44835632944114</t>
+        </is>
+      </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2023-09-30 22:05:45+00:00</t>
+          <t>2023-09-15 19:51:48+00:00</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-36.151811725140156,175.44683158302257</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>-36.15263911080393,175.4474564183222</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>-36.152744215641526,175.44835603465393</t>
-        </is>
-      </c>
+          <t>-36.15172717643465,175.4468637482388</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2023-11-25 22:05:56+00:00</t>
+          <t>2023-09-30 22:05:45+00:00</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.151916162584314,175.44679185135814</t>
+          <t>-36.15178331264316,175.44684239211463</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.152739243400106,175.4474183244878</t>
+          <t>-36.152632222920765,175.44745903870304</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-36.15279699412214,175.4483359563593</t>
+          <t>-36.15273939411624,175.44835786888518</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2023-12-19 22:05:51+00:00</t>
+          <t>2023-11-25 22:05:56+00:00</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-36.15194888000072,175.4467794044851</t>
+          <t>-36.15195034367458,175.4467788476511</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.15251400961865,175.44750401092227</t>
+          <t>-36.152747508859015,175.4474151800228</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-36.15270340487321,175.44837156010442</t>
+          <t>-36.15280284883108,175.44833372907547</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2024-01-04 22:05:41+00:00</t>
+          <t>2023-12-19 22:05:51+00:00</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.15207475594547,175.44673151668908</t>
+          <t>-36.15192950784639,175.44678677434533</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-36.1524543433218,175.4475267098898</t>
+          <t>-36.152509274198394,175.4475058124288</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-36.1527165779695,175.44836654872648</t>
+          <t>-36.15270013312378,175.44837280476014</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -14108,34 +14176,42 @@
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2024-01-06 19:34:42+00:00</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr"/>
+          <t>2024-01-04 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>-36.15207286177952,175.44673223729993</t>
+        </is>
+      </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-36.152355932668634,175.44756414837659</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr"/>
+          <t>-36.15245391282903,175.4475268736629</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>-36.152716233574814,175.44836667974292</t>
+        </is>
+      </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>L7</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2024-01-11 19:37:01+00:00</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>-36.152232402198884,175.44667154210038</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr"/>
+          <t>2024-01-06 19:34:42+00:00</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>-36.15236109858243,175.44756218310386</t>
+        </is>
+      </c>
       <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
@@ -14146,103 +14222,95 @@
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2024-01-28 22:05:54+00:00</t>
+          <t>2024-01-11 19:37:01+00:00</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-36.1519019563374,175.44679725591843</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>-36.1526130229462,175.4474663430123</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>-36.1527566138493,175.44835131805843</t>
-        </is>
-      </c>
+          <t>-36.152167828367865,175.44669610845267</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L7</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2024-02-05 22:05:44+00:00</t>
+          <t>2024-01-28 22:05:54+00:00</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.151767901015674,175.44684825522518</t>
+          <t>-36.15184771430185,175.44681789149558</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.15251977822149,175.44750181635953</t>
+          <t>-36.15259984986926,175.44747135448713</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-36.15263986405344,175.44839573261137</t>
+          <t>-36.15274731519349,175.4483548555052</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2024-02-13 22:05:53+00:00</t>
+          <t>2024-02-05 22:05:44+00:00</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-36.15225203264269,175.44666407392185</t>
+          <t>-36.151794419346615,175.44683816674316</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.15253501766461,175.4474960187818</t>
+          <t>-36.15252623561267,175.44749935975904</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-36.15270392146523,175.4483713635798</t>
+          <t>-36.152644341184505,175.44839402940067</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2024-02-29 22:05:47+00:00</t>
+          <t>2024-02-13 22:05:53+00:00</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-36.15191366572881,175.4467928012507</t>
+          <t>-36.152178418476424,175.44669207957347</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.1524843056185,175.4475153112781</t>
+          <t>-36.152517195265,175.4475027989996</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-36.15265665329483,175.44838934557038</t>
+          <t>-36.152691351059474,175.44837614567763</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14254,130 +14322,130 @@
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2024-03-08 22:05:29+00:00</t>
+          <t>2024-02-29 22:05:47+00:00</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-36.15189816800485,175.44679869713423</t>
+          <t>-36.15186915282101,175.44680973553253</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-36.152514267914306,175.44750391265828</t>
+          <t>-36.15247354329938,175.44751940560792</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-36.15263926136273,175.44839596188973</t>
+          <t>-36.152649076611574,175.44839222792766</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2024-03-16 22:05:47+00:00</t>
+          <t>2024-03-08 22:05:29+00:00</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.15181861301809,175.44682896263555</t>
+          <t>-36.15193114371721,175.4467861520017</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-36.15242128147614,175.44753928765886</t>
+          <t>-36.152522275079406,175.44750086647406</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-36.15265122907841,175.4483914090762</t>
+          <t>-36.152644857776565,175.44839383287638</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2024-05-11 22:04:51+00:00</t>
+          <t>2024-03-16 22:05:47+00:00</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-36.15173845533569,175.4468594573634</t>
+          <t>-36.15179992964907,175.44683607043441</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.15243419625973,175.447534374469</t>
+          <t>-36.15241671825256,175.44754102365226</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-36.15263375104754,175.44839805814874</t>
+          <t>-36.15264804342748,175.44839262097634</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2024-09-08 22:05:24+00:00</t>
+          <t>2024-05-11 22:04:51+00:00</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-36.15178443192336,175.44684196630206</t>
+          <t>-36.15168937920047,175.44687812757638</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.152429546937654,175.44753614321752</t>
+          <t>-36.152422314658835,175.44753889460372</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-36.152652520558505,175.44839091776532</t>
+          <t>-36.15262531337736,175.44840126804485</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2024-09-24 22:05:25+00:00</t>
+          <t>2024-09-08 22:05:24+00:00</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.15159191571083,175.44691520589998</t>
+          <t>-36.15174568760805,175.44685670596172</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.152431441105904,175.44753542261628</t>
+          <t>-36.152420162194886,175.4475397134686</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-36.15264830172351,175.44839252271416</t>
+          <t>-36.152645890960635,175.44839343982773</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14389,22 +14457,22 @@
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2024-10-26 22:05:48+00:00</t>
+          <t>2024-09-24 22:05:25+00:00</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-36.151764370978064,175.44684959817198</t>
+          <t>-36.151574523815036,175.44692182234098</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-36.15252821587929,175.4474986064015</t>
+          <t>-36.15242722227661,175.4475370275917</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-36.15264012234947,175.44839563434923</t>
+          <t>-36.15264528826992,175.4483936691061</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14416,22 +14484,22 @@
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2024-11-27 22:05:54+00:00</t>
+          <t>2024-10-26 22:05:48+00:00</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.1520035525231,175.4467586050837</t>
+          <t>-36.15179278347557,175.44683878908478</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-36.15245227695649,175.44752749600065</t>
+          <t>-36.15253510376318,175.44749598602712</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-36.15256401111837,175.44842458890338</t>
+          <t>-36.152644943875224,175.4483938001223</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14443,22 +14511,22 @@
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2024-12-13 22:05:46+00:00</t>
+          <t>2024-11-27 22:05:54+00:00</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.15189902898951,175.44679836958517</t>
+          <t>-36.15203515065675,175.44674658400004</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-36.152470185455805,175.44752068303865</t>
+          <t>-36.152459939727855,175.44752458083937</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-36.152603874806864,175.44840942379838</t>
+          <t>-36.152569435335266,175.44842252540184</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14470,49 +14538,49 @@
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2024-12-21 22:05:40+00:00</t>
+          <t>2024-12-13 22:05:46+00:00</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-36.152048582015716,175.4467414742179</t>
+          <t>-36.151934501557314,175.44678487455946</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-36.15240354517307,175.4475460351038</t>
+          <t>-36.15247879531113,175.44751740757508</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-36.15263719499455,175.4483967479869</t>
+          <t>-36.15260998781296,175.44840709826266</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2025-01-06 22:05:42+00:00</t>
+          <t>2024-12-21 22:05:40+00:00</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.151617228667526,175.44690557602559</t>
+          <t>-36.152015606307174,175.44675401938528</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.15229359730682,175.44758786264856</t>
+          <t>-36.15239553800701,175.4475490812795</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-36.15249142992773,175.4484522004942</t>
+          <t>-36.152631598580655,175.44839887699985</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14524,22 +14592,22 @@
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2025-02-23 22:05:31+00:00</t>
+          <t>2025-01-06 22:05:42+00:00</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-36.15176299340241,175.44685012224875</t>
+          <t>-36.15159208790781,175.44691514039067</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-36.1524495218027,175.4475285441484</t>
+          <t>-36.15228748430841,175.44759018821756</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-36.15257460125608,175.448420560162</t>
+          <t>-36.15248712499335,175.44845383819083</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14551,45 +14619,49 @@
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2025-03-19 22:05:30+00:00</t>
+          <t>2025-02-23 22:05:31+00:00</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.15179157809691,175.44683924765226</t>
+          <t>-36.151788822945676,175.44684029580645</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.15237694071788,175.447556156266</t>
+          <t>-36.152455806997246,175.44752615306123</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-36.1526172201018,175.44840434692418</t>
+          <t>-36.15257907838743,175.44841885695396</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>L9</t>
+          <t>L8</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2025-05-06 22:05:18+00:00</t>
+          <t>2025-03-19 22:05:30+00:00</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-36.151916420879715,175.4467917530934</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr"/>
+          <t>-36.15175283378188,175.4468539873144</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>-36.15236755597463,175.4475597265126</t>
+        </is>
+      </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-36.1528008685619,175.4483344824215</t>
+          <t>-36.152610590503706,175.44840686898448</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14601,45 +14673,37 @@
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2025-07-17 22:05:28+00:00</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr"/>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>-36.15271814925987,175.44742634942173</t>
-        </is>
-      </c>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>-36.151951290757665,175.44677848734673</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-36.152766429097,175.448347584086</t>
+          <t>-36.15280680936947,175.4483322223833</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>L8</t>
+          <t>L9</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2025-08-18 22:05:41+00:00</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>-36.15192718318785,175.4467876587283</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>-36.15274793935167,175.44741501624858</t>
-        </is>
-      </c>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr"/>
+      <c r="C236" t="inlineStr"/>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-36.152869230896215,175.44830847558583</t>
+          <t>-36.15276376003843,175.44834859946457</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14651,27 +14715,73 @@
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>-36.151970490714646,175.44677118299265</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr"/>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>-36.1528766353805,175.448305658722</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
           <t>2025-09-27 22:05:54+00:00</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>-36.151928819058675,175.44678703638473</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>-36.15261844715428,175.4474642794634</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>-36.15278115196838,175.44834198312574</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>-36.1518900747489,175.44680177609473</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>-36.15260906241328,175.44746784973037</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>-36.15277452237135,175.44834450519582</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>2025-11-06 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr"/>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>-36.152716427289214,175.4474270045182</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>-36.15288386766744,175.44830290736618</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0117/nzd0117.xlsx
+++ b/data/nzd0117/nzd0117.xlsx
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>379.6</v>
+        <v>383.63</v>
       </c>
       <c r="C3" t="n">
-        <v>311.3</v>
+        <v>311.25</v>
       </c>
       <c r="D3" t="n">
-        <v>328.38</v>
+        <v>326.44</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>401.06</v>
+        <v>405.98</v>
       </c>
       <c r="C5" t="n">
-        <v>324.43</v>
+        <v>329.52</v>
       </c>
       <c r="D5" t="n">
-        <v>336.76</v>
+        <v>344.56</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>394.39</v>
+        <v>397.73</v>
       </c>
       <c r="C6" t="n">
-        <v>319.59</v>
+        <v>322.01</v>
       </c>
       <c r="D6" t="n">
-        <v>331.97</v>
+        <v>334.37</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.18</v>
+        <v>373.28</v>
       </c>
       <c r="C7" t="n">
-        <v>335.56</v>
+        <v>327.57</v>
       </c>
       <c r="D7" t="n">
-        <v>347.65</v>
+        <v>339.81</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381.07</v>
+        <v>375.88</v>
       </c>
       <c r="C8" t="n">
-        <v>325.61</v>
+        <v>326.92</v>
       </c>
       <c r="D8" t="n">
-        <v>331.68</v>
+        <v>337.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -617,12 +617,14 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>387.04</v>
+        <v>373.43</v>
       </c>
       <c r="C9" t="n">
-        <v>304.96</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>322.04</v>
+      </c>
+      <c r="D9" t="n">
+        <v>339.66</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>L7</t>
@@ -636,13 +638,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407.17</v>
+        <v>391.76</v>
       </c>
       <c r="C10" t="n">
-        <v>330.94</v>
+        <v>320.5</v>
       </c>
       <c r="D10" t="n">
-        <v>346.51</v>
+        <v>339.1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -657,13 +659,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.8</v>
+        <v>401.67</v>
       </c>
       <c r="C11" t="n">
-        <v>335.59</v>
+        <v>323.83</v>
       </c>
       <c r="D11" t="n">
-        <v>333.38</v>
+        <v>339.94</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -699,13 +701,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>385.16</v>
+        <v>394.65</v>
       </c>
       <c r="C13" t="n">
-        <v>328.11</v>
+        <v>331.63</v>
       </c>
       <c r="D13" t="n">
-        <v>348.06</v>
+        <v>344.24</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -720,10 +722,14 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>413.77</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+        <v>401.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>331.63</v>
+      </c>
+      <c r="D14" t="n">
+        <v>344.24</v>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>L5</t>
@@ -736,12 +742,14 @@
           <t>2003-08-30 21:53:59+00:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="n">
+        <v>401.02</v>
+      </c>
       <c r="C15" t="n">
-        <v>327.47</v>
+        <v>330.25</v>
       </c>
       <c r="D15" t="n">
-        <v>340.96</v>
+        <v>343.14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -756,10 +764,14 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>422.89</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+        <v>406.49</v>
+      </c>
+      <c r="C16" t="n">
+        <v>330.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>343.14</v>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>L7</t>
@@ -773,13 +785,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.07</v>
+        <v>401.81</v>
       </c>
       <c r="C17" t="n">
-        <v>327.74</v>
+        <v>329.62</v>
       </c>
       <c r="D17" t="n">
-        <v>339.45</v>
+        <v>342.22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -794,13 +806,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>396.71</v>
+        <v>404.11</v>
       </c>
       <c r="C18" t="n">
-        <v>355.2</v>
+        <v>336.8</v>
       </c>
       <c r="D18" t="n">
-        <v>345.27</v>
+        <v>341.89</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -815,13 +827,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>374.8</v>
+        <v>394.37</v>
       </c>
       <c r="C19" t="n">
-        <v>354.79</v>
+        <v>341.3</v>
       </c>
       <c r="D19" t="n">
-        <v>350.81</v>
+        <v>344.12</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -836,13 +848,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>372.32</v>
+        <v>389.96</v>
       </c>
       <c r="C20" t="n">
-        <v>319.1</v>
+        <v>339.21</v>
       </c>
       <c r="D20" t="n">
-        <v>331.79</v>
+        <v>341.83</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -857,10 +869,14 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>387.37</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+        <v>389.53</v>
+      </c>
+      <c r="C21" t="n">
+        <v>339.21</v>
+      </c>
+      <c r="D21" t="n">
+        <v>341.83</v>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>L5</t>
@@ -874,13 +890,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>384.24</v>
+        <v>388.77</v>
       </c>
       <c r="C22" t="n">
-        <v>332.64</v>
+        <v>337.89</v>
       </c>
       <c r="D22" t="n">
-        <v>344.78</v>
+        <v>342.42</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -895,13 +911,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>336.04</v>
+        <v>376.36</v>
       </c>
       <c r="C23" t="n">
-        <v>317.13</v>
+        <v>334.43</v>
       </c>
       <c r="D23" t="n">
-        <v>330.62</v>
+        <v>340.45</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -916,13 +932,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>371.83</v>
+        <v>374.76</v>
       </c>
       <c r="C24" t="n">
-        <v>324.89</v>
+        <v>333.96</v>
       </c>
       <c r="D24" t="n">
-        <v>337.42</v>
+        <v>340.12</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -937,13 +953,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>376.9</v>
+        <v>375.03</v>
       </c>
       <c r="C25" t="n">
-        <v>307.72</v>
+        <v>330.21</v>
       </c>
       <c r="D25" t="n">
-        <v>321.71</v>
+        <v>337.49</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -958,13 +974,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>412.4</v>
+        <v>379.18</v>
       </c>
       <c r="C26" t="n">
-        <v>327.46</v>
+        <v>329.87</v>
       </c>
       <c r="D26" t="n">
-        <v>338.76</v>
+        <v>337.64</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -979,13 +995,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>403.84</v>
+        <v>381.64</v>
       </c>
       <c r="C27" t="n">
-        <v>319.61</v>
+        <v>328.73</v>
       </c>
       <c r="D27" t="n">
-        <v>328.74</v>
+        <v>336.66</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1000,13 +1016,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>394.7</v>
+        <v>382.83</v>
       </c>
       <c r="C28" t="n">
-        <v>325.96</v>
+        <v>328.45</v>
       </c>
       <c r="D28" t="n">
-        <v>342.89</v>
+        <v>337.28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1021,13 +1037,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>364.95</v>
+        <v>380.09</v>
       </c>
       <c r="C29" t="n">
-        <v>326.69</v>
+        <v>321.35</v>
       </c>
       <c r="D29" t="n">
-        <v>340.07</v>
+        <v>334.32</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1042,13 +1058,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>346.22</v>
+        <v>381.55</v>
       </c>
       <c r="C30" t="n">
-        <v>327.57</v>
+        <v>322.84</v>
       </c>
       <c r="D30" t="n">
-        <v>337.75</v>
+        <v>335.33</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1063,13 +1079,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.99</v>
+        <v>377.54</v>
       </c>
       <c r="C31" t="n">
-        <v>334.03</v>
+        <v>326.77</v>
       </c>
       <c r="D31" t="n">
-        <v>343.03</v>
+        <v>338.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1084,13 +1100,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>357.36</v>
+        <v>368.24</v>
       </c>
       <c r="C32" t="n">
-        <v>350.29</v>
+        <v>332.91</v>
       </c>
       <c r="D32" t="n">
-        <v>350.01</v>
+        <v>342.75</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1105,13 +1121,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>332.86</v>
+        <v>355.88</v>
       </c>
       <c r="C33" t="n">
-        <v>318.22</v>
+        <v>331.36</v>
       </c>
       <c r="D33" t="n">
-        <v>333.38</v>
+        <v>340.85</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1126,13 +1142,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>337.17</v>
+        <v>352.76</v>
       </c>
       <c r="C34" t="n">
-        <v>323.91</v>
+        <v>330.12</v>
       </c>
       <c r="D34" t="n">
-        <v>330.11</v>
+        <v>339.06</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1147,13 +1163,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>353.96</v>
+        <v>350.93</v>
       </c>
       <c r="C35" t="n">
-        <v>332.77</v>
+        <v>331.13</v>
       </c>
       <c r="D35" t="n">
-        <v>347.38</v>
+        <v>340.28</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1168,13 +1184,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>401.63</v>
+        <v>358.17</v>
       </c>
       <c r="C36" t="n">
-        <v>352.61</v>
+        <v>334.2</v>
       </c>
       <c r="D36" t="n">
-        <v>357.8</v>
+        <v>342.78</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1189,13 +1205,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>403.6</v>
+        <v>366.37</v>
       </c>
       <c r="C37" t="n">
+        <v>336.62</v>
+      </c>
+      <c r="D37" t="n">
         <v>344.49</v>
-      </c>
-      <c r="D37" t="n">
-        <v>349.74</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1210,13 +1226,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>402.44</v>
+        <v>390.41</v>
       </c>
       <c r="C38" t="n">
-        <v>319.82</v>
+        <v>337.42</v>
       </c>
       <c r="D38" t="n">
-        <v>321.64</v>
+        <v>344.14</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1231,13 +1247,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>388.26</v>
+        <v>398.1</v>
       </c>
       <c r="C39" t="n">
-        <v>322.07</v>
+        <v>328.79</v>
       </c>
       <c r="D39" t="n">
-        <v>335.88</v>
+        <v>335.75</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1252,12 +1268,14 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>394.87</v>
+        <v>397.29</v>
       </c>
       <c r="C40" t="n">
-        <v>302.78</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>322.29</v>
+      </c>
+      <c r="D40" t="n">
+        <v>335.75</v>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>L5</t>
@@ -1271,13 +1289,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.72</v>
+        <v>392.07</v>
       </c>
       <c r="C41" t="n">
-        <v>339.79</v>
+        <v>321.12</v>
       </c>
       <c r="D41" t="n">
-        <v>352.56</v>
+        <v>336.69</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1292,13 +1310,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>362.24</v>
+        <v>386.11</v>
       </c>
       <c r="C42" t="n">
-        <v>344.07</v>
+        <v>325.71</v>
       </c>
       <c r="D42" t="n">
-        <v>355.84</v>
+        <v>341.48</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1313,13 +1331,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>370.8</v>
+        <v>383.56</v>
       </c>
       <c r="C43" t="n">
-        <v>329.86</v>
+        <v>326.4</v>
       </c>
       <c r="D43" t="n">
-        <v>342.31</v>
+        <v>341.65</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1334,13 +1352,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>337.2</v>
+        <v>376.93</v>
       </c>
       <c r="C44" t="n">
-        <v>325.91</v>
+        <v>326.33</v>
       </c>
       <c r="D44" t="n">
-        <v>337.84</v>
+        <v>341.01</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1354,12 +1372,14 @@
           <t>2006-03-31 21:55:42+00:00</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="n">
+        <v>376.93</v>
+      </c>
       <c r="C45" t="n">
-        <v>333.03</v>
+        <v>327.17</v>
       </c>
       <c r="D45" t="n">
-        <v>339.58</v>
+        <v>340.81</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1374,13 +1394,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>377.03</v>
+        <v>373.3</v>
       </c>
       <c r="C46" t="n">
-        <v>319.6</v>
+        <v>327.14</v>
       </c>
       <c r="D46" t="n">
-        <v>330.47</v>
+        <v>342.07</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1395,13 +1415,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>335.76</v>
+        <v>365.8</v>
       </c>
       <c r="C47" t="n">
-        <v>316.41</v>
+        <v>326.43</v>
       </c>
       <c r="D47" t="n">
-        <v>330.31</v>
+        <v>341.27</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1415,12 +1435,14 @@
           <t>2006-06-19 21:55:36+00:00</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>356.61</v>
+      </c>
       <c r="C48" t="n">
-        <v>319.19</v>
+        <v>326.87</v>
       </c>
       <c r="D48" t="n">
-        <v>332.08</v>
+        <v>338.35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1435,13 +1457,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>372.89</v>
+        <v>359.32</v>
       </c>
       <c r="C49" t="n">
-        <v>326.13</v>
+        <v>326.77</v>
       </c>
       <c r="D49" t="n">
-        <v>339.78</v>
+        <v>338.53</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1456,13 +1478,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>408.03</v>
+        <v>366.28</v>
       </c>
       <c r="C50" t="n">
-        <v>329.73</v>
+        <v>327.1</v>
       </c>
       <c r="D50" t="n">
-        <v>335.93</v>
+        <v>338.24</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1477,13 +1499,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>390.72</v>
+        <v>370.35</v>
       </c>
       <c r="C51" t="n">
-        <v>323.21</v>
+        <v>324.79</v>
       </c>
       <c r="D51" t="n">
-        <v>349.46</v>
+        <v>337.53</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1498,13 +1520,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>410.14</v>
+        <v>382.43</v>
       </c>
       <c r="C52" t="n">
-        <v>339.96</v>
+        <v>325.91</v>
       </c>
       <c r="D52" t="n">
-        <v>343.25</v>
+        <v>337.61</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1519,13 +1541,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>400.94</v>
+        <v>396.54</v>
       </c>
       <c r="C53" t="n">
-        <v>329.34</v>
+        <v>327.93</v>
       </c>
       <c r="D53" t="n">
-        <v>343.09</v>
+        <v>340.6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1540,13 +1562,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>386.04</v>
+        <v>399.04</v>
       </c>
       <c r="C54" t="n">
-        <v>341.76</v>
+        <v>337.02</v>
       </c>
       <c r="D54" t="n">
-        <v>344.06</v>
+        <v>343.47</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1582,13 +1604,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>376.07</v>
+        <v>380.96</v>
       </c>
       <c r="C56" t="n">
-        <v>330.81</v>
+        <v>326.7</v>
       </c>
       <c r="D56" t="n">
-        <v>340.58</v>
+        <v>339.11</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1603,10 +1625,14 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>363.08</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+        <v>375</v>
+      </c>
+      <c r="C57" t="n">
+        <v>326.7</v>
+      </c>
+      <c r="D57" t="n">
+        <v>339.11</v>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1620,7 +1646,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>396.43</v>
+        <v>379.75</v>
       </c>
       <c r="C58" t="n">
         <v>323.95</v>
@@ -1641,13 +1667,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>392.06</v>
+        <v>383.86</v>
       </c>
       <c r="C59" t="n">
-        <v>313.81</v>
+        <v>318.88</v>
       </c>
       <c r="D59" t="n">
-        <v>334.43</v>
+        <v>334.94</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1662,13 +1688,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>393.88</v>
+        <v>392.97</v>
       </c>
       <c r="C60" t="n">
-        <v>329.41</v>
+        <v>321.61</v>
       </c>
       <c r="D60" t="n">
-        <v>336.83</v>
+        <v>335.63</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1683,13 +1709,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>385.83</v>
+        <v>390.59</v>
       </c>
       <c r="C61" t="n">
-        <v>332.04</v>
+        <v>325.09</v>
       </c>
       <c r="D61" t="n">
-        <v>342.28</v>
+        <v>337.85</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1704,13 +1730,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>378.91</v>
+        <v>386.21</v>
       </c>
       <c r="C62" t="n">
-        <v>326.13</v>
+        <v>329.19</v>
       </c>
       <c r="D62" t="n">
-        <v>339.77</v>
+        <v>339.63</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1725,13 +1751,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>378.73</v>
+        <v>384.34</v>
       </c>
       <c r="C63" t="n">
-        <v>316.85</v>
+        <v>326.11</v>
       </c>
       <c r="D63" t="n">
-        <v>321.94</v>
+        <v>335.2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1746,13 +1772,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>382.33</v>
+        <v>381.45</v>
       </c>
       <c r="C64" t="n">
-        <v>316.49</v>
+        <v>322.88</v>
       </c>
       <c r="D64" t="n">
-        <v>333.77</v>
+        <v>334.44</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1767,13 +1793,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>382.41</v>
+        <v>382.37</v>
       </c>
       <c r="C65" t="n">
-        <v>331.62</v>
+        <v>324.06</v>
       </c>
       <c r="D65" t="n">
-        <v>346.33</v>
+        <v>340.05</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1788,13 +1814,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>405.3</v>
+        <v>390.01</v>
       </c>
       <c r="C66" t="n">
-        <v>352.11</v>
+        <v>333.41</v>
       </c>
       <c r="D66" t="n">
-        <v>351.95</v>
+        <v>344.02</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1809,13 +1835,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>362.74</v>
+        <v>383.48</v>
       </c>
       <c r="C67" t="n">
-        <v>322.2</v>
+        <v>335.31</v>
       </c>
       <c r="D67" t="n">
-        <v>326.66</v>
+        <v>341.65</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1829,12 +1855,14 @@
           <t>2010-02-14 21:56:32+00:00</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="n">
+        <v>383.48</v>
+      </c>
       <c r="C68" t="n">
-        <v>329.1</v>
+        <v>333.76</v>
       </c>
       <c r="D68" t="n">
-        <v>337.71</v>
+        <v>340.66</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1849,13 +1877,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>381.53</v>
+        <v>383</v>
       </c>
       <c r="C69" t="n">
-        <v>327.72</v>
+        <v>332.55</v>
       </c>
       <c r="D69" t="n">
-        <v>351.19</v>
+        <v>342.77</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1870,13 +1898,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>352.71</v>
+        <v>376.94</v>
       </c>
       <c r="C70" t="n">
-        <v>310.24</v>
+        <v>328.83</v>
       </c>
       <c r="D70" t="n">
-        <v>324.92</v>
+        <v>339.79</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1890,12 +1918,14 @@
           <t>2010-05-29 21:57:45+00:00</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="n">
+        <v>376.94</v>
+      </c>
       <c r="C71" t="n">
-        <v>322.68</v>
+        <v>327.95</v>
       </c>
       <c r="D71" t="n">
-        <v>331.78</v>
+        <v>338.65</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1910,10 +1940,14 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>362.42</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+        <v>364.85</v>
+      </c>
+      <c r="C72" t="n">
+        <v>322.39</v>
+      </c>
+      <c r="D72" t="n">
+        <v>334.45</v>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>L7</t>
@@ -1927,13 +1961,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>349.12</v>
+        <v>354.75</v>
       </c>
       <c r="C73" t="n">
-        <v>327.32</v>
+        <v>320.08</v>
       </c>
       <c r="D73" t="n">
-        <v>336.96</v>
+        <v>331.22</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1948,13 +1982,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>381.53</v>
+        <v>364.36</v>
       </c>
       <c r="C74" t="n">
-        <v>336.21</v>
+        <v>331.76</v>
       </c>
       <c r="D74" t="n">
-        <v>357.29</v>
+        <v>347.12</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1969,13 +2003,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>373.92</v>
+        <v>368.19</v>
       </c>
       <c r="C75" t="n">
-        <v>324.4</v>
+        <v>329.31</v>
       </c>
       <c r="D75" t="n">
-        <v>336.5</v>
+        <v>343.58</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -1990,13 +2024,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>385.39</v>
+        <v>372.49</v>
       </c>
       <c r="C76" t="n">
-        <v>324.25</v>
+        <v>328.04</v>
       </c>
       <c r="D76" t="n">
-        <v>333.64</v>
+        <v>341.1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2011,13 +2045,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>401.33</v>
+        <v>385.54</v>
       </c>
       <c r="C77" t="n">
-        <v>311.17</v>
+        <v>324.01</v>
       </c>
       <c r="D77" t="n">
-        <v>330.9</v>
+        <v>339.58</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2032,13 +2066,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>395.6</v>
+        <v>394.11</v>
       </c>
       <c r="C78" t="n">
-        <v>319.75</v>
+        <v>318.39</v>
       </c>
       <c r="D78" t="n">
-        <v>336.87</v>
+        <v>333.8</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2053,13 +2087,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>358.1</v>
+        <v>385.01</v>
       </c>
       <c r="C79" t="n">
-        <v>302.19</v>
+        <v>311.04</v>
       </c>
       <c r="D79" t="n">
-        <v>317.64</v>
+        <v>328.47</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2074,13 +2108,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>383.25</v>
+        <v>384.57</v>
       </c>
       <c r="C80" t="n">
-        <v>326.71</v>
+        <v>314.95</v>
       </c>
       <c r="D80" t="n">
-        <v>340.94</v>
+        <v>331.59</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2095,13 +2129,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>334.95</v>
+        <v>367.98</v>
       </c>
       <c r="C81" t="n">
-        <v>320.76</v>
+        <v>317.35</v>
       </c>
       <c r="D81" t="n">
-        <v>329.23</v>
+        <v>331.17</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2116,13 +2150,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>365.06</v>
+        <v>367.39</v>
       </c>
       <c r="C82" t="n">
-        <v>330.84</v>
+        <v>320.05</v>
       </c>
       <c r="D82" t="n">
-        <v>352.96</v>
+        <v>335.53</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2137,13 +2171,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>371.78</v>
+        <v>357.26</v>
       </c>
       <c r="C83" t="n">
-        <v>321.22</v>
+        <v>324.27</v>
       </c>
       <c r="D83" t="n">
-        <v>347.46</v>
+        <v>343.22</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2157,10 +2191,14 @@
           <t>2012-08-06 22:00:40+00:00</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="n">
+        <v>371.78</v>
+      </c>
+      <c r="C84" t="n">
+        <v>321.22</v>
+      </c>
       <c r="D84" t="n">
-        <v>337.69</v>
+        <v>342.57</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2175,13 +2213,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>373.71</v>
+        <v>372.75</v>
       </c>
       <c r="C85" t="n">
-        <v>318.87</v>
+        <v>320.05</v>
       </c>
       <c r="D85" t="n">
-        <v>332.54</v>
+        <v>339.23</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2196,13 +2234,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>381.22</v>
+        <v>377.47</v>
       </c>
       <c r="C86" t="n">
-        <v>323.59</v>
+        <v>321.23</v>
       </c>
       <c r="D86" t="n">
-        <v>334.05</v>
+        <v>334.76</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2217,13 +2255,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>405.12</v>
+        <v>386.68</v>
       </c>
       <c r="C87" t="n">
-        <v>324.34</v>
+        <v>322.27</v>
       </c>
       <c r="D87" t="n">
-        <v>329.91</v>
+        <v>333.55</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2238,13 +2276,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>395.95</v>
+        <v>389</v>
       </c>
       <c r="C88" t="n">
-        <v>345.08</v>
+        <v>327.97</v>
       </c>
       <c r="D88" t="n">
-        <v>347.77</v>
+        <v>336.07</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2258,12 +2296,14 @@
           <t>2013-05-29 22:07:41+00:00</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="n">
+        <v>400.53</v>
+      </c>
       <c r="C89" t="n">
-        <v>316.8</v>
+        <v>328.74</v>
       </c>
       <c r="D89" t="n">
-        <v>327.42</v>
+        <v>335.03</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2278,13 +2318,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>390.16</v>
+        <v>397.08</v>
       </c>
       <c r="C90" t="n">
-        <v>319.1</v>
+        <v>326.33</v>
       </c>
       <c r="D90" t="n">
-        <v>330.06</v>
+        <v>333.79</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2299,13 +2339,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>375.36</v>
+        <v>387.16</v>
       </c>
       <c r="C91" t="n">
-        <v>313.13</v>
+        <v>323.53</v>
       </c>
       <c r="D91" t="n">
-        <v>329.14</v>
+        <v>333.6</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2320,13 +2360,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>397.25</v>
+        <v>387.59</v>
       </c>
       <c r="C92" t="n">
-        <v>329.64</v>
+        <v>319.67</v>
       </c>
       <c r="D92" t="n">
-        <v>332</v>
+        <v>329.65</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2341,13 +2381,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>342.61</v>
+        <v>376.35</v>
       </c>
       <c r="C93" t="n">
-        <v>326.52</v>
+        <v>321.04</v>
       </c>
       <c r="D93" t="n">
-        <v>335.39</v>
+        <v>330.8</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2362,13 +2402,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>347.57</v>
+        <v>365.7</v>
       </c>
       <c r="C94" t="n">
-        <v>326.32</v>
+        <v>323.9</v>
       </c>
       <c r="D94" t="n">
-        <v>336.61</v>
+        <v>333.28</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2383,13 +2423,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>385.88</v>
+        <v>369.73</v>
       </c>
       <c r="C95" t="n">
-        <v>342.6</v>
+        <v>327.64</v>
       </c>
       <c r="D95" t="n">
-        <v>353.7</v>
+        <v>337.37</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2404,13 +2444,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>395.47</v>
+        <v>373.76</v>
       </c>
       <c r="C96" t="n">
-        <v>318.19</v>
+        <v>328.65</v>
       </c>
       <c r="D96" t="n">
-        <v>335.08</v>
+        <v>338.56</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2425,13 +2465,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>390.03</v>
+        <v>376.47</v>
       </c>
       <c r="C97" t="n">
-        <v>319.3</v>
+        <v>327.09</v>
       </c>
       <c r="D97" t="n">
-        <v>336.84</v>
+        <v>338.27</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2446,13 +2486,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>395.44</v>
+        <v>376.17</v>
       </c>
       <c r="C98" t="n">
-        <v>324.89</v>
+        <v>326.3</v>
       </c>
       <c r="D98" t="n">
-        <v>343.31</v>
+        <v>340.16</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2466,12 +2506,14 @@
           <t>2014-05-08 22:02:53+00:00</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="n">
+        <v>382.88</v>
+      </c>
       <c r="C99" t="n">
-        <v>321.05</v>
+        <v>325.39</v>
       </c>
       <c r="D99" t="n">
-        <v>343.92</v>
+        <v>341.58</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2486,13 +2528,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>399.4</v>
+        <v>385.63</v>
       </c>
       <c r="C100" t="n">
-        <v>339.09</v>
+        <v>327.35</v>
       </c>
       <c r="D100" t="n">
-        <v>346.66</v>
+        <v>342.3</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2507,13 +2549,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>359.94</v>
+        <v>381.96</v>
       </c>
       <c r="C101" t="n">
-        <v>323.52</v>
+        <v>326.87</v>
       </c>
       <c r="D101" t="n">
-        <v>353.26</v>
+        <v>343.67</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2528,13 +2570,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>373.06</v>
+        <v>385.56</v>
       </c>
       <c r="C102" t="n">
-        <v>300.55</v>
+        <v>320.94</v>
       </c>
       <c r="D102" t="n">
-        <v>324.83</v>
+        <v>340.56</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2549,13 +2591,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>408.48</v>
+        <v>387.26</v>
       </c>
       <c r="C103" t="n">
-        <v>321.28</v>
+        <v>321.73</v>
       </c>
       <c r="D103" t="n">
-        <v>331.75</v>
+        <v>340.62</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2570,13 +2612,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>399.28</v>
+        <v>388.03</v>
       </c>
       <c r="C104" t="n">
-        <v>338.29</v>
+        <v>324.55</v>
       </c>
       <c r="D104" t="n">
-        <v>348.94</v>
+        <v>341.09</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2591,10 +2633,14 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>377.54</v>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+        <v>383.66</v>
+      </c>
+      <c r="C105" t="n">
+        <v>320.91</v>
+      </c>
+      <c r="D105" t="n">
+        <v>339.69</v>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2608,13 +2654,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>397.59</v>
+        <v>385.98</v>
       </c>
       <c r="C106" t="n">
-        <v>343.78</v>
+        <v>325.48</v>
       </c>
       <c r="D106" t="n">
-        <v>349.31</v>
+        <v>341.62</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2629,10 +2675,14 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>373.62</v>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+        <v>384.22</v>
+      </c>
+      <c r="C107" t="n">
+        <v>325.48</v>
+      </c>
+      <c r="D107" t="n">
+        <v>341.62</v>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2646,13 +2696,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>377.19</v>
+        <v>388.95</v>
       </c>
       <c r="C108" t="n">
-        <v>335.32</v>
+        <v>334.67</v>
       </c>
       <c r="D108" t="n">
-        <v>346.6</v>
+        <v>344.15</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2667,13 +2717,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>372.01</v>
+        <v>386.53</v>
       </c>
       <c r="C109" t="n">
-        <v>301.78</v>
+        <v>328.09</v>
       </c>
       <c r="D109" t="n">
-        <v>310.04</v>
+        <v>337.33</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2688,13 +2738,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>336.94</v>
+        <v>380.33</v>
       </c>
       <c r="C110" t="n">
-        <v>317.39</v>
+        <v>326.31</v>
       </c>
       <c r="D110" t="n">
-        <v>327.45</v>
+        <v>335.68</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2709,13 +2759,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>328.48</v>
+        <v>370.33</v>
       </c>
       <c r="C111" t="n">
-        <v>315.09</v>
+        <v>325.27</v>
       </c>
       <c r="D111" t="n">
-        <v>339.05</v>
+        <v>336.9</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2730,13 +2780,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>367.29</v>
+        <v>364.73</v>
       </c>
       <c r="C112" t="n">
-        <v>320.57</v>
+        <v>322.32</v>
       </c>
       <c r="D112" t="n">
-        <v>330.98</v>
+        <v>333.91</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2751,13 +2801,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>395.05</v>
+        <v>362.83</v>
       </c>
       <c r="C113" t="n">
-        <v>322.65</v>
+        <v>318.8</v>
       </c>
       <c r="D113" t="n">
-        <v>339.59</v>
+        <v>332.29</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2772,13 +2822,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>376.31</v>
+        <v>364.75</v>
       </c>
       <c r="C114" t="n">
-        <v>311.45</v>
+        <v>317.75</v>
       </c>
       <c r="D114" t="n">
-        <v>323.67</v>
+        <v>331.05</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2793,13 +2843,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>384.5</v>
+        <v>367.22</v>
       </c>
       <c r="C115" t="n">
-        <v>325.56</v>
+        <v>318.73</v>
       </c>
       <c r="D115" t="n">
-        <v>335.61</v>
+        <v>331.62</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2814,13 +2864,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>402.32</v>
+        <v>370.13</v>
       </c>
       <c r="C116" t="n">
-        <v>332.36</v>
+        <v>320.72</v>
       </c>
       <c r="D116" t="n">
-        <v>341.11</v>
+        <v>333.92</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2835,13 +2885,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>385.54</v>
+        <v>377.07</v>
       </c>
       <c r="C117" t="n">
-        <v>329.75</v>
+        <v>322.49</v>
       </c>
       <c r="D117" t="n">
-        <v>341.5</v>
+        <v>335.93</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2856,13 +2906,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>387.18</v>
+        <v>385.46</v>
       </c>
       <c r="C118" t="n">
-        <v>331.18</v>
+        <v>324.79</v>
       </c>
       <c r="D118" t="n">
-        <v>354.15</v>
+        <v>338.09</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2877,13 +2927,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>341.02</v>
+        <v>379.48</v>
       </c>
       <c r="C119" t="n">
-        <v>315.22</v>
+        <v>324.25</v>
       </c>
       <c r="D119" t="n">
-        <v>330.81</v>
+        <v>337.81</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -2898,12 +2948,14 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>365.32</v>
+        <v>376.28</v>
       </c>
       <c r="C120" t="n">
-        <v>321.45</v>
-      </c>
-      <c r="D120" t="inlineStr"/>
+        <v>325.99</v>
+      </c>
+      <c r="D120" t="n">
+        <v>341.89</v>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>L7</t>
@@ -2917,13 +2969,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>377.13</v>
+        <v>367.66</v>
       </c>
       <c r="C121" t="n">
-        <v>328.56</v>
+        <v>324.1</v>
       </c>
       <c r="D121" t="n">
-        <v>332.68</v>
+        <v>339.21</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -2938,13 +2990,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>397.3</v>
+        <v>373.59</v>
       </c>
       <c r="C122" t="n">
-        <v>338.08</v>
+        <v>326.9</v>
       </c>
       <c r="D122" t="n">
-        <v>347.26</v>
+        <v>341.23</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2959,13 +3011,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>386.7</v>
+        <v>375.77</v>
       </c>
       <c r="C123" t="n">
-        <v>335.45</v>
+        <v>328.32</v>
       </c>
       <c r="D123" t="n">
-        <v>338.62</v>
+        <v>340.7</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2980,13 +3032,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>349.6</v>
+        <v>369.51</v>
       </c>
       <c r="C124" t="n">
-        <v>303.27</v>
+        <v>323.67</v>
       </c>
       <c r="D124" t="n">
-        <v>318.46</v>
+        <v>333.57</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3001,13 +3053,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>383.5</v>
+        <v>371.51</v>
       </c>
       <c r="C125" t="n">
-        <v>311.11</v>
+        <v>321.88</v>
       </c>
       <c r="D125" t="n">
-        <v>325.04</v>
+        <v>332.14</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3022,13 +3074,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>380.37</v>
+        <v>377.13</v>
       </c>
       <c r="C126" t="n">
-        <v>318.57</v>
+        <v>322.36</v>
       </c>
       <c r="D126" t="n">
-        <v>333.49</v>
+        <v>332.59</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3043,13 +3095,13 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>340.75</v>
+        <v>373.62</v>
       </c>
       <c r="C127" t="n">
-        <v>318.5</v>
+        <v>321.93</v>
       </c>
       <c r="D127" t="n">
-        <v>341.99</v>
+        <v>333.93</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3064,13 +3116,13 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>372.82</v>
+        <v>373.52</v>
       </c>
       <c r="C128" t="n">
-        <v>312.26</v>
+        <v>320.73</v>
       </c>
       <c r="D128" t="n">
-        <v>333.09</v>
+        <v>333.83</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3085,13 +3137,13 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>402.18</v>
+        <v>376.71</v>
       </c>
       <c r="C129" t="n">
-        <v>322.1</v>
+        <v>320.88</v>
       </c>
       <c r="D129" t="n">
-        <v>336.42</v>
+        <v>334.12</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3106,13 +3158,13 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>362.37</v>
+        <v>372.29</v>
       </c>
       <c r="C130" t="n">
-        <v>317.37</v>
+        <v>317.33</v>
       </c>
       <c r="D130" t="n">
-        <v>336.17</v>
+        <v>332.91</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3127,13 +3179,13 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>390.16</v>
+        <v>372.72</v>
       </c>
       <c r="C131" t="n">
-        <v>335.93</v>
+        <v>317.39</v>
       </c>
       <c r="D131" t="n">
-        <v>353.08</v>
+        <v>334.72</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3148,13 +3200,13 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>361.58</v>
+        <v>372.89</v>
       </c>
       <c r="C132" t="n">
-        <v>344.28</v>
+        <v>324.14</v>
       </c>
       <c r="D132" t="n">
-        <v>352.79</v>
+        <v>341</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3169,13 +3221,13 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>391.3</v>
+        <v>375.19</v>
       </c>
       <c r="C133" t="n">
-        <v>354.39</v>
+        <v>327.93</v>
       </c>
       <c r="D133" t="n">
-        <v>357.52</v>
+        <v>343.07</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3190,13 +3242,13 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>376.09</v>
+        <v>374.66</v>
       </c>
       <c r="C134" t="n">
-        <v>355.1</v>
+        <v>332.49</v>
       </c>
       <c r="D134" t="n">
-        <v>362.75</v>
+        <v>346.73</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3211,13 +3263,13 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>384.47</v>
+        <v>381.16</v>
       </c>
       <c r="C135" t="n">
-        <v>337.81</v>
+        <v>338.14</v>
       </c>
       <c r="D135" t="n">
-        <v>339.98</v>
+        <v>348.39</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3232,13 +3284,13 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>376.12</v>
+        <v>377.91</v>
       </c>
       <c r="C136" t="n">
-        <v>329.75</v>
+        <v>344.27</v>
       </c>
       <c r="D136" t="n">
-        <v>332.37</v>
+        <v>349.08</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3274,13 +3326,13 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>388.74</v>
+        <v>375.28</v>
       </c>
       <c r="C138" t="n">
-        <v>330.92</v>
+        <v>327.16</v>
       </c>
       <c r="D138" t="n">
-        <v>338.83</v>
+        <v>335.88</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3294,12 +3346,14 @@
           <t>2018-02-04 22:05:29+00:00</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="n">
+        <v>375.28</v>
+      </c>
       <c r="C139" t="n">
-        <v>330.52</v>
+        <v>328.28</v>
       </c>
       <c r="D139" t="n">
-        <v>330.8</v>
+        <v>334.18</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3314,10 +3368,14 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>397.2</v>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+        <v>382.59</v>
+      </c>
+      <c r="C140" t="n">
+        <v>328.28</v>
+      </c>
+      <c r="D140" t="n">
+        <v>334.18</v>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3331,13 +3389,13 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>371.98</v>
+        <v>384.59</v>
       </c>
       <c r="C141" t="n">
-        <v>326.41</v>
+        <v>328.47</v>
       </c>
       <c r="D141" t="n">
-        <v>335.61</v>
+        <v>333.21</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3351,12 +3409,14 @@
           <t>2018-08-15 22:05:04+00:00</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>384.59</v>
+      </c>
       <c r="C142" t="n">
-        <v>325.26</v>
+        <v>325.84</v>
       </c>
       <c r="D142" t="n">
-        <v>337.79</v>
+        <v>336.7</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3371,13 +3431,13 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>395.47</v>
+        <v>383.73</v>
       </c>
       <c r="C143" t="n">
-        <v>336.29</v>
+        <v>329.32</v>
       </c>
       <c r="D143" t="n">
-        <v>341.25</v>
+        <v>338.22</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3392,13 +3452,13 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>380.04</v>
+        <v>382.5</v>
       </c>
       <c r="C144" t="n">
-        <v>333.37</v>
+        <v>330.33</v>
       </c>
       <c r="D144" t="n">
-        <v>337.47</v>
+        <v>338.03</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3413,13 +3473,13 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>392.18</v>
+        <v>384.92</v>
       </c>
       <c r="C145" t="n">
-        <v>338.96</v>
+        <v>332.06</v>
       </c>
       <c r="D145" t="n">
-        <v>347.18</v>
+        <v>339.86</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3434,13 +3494,13 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>396.1</v>
+        <v>387.15</v>
       </c>
       <c r="C146" t="n">
-        <v>341.58</v>
+        <v>333.64</v>
       </c>
       <c r="D146" t="n">
-        <v>344.29</v>
+        <v>340.6</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3455,13 +3515,13 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>387.28</v>
+        <v>390.21</v>
       </c>
       <c r="C147" t="n">
-        <v>342.97</v>
+        <v>336.4</v>
       </c>
       <c r="D147" t="n">
-        <v>344.11</v>
+        <v>342.02</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3476,13 +3536,13 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>386.1</v>
+        <v>389.53</v>
       </c>
       <c r="C148" t="n">
-        <v>345.43</v>
+        <v>339.77</v>
       </c>
       <c r="D148" t="n">
-        <v>350.86</v>
+        <v>344.19</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3497,10 +3557,14 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>373.56</v>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+        <v>385.88</v>
+      </c>
+      <c r="C149" t="n">
+        <v>340.46</v>
+      </c>
+      <c r="D149" t="n">
+        <v>344.78</v>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3514,13 +3578,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>364.78</v>
+        <v>383.33</v>
       </c>
       <c r="C150" t="n">
-        <v>354.14</v>
+        <v>344.62</v>
       </c>
       <c r="D150" t="n">
-        <v>351.15</v>
+        <v>347.52</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3535,13 +3599,13 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>384.11</v>
+        <v>381.99</v>
       </c>
       <c r="C151" t="n">
-        <v>364.43</v>
+        <v>349.71</v>
       </c>
       <c r="D151" t="n">
-        <v>375.91</v>
+        <v>353.26</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3556,13 +3620,13 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>392.69</v>
+        <v>383.52</v>
       </c>
       <c r="C152" t="n">
-        <v>338.6</v>
+        <v>347.86</v>
       </c>
       <c r="D152" t="n">
-        <v>345.76</v>
+        <v>352.01</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3577,13 +3641,13 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>394.66</v>
+        <v>383.31</v>
       </c>
       <c r="C153" t="n">
-        <v>331.1</v>
+        <v>346.11</v>
       </c>
       <c r="D153" t="n">
-        <v>338.85</v>
+        <v>351.11</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -3598,12 +3662,14 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>384.4</v>
+        <v>382.37</v>
       </c>
       <c r="C154" t="n">
-        <v>337.05</v>
-      </c>
-      <c r="D154" t="inlineStr"/>
+        <v>345.06</v>
+      </c>
+      <c r="D154" t="n">
+        <v>352.92</v>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3617,13 +3683,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>376.2</v>
+        <v>386.99</v>
       </c>
       <c r="C155" t="n">
-        <v>335.47</v>
+        <v>335.56</v>
       </c>
       <c r="D155" t="n">
-        <v>341.24</v>
+        <v>341.95</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -3638,13 +3704,13 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>405.74</v>
+        <v>390.74</v>
       </c>
       <c r="C156" t="n">
-        <v>349.92</v>
+        <v>338.43</v>
       </c>
       <c r="D156" t="n">
-        <v>355.74</v>
+        <v>345.4</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3659,13 +3725,13 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>379.44</v>
+        <v>388.09</v>
       </c>
       <c r="C157" t="n">
-        <v>341.21</v>
+        <v>338.95</v>
       </c>
       <c r="D157" t="n">
-        <v>351.62</v>
+        <v>346.86</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -3680,13 +3746,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>383.94</v>
+        <v>387.4</v>
       </c>
       <c r="C158" t="n">
-        <v>361.19</v>
+        <v>342.66</v>
       </c>
       <c r="D158" t="n">
-        <v>371.42</v>
+        <v>351.77</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3701,13 +3767,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>397.76</v>
+        <v>387.91</v>
       </c>
       <c r="C159" t="n">
-        <v>363.42</v>
+        <v>348.04</v>
       </c>
       <c r="D159" t="n">
-        <v>366.46</v>
+        <v>357.3</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -3722,13 +3788,13 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>401.67</v>
+        <v>389.88</v>
       </c>
       <c r="C160" t="n">
-        <v>360.94</v>
+        <v>349.89</v>
       </c>
       <c r="D160" t="n">
-        <v>363.48</v>
+        <v>358.33</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -3743,13 +3809,13 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>374.48</v>
+        <v>388.46</v>
       </c>
       <c r="C161" t="n">
-        <v>367.64</v>
+        <v>354.26</v>
       </c>
       <c r="D161" t="n">
-        <v>366.04</v>
+        <v>359.43</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -3764,10 +3830,14 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>408.74</v>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+        <v>391</v>
+      </c>
+      <c r="C162" t="n">
+        <v>354.26</v>
+      </c>
+      <c r="D162" t="n">
+        <v>359.43</v>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3780,12 +3850,14 @@
           <t>2020-06-09 21:37:36+00:00</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="n">
+        <v>391</v>
+      </c>
       <c r="C163" t="n">
-        <v>351.46</v>
+        <v>357.64</v>
       </c>
       <c r="D163" t="n">
-        <v>347.63</v>
+        <v>361.11</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -3800,10 +3872,14 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>402.9</v>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+        <v>395.37</v>
+      </c>
+      <c r="C164" t="n">
+        <v>359.55</v>
+      </c>
+      <c r="D164" t="n">
+        <v>356.84</v>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3817,13 +3893,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>408.02</v>
+        <v>406.55</v>
       </c>
       <c r="C165" t="n">
-        <v>336.09</v>
+        <v>343.77</v>
       </c>
       <c r="D165" t="n">
-        <v>343.9</v>
+        <v>345.76</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -3838,10 +3914,14 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>402.05</v>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+        <v>405.43</v>
+      </c>
+      <c r="C166" t="n">
+        <v>343.77</v>
+      </c>
+      <c r="D166" t="n">
+        <v>345.76</v>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3855,13 +3935,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>373.96</v>
+        <v>396.73</v>
       </c>
       <c r="C167" t="n">
-        <v>321.35</v>
+        <v>336.3</v>
       </c>
       <c r="D167" t="n">
-        <v>325.95</v>
+        <v>339.16</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3876,13 +3956,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>379.16</v>
+        <v>393.22</v>
       </c>
       <c r="C168" t="n">
-        <v>335.77</v>
+        <v>331.07</v>
       </c>
       <c r="D168" t="n">
-        <v>348.96</v>
+        <v>339.6</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3897,13 +3977,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>408.41</v>
+        <v>395.75</v>
       </c>
       <c r="C169" t="n">
-        <v>355.3</v>
+        <v>337.13</v>
       </c>
       <c r="D169" t="n">
-        <v>353.26</v>
+        <v>343.02</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -3918,13 +3998,13 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>351.3</v>
+        <v>389.4</v>
       </c>
       <c r="C170" t="n">
-        <v>329.43</v>
+        <v>335.59</v>
       </c>
       <c r="D170" t="n">
-        <v>337.58</v>
+        <v>341.93</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -3939,10 +4019,14 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>378.98</v>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+        <v>382.31</v>
+      </c>
+      <c r="C171" t="n">
+        <v>335.46</v>
+      </c>
+      <c r="D171" t="n">
+        <v>341.44</v>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>L7</t>
@@ -3956,13 +4040,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>375.82</v>
+        <v>377.94</v>
       </c>
       <c r="C172" t="n">
-        <v>338.83</v>
+        <v>336.14</v>
       </c>
       <c r="D172" t="n">
-        <v>342.94</v>
+        <v>341.74</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -3977,12 +4061,14 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>363.19</v>
+        <v>375.83</v>
       </c>
       <c r="C173" t="n">
-        <v>305.03</v>
-      </c>
-      <c r="D173" t="inlineStr"/>
+        <v>330.95</v>
+      </c>
+      <c r="D173" t="n">
+        <v>341.74</v>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>L8</t>
@@ -3995,12 +4081,14 @@
           <t>2021-05-03 22:05:08+00:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="n">
+        <v>375.83</v>
+      </c>
       <c r="C174" t="n">
-        <v>348.35</v>
+        <v>333.44</v>
       </c>
       <c r="D174" t="n">
-        <v>354.98</v>
+        <v>343.94</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -4015,13 +4103,13 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>388.5</v>
+        <v>377.91</v>
       </c>
       <c r="C175" t="n">
-        <v>347.98</v>
+        <v>337.24</v>
       </c>
       <c r="D175" t="n">
-        <v>360.01</v>
+        <v>349.62</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -4036,10 +4124,14 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>422.7</v>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+        <v>385.84</v>
+      </c>
+      <c r="C176" t="n">
+        <v>335.05</v>
+      </c>
+      <c r="D176" t="n">
+        <v>352.64</v>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4053,13 +4145,13 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>387.68</v>
+        <v>387.58</v>
       </c>
       <c r="C177" t="n">
-        <v>332.14</v>
+        <v>334.47</v>
       </c>
       <c r="D177" t="n">
-        <v>345.2</v>
+        <v>350.78</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4074,13 +4166,13 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>336.36</v>
+        <v>383.81</v>
       </c>
       <c r="C178" t="n">
-        <v>318.33</v>
+        <v>332.82</v>
       </c>
       <c r="D178" t="n">
-        <v>328.93</v>
+        <v>344.71</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -4095,13 +4187,13 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>350.96</v>
+        <v>374.43</v>
       </c>
       <c r="C179" t="n">
-        <v>335.68</v>
+        <v>328.72</v>
       </c>
       <c r="D179" t="n">
-        <v>344.7</v>
+        <v>339.61</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4116,13 +4208,13 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>375.61</v>
+        <v>374.66</v>
       </c>
       <c r="C180" t="n">
-        <v>332.26</v>
+        <v>329.6</v>
       </c>
       <c r="D180" t="n">
-        <v>334.43</v>
+        <v>338.31</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -4137,13 +4229,13 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>345.93</v>
+        <v>369.87</v>
       </c>
       <c r="C181" t="n">
-        <v>328.87</v>
+        <v>329.46</v>
       </c>
       <c r="D181" t="n">
-        <v>341.27</v>
+        <v>338.91</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -4158,13 +4250,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>354.92</v>
+        <v>367.74</v>
       </c>
       <c r="C182" t="n">
-        <v>339.88</v>
+        <v>331.19</v>
       </c>
       <c r="D182" t="n">
-        <v>349.42</v>
+        <v>340.66</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4178,12 +4270,14 @@
           <t>2022-02-23 22:05:44+00:00</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="n">
+        <v>367.74</v>
+      </c>
       <c r="C183" t="n">
-        <v>334.11</v>
+        <v>331.61</v>
       </c>
       <c r="D183" t="n">
-        <v>336.2</v>
+        <v>340.02</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -4198,12 +4292,14 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>379.44</v>
+        <v>369.2</v>
       </c>
       <c r="C184" t="n">
-        <v>320.42</v>
-      </c>
-      <c r="D184" t="inlineStr"/>
+        <v>330.21</v>
+      </c>
+      <c r="D184" t="n">
+        <v>340.02</v>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4217,13 +4313,13 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>382.69</v>
+        <v>370.7</v>
       </c>
       <c r="C185" t="n">
-        <v>329.78</v>
+        <v>330.16</v>
       </c>
       <c r="D185" t="n">
-        <v>334.17</v>
+        <v>339.29</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -4238,13 +4334,13 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>345.45</v>
+        <v>358.92</v>
       </c>
       <c r="C186" t="n">
-        <v>335.84</v>
+        <v>330.57</v>
       </c>
       <c r="D186" t="n">
-        <v>331.92</v>
+        <v>337.63</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4259,13 +4355,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>391.46</v>
+        <v>362.54</v>
       </c>
       <c r="C187" t="n">
-        <v>331.18</v>
+        <v>330.64</v>
       </c>
       <c r="D187" t="n">
-        <v>340.06</v>
+        <v>337.9</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4280,13 +4376,13 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>360.75</v>
+        <v>362.36</v>
       </c>
       <c r="C188" t="n">
-        <v>322.69</v>
+        <v>329.91</v>
       </c>
       <c r="D188" t="n">
-        <v>328.8</v>
+        <v>336.99</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4301,13 +4397,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>371.74</v>
+        <v>365.9</v>
       </c>
       <c r="C189" t="n">
-        <v>309.28</v>
+        <v>329.09</v>
       </c>
       <c r="D189" t="n">
-        <v>321.65</v>
+        <v>336.26</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4321,10 +4417,14 @@
           <t>2022-06-07 22:05:43+00:00</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="B190" t="n">
+        <v>367.55</v>
+      </c>
+      <c r="C190" t="n">
+        <v>328.43</v>
+      </c>
       <c r="D190" t="n">
-        <v>323.73</v>
+        <v>334.17</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -4339,13 +4439,13 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>408.7</v>
+        <v>371.67</v>
       </c>
       <c r="C191" t="n">
-        <v>345.88</v>
+        <v>330.02</v>
       </c>
       <c r="D191" t="n">
-        <v>329.98</v>
+        <v>333.78</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4360,13 +4460,13 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>404.84</v>
+        <v>374.68</v>
       </c>
       <c r="C192" t="n">
-        <v>322.08</v>
+        <v>329.36</v>
       </c>
       <c r="D192" t="n">
-        <v>318.68</v>
+        <v>332.53</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4381,13 +4481,13 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>396.89</v>
+        <v>376.62</v>
       </c>
       <c r="C193" t="n">
-        <v>328.32</v>
+        <v>329.03</v>
       </c>
       <c r="D193" t="n">
-        <v>340.41</v>
+        <v>333.02</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -4401,11 +4501,15 @@
           <t>2022-08-11 20:32:43+00:00</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="n">
+        <v>379.69</v>
+      </c>
       <c r="C194" t="n">
-        <v>311.61</v>
-      </c>
-      <c r="D194" t="inlineStr"/>
+        <v>327.59</v>
+      </c>
+      <c r="D194" t="n">
+        <v>332.27</v>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4419,10 +4523,14 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>385.1</v>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+        <v>382.71</v>
+      </c>
+      <c r="C195" t="n">
+        <v>325.71</v>
+      </c>
+      <c r="D195" t="n">
+        <v>329.93</v>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4436,13 +4544,13 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>380.74</v>
+        <v>386.97</v>
       </c>
       <c r="C196" t="n">
-        <v>323.58</v>
+        <v>323.35</v>
       </c>
       <c r="D196" t="n">
-        <v>329.67</v>
+        <v>327.56</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -4457,13 +4565,13 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>349.14</v>
+        <v>382.24</v>
       </c>
       <c r="C197" t="n">
-        <v>316.35</v>
+        <v>322.47</v>
       </c>
       <c r="D197" t="n">
-        <v>320.16</v>
+        <v>326.63</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4477,10 +4585,14 @@
           <t>2022-11-22 22:06:05+00:00</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>385.31</v>
+      </c>
+      <c r="C198" t="n">
+        <v>322.44</v>
+      </c>
       <c r="D198" t="n">
-        <v>323.6</v>
+        <v>325.99</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4495,13 +4607,13 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>337.63</v>
+        <v>363.15</v>
       </c>
       <c r="C199" t="n">
-        <v>324.6</v>
+        <v>319.03</v>
       </c>
       <c r="D199" t="n">
-        <v>330.18</v>
+        <v>325.9</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4516,13 +4628,13 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>331.61</v>
+        <v>356.84</v>
       </c>
       <c r="C200" t="n">
-        <v>318.88</v>
+        <v>320.85</v>
       </c>
       <c r="D200" t="n">
-        <v>323.23</v>
+        <v>325.37</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -4536,12 +4648,14 @@
           <t>2023-03-22 22:05:28+00:00</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="n">
+        <v>349.78</v>
+      </c>
       <c r="C201" t="n">
-        <v>323.41</v>
+        <v>321.36</v>
       </c>
       <c r="D201" t="n">
-        <v>334.4</v>
+        <v>326.87</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4555,12 +4669,14 @@
           <t>2023-03-30 22:05:35+00:00</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="n">
+        <v>334.62</v>
+      </c>
       <c r="C202" t="n">
-        <v>337.37</v>
+        <v>326.06</v>
       </c>
       <c r="D202" t="n">
-        <v>344.91</v>
+        <v>331.26</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4575,10 +4691,14 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>344.52</v>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+        <v>337.92</v>
+      </c>
+      <c r="C203" t="n">
+        <v>326.06</v>
+      </c>
+      <c r="D203" t="n">
+        <v>331.26</v>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4591,12 +4711,14 @@
           <t>2023-04-23 22:05:09+00:00</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
+      <c r="B204" t="n">
+        <v>337.92</v>
+      </c>
       <c r="C204" t="n">
-        <v>321.29</v>
+        <v>325.11</v>
       </c>
       <c r="D204" t="n">
-        <v>330.13</v>
+        <v>331.07</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -4610,12 +4732,14 @@
           <t>2023-05-25 22:04:56+00:00</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="n">
+        <v>337.92</v>
+      </c>
       <c r="C205" t="n">
-        <v>319.45</v>
+        <v>324.17</v>
       </c>
       <c r="D205" t="n">
-        <v>331.44</v>
+        <v>332.38</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4630,13 +4754,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>389.05</v>
+        <v>350.7</v>
       </c>
       <c r="C206" t="n">
-        <v>322.83</v>
+        <v>323.98</v>
       </c>
       <c r="D206" t="n">
-        <v>336.06</v>
+        <v>332.91</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -4651,13 +4775,13 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>388.53</v>
+        <v>358.27</v>
       </c>
       <c r="C207" t="n">
-        <v>316.49</v>
+        <v>323.04</v>
       </c>
       <c r="D207" t="n">
-        <v>326.13</v>
+        <v>332.06</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -4672,11 +4796,13 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>372.85</v>
-      </c>
-      <c r="C208" t="inlineStr"/>
+        <v>360.7</v>
+      </c>
+      <c r="C208" t="n">
+        <v>323.04</v>
+      </c>
       <c r="D208" t="n">
-        <v>299.92</v>
+        <v>328.49</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
@@ -4691,13 +4817,13 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>405.82</v>
+        <v>372.06</v>
       </c>
       <c r="C209" t="n">
-        <v>330.69</v>
+        <v>323.8</v>
       </c>
       <c r="D209" t="n">
-        <v>341.12</v>
+        <v>329.7</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4712,13 +4838,13 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>398.51</v>
+        <v>375.84</v>
       </c>
       <c r="C210" t="n">
-        <v>329.08</v>
+        <v>324.39</v>
       </c>
       <c r="D210" t="n">
-        <v>342.71</v>
+        <v>331</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4733,13 +4859,13 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>376.29</v>
+        <v>382.22</v>
       </c>
       <c r="C211" t="n">
-        <v>325.57</v>
+        <v>325.13</v>
       </c>
       <c r="D211" t="n">
-        <v>335.8</v>
+        <v>332.26</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4754,10 +4880,14 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>401.6</v>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+        <v>384.65</v>
+      </c>
+      <c r="C212" t="n">
+        <v>325.13</v>
+      </c>
+      <c r="D212" t="n">
+        <v>332.26</v>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4771,13 +4901,13 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>395.08</v>
+        <v>385.81</v>
       </c>
       <c r="C213" t="n">
-        <v>322.6</v>
+        <v>323.5</v>
       </c>
       <c r="D213" t="n">
-        <v>336.27</v>
+        <v>331.06</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -4792,13 +4922,13 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>375.68</v>
+        <v>389.27</v>
       </c>
       <c r="C214" t="n">
-        <v>309.21</v>
+        <v>322.35</v>
       </c>
       <c r="D214" t="n">
-        <v>328.9</v>
+        <v>330.86</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -4813,13 +4943,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>378.1</v>
+        <v>387.99</v>
       </c>
       <c r="C215" t="n">
-        <v>336.88</v>
+        <v>325.67</v>
       </c>
       <c r="D215" t="n">
-        <v>340.83</v>
+        <v>332.22</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -4834,13 +4964,13 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>361.45</v>
+        <v>385.04</v>
       </c>
       <c r="C216" t="n">
-        <v>343.31</v>
+        <v>328.19</v>
       </c>
       <c r="D216" t="n">
-        <v>338.96</v>
+        <v>333.06</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -4854,11 +4984,15 @@
           <t>2024-01-06 19:34:42+00:00</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="n">
+        <v>385.04</v>
+      </c>
       <c r="C217" t="n">
-        <v>354.09</v>
-      </c>
-      <c r="D217" t="inlineStr"/>
+        <v>331.43</v>
+      </c>
+      <c r="D217" t="n">
+        <v>333.06</v>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4872,10 +5006,14 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>350.42</v>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+        <v>382.55</v>
+      </c>
+      <c r="C218" t="n">
+        <v>331.43</v>
+      </c>
+      <c r="D218" t="n">
+        <v>337.8</v>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>L7</t>
@@ -4889,13 +5027,13 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>387.6</v>
+        <v>383.06</v>
       </c>
       <c r="C219" t="n">
-        <v>326.36</v>
+        <v>330.87</v>
       </c>
       <c r="D219" t="n">
-        <v>335.35</v>
+        <v>337.49</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -4910,13 +5048,13 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>393.79</v>
+        <v>381.85</v>
       </c>
       <c r="C220" t="n">
-        <v>334.91</v>
+        <v>331.33</v>
       </c>
       <c r="D220" t="n">
-        <v>347.31</v>
+        <v>338.27</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -4931,13 +5069,13 @@
         </is>
       </c>
       <c r="B221" t="n">
-        <v>349.19</v>
+        <v>378.88</v>
       </c>
       <c r="C221" t="n">
-        <v>335.96</v>
+        <v>331.8</v>
       </c>
       <c r="D221" t="n">
-        <v>341.85</v>
+        <v>338.66</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -4952,13 +5090,13 @@
         </is>
       </c>
       <c r="B222" t="n">
-        <v>385.11</v>
+        <v>377.66</v>
       </c>
       <c r="C222" t="n">
-        <v>341.03</v>
+        <v>332.99</v>
       </c>
       <c r="D222" t="n">
-        <v>346.76</v>
+        <v>339.11</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -4973,13 +5111,13 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>377.91</v>
+        <v>377.81</v>
       </c>
       <c r="C223" t="n">
-        <v>335.37</v>
+        <v>333.97</v>
       </c>
       <c r="D223" t="n">
-        <v>347.25</v>
+        <v>340.39</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -4994,13 +5132,13 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>393.15</v>
+        <v>377.04</v>
       </c>
       <c r="C224" t="n">
-        <v>347.63</v>
+        <v>335.21</v>
       </c>
       <c r="D224" t="n">
-        <v>346.88</v>
+        <v>341.04</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5015,13 +5153,13 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>405.99</v>
+        <v>378.04</v>
       </c>
       <c r="C225" t="n">
-        <v>346.98</v>
+        <v>337.43</v>
       </c>
       <c r="D225" t="n">
-        <v>349.52</v>
+        <v>342.36</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -5036,13 +5174,13 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>399.45</v>
+        <v>399.53</v>
       </c>
       <c r="C226" t="n">
-        <v>347.23</v>
+        <v>347.28</v>
       </c>
       <c r="D226" t="n">
-        <v>347.13</v>
+        <v>347.84</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -5057,13 +5195,13 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>419.33</v>
+        <v>408.26</v>
       </c>
       <c r="C227" t="n">
-        <v>346.41</v>
+        <v>346.87</v>
       </c>
       <c r="D227" t="n">
-        <v>347.2</v>
+        <v>347.95</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -5078,13 +5216,13 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>393.98</v>
+        <v>404.69</v>
       </c>
       <c r="C228" t="n">
-        <v>333.88</v>
+        <v>343.62</v>
       </c>
       <c r="D228" t="n">
-        <v>347.24</v>
+        <v>347.77</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -5099,13 +5237,13 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>365.83</v>
+        <v>394.65</v>
       </c>
       <c r="C229" t="n">
-        <v>342.61</v>
+        <v>342.53</v>
       </c>
       <c r="D229" t="n">
-        <v>356.01</v>
+        <v>349.39</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5120,13 +5258,13 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>377.52</v>
+        <v>391.22</v>
       </c>
       <c r="C230" t="n">
-        <v>340.42</v>
+        <v>342.11</v>
       </c>
       <c r="D230" t="n">
-        <v>351.3</v>
+        <v>349.78</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -5141,13 +5279,13 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>368.1</v>
+        <v>387.37</v>
       </c>
       <c r="C231" t="n">
-        <v>350.09</v>
+        <v>343.44</v>
       </c>
       <c r="D231" t="n">
-        <v>348.79</v>
+        <v>349.61</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5162,13 +5300,13 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>417.29</v>
+        <v>391.64</v>
       </c>
       <c r="C232" t="n">
-        <v>362.64</v>
+        <v>346.18</v>
       </c>
       <c r="D232" t="n">
-        <v>365.57</v>
+        <v>351.89</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5183,13 +5321,13 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>394.44</v>
+        <v>391.99</v>
       </c>
       <c r="C233" t="n">
-        <v>343.09</v>
+        <v>345.8</v>
       </c>
       <c r="D233" t="n">
-        <v>354.89</v>
+        <v>352.27</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -5204,13 +5342,13 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>398.62</v>
+        <v>391.89</v>
       </c>
       <c r="C234" t="n">
-        <v>353.34</v>
+        <v>346.56</v>
       </c>
       <c r="D234" t="n">
-        <v>351.23</v>
+        <v>352.78</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -5225,11 +5363,13 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>375.57</v>
-      </c>
-      <c r="C235" t="inlineStr"/>
+        <v>385.34</v>
+      </c>
+      <c r="C235" t="n">
+        <v>348.7</v>
+      </c>
       <c r="D235" t="n">
-        <v>328.44</v>
+        <v>350.89</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -5243,10 +5383,14 @@
           <t>2025-07-17 22:05:28+00:00</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
+      <c r="B236" t="n">
+        <v>389.54</v>
+      </c>
+      <c r="C236" t="n">
+        <v>348.22</v>
+      </c>
       <c r="D236" t="n">
-        <v>333.44</v>
+        <v>342</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -5261,11 +5405,13 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>373.34</v>
-      </c>
-      <c r="C237" t="inlineStr"/>
+        <v>385.49</v>
+      </c>
+      <c r="C237" t="n">
+        <v>348.22</v>
+      </c>
       <c r="D237" t="n">
-        <v>320.33</v>
+        <v>337.67</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -5280,13 +5426,13 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>382.68</v>
+        <v>377.2</v>
       </c>
       <c r="C238" t="n">
         <v>325.29</v>
       </c>
       <c r="D238" t="n">
-        <v>332.19</v>
+        <v>328.6</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -5300,12 +5446,14 @@
           <t>2025-11-06 22:05:55+00:00</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="n">
+        <v>378.01</v>
+      </c>
       <c r="C239" t="n">
-        <v>312.82</v>
+        <v>319.06</v>
       </c>
       <c r="D239" t="n">
-        <v>319.49</v>
+        <v>326.36</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -8405,28 +8553,28 @@
         <v>0.08359999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.06573833501365055</v>
+        <v>-0.242776750437714</v>
       </c>
       <c r="J2" t="n">
         <v>238</v>
       </c>
       <c r="K2" t="n">
-        <v>215</v>
+        <v>238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005577167449813958</v>
+        <v>0.01848535573821253</v>
       </c>
       <c r="M2" t="n">
-        <v>15.85403343808202</v>
+        <v>9.889766576711725</v>
       </c>
       <c r="N2" t="n">
-        <v>405.6491359421456</v>
+        <v>164.213779871923</v>
       </c>
       <c r="O2" t="n">
-        <v>20.14073325234575</v>
+        <v>12.81459245828454</v>
       </c>
       <c r="P2" t="n">
-        <v>381.614499201536</v>
+        <v>383.7583695511926</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -8483,28 +8631,28 @@
         <v>0.0653</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4295292249106263</v>
+        <v>0.3334346524481255</v>
       </c>
       <c r="J3" t="n">
         <v>238</v>
       </c>
       <c r="K3" t="n">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05515134996552984</v>
+        <v>0.08109546960349967</v>
       </c>
       <c r="M3" t="n">
-        <v>10.01985023960198</v>
+        <v>6.39576559054318</v>
       </c>
       <c r="N3" t="n">
-        <v>163.8343584507773</v>
+        <v>66.1030811072457</v>
       </c>
       <c r="O3" t="n">
-        <v>12.79977962508641</v>
+        <v>8.130380133010123</v>
       </c>
       <c r="P3" t="n">
-        <v>323.4214394512042</v>
+        <v>324.5483530699622</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -8561,28 +8709,28 @@
         <v>0.07290000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06802843249346396</v>
+        <v>0.02201330586938811</v>
       </c>
       <c r="J4" t="n">
         <v>238</v>
       </c>
       <c r="K4" t="n">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001980226864377044</v>
+        <v>0.0005652443270283136</v>
       </c>
       <c r="M4" t="n">
-        <v>8.651508729152912</v>
+        <v>5.105540326590863</v>
       </c>
       <c r="N4" t="n">
-        <v>121.8428333260311</v>
+        <v>44.95885171472191</v>
       </c>
       <c r="O4" t="n">
-        <v>11.03824412332102</v>
+        <v>6.70513621895349</v>
       </c>
       <c r="P4" t="n">
-        <v>338.3958488417135</v>
+        <v>338.9507043996377</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -8690,17 +8838,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-36.15191659307665,175.44679168758356</t>
+          <t>-36.15188189539442,175.44680488780955</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-36.152729514266085,175.44742202578436</t>
+          <t>-36.15272994475875,175.4474218620102</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-36.152807325961426,175.4483320258582</t>
+          <t>-36.15282402910137,175.44832567154612</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -8744,17 +8892,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-36.15173182575264,175.44686197948113</t>
+          <t>-36.151689465298965,175.4468780948216</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-36.15261646688784,175.44746503282255</t>
+          <t>-36.15257264272944,175.4474817049793</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-36.1527351752816,175.44835947383731</t>
+          <t>-36.15266801831961,175.4483850220335</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -8771,17 +8919,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.151789253438054,175.44684013203235</t>
+          <t>-36.151760496546515,175.44685107213786</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-36.152658138580925,175.44744917951797</t>
+          <t>-36.152637302734604,175.4474571061722</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-36.15277641654194,175.44834378460442</t>
+          <t>-36.15275575286265,175.44835164559981</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -8798,17 +8946,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-36.15215267504159,175.44670187335123</t>
+          <t>-36.151971007305406,175.4467709864629</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-36.15252063920697,175.4475014888128</t>
+          <t>-36.15258943194555,175.44747531780928</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-36.15264141382958,175.44839514303845</t>
+          <t>-36.15270891518802,175.44836946384194</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -8825,17 +8973,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-36.15190393660214,175.4467965025556</t>
+          <t>-36.151948621705316,175.44677950274993</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-36.15260630725995,175.44746889788203</t>
+          <t>-36.152595028350866,175.44747318875207</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-36.15277891340317,175.44834283473386</t>
+          <t>-36.152732247926934,175.44836058747745</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -8852,15 +9000,19 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-36.15185253581623,175.44681605722312</t>
+          <t>-36.151969715828486,175.44677147778728</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-36.152784100733605,175.44740125920686</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>-36.15263704443898,175.4474572044365</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-36.15271020666805,175.44836897253037</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>L7</t>
@@ -8875,17 +9027,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.15167921957921,175.4468819926353</t>
+          <t>-36.1518118973371,175.44683151751292</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-36.15256041673599,175.44748635614764</t>
+          <t>-36.152650303613974,175.44745216020246</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>-36.15265122907841,175.4483914090762</t>
+          <t>-36.15271502819348,175.44836713830043</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -8902,17 +9054,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.15164796582836,175.44689388259886</t>
+          <t>-36.15172657374528,175.4468639775222</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-36.15252038091133,175.44750158707683</t>
+          <t>-36.15262163280031,175.4474630675377</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-36.1527642766304,175.44834840293967</t>
+          <t>-36.15270779590533,175.44836988964528</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -8956,17 +9108,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-36.151868722328665,175.44680989930694</t>
+          <t>-36.15178701487766,175.4468409836576</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-36.15258478262421,175.4474770865643</t>
+          <t>-36.1525544759363,175.4474886162219</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-36.15263788378392,175.4483964859545</t>
+          <t>-36.15267077347711,175.44838397390316</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -8983,11 +9135,19 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.151622394576975,175.44690361074439</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+          <t>-36.15173217014657,175.44686184846202</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-36.1525544759363,175.4474886162219</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>-36.15267077347711,175.44838397390316</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>L5</t>
@@ -9000,15 +9160,19 @@
           <t>2003-08-30 21:53:59+00:00</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>-36.15173217014657,175.44686184846202</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-36.15259029293099,175.44747499026204</t>
+          <t>-36.15256635753565,175.44748409607303</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>-36.15269901384108,175.4483732305634</t>
+          <t>-36.15268024433097,175.44838037095465</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -9025,11 +9189,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.151543872750445,175.44693348299273</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>-36.151685074276216,175.44687976531333</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-36.15256635753565,175.44748409607303</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>-36.15268024433097,175.44838037095465</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>L7</t>
@@ -9044,17 +9216,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-36.15188671690865,175.44680305353563</t>
+          <t>-36.15172536836653,175.44686443608896</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-36.15258796827033,175.4474758746396</t>
+          <t>-36.15257178174399,175.4474820325264</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>-36.15271201474009,175.44836828469417</t>
+          <t>-36.15268816540868,175.4483773575789</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -9071,17 +9243,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.151769278591324,175.44684773114835</t>
+          <t>-36.15170556571551,175.44687196968394</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-36.152351541641906,175.4475658188582</t>
+          <t>-36.152509962986805,175.4475055503915</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>-36.15266190531386,175.44838734757244</t>
+          <t>-36.1526910066648,175.44837627669398</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -9098,17 +9270,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-36.151957920339264,175.4467759652159</t>
+          <t>-36.151789425635,175.44684006652273</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-36.152355071683,175.447564475922</t>
+          <t>-36.15247121863844,175.44752028998303</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>-36.15261420664812,175.44840549331525</t>
+          <t>-36.15267180666117,175.44838358085428</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -9125,17 +9297,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.151979272757615,175.44676784198654</t>
+          <t>-36.15182739506238,175.44682562164144</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-36.15266235740927,175.44744757453378</t>
+          <t>-36.152489213235974,175.44751344426334</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>-36.15277796631787,175.4483431950296</t>
+          <t>-36.15269152325682,175.44837608016945</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -9152,11 +9324,19 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-36.1518496945667,175.4468171381337</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+          <t>-36.15183109729673,175.44682421318294</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-36.152489213235974,175.44751344426334</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>-36.15269152325682,175.44837608016945</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>L5</t>
@@ -9171,17 +9351,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-36.15187664338783,175.44680688585774</t>
+          <t>-36.15183764078064,175.4468217238141</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-36.15254577998307,175.447491924446</t>
+          <t>-36.152500578244776,175.44750912064939</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>-36.15266612414883,175.44838574262306</t>
+          <t>-36.15268644343527,175.44837801266064</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -9198,17 +9378,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-36.152291637922914,175.44664900653356</t>
+          <t>-36.15194448897909,175.44678107498706</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-36.15267931882095,175.44744112184065</t>
+          <t>-36.152530368343,175.44749778753456</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>-36.152788039861356,175.44833936279278</t>
+          <t>-36.15270340487321,175.44837156010442</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -9225,17 +9405,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.15198349158217,175.44676623699317</t>
+          <t>-36.15195826473312,175.44677583419607</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-36.152612506354956,175.44746653954076</t>
+          <t>-36.15253441497478,175.4474962480646</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>-36.152729492769616,175.44836163560933</t>
+          <t>-36.15270624612929,175.4483704792191</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -9252,17 +9432,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.15193983966207,175.44678284375362</t>
+          <t>-36.15195594007462,175.44677671857966</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-36.15276033753991,175.4474102995499</t>
+          <t>-36.15256670192984,175.44748396505423</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>-36.152864753766146,175.44831017880557</t>
+          <t>-36.15272889007894,175.44836186488817</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -9279,17 +9459,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.15163419007011,175.4468991233514</t>
+          <t>-36.15192020921219,175.446790311877</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-36.15259037902954,175.44747495750732</t>
+          <t>-36.15256962928036,175.44748285139414</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>-36.15271795554819,175.44836602466071</t>
+          <t>-36.152727598598936,175.44836235619994</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -9306,17 +9486,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-36.15170789037455,175.4468710853056</t>
+          <t>-36.15189902898951,175.44679836958517</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-36.15265796638384,175.44744924502754</t>
+          <t>-36.15257944451448,175.4474791173569</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>-36.15280422640965,175.44833320500862</t>
+          <t>-36.15273603626826,175.44835914629607</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -9333,17 +9513,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.151786584385285,175.44684114743168</t>
+          <t>-36.15188878327188,175.44680226741818</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>-36.15260329381097,175.4474700442978</t>
+          <t>-36.1525818552737,175.44747820022477</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-36.15268239679774,175.4483795521026</t>
+          <t>-36.15273069815095,175.44836117705165</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -9360,17 +9540,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>-36.15204272732079,175.44674370155903</t>
+          <t>-36.151912374251815,175.4467932925744</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-36.15259700861736,175.44747243539328</t>
+          <t>-36.15264298523818,175.44745494435782</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-36.15270667662263,175.4483703154486</t>
+          <t>-36.152756183355976,175.44835148182915</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -9387,17 +9567,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.15220398971375,175.4466823513</t>
+          <t>-36.151899803875715,175.44679807479108</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-36.15258943194555,175.44747531780928</t>
+          <t>-36.15263015655581,175.4474598248172</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>-36.1527266515136,175.4483627164952</t>
+          <t>-36.152747487390805,175.44835478999696</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -9414,17 +9594,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>-36.1519304549295,175.4467864140411</t>
+          <t>-36.151934329360394,175.4467849400693</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-36.152533812284936,175.44749647734733</t>
+          <t>-36.15259631982903,175.44747269743112</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>-36.152681191416356,175.44838001065975</t>
+          <t>-36.15272019411355,175.44836517305382</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -9441,17 +9621,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-36.15210807604587,175.4467188404839</t>
+          <t>-36.15201440092877,175.44675447795518</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>-36.15239381603582,175.44754973637097</t>
+          <t>-36.1525434553223,175.44749280882263</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>-36.15262109454223,175.44840287299266</t>
+          <t>-36.15268360217914,175.44837909354544</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -9468,17 +9648,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-36.15231901722442,175.44663859037428</t>
+          <t>-36.152120818616275,175.44671399273352</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-36.152669934080514,175.44744469211278</t>
+          <t>-36.152556800597054,175.44748773184506</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>-36.1527642766304,175.44834840293967</t>
+          <t>-36.152699960926455,175.44837287026832</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -9495,17 +9675,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>-36.152281908799885,175.44665270787155</t>
+          <t>-36.15214768133174,175.4467037731469</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>-36.15262094401199,175.4474633295757</t>
+          <t>-36.152567476816735,175.44748367026185</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>-36.1527924308931,175.44833769233028</t>
+          <t>-36.15271537258813,175.448367007284</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -9522,17 +9702,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.152137349518185,175.4467077037579</t>
+          <t>-36.152163437347205,175.44669777896326</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-36.152544660701956,175.44749235025697</t>
+          <t>-36.15255878086361,175.44748697848698</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>-36.15264373849379,175.44839425867906</t>
+          <t>-36.152704868550586,175.44837100328473</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -9549,17 +9729,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-36.151726918139204,175.4468638465031</t>
+          <t>-36.15210110207147,175.44672149364393</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-36.152373841169656,175.44755733543008</t>
+          <t>-36.15253234860962,175.44749703417693</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>-36.15255402367134,175.44842838836593</t>
+          <t>-36.15268334388311,175.44837919180767</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -9576,17 +9756,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>-36.15170995673815,175.44687029919143</t>
+          <t>-36.15203050134015,175.4467483527704</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-36.152443753199485,175.4475307387075</t>
+          <t>-36.152511512760704,175.44750496080758</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>-36.152623419206485,175.4484019886337</t>
+          <t>-36.152668621010314,175.448384792755</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9603,17 +9783,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-36.15171994416215,175.44686649963924</t>
+          <t>-36.15182352063109,175.4468270956095</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-36.15265615831455,175.44744993287784</t>
+          <t>-36.15250462487667,175.44750758118047</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>-36.15286535645674,175.44830994952602</t>
+          <t>-36.15267163446383,175.44838364636246</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9630,17 +9810,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-36.15184203180272,175.4468200533164</t>
+          <t>-36.1517573109028,175.44685228406527</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>-36.15263678614337,175.44745730270077</t>
+          <t>-36.1525789279232,175.4474793138852</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>-36.15274275196421,175.44835659147415</t>
+          <t>-36.15274387124686,175.44835616567048</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,15 +9837,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.15178512071118,175.44684170426356</t>
+          <t>-36.1517642848796,175.44684963092678</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>-36.15280287021229,175.44739411864245</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>-36.1526348919755,175.4474580233055</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>-36.15274387124686,175.44835616567048</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>L5</t>
@@ -9680,17 +9864,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-36.15188973035503,175.44680190711432</t>
+          <t>-36.151809228284385,175.4468325329128</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>-36.15248421951994,175.44751534403272</t>
+          <t>-36.15264496550458,175.44745419099817</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>-36.1525991393796,175.4484112252695</t>
+          <t>-36.15273577797226,175.44835924455845</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -9707,17 +9891,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.152066060001786,175.4467348249477</t>
+          <t>-36.15186054297401,175.4468130110202</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>-36.152447369338816,175.44752936301379</t>
+          <t>-36.15260544627453,175.4474692254294</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>-36.15257089901282,175.44842196858392</t>
+          <t>-36.15269453671027,175.44837493377625</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -9734,17 +9918,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>-36.15199235972349,175.44676286323107</t>
+          <t>-36.151882498083694,175.44680465852534</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>-36.15256971537892,175.44748281863946</t>
+          <t>-36.152599505475095,175.44747148550607</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>-36.15268739052065,175.44837765236568</t>
+          <t>-36.15269307303287,175.44837549059582</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -9761,17 +9945,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-36.15228165050458,175.44665280613714</t>
+          <t>-36.15193958136668,175.44678294201844</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>-36.152603724303674,175.44746988052412</t>
+          <t>-36.15260010816489,175.44747125622297</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>-36.15272587662559,175.44836301128228</t>
+          <t>-36.152698583347735,175.44837339433386</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -9786,15 +9970,19 @@
           <t>2006-03-31 21:55:42+00:00</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>-36.15193958136668,175.44678294201844</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>-36.152542422139724,175.44749320187887</t>
+          <t>-36.152592875887294,175.44747400762026</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>-36.152710895457396,175.44836871049753</t>
+          <t>-36.152700305321126,175.44837273925194</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -9811,17 +9999,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-36.15193872038204,175.4467832695678</t>
+          <t>-36.151970835108486,175.4467710519728</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>-36.15265805248239,175.44744921227274</t>
+          <t>-36.152593134182936,175.4474739093561</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>-36.15278933134128,175.4483388714803</t>
+          <t>-36.15268945688874,175.4483768662676</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -9838,17 +10026,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-36.15229404867906,175.44664808938774</t>
+          <t>-36.15203540895212,175.44674648573505</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>-36.152685517915515,175.4474387634953</t>
+          <t>-36.15259924717948,175.4474715837703</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>-36.152790708919866,175.44833834741362</t>
+          <t>-36.152696344782335,175.44837424594033</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -9863,15 +10051,19 @@
           <t>2006-06-19 21:55:36+00:00</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>-36.15211453342955,175.4467163838538</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>-36.15266158252242,175.4474478693268</t>
+          <t>-36.15259545884359,175.44747302497842</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>-36.15277546945665,175.44834414490012</t>
+          <t>-36.15272148559356,175.44836468174213</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -9888,17 +10080,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.15197436514537,175.44676970901946</t>
+          <t>-36.15209120074969,175.44672526047535</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>-36.152601830135744,175.4474706011283</t>
+          <t>-36.15259631982903,175.44747269743112</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>-36.15270917348401,175.44836936557962</t>
+          <t>-36.152719935817544,175.44836527131613</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -9915,17 +10107,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.151671815109395,175.44688480954204</t>
+          <t>-36.152031276226246,175.44674805797538</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>-36.15257083466,175.44748239282822</t>
+          <t>-36.152593478577096,175.44747377833718</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>-36.15274232147088,175.44835675524482</t>
+          <t>-36.1527224326789,175.4483643214469</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -9942,17 +10134,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-36.15182085157841,175.44682811100967</t>
+          <t>-36.151996234154126,175.4467613892571</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>-36.15262697090982,175.4474610367431</t>
+          <t>-36.15261336734036,175.44746621199334</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>-36.1526258299694,175.4484010715206</t>
+          <t>-36.152728545684276,175.44836199590463</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -9969,17 +10161,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-36.15165364832859,175.44689172078796</t>
+          <t>-36.151892227210595,175.44680095722234</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>-36.15248275584455,175.44751590086165</t>
+          <t>-36.152603724303674,175.44746988052412</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>-36.152679297245584,175.44838073124953</t>
+          <t>-36.15272785689493,175.4483622579376</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -9996,17 +10188,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-36.15173285893443,175.44686158642384</t>
+          <t>-36.15177074226545,175.4468471743167</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>-36.152574192503245,175.44748111539448</t>
+          <t>-36.152586332397995,175.44747649697933</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>-36.15268067482432,175.44838020718424</t>
+          <t>-36.15270211339318,175.44837205141587</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10023,17 +10215,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>-36.151861145663304,175.44681278173607</t>
+          <t>-36.15174921764572,175.44685536301552</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>-36.15246725810497,175.44752179669607</t>
+          <t>-36.1525080688187,175.4475062709941</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>-36.152672323253206,175.44838338432982</t>
+          <t>-36.152677403074826,175.4483814518393</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -10077,17 +10269,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-36.15194698583452,175.44678012509382</t>
+          <t>-36.151904883685255,175.4467961422516</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>-36.152561536017096,175.4474859303365</t>
+          <t>-36.15259692251882,175.44747246814802</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>-36.152702285590514,175.4483719859077</t>
+          <t>-36.152714942094796,175.44836717105454</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10104,11 +10296,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-36.15205882773171,175.44673757637017</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+          <t>-36.15195619837002,175.44677662031484</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-36.15259692251882,175.44747246814802</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-36.152714942094796,175.44836717105454</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10123,7 +10323,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>-36.151771689348706,175.44684681401384</t>
+          <t>-36.151915301599665,175.44679217890732</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10150,17 +10350,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>-36.15180931438286,175.44683250015797</t>
+          <t>-36.15187991512964,175.44680564117203</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>-36.152707903534434,175.44743024724534</t>
+          <t>-36.15266425157708,175.4474468539286</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>-36.152755236270664,175.44835184212468</t>
+          <t>-36.15275084523876,175.44835351258567</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -10177,17 +10377,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-36.15179364446034,175.44683846153657</t>
+          <t>-36.151801479421636,175.44683548084754</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>-36.152573589813436,175.44748134467747</t>
+          <t>-36.152640746676184,175.44745579598168</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>-36.15273457259093,175.44835970311615</t>
+          <t>-36.152744904430854,175.44835577262089</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -10204,17 +10404,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-36.15186295373118,175.4468120938837</t>
+          <t>-36.151821970858556,175.44682768519672</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>-36.15255094589588,175.44748995916444</t>
+          <t>-36.15261078438412,175.44746719463558</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>-36.15268764881665,175.44837755410344</t>
+          <t>-36.15272579052693,175.4483630440364</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -10231,17 +10431,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.15192253387075,175.44678942749417</t>
+          <t>-36.15185968198929,175.44681333856892</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>-36.152601830135744,175.4474706011283</t>
+          <t>-36.152575483981416,175.44748062407376</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>-36.1527092595827,175.44836933282554</t>
+          <t>-36.15271046496405,175.44836887426806</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -10258,17 +10458,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-36.15192408364311,175.4467888379056</t>
+          <t>-36.151875782403145,175.44680721340657</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>-36.15268172957997,175.4474402047064</t>
+          <t>-36.152602002332834,175.4474705356188</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>-36.15286277349707,175.4483109321527</t>
+          <t>-36.152748606673455,175.4483543641932</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -10285,17 +10485,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-36.15189308819527,175.44680062967333</t>
+          <t>-36.151900664860385,175.44679774724202</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-36.15268482912724,175.4474390255337</t>
+          <t>-36.15262981216165,175.4474599558362</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-36.15276091878251,175.44834968035136</t>
+          <t>-36.15275515017199,175.44835187487882</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -10312,17 +10512,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>-36.15189239940752,175.4468008917125</t>
+          <t>-36.1518927438014,175.44680076069292</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>-36.15255456203485,175.44748858346722</t>
+          <t>-36.152619652533865,175.4474638208969</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>-36.15265277885454,175.44839081950315</t>
+          <t>-36.152706848819975,175.4483702499404</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -10339,17 +10539,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-36.151695319995916,175.4468758674991</t>
+          <t>-36.15182696457002,175.44682578541568</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-36.15237814609774,175.44755569770211</t>
+          <t>-36.152539150394915,175.44749444655696</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-36.15260439139893,175.44840922727425</t>
+          <t>-36.152672667647884,175.44838325331355</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -10366,17 +10566,17 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-36.15206175507913,175.44673646269922</t>
+          <t>-36.15188318687145,175.44680439648621</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>-36.15263566686236,175.44745772851266</t>
+          <t>-36.152522791670705,175.447500669946</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>-36.15282213493088,175.44832639213834</t>
+          <t>-36.15269307303287,175.44837549059582</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -10391,15 +10591,19 @@
           <t>2010-02-14 21:56:32+00:00</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>-36.15188318687145,175.44680439648621</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>-36.15257625886833,175.44748032928138</t>
+          <t>-36.15253613694574,175.44749559297094</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>-36.15272699590826,175.44836258547875</t>
+          <t>-36.152701596801165,175.44837224794048</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -10416,17 +10620,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.151899976072656,175.44679800928125</t>
+          <t>-36.15188731959793,175.4468028242514</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>-36.15258814046741,175.44747580913014</t>
+          <t>-36.15254655487,175.44749162965377</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>-36.152610934898405,175.44840673796836</t>
+          <t>-36.1526834299818,175.44837915905362</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -10443,17 +10647,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.15214811182397,175.4467036093714</t>
+          <t>-36.151939495268216,175.44678297477338</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-36.1527386407104,175.44741855377168</t>
+          <t>-36.15257858352903,175.44747944490405</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-36.152837116097416,175.44832069290808</t>
+          <t>-36.152709087385354,175.44836939833374</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -10468,15 +10672,19 @@
           <t>2010-05-29 21:57:45+00:00</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-36.151939495268216,175.44678297477338</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-36.152631534132446,175.44745930074106</t>
+          <t>-36.152586160200904,175.4474765624888</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-36.15277805241654,175.44834316227542</t>
+          <t>-36.15271890263353,175.4483656643655</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -10493,11 +10701,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-36.152064510229614,175.44673541453824</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
+          <t>-36.152043588305354,175.44674337400892</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>-36.1526340309901,175.44745835085308</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>-36.152755064073325,175.44835190763294</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>L7</t>
@@ -10512,17 +10728,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-36.15217902116554,175.44669185028764</t>
+          <t>-36.15213054774087,175.44671029140963</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>-36.152591584409144,175.44747449894115</t>
+          <t>-36.152653919752574,175.447450784502</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>-36.15273345330828,175.44836012891977</t>
+          <t>-36.152782873941646,175.44834132804255</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -10539,17 +10755,17 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-36.151899976072656,175.44679800928125</t>
+          <t>-36.15204780712961,175.44674176901307</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-36.15251504280125,175.4475036178663</t>
+          <t>-36.15255335665521,175.44748904203297</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-36.1525584147041,175.44842671791267</t>
+          <t>-36.152645977059315,175.44839340707367</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -10566,17 +10782,17 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.151965497003886,175.44677308278014</t>
+          <t>-36.15201483142106,175.44675431418023</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>-36.15261672518348,175.4474649345583</t>
+          <t>-36.152574450798895,175.44748101713034</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>-36.15273741384692,175.44835862223007</t>
+          <t>-36.152676455989436,175.44838181213416</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -10593,17 +10809,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.151866742063845,175.44681065266914</t>
+          <t>-36.15197780908379,175.44676839882095</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>-36.15261801666159,175.44746444323712</t>
+          <t>-36.152585385314005,175.44747685728126</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>-36.15276203806515,175.44834925454745</t>
+          <t>-36.15269780845972,175.4483736891207</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -10620,17 +10836,17 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.15172950109365,175.44686286386</t>
+          <t>-36.151865450586804,175.4468111439923</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>-36.152730633546994,175.44742159997153</t>
+          <t>-36.152620083026584,175.44746365712317</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>-36.15278562909883,175.44834027990936</t>
+          <t>-36.152710895457396,175.44836871049753</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -10647,17 +10863,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.15177883552236,175.44684409536484</t>
+          <t>-36.15179166419539,175.44683921489744</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>-36.152656761004316,175.4474497035944</t>
+          <t>-36.15266847040539,175.44744524894418</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>-36.15273422819627,175.44835983413265</t>
+          <t>-36.15276066048653,175.44834977861376</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -10674,17 +10890,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-36.15210170476062,175.4467212643585</t>
+          <t>-36.1518700138057,175.44680940798372</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>-36.15280795002526,175.44739218610385</t>
+          <t>-36.15273175282791,175.44742117415868</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>-36.15289979591825,175.44829684783082</t>
+          <t>-36.15280655107349,175.44833232064585</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -10701,17 +10917,17 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.15188516713622,175.4468036431237</t>
+          <t>-36.151873802138354,175.44680796676892</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>-36.15259683642027,175.44747250090273</t>
+          <t>-36.152698088301584,175.44743398129395</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>-36.152699186038426,175.4483731650552</t>
+          <t>-36.152779688291126,175.44834253994645</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -10728,17 +10944,17 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>-36.15230102265213,175.44664543621556</t>
+          <t>-36.15201663948865,175.44675362632535</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>-36.15264806505197,175.4474530118265</t>
+          <t>-36.15267742465317,175.4474418424461</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>-36.152800007575294,175.44833480996323</t>
+          <t>-36.15278330443495,175.44834116427174</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -10755,17 +10971,17 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.152041780237795,175.44674406186422</t>
+          <t>-36.15202171929761,175.44675169378058</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>-36.15256127772145,175.44748602860062</t>
+          <t>-36.15265417804819,175.44745068623766</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>-36.152595695432474,175.44841253543018</t>
+          <t>-36.15274576541751,175.44835544507959</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -10782,17 +10998,17 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>-36.151983922074464,175.44676607321833</t>
+          <t>-36.15210893703038,175.44671851293322</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>-36.15264410451919,175.44745451854584</t>
+          <t>-36.15261784446452,175.4474645087466</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>-36.152643049704395,175.44839452071147</t>
+          <t>-36.1526795555416,175.44838063298732</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -10807,11 +11023,19 @@
           <t>2012-08-06 22:00:40+00:00</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>-36.151983922074464,175.44676607321833</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>-36.15264410451919,175.44745451854584</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>-36.152727168105606,175.44836251997052</t>
+          <t>-36.152685151955204,175.44837850397192</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -10828,17 +11052,17 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-36.15196730507157,175.44677239492609</t>
+          <t>-36.15197557052381,175.44676925045</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>-36.15266433767561,175.4474468211738</t>
+          <t>-36.15265417804819,175.44745068623766</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>-36.15277150891815,175.44834565159115</t>
+          <t>-36.15271390891079,175.44836756410382</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -10855,17 +11079,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-36.151902645125126,175.4467969938792</t>
+          <t>-36.151934932049635,175.44678471078478</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>-36.15262369916528,175.4474622814237</t>
+          <t>-36.15264401842066,175.4474545513006</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>-36.152758508019915,175.44835059746734</t>
+          <t>-36.152752395014716,175.4483529230112</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -10882,17 +11106,17 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-36.15169686976862,175.44687527791368</t>
+          <t>-36.15185563536119,175.44681487804783</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>-36.15261724177472,175.44746473802982</t>
+          <t>-36.15263506417258,175.44745795779596</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>-36.15279415286633,175.44833703724692</t>
+          <t>-36.15276281295313,175.44834895976018</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -10909,17 +11133,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-36.15177582207564,175.44684524178317</t>
+          <t>-36.15183566051577,175.44682247717577</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>-36.15243867338467,175.44753267122948</t>
+          <t>-36.15258598800383,175.44747662799824</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>-36.15264038064548,175.44839553608708</t>
+          <t>-36.152741116089565,175.4483572138026</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -10934,15 +11158,19 @@
           <t>2013-05-29 22:07:41+00:00</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>-36.15173638897214,175.44686024347803</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>-36.152682160072644,175.4474400409324</t>
+          <t>-36.15257935841592,175.4474791501116</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>-36.152815591432784,175.44832888145666</t>
+          <t>-36.15275007035076,175.4483538073729</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -10959,17 +11187,17 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-36.151825673092915,175.4468262767384</t>
+          <t>-36.15176609294763,175.446848943076</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>-36.15266235740927,175.44744757453378</t>
+          <t>-36.15260010816489,175.44747125622297</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>-36.15279286138641,175.44833752855945</t>
+          <t>-36.15276074658518,175.44834974585962</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -10986,17 +11214,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.15195309882538,175.4467777994929</t>
+          <t>-36.151851502634585,175.44681645028152</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>-36.1527137582347,175.44742801991768</t>
+          <t>-36.15262421575653,175.4474620848952</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>-36.152800782463224,175.44833451517567</t>
+          <t>-36.152762382459805,175.44834912353087</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -11013,17 +11241,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.1517646292735,175.4468494999076</t>
+          <t>-36.15184780040032,175.4468178587407</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>-36.15257160954691,175.4474820980358</t>
+          <t>-36.15265744979263,175.4474494415562</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>-36.15277615824596,175.44834388286685</t>
+          <t>-36.15279639143152,175.44833618563848</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -11040,17 +11268,17 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>-36.15223507125048,175.44667052669035</t>
+          <t>-36.15194457507756,175.44678104223212</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>-36.15259847229258,175.44747187856288</t>
+          <t>-36.15264565429289,175.44745392896004</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>-36.152746970798816,175.44835498652174</t>
+          <t>-36.15278649008545,175.44833995236775</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -11067,17 +11295,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-36.15219236642414,175.44668677324321</t>
+          <t>-36.15203626993667,175.44674615818494</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>-36.152600194263435,175.44747122346823</t>
+          <t>-36.152621030110524,175.44746329682093</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>-36.1527364667616,175.44835898252546</t>
+          <t>-36.15276513761705,175.4483480753982</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -11094,17 +11322,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.151862523238826,175.44681225765808</t>
+          <t>-36.15200157225857,175.44675935844833</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>-36.15246002582643,175.44752454808474</t>
+          <t>-36.152588829255755,175.44747554709238</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>-36.15258932413027,175.44841495922714</t>
+          <t>-36.152729923262946,175.44836147183872</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -11121,17 +11349,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.151779954802564,175.44684366955232</t>
+          <t>-36.15196687457927,175.44677255870084</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>-36.15267019237612,175.44744459384845</t>
+          <t>-36.15258013330281,175.44747885531913</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>-36.15274963985743,175.44835397114358</t>
+          <t>-36.15271967752154,175.44836536957848</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -11148,17 +11376,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.15182679237307,175.44682585092536</t>
+          <t>-36.151943541896,175.44678143529137</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>-36.152660635438515,175.4474482296294</t>
+          <t>-36.152593564675634,175.44747374558247</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>-36.15273448649228,175.44835973587027</t>
+          <t>-36.1527221743829,175.44836441970924</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -11175,17 +11403,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.15178021309799,175.4468435712879</t>
+          <t>-36.15194612484989,175.44678045264322</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>-36.152612506354956,175.44746653954076</t>
+          <t>-36.152600366460526,175.44747115795877</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>-36.15267878065357,175.44838092777402</t>
+          <t>-36.15270590173461,175.44837061023551</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -11200,15 +11428,19 @@
           <t>2014-05-08 22:02:53+00:00</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr"/>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>-36.151888352779544,175.44680243119262</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>-36.15264556819435,175.44745396171479</t>
+          <t>-36.15260820142787,175.44746817727778</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>-36.15267352863461,175.44838292577276</t>
+          <t>-36.15269367572356,175.44837526131718</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -11225,17 +11457,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-36.15174611810045,175.44685654218782</t>
+          <t>-36.15186467570058,175.44681143878617</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>-36.1524902464186,175.44751305120755</t>
+          <t>-36.15259132611352,175.44747459720534</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>-36.15264993759831,175.4483919003871</t>
+          <t>-36.15268747661932,175.4483776196116</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -11252,17 +11484,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>-36.152085862645734,175.44672729128845</t>
+          <t>-36.151896273838574,175.44679941774206</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>-36.152624301855084,175.44746205214042</t>
+          <t>-36.15259545884359,175.44747302497842</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>-36.15259311247212,175.44841351805061</t>
+          <t>-36.15267568110139,175.44838210692086</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -11279,17 +11511,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.151972901471545,175.4467702658538</t>
+          <t>-36.15186527838988,175.44681120950204</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>-36.15282207018324,175.44738681430036</t>
+          <t>-36.152646515278285,175.44745360141235</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>-36.15283789098534,175.44832039812025</t>
+          <t>-36.15270245778786,175.4483719203995</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -11306,17 +11538,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>-36.1516679406775,175.4468862835047</t>
+          <t>-36.151850641649865,175.44681677783018</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>-36.152643587927955,175.44745471507446</t>
+          <t>-36.1526397134937,175.44745618903886</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>-36.15277831071252,175.44834306401296</t>
+          <t>-36.15270194119584,175.44837211692408</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -11333,17 +11565,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.15174715128221,175.44685614913038</t>
+          <t>-36.15184401206757,175.44681929995463</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>-36.152497134302735,175.44751043083554</t>
+          <t>-36.152615433705364,175.44746542587947</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>-36.15263030710052,175.4483993683105</t>
+          <t>-36.15269789455837,175.4483736563666</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -11360,11 +11592,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.151934329360394,175.4467849400693</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+          <t>-36.151881637099024,175.44680498607426</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>-36.152646773573885,175.44745350314804</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>-36.152709948372035,175.44836907079267</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11379,17 +11619,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.15176170192522,175.44685061357072</t>
+          <t>-36.15186166225411,175.44681258520683</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>-36.15244986619693,175.44752841312993</t>
+          <t>-36.15260742654099,175.44746847207043</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>-36.15262712144954,175.44840058021003</t>
+          <t>-36.15269333132888,175.44837539233356</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -11406,11 +11646,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-36.151968079957726,175.44677210013145</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
+          <t>-36.151876815584764,175.44680682034794</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>-36.15260742654099,175.44746847207043</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>-36.15269333132888,175.44837539233356</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11425,17 +11673,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-36.151937342806626,175.44678379364672</t>
+          <t>-36.15183609100813,175.4468223134015</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>-36.15252270557216,175.44750070270067</t>
+          <t>-36.152528301977846,175.4474985736468</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>-36.15265045419036,175.44839170386274</t>
+          <t>-36.15267154836516,175.44838367911652</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -11452,17 +11700,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-36.15198194180988,175.44676682658258</t>
+          <t>-36.15185692683824,175.4468143867248</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>-36.15281148006479,175.44739084315316</t>
+          <t>-36.15258495482129,175.44747702105485</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>-36.1529652308919,175.4482719545806</t>
+          <t>-36.15273026765761,175.44836134082223</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -11479,17 +11727,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.15228388906387,175.44665195450196</t>
+          <t>-36.151910307888635,175.4467940786923</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>-36.15267708025903,175.44744197346526</t>
+          <t>-36.15260028036197,175.4474711907135</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>-36.15281533313679,175.4483289797192</t>
+          <t>-36.152744473937524,175.44835593639155</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -11506,17 +11754,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>-36.15235672833659,175.4466242435778</t>
+          <t>-36.15199640635105,175.44676132374715</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>-36.15269688292212,175.44743443986127</t>
+          <t>-36.152609234610374,175.44746778422092</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>-36.15271545868681,175.4483669745299</t>
+          <t>-36.152733969900275,175.44835993239502</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -11533,17 +11781,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-36.15202258028217,175.4467513662306</t>
+          <t>-36.15204462148679,175.4467429809487</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>-36.1526497009242,175.44745238948587</t>
+          <t>-36.15263463367988,175.44745812156978</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>-36.15278494030952,175.44834054194266</t>
+          <t>-36.15275971340122,175.44835013890935</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -11560,17 +11808,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-36.15178357093859,175.4468422938502</t>
+          <t>-36.15206098019304,175.44673675749448</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>-36.15263179242807,175.4474592024768</t>
+          <t>-36.15266494036537,175.44744659189033</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>-36.15271080935872,175.44836874325165</t>
+          <t>-36.152773661384735,175.44834483273735</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -11587,17 +11835,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>-36.15194491947142,175.44678091121236</t>
+          <t>-36.15204444928988,175.44674304645875</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>-36.15272822278812,175.44742251710684</t>
+          <t>-36.152673980711725,175.44744315263773</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>-36.15284787842957,175.4483165986322</t>
+          <t>-36.1527843376189,175.44834077122178</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -11614,17 +11862,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-36.15187440482764,175.44680773748473</t>
+          <t>-36.15202318297136,175.4467511369456</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>-36.152606737752656,175.44746873410836</t>
+          <t>-36.152665543055136,175.44744636260685</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>-36.15274507662817,175.44835570711263</t>
+          <t>-36.152779429995135,175.4483426382089</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -11641,17 +11889,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.151720977343935,175.44686610658206</t>
+          <t>-36.15199812832022,175.44676066864756</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>-36.152548190742394,175.44749100731465</t>
+          <t>-36.15264840944613,175.44745288080742</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>-36.15269772236104,175.44837372187482</t>
+          <t>-36.15275962730255,175.4483501716635</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -11668,17 +11916,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-36.151865450586804,175.4468111439923</t>
+          <t>-36.151938375988195,175.44678340058752</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>-36.15257066246291,175.44748245833765</t>
+          <t>-36.152633170004705,175.4474586784007</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>-36.15269436451292,175.44837499928445</t>
+          <t>-36.15274232147088,175.44835675524482</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -11695,17 +11943,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-36.151851330437644,175.44681651579126</t>
+          <t>-36.15186613937457,175.4468108819533</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>-36.15255835037089,175.44748714226048</t>
+          <t>-36.15261336734036,175.44746621199334</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>-36.15258544968971,175.44841643315755</t>
+          <t>-36.15272372415891,175.44836383013518</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -11722,17 +11970,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>-36.15224876090209,175.44666531861853</t>
+          <t>-36.151917626258225,175.44679129452456</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>-36.152695763641155,175.44743486567376</t>
+          <t>-36.15261801666159,175.44746444323712</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>-36.15278640398679,175.4483399851219</t>
+          <t>-36.15272613492159,175.44836291301993</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -11749,15 +11997,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.152039541677965,175.44674491349454</t>
+          <t>-36.151945177766805,175.44678081294757</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>-36.15264212425279,175.44745527190545</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>-36.15260303551535,175.447470142562</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>-36.1526910066648,175.44837627669398</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>L7</t>
@@ -11772,17 +12024,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.15193785939741,175.4467835971171</t>
+          <t>-36.152019394639275,175.4467525781655</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>-36.15258090818973,175.4474785605267</t>
+          <t>-36.15261930813972,175.44746395191592</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>-36.15277030353686,175.4483461101493</t>
+          <t>-36.15271408110812,175.44836749859562</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -11799,17 +12051,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.15176419878111,175.44684966368158</t>
+          <t>-36.15196833825311,175.44677200186658</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>-36.152498942372304,175.44750974298782</t>
+          <t>-36.15259520054796,175.44747312324262</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>-36.152644771677885,175.44839386563044</t>
+          <t>-36.15269668917699,175.44837411492392</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -11826,17 +12078,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>-36.15185546316425,175.4468149435576</t>
+          <t>-36.15194956878842,175.4467791424456</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>-36.152521586291016,175.44750112851142</t>
+          <t>-36.15258297455479,175.44747777441344</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>-36.15271916092953,175.44836556610315</t>
+          <t>-36.15270125240648,175.44837237895686</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -11853,17 +12105,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-36.15217488844024,175.44669342253331</t>
+          <t>-36.15200346642466,175.44675863783868</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>-36.152798651384536,175.44739572363198</t>
+          <t>-36.15262301037696,175.4474625434617</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>-36.15289273582874,175.4482995336792</t>
+          <t>-36.15276264075578,175.44834902526844</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -11880,17 +12132,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-36.15188301467451,175.44680446199598</t>
+          <t>-36.151986246732875,175.44676518883415</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>-36.15273115013819,175.44742140344252</t>
+          <t>-36.15263842201561,175.44745668036032</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>-36.152836082913524,175.44832108595853</t>
+          <t>-36.15277495286467,175.44834434142504</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -11907,17 +12159,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-36.15190996349476,175.44679420971195</t>
+          <t>-36.15193785939741,175.4467835971171</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>-36.15266692063172,175.44744583853029</t>
+          <t>-36.152634289285714,175.4474582525888</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>-36.15276332954512,175.4483487632353</t>
+          <t>-36.152771078424834,175.4483458153619</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -11934,17 +12186,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-36.15225108555991,175.44666443422878</t>
+          <t>-36.151968079957726,175.44677210013145</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>-36.15266752332148,175.4474456092468</t>
+          <t>-36.152637991522916,175.4474568441341</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>-36.152690145678086,175.44837660423488</t>
+          <t>-36.152759541203885,175.44835020441764</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -11961,17 +12213,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-36.1519749678346,175.4467694797347</t>
+          <t>-36.151968940942346,175.4467717725819</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>-36.15272124880703,175.447425170248</t>
+          <t>-36.15264832334758,175.4474529135622</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>-36.15276677349166,175.4483474530694</t>
+          <t>-36.15276040219054,175.4483498768762</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -11988,17 +12240,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-36.151722182722686,175.44686564801535</t>
+          <t>-36.15194147553289,175.44678222140988</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>-36.15263652784774,175.44745740096508</t>
+          <t>-36.15264703186951,175.44745340488373</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>-36.15273810263625,175.44835836019706</t>
+          <t>-36.15275790532927,175.44835082674632</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -12015,17 +12267,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.152064940721885,175.44673525076308</t>
+          <t>-36.151979531053,175.44676774372167</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>-36.1526772524561,175.4474419079557</t>
+          <t>-36.15267759685024,175.44744177693653</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>-36.152740255102906,175.44835754134388</t>
+          <t>-36.1527683232676,175.44834686349475</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -12042,17 +12294,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-36.151825673092915,175.4468262767384</t>
+          <t>-36.1519758288192,175.4467691521851</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>-36.15251745356065,175.4475027007356</t>
+          <t>-36.15267708025903,175.44744197346526</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>-36.15259466224833,175.44841292847835</t>
+          <t>-36.15275273940938,175.44835279199467</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -12069,17 +12321,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-36.15207174249965,175.4467326631154</t>
+          <t>-36.15197436514537,175.44676970901946</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>-36.152445561269154,175.44753005086065</t>
+          <t>-36.15261896374555,175.44746408293489</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>-36.152597159109995,175.4484119786119</t>
+          <t>-36.15269866944641,175.44837336157977</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -12096,17 +12348,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>-36.15181585786691,175.44683001079042</t>
+          <t>-36.151954562499235,175.4467772426588</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>-36.152358515625544,175.44756316574023</t>
+          <t>-36.152586332397995,175.44747649697933</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>-36.15255643443442,175.44842747125435</t>
+          <t>-36.15268084702167,175.4483801416761</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -12123,17 +12375,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>-36.15194681363761,175.4467801906037</t>
+          <t>-36.151959125717724,175.4467755066466</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>-36.15235240262753,175.4475654913128</t>
+          <t>-36.15254707146128,175.44749143312563</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>-36.15251140482295,175.4484446015795</t>
+          <t>-36.152649334907586,175.4483921296655</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -12150,17 +12402,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-36.15187466312305,175.44680763922005</t>
+          <t>-36.151903161715914,175.44679679734975</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>-36.15250126703319,175.44750885861214</t>
+          <t>-36.15249842578101,175.44750993951573</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>-36.15270745151065,175.44837002066168</t>
+          <t>-36.15263504252766,175.44839756683805</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -12177,17 +12429,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>-36.15194655534221,175.44678028886852</t>
+          <t>-36.15193114371721,175.4467861520017</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>-36.15257066246291,175.44748245833765</t>
+          <t>-36.15244564736771,175.44753001810605</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>-36.152772972595415,175.4483450947706</t>
+          <t>-36.152629101719086,175.44839982686707</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -12231,17 +12483,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.15183789907607,175.44682162554955</t>
+          <t>-36.15195378761308,175.44677753745333</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>-36.152560588933085,175.44748629063824</t>
+          <t>-36.152592961985846,175.44747397486555</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>-36.1527173528575,175.4483662539395</t>
+          <t>-36.15274275196421,175.44835659147415</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -12256,15 +12508,19 @@
           <t>2018-02-04 22:05:29+00:00</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>-36.15195378761308,175.44677753745333</t>
+        </is>
+      </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>-36.15256403287492,175.4474849804501</t>
+          <t>-36.152583318948956,175.44747764339456</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>-36.15278649008545,175.44833995236775</t>
+          <t>-36.15275738873728,175.4483510232712</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -12281,11 +12537,19 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-36.15176505976589,175.4468493361336</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
-      <c r="D140" t="inlineStr"/>
+          <t>-36.151890849635116,175.44680148130067</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>-36.152583318948956,175.44747764339456</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>-36.15275738873728,175.4483510232712</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12300,17 +12564,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.151982200105266,175.4467667283177</t>
+          <t>-36.15187362994142,175.44680803227868</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>-36.15259941937656,175.4474715182608</t>
+          <t>-36.15258168307661,175.44747826573422</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>-36.15274507662817,175.44835570711263</t>
+          <t>-36.152765740307686,175.44834784611916</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -12325,15 +12589,19 @@
           <t>2018-08-15 22:05:04+00:00</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>-36.15187362994142,175.44680803227868</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.15260932070892,175.44746775146618</t>
+          <t>-36.152604326993476,175.447469651241</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>-36.15272630711892,175.44836284751167</t>
+          <t>-36.1527356918736,175.44835927731256</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -12350,17 +12618,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.151779954802564,175.44684366955232</t>
+          <t>-36.151881034409755,175.44680521535847</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>-36.15251435401285,175.44750387990362</t>
+          <t>-36.15257436470035,175.44748104988506</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>-36.15269651697967,175.44837418043213</t>
+          <t>-36.15272260487623,175.44836425593866</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -12377,17 +12645,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.15191280474414,175.44679312879984</t>
+          <t>-36.15189162452132,175.4468011865066</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>-36.15253949478911,175.44749431553825</t>
+          <t>-36.15256566874728,175.4474843581107</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-36.15272906227628,175.4483617993799</t>
+          <t>-36.15272424075091,175.44836363361048</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -12404,17 +12672,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.151808281201156,175.44683289321594</t>
+          <t>-36.15187078869194,175.4468091131898</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>-36.15249136569977,175.44751262539714</t>
+          <t>-36.152550773698806,175.44749002467384</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>-36.15264546046728,175.448393603598</t>
+          <t>-36.152708484694685,175.44836962761246</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -12431,17 +12699,17 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>-36.151774530598466,175.44684573310525</t>
+          <t>-36.15185158873307,175.44681641752663</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>-36.15246880787894,175.44752120711274</t>
+          <t>-36.15253717012832,175.44749519991473</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>-36.152670342983754,175.44838413767354</t>
+          <t>-36.15270211339318,175.44837205141587</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -12458,17 +12726,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.151850469452924,175.44681684333992</t>
+          <t>-36.15182524260055,175.4468264405126</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>-36.152456840179894,175.4475257600058</t>
+          <t>-36.152513406928804,175.44750424020495</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>-36.15267189275984,175.4483835481002</t>
+          <t>-36.152689887382074,175.44837670249714</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -12485,17 +12753,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.15186062907247,175.4468129782653</t>
+          <t>-36.15183109729673,175.44682421318294</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>-36.1524356599352,175.4475338176407</t>
+          <t>-36.15248439171704,175.44751527852344</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>-36.15261377615472,175.4484056570854</t>
+          <t>-36.15267120397048,175.44838381013278</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -12512,11 +12780,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.151968596548485,175.44677190360173</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr"/>
+          <t>-36.151862523238826,175.44681225765808</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>-36.15247845091691,175.44751753859367</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>-36.15266612414883,175.44838574262306</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12531,17 +12807,17 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-36.15204419099454,175.4467431447238</t>
+          <t>-36.151884478348485,175.44680390516285</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>-36.15236066808961,175.4475623468766</t>
+          <t>-36.152442633918255,175.44753116451747</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>-36.15261127929311,175.44840660695226</t>
+          <t>-36.152642533112356,175.4483947172358</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -12558,17 +12834,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.15187776266793,175.4468064600442</t>
+          <t>-36.151896015543166,175.44679951600673</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>-36.1522720726644,175.44759605127027</t>
+          <t>-36.1523988097523,175.44754783660565</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>-36.152398098946556,175.44848770572034</t>
+          <t>-36.15259311247212,175.44841351805061</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -12585,17 +12861,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-36.15180389017893,175.44683456371232</t>
+          <t>-36.15188284247758,175.44680452750578</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>-36.15249446524763,175.44751144622975</t>
+          <t>-36.152414737985715,175.4475417770078</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>-36.15265768647891,175.4483889525216</t>
+          <t>-36.152603874806864,175.44840942379838</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -12612,17 +12888,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.151786928779195,175.44684101641244</t>
+          <t>-36.15188465054542,175.44680383965306</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>-36.15255903915925,175.44748688022287</t>
+          <t>-36.15242980523332,175.44753604495372</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>-36.15271718066017,175.4483663194477</t>
+          <t>-36.15261162368783,175.44840647593614</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -12639,15 +12915,19 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>-36.15187526581233,175.4468074099359</t>
+          <t>-36.1518927438014,175.44680076069292</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>-36.15250781052304,175.44750636925806</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>-36.152438845581784,175.44753260572026</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>-36.15259603982719,175.4484124044141</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>L8</t>
@@ -12662,17 +12942,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-36.1519458665545,175.44678055090804</t>
+          <t>-36.1518529663086,175.4468158934488</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>-36.152521414093926,175.4475011940208</t>
+          <t>-36.15252063920697,175.4475014888128</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>-36.15269660307833,175.44837414767804</t>
+          <t>-36.15269049007277,175.4483764732185</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -12689,17 +12969,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.15169153166259,175.44687730870783</t>
+          <t>-36.15182067938146,175.44682817651935</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>-36.152397001682544,175.44754852445175</t>
+          <t>-36.152495928923,175.44751088940066</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>-36.152571759999624,175.44842164104395</t>
+          <t>-36.152660786031134,175.4483877733753</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -12716,17 +12996,17 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.15191797065209,175.44679116350488</t>
+          <t>-36.15184349547674,175.44681949648378</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>-36.152471993525424,175.44751999519136</t>
+          <t>-36.152491451798326,175.44751259264248</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>-36.152607232655285,175.44840814639147</t>
+          <t>-36.152648215624836,175.44839255546825</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -12743,17 +13023,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.15187922634189,175.4468059032111</t>
+          <t>-36.15184943627127,175.4468172363983</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>-36.15229996860087,175.44758543881576</t>
+          <t>-36.15245950923508,175.44752474461248</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>-36.15243675725991,175.44847299922935</t>
+          <t>-36.15260594117513,175.44840863770185</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -12770,17 +13050,17 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>-36.15176023825107,175.44685117040223</t>
+          <t>-36.15184504524924,175.44681890689628</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>-36.152280768619995,175.44759274306762</t>
+          <t>-36.152413188211675,175.4475423665904</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>-36.15247946221013,175.4484567532905</t>
+          <t>-36.15255832860541,175.44842675066667</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -12797,17 +13077,17 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.15172657374528,175.4468639775222</t>
+          <t>-36.15182808385018,175.44682535960266</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>-36.152302121065084,175.44758461995323</t>
+          <t>-36.15239725997822,175.447548426188</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>-36.152505119618894,175.4484469926177</t>
+          <t>-36.1525494604412,175.44843012432693</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -12824,17 +13104,17 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-36.151960675490045,175.4467749170575</t>
+          <t>-36.15184030983329,175.44682070841355</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>-36.152244435022865,175.44760656545446</t>
+          <t>-36.15235963490685,175.44756273993113</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>-36.15248307835505,175.44845537762555</t>
+          <t>-36.15253998958611,175.44843372726433</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -12851,11 +13131,19 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.15166570211683,175.4468871351275</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
+          <t>-36.151818440821145,175.44682902814523</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>-36.15235963490685,175.44756273993113</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>-36.15253998958611,175.44843372726433</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12868,15 +13156,19 @@
           <t>2020-06-09 21:37:36+00:00</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>-36.151818440821145,175.44682902814523</t>
+        </is>
+      </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>-36.15238374250423,175.44755356865554</t>
+          <t>-36.15233053359211,175.447573810964</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>-36.152641586026924,175.44839507753036</t>
+          <t>-36.152525525007256,175.44843922993076</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -12893,11 +13185,19 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-36.151715983631966,175.44686800635833</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr"/>
+          <t>-36.15178081578733,175.44684334200423</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>-36.152314088765955,175.44758006707684</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>-36.15256228914476,175.4484252439832</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12912,17 +13212,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>-36.15167190120788,175.44688477678733</t>
+          <t>-36.1516845576853,175.44687996184172</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>-36.15251607598384,175.44750322481028</t>
+          <t>-36.152449952295484,175.4475283803753</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>-36.15267370083196,175.44838286026464</t>
+          <t>-36.15265768647891,175.4483889525216</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -12939,11 +13239,19 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.151723302002964,175.44686522220337</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
+          <t>-36.15169420071561,175.4468762933108</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>-36.152449952295484,175.4475283803753</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>-36.15265768647891,175.4483889525216</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>L7</t>
@@ -12958,17 +13266,17 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.151965152610046,175.44677321379996</t>
+          <t>-36.15176910639437,175.44684779665795</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>-36.15264298523818,175.44745494435782</t>
+          <t>-36.152514267914306,175.44750391265828</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>-36.15282824793564,175.4483240665906</t>
+          <t>-36.15271451160145,175.44836733482506</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -12985,17 +13293,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>-36.15192038140911,175.44679024636716</t>
+          <t>-36.15179932695974,175.4468362997182</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>-36.152518831137435,175.4475021766609</t>
+          <t>-36.15255929745489,175.44748678195876</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>-36.15263013490319,175.4483994338186</t>
+          <t>-36.15271072326007,175.44836877600574</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -13012,17 +13320,17 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.151668543366895,175.44688605422164</t>
+          <t>-36.1517775440452,175.44684458668698</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>-36.152350680656255,175.4475661464036</t>
+          <t>-36.15250712173464,175.44750663129537</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>-36.15259311247212,175.44841351805061</t>
+          <t>-36.15268127751502,175.44837997790566</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -13039,17 +13347,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.15216025170476,175.4466989909022</t>
+          <t>-36.15183221657687,175.44682378736988</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>-36.152573417616345,175.4474814101869</t>
+          <t>-36.15252038091133,175.44750158707683</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>-36.15272811519094,175.44836215967524</t>
+          <t>-36.15269066227011,175.44837640771033</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -13066,11 +13374,19 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.15192193118149,175.4467896567786</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
+          <t>-36.151893260392214,175.44680056416354</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>-36.15252150019247,175.4475011612661</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>-36.15269488110494,175.4483748027599</t>
+        </is>
+      </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13085,17 +13401,17 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.15194913829609,175.44677930622032</t>
+          <t>-36.15193088542183,175.44678625026648</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>-36.15249248498095,175.4475121995867</t>
+          <t>-36.15251564549109,175.44750338858364</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>-36.152681966304385,175.44837971587302</t>
+          <t>-36.15269229814484,175.44837578538264</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -13112,15 +13428,19 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.15205788064873,175.44673793667548</t>
+          <t>-36.151949052197644,175.44677933897523</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>-36.15278349804392,175.44740148849098</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
+          <t>-36.15256033063744,175.44748638890235</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>-36.15269229814484,175.44837578538264</t>
+        </is>
+      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>L8</t>
@@ -13133,15 +13453,19 @@
           <t>2021-05-03 22:05:08+00:00</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>-36.151949052197644,175.44677933897523</t>
+        </is>
+      </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>-36.15241051915636,175.4475433819826</t>
+          <t>-36.152538892099265,175.44749454482104</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>-36.15257830349932,175.44841915173998</t>
+          <t>-36.15267335643726,175.44838299128094</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -13158,17 +13482,17 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-36.15183996543938,175.44682083943297</t>
+          <t>-36.15193114371721,175.4467861520017</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>-36.15241370480302,175.4475421700629</t>
+          <t>-36.15250617465058,175.4475069915966</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>-36.15253499586249,175.4484356269946</t>
+          <t>-36.1526244523906,175.4484015955852</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -13185,11 +13509,19 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.151545508621886,175.44693286065478</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr"/>
+          <t>-36.151862867632715,175.44681212663858</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>-36.15252503023299,175.4474998183245</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>-36.15259845059017,175.44841148730166</t>
+        </is>
+      </c>
       <c r="E176" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13204,17 +13536,17 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>-36.15184702551407,175.44681815353448</t>
+          <t>-36.15184788649879,175.44681782598585</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>-36.15255008491042,175.44749028671137</t>
+          <t>-36.15253002394882,175.44749791855327</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>-36.15266250800459,175.44838711829394</t>
+          <t>-36.15261446494414,175.44840539505316</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -13231,17 +13563,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-36.152288882773036,175.44665005470017</t>
+          <t>-36.15188034562199,175.4468054773976</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>-36.15266898699661,175.44744505241545</t>
+          <t>-36.15254423020923,175.44749251403042</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>-36.15280259053511,175.448333827338</t>
+          <t>-36.152666726839534,175.44838551334456</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -13258,17 +13590,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>-36.152163179051875,175.4466978772286</t>
+          <t>-36.15196110598235,175.4467747532827</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>-36.15251960602438,175.44750188186885</t>
+          <t>-36.15257953061302,175.44747908460215</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>-36.1526668129382,175.4483854805905</t>
+          <t>-36.1527106371614,175.44836880875985</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -13285,17 +13617,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-36.15195094636381,175.4467786183665</t>
+          <t>-36.151959125717724,175.4467755066466</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>-36.15254905172786,175.44749067976772</t>
+          <t>-36.15257195394108,175.44748196701698</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>-36.152755236270664,175.44835184212468</t>
+          <t>-36.15272182998824,175.4483645507257</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -13312,17 +13644,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-36.15220648656854,175.44668140140095</t>
+          <t>-36.152000366880145,175.44675981701806</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>-36.152578239134854,175.44747957592293</t>
+          <t>-36.15257315932072,175.447481508451</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>-36.152696344782335,175.44837424594033</t>
+          <t>-36.152716664068166,175.44836651597237</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -13339,17 +13671,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>-36.152129084067255,175.44671084824603</t>
+          <t>-36.15201870585162,175.44675284020545</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>-36.15248344463298,175.4475156388245</t>
+          <t>-36.15255826427234,175.44748717501517</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>-36.15262617436412,175.44840094050446</t>
+          <t>-36.152701596801165,175.44837224794048</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -13364,15 +13696,19 @@
           <t>2022-02-23 22:05:44+00:00</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>-36.15201870585162,175.44675284020545</t>
+        </is>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>-36.15253312349655,175.4474967393848</t>
+          <t>-36.1525546481334,175.44748855071254</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>-36.152739996806915,175.4483576396063</t>
+          <t>-36.15270710711599,175.4483701516781</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -13389,15 +13725,19 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.15191797065209,175.44679116350488</t>
+          <t>-36.152006135476846,175.44675762243415</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>-36.15265099240228,175.4474518981643</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr"/>
+          <t>-36.15256670192984,175.44748396505423</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>-36.15270710711599,175.4483701516781</t>
+        </is>
+      </c>
       <c r="E184" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13412,17 +13752,17 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-36.15188998865043,175.44680180884964</t>
+          <t>-36.15199322070807,175.4467625356813</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>-36.15257040416727,175.44748255660178</t>
+          <t>-36.15256713242256,175.44748380128067</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>-36.15275747483594,175.44835099051704</t>
+          <t>-36.15271339231879,175.44836776062846</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -13439,17 +13779,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-36.15221061929368,175.44667982915408</t>
+          <t>-36.1520946446877,175.44672395027322</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>-36.1525182284476,175.44750240594357</t>
+          <t>-36.15256360238219,175.44748514422363</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>-36.15277684703526,175.44834362083364</t>
+          <t>-36.1527276846976,175.44836232344582</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -13466,17 +13806,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.151814480291335,175.44683053486784</t>
+          <t>-36.15206347704818,175.44673580759863</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>-36.15255835037089,175.44748714226048</t>
+          <t>-36.152562999692364,175.44748537350657</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>-36.1527067627213,175.4483702826945</t>
+          <t>-36.152725360033585,175.44836320780698</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -13493,17 +13833,17 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.15207888867116,175.4467299444471</t>
+          <t>-36.15206502682036,175.44673521800806</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>-36.1526314480339,175.44745933349586</t>
+          <t>-36.15256928488618,175.447482982413</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>-36.15280370981769,175.44833340153372</t>
+          <t>-36.152733195012274,175.44836022718215</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -13520,17 +13860,17 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-36.151984266468304,175.44676594219845</t>
+          <t>-36.15203454796756,175.44674681328513</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>-36.15274690616932,175.44741540930673</t>
+          <t>-36.152576344966874,175.44748029652663</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>-36.152865270358085,175.44830998228022</t>
+          <t>-36.152739480214905,175.44835783613104</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -13545,11 +13885,19 @@
           <t>2022-06-07 22:05:43+00:00</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="inlineStr"/>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>-36.1520203417223,175.44675221786053</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>-36.15258202747079,175.44747813471534</t>
+        </is>
+      </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>-36.15284736183763,175.4483167951575</t>
+          <t>-36.15275747483594,175.44835099051704</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -13566,17 +13914,17 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.151666046510776,175.44688700410862</t>
+          <t>-36.15198486915752,175.44676571291365</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>-36.15243178550014,175.4475352915979</t>
+          <t>-36.15256833780219,175.44748334271478</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>-36.15279355017571,175.4483372665261</t>
+          <t>-36.152760832683846,175.4483497131055</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -13593,17 +13941,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>-36.15169928052618,175.44687436078075</t>
+          <t>-36.1519589535208,175.4467755721565</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>-36.152636700044816,175.44745733545554</t>
+          <t>-36.15257402030617,175.4474811809039</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>-36.15289084165837,175.4483002542726</t>
+          <t>-36.15277159501681,175.448345618837</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -13620,17 +13968,17 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-36.151767728818726,175.44684832073477</t>
+          <t>-36.15194225041905,175.44678192661544</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>-36.15258297455479,175.44747777441344</t>
+          <t>-36.15257686155813,175.44748009999836</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>-36.152703749267886,175.448371429088</t>
+          <t>-36.15276737618231,175.44834722379036</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -13645,13 +13993,21 @@
           <t>2022-08-11 20:32:43+00:00</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr"/>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>-36.151915818190446,175.44679198237782</t>
+        </is>
+      </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>-36.15272684521162,175.44742304118415</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr"/>
+          <t>-36.15258925974848,175.44747538331873</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>-36.152773833582046,175.44834476722903</t>
+        </is>
+      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13666,11 +14022,19 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-36.151869238919474,175.44680970277767</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
+          <t>-36.15188981645349,175.4468018743594</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>-36.15260544627453,175.4474692254294</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>-36.152793980669,175.44833710275526</t>
+        </is>
+      </c>
       <c r="E195" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13685,17 +14049,17 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-36.15190677785152,175.44679542164363</t>
+          <t>-36.15185313850553,175.44681582793905</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>-36.15262378526383,175.44746224866893</t>
+          <t>-36.15262576553026,175.44746149530965</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>-36.152796219234205,175.44833625114683</t>
+          <t>-36.152814386051524,175.44832934001525</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -13712,17 +14076,17 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-36.15217884896865,175.44669191579786</t>
+          <t>-36.151893863081476,175.44680033487924</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>-36.15268603450672,175.44743856696653</t>
+          <t>-36.15263334220178,175.44745861289115</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>-36.15287809905763,175.44830510190002</t>
+          <t>-36.15282239322685,175.44832629387577</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -13737,11 +14101,19 @@
           <t>2022-11-22 22:06:05+00:00</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>-36.15186743085162,175.4468103906301</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>-36.1526336004974,175.4474585146269</t>
+        </is>
+      </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>-36.15284848112017,175.44831636935274</t>
+          <t>-36.15282790354101,175.4483241976074</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -13758,17 +14130,17 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-36.15227794827189,175.44665421461067</t>
+          <t>-36.15205822504255,175.44673780565537</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>-36.152615003212645,175.4474655896532</t>
+          <t>-36.152662960099015,175.4474473452503</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>-36.152791828202474,175.44833792160946</t>
+          <t>-36.152828678428925,175.44832390281962</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -13785,17 +14157,17 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-36.15232977952827,175.4466344959702</t>
+          <t>-36.15211255316521,175.4467171372204</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>-36.15266425157708,175.4474468539286</t>
+          <t>-36.152647290165135,175.44745330661942</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>-36.15285166677047,175.44831515744687</t>
+          <t>-36.152833241657824,175.44832216684713</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -13810,15 +14182,19 @@
           <t>2023-03-22 22:05:28+00:00</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr"/>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>-36.15217333866827,175.4466940121254</t>
+        </is>
+      </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>-36.15262524893902,175.44746169183816</t>
+          <t>-36.15264289913964,175.44745497711256</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>-36.152755494566655,175.44835174386225</t>
+          <t>-36.15282032685903,175.4483270799763</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -13833,15 +14209,19 @@
           <t>2023-03-30 22:05:35+00:00</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr"/>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>-36.15230386390042,175.44664435529344</t>
+        </is>
+      </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>-36.15250505536943,175.4475074174072</t>
+          <t>-36.152602432825546,175.44747037184516</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>-36.15266500486609,175.44838616842597</t>
+          <t>-36.152782529546975,175.44834145905918</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -13858,11 +14238,19 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-36.152218626448615,175.44667678292535</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr"/>
+          <t>-36.15227545141729,175.44665516451136</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>-36.152602432825546,175.44747037184516</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>-36.152782529546975,175.44834145905918</t>
+        </is>
+      </c>
       <c r="E203" t="inlineStr">
         <is>
           <t>L7</t>
@@ -13875,15 +14263,19 @@
           <t>2023-04-23 22:05:09+00:00</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr"/>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>-36.15227545141729,175.44665516451136</t>
+        </is>
+      </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>-36.152643501829424,175.4474547478292</t>
+          <t>-36.15261061218705,175.44746726014506</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>-36.15279225869578,175.44833775783863</t>
+          <t>-36.15278416542157,175.44834083673013</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13898,15 +14290,19 @@
           <t>2023-05-25 22:04:56+00:00</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr"/>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>-36.15227545141729,175.44665516451136</t>
+        </is>
+      </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>-36.15265934396046,175.4474487209511</t>
+          <t>-36.152618705449925,175.44746418119914</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>-36.152780979771066,175.44834204863406</t>
+          <t>-36.15277288649676,175.44834512752473</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -13923,17 +14319,17 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.151835230023416,175.44682264095005</t>
+          <t>-36.15216541761142,175.44669702559574</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>-36.15263024265435,175.44745979206243</t>
+          <t>-36.1526203413222,175.4474635588589</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>-36.152741202188224,175.4483571810485</t>
+          <t>-36.1527683232676,175.44834686349475</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -13950,17 +14346,17 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.15183970714398,175.44682093769757</t>
+          <t>-36.152100241086956,175.44672182119453</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>-36.15268482912724,175.4474390255337</t>
+          <t>-36.152628434585004,175.4474604799123</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>-36.15282669815979,175.4483246561661</t>
+          <t>-36.152775641653975,175.4483440793918</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -13977,13 +14373,17 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>-36.15197470953922,175.44676957799962</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
+          <t>-36.15207931916343,175.4467297806719</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>-36.152628434585004,175.4474604799123</t>
+        </is>
+      </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>-36.153052362718626,175.44823880719287</t>
+          <t>-36.152806378876164,175.4483323861542</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -14000,17 +14400,17 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-36.15169084287472,175.44687757074578</t>
+          <t>-36.15198151131759,175.44676699035742</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>-36.152562569199645,175.44748553728007</t>
+          <t>-36.15262189109594,175.44746296927346</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>-36.15269763626237,175.4483737546289</t>
+          <t>-36.15279596093822,175.44833634940935</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -14027,17 +14427,17 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-36.15175378086515,175.44685362701173</t>
+          <t>-36.15194896609918,175.4467793717302</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>-36.15257643106541,175.44748026377192</t>
+          <t>-36.15261681128201,175.44746490180356</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>-36.15268394657383,175.4483789625291</t>
+          <t>-36.152784768112205,175.44834060745097</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -14054,17 +14454,17 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-36.15194509166834,175.44678084570248</t>
+          <t>-36.15189403527842,175.44680026936945</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>-36.152606651654104,175.44746876686307</t>
+          <t>-36.15261043998996,175.44746732565457</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>-36.15274344075353,175.44835632944114</t>
+          <t>-36.152773919680726,175.4483447344749</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -14081,11 +14481,19 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-36.15172717643465,175.4468637482388</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+          <t>-36.1518731133506,175.44680822880798</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>-36.15261043998996,175.44746732565457</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>-36.152773919680726,175.4483447344749</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14100,17 +14508,17 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.15178331264316,175.44684239211463</t>
+          <t>-36.15186312592811,175.44681202837396</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>-36.152632222920765,175.44745903870304</t>
+          <t>-36.15262447405215,175.4474619866309</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>-36.15273939411624,175.44835786888518</t>
+          <t>-36.15278425152024,175.44834080397595</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
@@ -14127,17 +14535,17 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-36.15195034367458,175.4467788476511</t>
+          <t>-36.15183333585701,175.44682336155682</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>-36.152747508859015,175.4474151800228</t>
+          <t>-36.15263437538426,175.44745821983406</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>-36.15280284883108,175.44833372907547</t>
+          <t>-36.15278597349347,175.4483401488927</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
@@ -14154,17 +14562,17 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.15192950784639,175.44678677434533</t>
+          <t>-36.15184435646146,175.44681916893518</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>-36.152509274198394,175.4475058124288</t>
+          <t>-36.1526057906687,175.44746909441045</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>-36.15270013312378,175.44837280476014</t>
+          <t>-36.15277426407537,175.44834460345825</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
@@ -14181,17 +14589,17 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-36.15207286177952,175.44673223729993</t>
+          <t>-36.151869755510305,175.44680950624837</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>-36.15245391282903,175.4475268736629</t>
+          <t>-36.152584093835856,175.44747734860206</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>-36.152716233574814,175.44836667974292</t>
+          <t>-36.15276703178764,175.44834735480697</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
@@ -14206,13 +14614,21 @@
           <t>2024-01-06 19:34:42+00:00</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr"/>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>-36.151869755510305,175.44680950624837</t>
+        </is>
+      </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>-36.15236109858243,175.44756218310386</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
+          <t>-36.15255619790723,175.44748796112796</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>-36.15276703178764,175.44834735480697</t>
+        </is>
+      </c>
       <c r="E217" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14227,11 +14643,19 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-36.152167828367865,175.44669610845267</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr"/>
-      <c r="D218" t="inlineStr"/>
+          <t>-36.151891194028984,175.44680135028108</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>-36.15255619790723,175.44748796112796</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>-36.15272622102026,175.4483628802658</t>
+        </is>
+      </c>
       <c r="E218" t="inlineStr">
         <is>
           <t>L7</t>
@@ -14246,17 +14670,17 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.15184771430185,175.44681789149558</t>
+          <t>-36.151886803007116,175.44680302078072</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>-36.15259984986926,175.44747135448713</t>
+          <t>-36.15256101942581,175.44748612686473</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>-36.15274731519349,175.4483548555052</t>
+          <t>-36.15272889007894,175.44836186488817</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -14273,17 +14697,17 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>-36.151794419346615,175.44683816674316</t>
+          <t>-36.151897220921704,175.44679905743814</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>-36.15252623561267,175.44749935975904</t>
+          <t>-36.152557058892704,175.44748763358095</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>-36.152644341184505,175.44839402940067</t>
+          <t>-36.1527221743829,175.44836441970924</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
@@ -14300,17 +14724,17 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>-36.152178418476424,175.44669207957347</t>
+          <t>-36.15192279216614,175.4467893292294</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>-36.152517195265,175.4475027989996</t>
+          <t>-36.15255301226101,175.44748917305176</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>-36.152691351059474,175.44837614567763</t>
+          <t>-36.152718816534865,175.4483656971196</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
@@ -14327,17 +14751,17 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>-36.15186915282101,175.44680973553253</t>
+          <t>-36.15193329617882,175.44678533312847</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>-36.15247354329938,175.44751940560792</t>
+          <t>-36.15254276653392,175.44749307086013</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>-36.152649076611574,175.44839222792766</t>
+          <t>-36.152714942094796,175.44836717105454</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -14354,17 +14778,17 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>-36.15193114371721,175.4467861520017</t>
+          <t>-36.151932004701855,175.4467858244524</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>-36.152522275079406,175.44750086647406</t>
+          <t>-36.152534328876236,175.44749628081925</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>-36.152644857776565,175.44839383287638</t>
+          <t>-36.15270392146523,175.4483713635798</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
@@ -14381,17 +14805,17 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-36.15179992964907,175.44683607043441</t>
+          <t>-36.15193863428358,175.44678330232273</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>-36.15241671825256,175.44754102365226</t>
+          <t>-36.15252365265621,175.44750034239928</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>-36.15264804342748,175.44839262097634</t>
+          <t>-36.15269832505172,175.44837349259615</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -14408,17 +14832,17 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-36.15168937920047,175.44687812757638</t>
+          <t>-36.15193002443719,175.44678657781577</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>-36.152422314658835,175.44753889460372</t>
+          <t>-36.1525045387781,175.44750761393513</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>-36.15262531337736,175.44840126804485</t>
+          <t>-36.152686960027296,175.44837781613612</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
@@ -14435,17 +14859,17 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.15174568760805,175.44685670596172</t>
+          <t>-36.15174499882021,175.446856968</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>-36.152420162194886,175.4475397134686</t>
+          <t>-36.1524197317021,175.44753987724152</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>-36.152645890960635,175.44839343982773</t>
+          <t>-36.15263977795477,175.4483957653654</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
@@ -14462,17 +14886,17 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-36.151574523815036,175.44692182234098</t>
+          <t>-36.1516698348442,175.44688556290075</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>-36.15242722227661,175.4475370275917</t>
+          <t>-36.15242326174297,175.44753853430316</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>-36.15264528826992,175.4483936691061</t>
+          <t>-36.15263883086936,175.44839612565997</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
@@ -14489,17 +14913,17 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.15179278347557,175.44683878908478</t>
+          <t>-36.15170057200344,175.44687386945952</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>-36.15253510376318,175.44749598602712</t>
+          <t>-36.152451243773804,175.44752788905606</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>-36.152644943875224,175.4483938001223</t>
+          <t>-36.15264038064548,175.44839553608708</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
@@ -14516,17 +14940,17 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.15203515065675,175.44674658400004</t>
+          <t>-36.15178701487766,175.4468409836576</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>-36.152459939727855,175.44752458083937</t>
+          <t>-36.152460628516295,175.44752431880238</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>-36.152569435335266,175.44842252540184</t>
+          <t>-36.15262643266014,175.44840084224234</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -14543,17 +14967,17 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-36.151934501557314,175.44678487455946</t>
+          <t>-36.1518165466547,175.44682974875172</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>-36.15247879531113,175.44751740757508</t>
+          <t>-36.152464244655576,175.44752294310808</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>-36.15260998781296,175.44840709826266</t>
+          <t>-36.15262307481178,175.4484021196498</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
@@ -14570,17 +14994,17 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.152015606307174,175.44675401938528</t>
+          <t>-36.1518496945667,175.4468171381337</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>-36.15239553800701,175.4475490812795</t>
+          <t>-36.1524527935478,175.44752729947294</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>-36.152631598580655,175.44839887699985</t>
+          <t>-36.152624538489285,175.44840156283118</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
@@ -14597,17 +15021,17 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-36.15159208790781,175.44691514039067</t>
+          <t>-36.1518129305188,175.4468311244549</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>-36.15228748430841,175.44759018821756</t>
+          <t>-36.15242920254343,175.44753627423592</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>-36.15248712499335,175.44845383819083</t>
+          <t>-36.15260490799101,175.4484090307501</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
@@ -14624,17 +15048,17 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.151788822945676,175.44684029580645</t>
+          <t>-36.15180991707217,175.44683227087413</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>-36.152455806997246,175.44752615306123</t>
+          <t>-36.152432474288595,175.44753502956104</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>-36.15257907838743,175.44841885695396</t>
+          <t>-36.15260163624125,175.44841027540292</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
@@ -14651,17 +15075,17 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-36.15175283378188,175.4468539873144</t>
+          <t>-36.15181077805693,175.44683194332578</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>-36.15236755597463,175.4475597265126</t>
+          <t>-36.15242593079825,175.44753751891065</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>-36.152610590503706,175.44840686898448</t>
+          <t>-36.15259724520868,175.44841194585788</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -14678,13 +15102,17 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-36.151951290757665,175.44677848734673</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr"/>
+          <t>-36.1518671725562,175.44681048889476</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>-36.15240750570679,175.44754452839305</t>
+        </is>
+      </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>-36.15280680936947,175.4483322223833</t>
+          <t>-36.15261351785871,175.4484057553475</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
@@ -14699,11 +15127,19 @@
           <t>2025-07-17 22:05:28+00:00</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr"/>
-      <c r="C236" t="inlineStr"/>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>-36.151831011198254,175.4468242459378</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>-36.15241163843761,175.44754295617298</t>
+        </is>
+      </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>-36.15276376003843,175.44834859946457</t>
+          <t>-36.15269005957943,175.44837663698897</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
@@ -14720,13 +15156,17 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>-36.151970490714646,175.44677118299265</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr"/>
+          <t>-36.15186588107916,175.44681098021792</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>-36.15241163843761,175.44754295617298</t>
+        </is>
+      </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>-36.1528766353805,175.448305658722</t>
+          <t>-36.15272734030293,175.44836245446228</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -14743,7 +15183,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-36.1518900747489,175.44680177609473</t>
+          <t>-36.151937256708166,175.44678382640166</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -14753,7 +15193,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>-36.15277452237135,175.44834450519582</t>
+          <t>-36.15280543179091,175.44833274645015</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -14768,15 +15208,19 @@
           <t>2025-11-06 22:05:55+00:00</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr"/>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>-36.15193028273257,175.44678647955098</t>
+        </is>
+      </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>-36.152716427289214,175.4474270045182</t>
+          <t>-36.152662701803415,175.44744744351468</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>-36.15288386766744,175.44830290736618</t>
+          <t>-36.15282471789064,175.44832540951256</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
